--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Library/Mobile Documents/com~apple~CloudDocs/Chiahsing /Learning/Leetcode - Data Struction and Algorithm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647687E-307F-9648-83F8-1DFB5AAC4A6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538FF6C-3F06-194B-8EE0-F5517B3F8A6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="460" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -2320,7 +2320,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2558,6 +2558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,7 +2878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3170,15 +3176,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3191,7 +3188,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3543,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="115"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3935,8 +3944,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5914,23 +5923,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="109" t="s">
+      <c r="B99" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="110"/>
-      <c r="K99" s="110"/>
-      <c r="L99" s="110"/>
-      <c r="M99" s="110"/>
-      <c r="N99" s="110"/>
-      <c r="O99" s="110"/>
-      <c r="P99" s="111"/>
+      <c r="C99" s="114"/>
+      <c r="D99" s="114"/>
+      <c r="E99" s="114"/>
+      <c r="F99" s="114"/>
+      <c r="G99" s="114"/>
+      <c r="H99" s="114"/>
+      <c r="I99" s="114"/>
+      <c r="J99" s="114"/>
+      <c r="K99" s="114"/>
+      <c r="L99" s="114"/>
+      <c r="M99" s="114"/>
+      <c r="N99" s="114"/>
+      <c r="O99" s="114"/>
+      <c r="P99" s="115"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8344,23 +8353,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="109" t="s">
+      <c r="B209" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="110"/>
-      <c r="D209" s="110"/>
-      <c r="E209" s="110"/>
-      <c r="F209" s="110"/>
-      <c r="G209" s="110"/>
-      <c r="H209" s="110"/>
-      <c r="I209" s="110"/>
-      <c r="J209" s="110"/>
-      <c r="K209" s="110"/>
-      <c r="L209" s="110"/>
-      <c r="M209" s="110"/>
-      <c r="N209" s="110"/>
-      <c r="O209" s="110"/>
-      <c r="P209" s="111"/>
+      <c r="C209" s="114"/>
+      <c r="D209" s="114"/>
+      <c r="E209" s="114"/>
+      <c r="F209" s="114"/>
+      <c r="G209" s="114"/>
+      <c r="H209" s="114"/>
+      <c r="I209" s="114"/>
+      <c r="J209" s="114"/>
+      <c r="K209" s="114"/>
+      <c r="L209" s="114"/>
+      <c r="M209" s="114"/>
+      <c r="N209" s="114"/>
+      <c r="O209" s="114"/>
+      <c r="P209" s="115"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9841,23 +9850,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="109" t="s">
+      <c r="B274" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="110"/>
-      <c r="D274" s="110"/>
-      <c r="E274" s="110"/>
-      <c r="F274" s="110"/>
-      <c r="G274" s="110"/>
-      <c r="H274" s="110"/>
-      <c r="I274" s="110"/>
-      <c r="J274" s="110"/>
-      <c r="K274" s="110"/>
-      <c r="L274" s="110"/>
-      <c r="M274" s="110"/>
-      <c r="N274" s="110"/>
-      <c r="O274" s="110"/>
-      <c r="P274" s="111"/>
+      <c r="C274" s="114"/>
+      <c r="D274" s="114"/>
+      <c r="E274" s="114"/>
+      <c r="F274" s="114"/>
+      <c r="G274" s="114"/>
+      <c r="H274" s="114"/>
+      <c r="I274" s="114"/>
+      <c r="J274" s="114"/>
+      <c r="K274" s="114"/>
+      <c r="L274" s="114"/>
+      <c r="M274" s="114"/>
+      <c r="N274" s="114"/>
+      <c r="O274" s="114"/>
+      <c r="P274" s="115"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11885,23 +11894,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="109" t="s">
+      <c r="B364" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="110"/>
-      <c r="D364" s="110"/>
-      <c r="E364" s="110"/>
-      <c r="F364" s="110"/>
-      <c r="G364" s="110"/>
-      <c r="H364" s="110"/>
-      <c r="I364" s="110"/>
-      <c r="J364" s="110"/>
-      <c r="K364" s="110"/>
-      <c r="L364" s="110"/>
-      <c r="M364" s="110"/>
-      <c r="N364" s="110"/>
-      <c r="O364" s="110"/>
-      <c r="P364" s="111"/>
+      <c r="C364" s="114"/>
+      <c r="D364" s="114"/>
+      <c r="E364" s="114"/>
+      <c r="F364" s="114"/>
+      <c r="G364" s="114"/>
+      <c r="H364" s="114"/>
+      <c r="I364" s="114"/>
+      <c r="J364" s="114"/>
+      <c r="K364" s="114"/>
+      <c r="L364" s="114"/>
+      <c r="M364" s="114"/>
+      <c r="N364" s="114"/>
+      <c r="O364" s="114"/>
+      <c r="P364" s="115"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12779,23 +12788,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="109" t="s">
+      <c r="B402" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="110"/>
-      <c r="D402" s="110"/>
-      <c r="E402" s="110"/>
-      <c r="F402" s="110"/>
-      <c r="G402" s="110"/>
-      <c r="H402" s="110"/>
-      <c r="I402" s="110"/>
-      <c r="J402" s="110"/>
-      <c r="K402" s="110"/>
-      <c r="L402" s="110"/>
-      <c r="M402" s="110"/>
-      <c r="N402" s="110"/>
-      <c r="O402" s="110"/>
-      <c r="P402" s="111"/>
+      <c r="C402" s="114"/>
+      <c r="D402" s="114"/>
+      <c r="E402" s="114"/>
+      <c r="F402" s="114"/>
+      <c r="G402" s="114"/>
+      <c r="H402" s="114"/>
+      <c r="I402" s="114"/>
+      <c r="J402" s="114"/>
+      <c r="K402" s="114"/>
+      <c r="L402" s="114"/>
+      <c r="M402" s="114"/>
+      <c r="N402" s="114"/>
+      <c r="O402" s="114"/>
+      <c r="P402" s="115"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13651,23 +13660,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="109" t="s">
+      <c r="B440" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="110"/>
-      <c r="D440" s="110"/>
-      <c r="E440" s="110"/>
-      <c r="F440" s="110"/>
-      <c r="G440" s="110"/>
-      <c r="H440" s="110"/>
-      <c r="I440" s="110"/>
-      <c r="J440" s="110"/>
-      <c r="K440" s="110"/>
-      <c r="L440" s="110"/>
-      <c r="M440" s="110"/>
-      <c r="N440" s="110"/>
-      <c r="O440" s="110"/>
-      <c r="P440" s="111"/>
+      <c r="C440" s="114"/>
+      <c r="D440" s="114"/>
+      <c r="E440" s="114"/>
+      <c r="F440" s="114"/>
+      <c r="G440" s="114"/>
+      <c r="H440" s="114"/>
+      <c r="I440" s="114"/>
+      <c r="J440" s="114"/>
+      <c r="K440" s="114"/>
+      <c r="L440" s="114"/>
+      <c r="M440" s="114"/>
+      <c r="N440" s="114"/>
+      <c r="O440" s="114"/>
+      <c r="P440" s="115"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14560,23 +14569,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="109" t="s">
+      <c r="B479" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="110"/>
-      <c r="D479" s="110"/>
-      <c r="E479" s="110"/>
-      <c r="F479" s="110"/>
-      <c r="G479" s="110"/>
-      <c r="H479" s="110"/>
-      <c r="I479" s="110"/>
-      <c r="J479" s="110"/>
-      <c r="K479" s="110"/>
-      <c r="L479" s="110"/>
-      <c r="M479" s="110"/>
-      <c r="N479" s="110"/>
-      <c r="O479" s="110"/>
-      <c r="P479" s="111"/>
+      <c r="C479" s="114"/>
+      <c r="D479" s="114"/>
+      <c r="E479" s="114"/>
+      <c r="F479" s="114"/>
+      <c r="G479" s="114"/>
+      <c r="H479" s="114"/>
+      <c r="I479" s="114"/>
+      <c r="J479" s="114"/>
+      <c r="K479" s="114"/>
+      <c r="L479" s="114"/>
+      <c r="M479" s="114"/>
+      <c r="N479" s="114"/>
+      <c r="O479" s="114"/>
+      <c r="P479" s="115"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15271,23 +15280,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="109" t="s">
+      <c r="B506" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="110"/>
-      <c r="D506" s="110"/>
-      <c r="E506" s="110"/>
-      <c r="F506" s="110"/>
-      <c r="G506" s="110"/>
-      <c r="H506" s="110"/>
-      <c r="I506" s="110"/>
-      <c r="J506" s="110"/>
-      <c r="K506" s="110"/>
-      <c r="L506" s="110"/>
-      <c r="M506" s="110"/>
-      <c r="N506" s="110"/>
-      <c r="O506" s="110"/>
-      <c r="P506" s="111"/>
+      <c r="C506" s="114"/>
+      <c r="D506" s="114"/>
+      <c r="E506" s="114"/>
+      <c r="F506" s="114"/>
+      <c r="G506" s="114"/>
+      <c r="H506" s="114"/>
+      <c r="I506" s="114"/>
+      <c r="J506" s="114"/>
+      <c r="K506" s="114"/>
+      <c r="L506" s="114"/>
+      <c r="M506" s="114"/>
+      <c r="N506" s="114"/>
+      <c r="O506" s="114"/>
+      <c r="P506" s="115"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -15990,23 +15999,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="109" t="s">
+      <c r="B539" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="110"/>
-      <c r="D539" s="110"/>
-      <c r="E539" s="110"/>
-      <c r="F539" s="110"/>
-      <c r="G539" s="110"/>
-      <c r="H539" s="110"/>
-      <c r="I539" s="110"/>
-      <c r="J539" s="110"/>
-      <c r="K539" s="110"/>
-      <c r="L539" s="110"/>
-      <c r="M539" s="110"/>
-      <c r="N539" s="110"/>
-      <c r="O539" s="110"/>
-      <c r="P539" s="111"/>
+      <c r="C539" s="114"/>
+      <c r="D539" s="114"/>
+      <c r="E539" s="114"/>
+      <c r="F539" s="114"/>
+      <c r="G539" s="114"/>
+      <c r="H539" s="114"/>
+      <c r="I539" s="114"/>
+      <c r="J539" s="114"/>
+      <c r="K539" s="114"/>
+      <c r="L539" s="114"/>
+      <c r="M539" s="114"/>
+      <c r="N539" s="114"/>
+      <c r="O539" s="114"/>
+      <c r="P539" s="115"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16814,23 +16823,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="109" t="s">
+      <c r="B577" s="113" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="110"/>
-      <c r="D577" s="110"/>
-      <c r="E577" s="110"/>
-      <c r="F577" s="110"/>
-      <c r="G577" s="110"/>
-      <c r="H577" s="110"/>
-      <c r="I577" s="110"/>
-      <c r="J577" s="110"/>
-      <c r="K577" s="110"/>
-      <c r="L577" s="110"/>
-      <c r="M577" s="110"/>
-      <c r="N577" s="110"/>
-      <c r="O577" s="110"/>
-      <c r="P577" s="111"/>
+      <c r="C577" s="114"/>
+      <c r="D577" s="114"/>
+      <c r="E577" s="114"/>
+      <c r="F577" s="114"/>
+      <c r="G577" s="114"/>
+      <c r="H577" s="114"/>
+      <c r="I577" s="114"/>
+      <c r="J577" s="114"/>
+      <c r="K577" s="114"/>
+      <c r="L577" s="114"/>
+      <c r="M577" s="114"/>
+      <c r="N577" s="114"/>
+      <c r="O577" s="114"/>
+      <c r="P577" s="115"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17331,23 +17340,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="109" t="s">
+      <c r="B600" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="110"/>
-      <c r="D600" s="110"/>
-      <c r="E600" s="110"/>
-      <c r="F600" s="110"/>
-      <c r="G600" s="110"/>
-      <c r="H600" s="110"/>
-      <c r="I600" s="110"/>
-      <c r="J600" s="110"/>
-      <c r="K600" s="110"/>
-      <c r="L600" s="110"/>
-      <c r="M600" s="110"/>
-      <c r="N600" s="110"/>
-      <c r="O600" s="110"/>
-      <c r="P600" s="111"/>
+      <c r="C600" s="114"/>
+      <c r="D600" s="114"/>
+      <c r="E600" s="114"/>
+      <c r="F600" s="114"/>
+      <c r="G600" s="114"/>
+      <c r="H600" s="114"/>
+      <c r="I600" s="114"/>
+      <c r="J600" s="114"/>
+      <c r="K600" s="114"/>
+      <c r="L600" s="114"/>
+      <c r="M600" s="114"/>
+      <c r="N600" s="114"/>
+      <c r="O600" s="114"/>
+      <c r="P600" s="115"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18084,23 +18093,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="109" t="s">
+      <c r="B637" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="110"/>
-      <c r="D637" s="110"/>
-      <c r="E637" s="110"/>
-      <c r="F637" s="110"/>
-      <c r="G637" s="110"/>
-      <c r="H637" s="110"/>
-      <c r="I637" s="110"/>
-      <c r="J637" s="110"/>
-      <c r="K637" s="110"/>
-      <c r="L637" s="110"/>
-      <c r="M637" s="110"/>
-      <c r="N637" s="110"/>
-      <c r="O637" s="110"/>
-      <c r="P637" s="111"/>
+      <c r="C637" s="114"/>
+      <c r="D637" s="114"/>
+      <c r="E637" s="114"/>
+      <c r="F637" s="114"/>
+      <c r="G637" s="114"/>
+      <c r="H637" s="114"/>
+      <c r="I637" s="114"/>
+      <c r="J637" s="114"/>
+      <c r="K637" s="114"/>
+      <c r="L637" s="114"/>
+      <c r="M637" s="114"/>
+      <c r="N637" s="114"/>
+      <c r="O637" s="114"/>
+      <c r="P637" s="115"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18354,23 +18363,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="109" t="s">
+      <c r="B649" s="113" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="110"/>
-      <c r="D649" s="110"/>
-      <c r="E649" s="110"/>
-      <c r="F649" s="110"/>
-      <c r="G649" s="110"/>
-      <c r="H649" s="110"/>
-      <c r="I649" s="110"/>
-      <c r="J649" s="110"/>
-      <c r="K649" s="110"/>
-      <c r="L649" s="110"/>
-      <c r="M649" s="110"/>
-      <c r="N649" s="110"/>
-      <c r="O649" s="110"/>
-      <c r="P649" s="111"/>
+      <c r="C649" s="114"/>
+      <c r="D649" s="114"/>
+      <c r="E649" s="114"/>
+      <c r="F649" s="114"/>
+      <c r="G649" s="114"/>
+      <c r="H649" s="114"/>
+      <c r="I649" s="114"/>
+      <c r="J649" s="114"/>
+      <c r="K649" s="114"/>
+      <c r="L649" s="114"/>
+      <c r="M649" s="114"/>
+      <c r="N649" s="114"/>
+      <c r="O649" s="114"/>
+      <c r="P649" s="115"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18872,23 +18881,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="112" t="s">
+      <c r="B675" s="109" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="113"/>
-      <c r="D675" s="113"/>
-      <c r="E675" s="113"/>
-      <c r="F675" s="113"/>
-      <c r="G675" s="113"/>
-      <c r="H675" s="113"/>
-      <c r="I675" s="113"/>
-      <c r="J675" s="113"/>
-      <c r="K675" s="113"/>
-      <c r="L675" s="113"/>
-      <c r="M675" s="113"/>
-      <c r="N675" s="113"/>
-      <c r="O675" s="113"/>
-      <c r="P675" s="114"/>
+      <c r="C675" s="110"/>
+      <c r="D675" s="110"/>
+      <c r="E675" s="110"/>
+      <c r="F675" s="110"/>
+      <c r="G675" s="110"/>
+      <c r="H675" s="110"/>
+      <c r="I675" s="110"/>
+      <c r="J675" s="110"/>
+      <c r="K675" s="110"/>
+      <c r="L675" s="110"/>
+      <c r="M675" s="110"/>
+      <c r="N675" s="110"/>
+      <c r="O675" s="110"/>
+      <c r="P675" s="111"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19457,23 +19466,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="112" t="s">
+      <c r="B704" s="109" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="113"/>
-      <c r="D704" s="113"/>
-      <c r="E704" s="113"/>
-      <c r="F704" s="113"/>
-      <c r="G704" s="113"/>
-      <c r="H704" s="113"/>
-      <c r="I704" s="113"/>
-      <c r="J704" s="113"/>
-      <c r="K704" s="113"/>
-      <c r="L704" s="113"/>
-      <c r="M704" s="113"/>
-      <c r="N704" s="113"/>
-      <c r="O704" s="113"/>
-      <c r="P704" s="114"/>
+      <c r="C704" s="110"/>
+      <c r="D704" s="110"/>
+      <c r="E704" s="110"/>
+      <c r="F704" s="110"/>
+      <c r="G704" s="110"/>
+      <c r="H704" s="110"/>
+      <c r="I704" s="110"/>
+      <c r="J704" s="110"/>
+      <c r="K704" s="110"/>
+      <c r="L704" s="110"/>
+      <c r="M704" s="110"/>
+      <c r="N704" s="110"/>
+      <c r="O704" s="110"/>
+      <c r="P704" s="111"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19806,23 +19815,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="112" t="s">
+      <c r="B721" s="109" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="113"/>
-      <c r="D721" s="113"/>
-      <c r="E721" s="113"/>
-      <c r="F721" s="113"/>
-      <c r="G721" s="113"/>
-      <c r="H721" s="113"/>
-      <c r="I721" s="113"/>
-      <c r="J721" s="113"/>
-      <c r="K721" s="113"/>
-      <c r="L721" s="113"/>
-      <c r="M721" s="113"/>
-      <c r="N721" s="113"/>
-      <c r="O721" s="113"/>
-      <c r="P721" s="114"/>
+      <c r="C721" s="110"/>
+      <c r="D721" s="110"/>
+      <c r="E721" s="110"/>
+      <c r="F721" s="110"/>
+      <c r="G721" s="110"/>
+      <c r="H721" s="110"/>
+      <c r="I721" s="110"/>
+      <c r="J721" s="110"/>
+      <c r="K721" s="110"/>
+      <c r="L721" s="110"/>
+      <c r="M721" s="110"/>
+      <c r="N721" s="110"/>
+      <c r="O721" s="110"/>
+      <c r="P721" s="111"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20198,23 +20207,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="112" t="s">
+      <c r="B741" s="109" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="113"/>
-      <c r="D741" s="113"/>
-      <c r="E741" s="113"/>
-      <c r="F741" s="113"/>
-      <c r="G741" s="113"/>
-      <c r="H741" s="113"/>
-      <c r="I741" s="113"/>
-      <c r="J741" s="113"/>
-      <c r="K741" s="113"/>
-      <c r="L741" s="113"/>
-      <c r="M741" s="113"/>
-      <c r="N741" s="113"/>
-      <c r="O741" s="113"/>
-      <c r="P741" s="114"/>
+      <c r="C741" s="110"/>
+      <c r="D741" s="110"/>
+      <c r="E741" s="110"/>
+      <c r="F741" s="110"/>
+      <c r="G741" s="110"/>
+      <c r="H741" s="110"/>
+      <c r="I741" s="110"/>
+      <c r="J741" s="110"/>
+      <c r="K741" s="110"/>
+      <c r="L741" s="110"/>
+      <c r="M741" s="110"/>
+      <c r="N741" s="110"/>
+      <c r="O741" s="110"/>
+      <c r="P741" s="111"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21041,23 +21050,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="112" t="s">
+      <c r="B782" s="109" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="113"/>
-      <c r="D782" s="113"/>
-      <c r="E782" s="113"/>
-      <c r="F782" s="113"/>
-      <c r="G782" s="113"/>
-      <c r="H782" s="113"/>
-      <c r="I782" s="113"/>
-      <c r="J782" s="113"/>
-      <c r="K782" s="113"/>
-      <c r="L782" s="113"/>
-      <c r="M782" s="113"/>
-      <c r="N782" s="113"/>
-      <c r="O782" s="113"/>
-      <c r="P782" s="114"/>
+      <c r="C782" s="110"/>
+      <c r="D782" s="110"/>
+      <c r="E782" s="110"/>
+      <c r="F782" s="110"/>
+      <c r="G782" s="110"/>
+      <c r="H782" s="110"/>
+      <c r="I782" s="110"/>
+      <c r="J782" s="110"/>
+      <c r="K782" s="110"/>
+      <c r="L782" s="110"/>
+      <c r="M782" s="110"/>
+      <c r="N782" s="110"/>
+      <c r="O782" s="110"/>
+      <c r="P782" s="111"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21273,6 +21282,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21289,12 +21304,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21696,8 +21705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AP157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB86" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O138" sqref="O132:AP138"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21880,13 +21889,13 @@
       <c r="F4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="117">
         <v>144</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="117">
         <v>102</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -21966,7 +21975,7 @@
       <c r="F5" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="117">
         <v>94</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -22052,7 +22061,7 @@
       <c r="F6" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="117">
         <v>145</v>
       </c>
       <c r="I6" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538FF6C-3F06-194B-8EE0-F5517B3F8A6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C1C012-ACB1-6746-80CE-F00368171AF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="460" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -3176,6 +3176,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3188,19 +3200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3552,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3944,8 +3944,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5923,23 +5923,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="113" t="s">
+      <c r="B99" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
-      <c r="G99" s="114"/>
-      <c r="H99" s="114"/>
-      <c r="I99" s="114"/>
-      <c r="J99" s="114"/>
-      <c r="K99" s="114"/>
-      <c r="L99" s="114"/>
-      <c r="M99" s="114"/>
-      <c r="N99" s="114"/>
-      <c r="O99" s="114"/>
-      <c r="P99" s="115"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8353,23 +8353,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="113" t="s">
+      <c r="B209" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="114"/>
-      <c r="D209" s="114"/>
-      <c r="E209" s="114"/>
-      <c r="F209" s="114"/>
-      <c r="G209" s="114"/>
-      <c r="H209" s="114"/>
-      <c r="I209" s="114"/>
-      <c r="J209" s="114"/>
-      <c r="K209" s="114"/>
-      <c r="L209" s="114"/>
-      <c r="M209" s="114"/>
-      <c r="N209" s="114"/>
-      <c r="O209" s="114"/>
-      <c r="P209" s="115"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="111"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="112"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9850,23 +9850,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="113" t="s">
+      <c r="B274" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="114"/>
-      <c r="D274" s="114"/>
-      <c r="E274" s="114"/>
-      <c r="F274" s="114"/>
-      <c r="G274" s="114"/>
-      <c r="H274" s="114"/>
-      <c r="I274" s="114"/>
-      <c r="J274" s="114"/>
-      <c r="K274" s="114"/>
-      <c r="L274" s="114"/>
-      <c r="M274" s="114"/>
-      <c r="N274" s="114"/>
-      <c r="O274" s="114"/>
-      <c r="P274" s="115"/>
+      <c r="C274" s="111"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="111"/>
+      <c r="L274" s="111"/>
+      <c r="M274" s="111"/>
+      <c r="N274" s="111"/>
+      <c r="O274" s="111"/>
+      <c r="P274" s="112"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11894,23 +11894,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="113" t="s">
+      <c r="B364" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="114"/>
-      <c r="D364" s="114"/>
-      <c r="E364" s="114"/>
-      <c r="F364" s="114"/>
-      <c r="G364" s="114"/>
-      <c r="H364" s="114"/>
-      <c r="I364" s="114"/>
-      <c r="J364" s="114"/>
-      <c r="K364" s="114"/>
-      <c r="L364" s="114"/>
-      <c r="M364" s="114"/>
-      <c r="N364" s="114"/>
-      <c r="O364" s="114"/>
-      <c r="P364" s="115"/>
+      <c r="C364" s="111"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="111"/>
+      <c r="G364" s="111"/>
+      <c r="H364" s="111"/>
+      <c r="I364" s="111"/>
+      <c r="J364" s="111"/>
+      <c r="K364" s="111"/>
+      <c r="L364" s="111"/>
+      <c r="M364" s="111"/>
+      <c r="N364" s="111"/>
+      <c r="O364" s="111"/>
+      <c r="P364" s="112"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12788,23 +12788,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="113" t="s">
+      <c r="B402" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="114"/>
-      <c r="D402" s="114"/>
-      <c r="E402" s="114"/>
-      <c r="F402" s="114"/>
-      <c r="G402" s="114"/>
-      <c r="H402" s="114"/>
-      <c r="I402" s="114"/>
-      <c r="J402" s="114"/>
-      <c r="K402" s="114"/>
-      <c r="L402" s="114"/>
-      <c r="M402" s="114"/>
-      <c r="N402" s="114"/>
-      <c r="O402" s="114"/>
-      <c r="P402" s="115"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="112"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13660,23 +13660,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="113" t="s">
+      <c r="B440" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="114"/>
-      <c r="D440" s="114"/>
-      <c r="E440" s="114"/>
-      <c r="F440" s="114"/>
-      <c r="G440" s="114"/>
-      <c r="H440" s="114"/>
-      <c r="I440" s="114"/>
-      <c r="J440" s="114"/>
-      <c r="K440" s="114"/>
-      <c r="L440" s="114"/>
-      <c r="M440" s="114"/>
-      <c r="N440" s="114"/>
-      <c r="O440" s="114"/>
-      <c r="P440" s="115"/>
+      <c r="C440" s="111"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="111"/>
+      <c r="G440" s="111"/>
+      <c r="H440" s="111"/>
+      <c r="I440" s="111"/>
+      <c r="J440" s="111"/>
+      <c r="K440" s="111"/>
+      <c r="L440" s="111"/>
+      <c r="M440" s="111"/>
+      <c r="N440" s="111"/>
+      <c r="O440" s="111"/>
+      <c r="P440" s="112"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14569,23 +14569,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="113" t="s">
+      <c r="B479" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="114"/>
-      <c r="D479" s="114"/>
-      <c r="E479" s="114"/>
-      <c r="F479" s="114"/>
-      <c r="G479" s="114"/>
-      <c r="H479" s="114"/>
-      <c r="I479" s="114"/>
-      <c r="J479" s="114"/>
-      <c r="K479" s="114"/>
-      <c r="L479" s="114"/>
-      <c r="M479" s="114"/>
-      <c r="N479" s="114"/>
-      <c r="O479" s="114"/>
-      <c r="P479" s="115"/>
+      <c r="C479" s="111"/>
+      <c r="D479" s="111"/>
+      <c r="E479" s="111"/>
+      <c r="F479" s="111"/>
+      <c r="G479" s="111"/>
+      <c r="H479" s="111"/>
+      <c r="I479" s="111"/>
+      <c r="J479" s="111"/>
+      <c r="K479" s="111"/>
+      <c r="L479" s="111"/>
+      <c r="M479" s="111"/>
+      <c r="N479" s="111"/>
+      <c r="O479" s="111"/>
+      <c r="P479" s="112"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15280,23 +15280,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="113" t="s">
+      <c r="B506" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="114"/>
-      <c r="D506" s="114"/>
-      <c r="E506" s="114"/>
-      <c r="F506" s="114"/>
-      <c r="G506" s="114"/>
-      <c r="H506" s="114"/>
-      <c r="I506" s="114"/>
-      <c r="J506" s="114"/>
-      <c r="K506" s="114"/>
-      <c r="L506" s="114"/>
-      <c r="M506" s="114"/>
-      <c r="N506" s="114"/>
-      <c r="O506" s="114"/>
-      <c r="P506" s="115"/>
+      <c r="C506" s="111"/>
+      <c r="D506" s="111"/>
+      <c r="E506" s="111"/>
+      <c r="F506" s="111"/>
+      <c r="G506" s="111"/>
+      <c r="H506" s="111"/>
+      <c r="I506" s="111"/>
+      <c r="J506" s="111"/>
+      <c r="K506" s="111"/>
+      <c r="L506" s="111"/>
+      <c r="M506" s="111"/>
+      <c r="N506" s="111"/>
+      <c r="O506" s="111"/>
+      <c r="P506" s="112"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -15999,23 +15999,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="113" t="s">
+      <c r="B539" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="114"/>
-      <c r="D539" s="114"/>
-      <c r="E539" s="114"/>
-      <c r="F539" s="114"/>
-      <c r="G539" s="114"/>
-      <c r="H539" s="114"/>
-      <c r="I539" s="114"/>
-      <c r="J539" s="114"/>
-      <c r="K539" s="114"/>
-      <c r="L539" s="114"/>
-      <c r="M539" s="114"/>
-      <c r="N539" s="114"/>
-      <c r="O539" s="114"/>
-      <c r="P539" s="115"/>
+      <c r="C539" s="111"/>
+      <c r="D539" s="111"/>
+      <c r="E539" s="111"/>
+      <c r="F539" s="111"/>
+      <c r="G539" s="111"/>
+      <c r="H539" s="111"/>
+      <c r="I539" s="111"/>
+      <c r="J539" s="111"/>
+      <c r="K539" s="111"/>
+      <c r="L539" s="111"/>
+      <c r="M539" s="111"/>
+      <c r="N539" s="111"/>
+      <c r="O539" s="111"/>
+      <c r="P539" s="112"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16823,23 +16823,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="113" t="s">
+      <c r="B577" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="114"/>
-      <c r="D577" s="114"/>
-      <c r="E577" s="114"/>
-      <c r="F577" s="114"/>
-      <c r="G577" s="114"/>
-      <c r="H577" s="114"/>
-      <c r="I577" s="114"/>
-      <c r="J577" s="114"/>
-      <c r="K577" s="114"/>
-      <c r="L577" s="114"/>
-      <c r="M577" s="114"/>
-      <c r="N577" s="114"/>
-      <c r="O577" s="114"/>
-      <c r="P577" s="115"/>
+      <c r="C577" s="111"/>
+      <c r="D577" s="111"/>
+      <c r="E577" s="111"/>
+      <c r="F577" s="111"/>
+      <c r="G577" s="111"/>
+      <c r="H577" s="111"/>
+      <c r="I577" s="111"/>
+      <c r="J577" s="111"/>
+      <c r="K577" s="111"/>
+      <c r="L577" s="111"/>
+      <c r="M577" s="111"/>
+      <c r="N577" s="111"/>
+      <c r="O577" s="111"/>
+      <c r="P577" s="112"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17340,23 +17340,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="113" t="s">
+      <c r="B600" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="114"/>
-      <c r="D600" s="114"/>
-      <c r="E600" s="114"/>
-      <c r="F600" s="114"/>
-      <c r="G600" s="114"/>
-      <c r="H600" s="114"/>
-      <c r="I600" s="114"/>
-      <c r="J600" s="114"/>
-      <c r="K600" s="114"/>
-      <c r="L600" s="114"/>
-      <c r="M600" s="114"/>
-      <c r="N600" s="114"/>
-      <c r="O600" s="114"/>
-      <c r="P600" s="115"/>
+      <c r="C600" s="111"/>
+      <c r="D600" s="111"/>
+      <c r="E600" s="111"/>
+      <c r="F600" s="111"/>
+      <c r="G600" s="111"/>
+      <c r="H600" s="111"/>
+      <c r="I600" s="111"/>
+      <c r="J600" s="111"/>
+      <c r="K600" s="111"/>
+      <c r="L600" s="111"/>
+      <c r="M600" s="111"/>
+      <c r="N600" s="111"/>
+      <c r="O600" s="111"/>
+      <c r="P600" s="112"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18093,23 +18093,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="113" t="s">
+      <c r="B637" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="114"/>
-      <c r="D637" s="114"/>
-      <c r="E637" s="114"/>
-      <c r="F637" s="114"/>
-      <c r="G637" s="114"/>
-      <c r="H637" s="114"/>
-      <c r="I637" s="114"/>
-      <c r="J637" s="114"/>
-      <c r="K637" s="114"/>
-      <c r="L637" s="114"/>
-      <c r="M637" s="114"/>
-      <c r="N637" s="114"/>
-      <c r="O637" s="114"/>
-      <c r="P637" s="115"/>
+      <c r="C637" s="111"/>
+      <c r="D637" s="111"/>
+      <c r="E637" s="111"/>
+      <c r="F637" s="111"/>
+      <c r="G637" s="111"/>
+      <c r="H637" s="111"/>
+      <c r="I637" s="111"/>
+      <c r="J637" s="111"/>
+      <c r="K637" s="111"/>
+      <c r="L637" s="111"/>
+      <c r="M637" s="111"/>
+      <c r="N637" s="111"/>
+      <c r="O637" s="111"/>
+      <c r="P637" s="112"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18363,23 +18363,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="113" t="s">
+      <c r="B649" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="114"/>
-      <c r="D649" s="114"/>
-      <c r="E649" s="114"/>
-      <c r="F649" s="114"/>
-      <c r="G649" s="114"/>
-      <c r="H649" s="114"/>
-      <c r="I649" s="114"/>
-      <c r="J649" s="114"/>
-      <c r="K649" s="114"/>
-      <c r="L649" s="114"/>
-      <c r="M649" s="114"/>
-      <c r="N649" s="114"/>
-      <c r="O649" s="114"/>
-      <c r="P649" s="115"/>
+      <c r="C649" s="111"/>
+      <c r="D649" s="111"/>
+      <c r="E649" s="111"/>
+      <c r="F649" s="111"/>
+      <c r="G649" s="111"/>
+      <c r="H649" s="111"/>
+      <c r="I649" s="111"/>
+      <c r="J649" s="111"/>
+      <c r="K649" s="111"/>
+      <c r="L649" s="111"/>
+      <c r="M649" s="111"/>
+      <c r="N649" s="111"/>
+      <c r="O649" s="111"/>
+      <c r="P649" s="112"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18881,23 +18881,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="109" t="s">
+      <c r="B675" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="110"/>
-      <c r="D675" s="110"/>
-      <c r="E675" s="110"/>
-      <c r="F675" s="110"/>
-      <c r="G675" s="110"/>
-      <c r="H675" s="110"/>
-      <c r="I675" s="110"/>
-      <c r="J675" s="110"/>
-      <c r="K675" s="110"/>
-      <c r="L675" s="110"/>
-      <c r="M675" s="110"/>
-      <c r="N675" s="110"/>
-      <c r="O675" s="110"/>
-      <c r="P675" s="111"/>
+      <c r="C675" s="114"/>
+      <c r="D675" s="114"/>
+      <c r="E675" s="114"/>
+      <c r="F675" s="114"/>
+      <c r="G675" s="114"/>
+      <c r="H675" s="114"/>
+      <c r="I675" s="114"/>
+      <c r="J675" s="114"/>
+      <c r="K675" s="114"/>
+      <c r="L675" s="114"/>
+      <c r="M675" s="114"/>
+      <c r="N675" s="114"/>
+      <c r="O675" s="114"/>
+      <c r="P675" s="115"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19466,23 +19466,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="109" t="s">
+      <c r="B704" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="110"/>
-      <c r="D704" s="110"/>
-      <c r="E704" s="110"/>
-      <c r="F704" s="110"/>
-      <c r="G704" s="110"/>
-      <c r="H704" s="110"/>
-      <c r="I704" s="110"/>
-      <c r="J704" s="110"/>
-      <c r="K704" s="110"/>
-      <c r="L704" s="110"/>
-      <c r="M704" s="110"/>
-      <c r="N704" s="110"/>
-      <c r="O704" s="110"/>
-      <c r="P704" s="111"/>
+      <c r="C704" s="114"/>
+      <c r="D704" s="114"/>
+      <c r="E704" s="114"/>
+      <c r="F704" s="114"/>
+      <c r="G704" s="114"/>
+      <c r="H704" s="114"/>
+      <c r="I704" s="114"/>
+      <c r="J704" s="114"/>
+      <c r="K704" s="114"/>
+      <c r="L704" s="114"/>
+      <c r="M704" s="114"/>
+      <c r="N704" s="114"/>
+      <c r="O704" s="114"/>
+      <c r="P704" s="115"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19815,23 +19815,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="109" t="s">
+      <c r="B721" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="110"/>
-      <c r="D721" s="110"/>
-      <c r="E721" s="110"/>
-      <c r="F721" s="110"/>
-      <c r="G721" s="110"/>
-      <c r="H721" s="110"/>
-      <c r="I721" s="110"/>
-      <c r="J721" s="110"/>
-      <c r="K721" s="110"/>
-      <c r="L721" s="110"/>
-      <c r="M721" s="110"/>
-      <c r="N721" s="110"/>
-      <c r="O721" s="110"/>
-      <c r="P721" s="111"/>
+      <c r="C721" s="114"/>
+      <c r="D721" s="114"/>
+      <c r="E721" s="114"/>
+      <c r="F721" s="114"/>
+      <c r="G721" s="114"/>
+      <c r="H721" s="114"/>
+      <c r="I721" s="114"/>
+      <c r="J721" s="114"/>
+      <c r="K721" s="114"/>
+      <c r="L721" s="114"/>
+      <c r="M721" s="114"/>
+      <c r="N721" s="114"/>
+      <c r="O721" s="114"/>
+      <c r="P721" s="115"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20207,23 +20207,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="109" t="s">
+      <c r="B741" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="110"/>
-      <c r="D741" s="110"/>
-      <c r="E741" s="110"/>
-      <c r="F741" s="110"/>
-      <c r="G741" s="110"/>
-      <c r="H741" s="110"/>
-      <c r="I741" s="110"/>
-      <c r="J741" s="110"/>
-      <c r="K741" s="110"/>
-      <c r="L741" s="110"/>
-      <c r="M741" s="110"/>
-      <c r="N741" s="110"/>
-      <c r="O741" s="110"/>
-      <c r="P741" s="111"/>
+      <c r="C741" s="114"/>
+      <c r="D741" s="114"/>
+      <c r="E741" s="114"/>
+      <c r="F741" s="114"/>
+      <c r="G741" s="114"/>
+      <c r="H741" s="114"/>
+      <c r="I741" s="114"/>
+      <c r="J741" s="114"/>
+      <c r="K741" s="114"/>
+      <c r="L741" s="114"/>
+      <c r="M741" s="114"/>
+      <c r="N741" s="114"/>
+      <c r="O741" s="114"/>
+      <c r="P741" s="115"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21050,23 +21050,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="109" t="s">
+      <c r="B782" s="113" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="110"/>
-      <c r="D782" s="110"/>
-      <c r="E782" s="110"/>
-      <c r="F782" s="110"/>
-      <c r="G782" s="110"/>
-      <c r="H782" s="110"/>
-      <c r="I782" s="110"/>
-      <c r="J782" s="110"/>
-      <c r="K782" s="110"/>
-      <c r="L782" s="110"/>
-      <c r="M782" s="110"/>
-      <c r="N782" s="110"/>
-      <c r="O782" s="110"/>
-      <c r="P782" s="111"/>
+      <c r="C782" s="114"/>
+      <c r="D782" s="114"/>
+      <c r="E782" s="114"/>
+      <c r="F782" s="114"/>
+      <c r="G782" s="114"/>
+      <c r="H782" s="114"/>
+      <c r="I782" s="114"/>
+      <c r="J782" s="114"/>
+      <c r="K782" s="114"/>
+      <c r="L782" s="114"/>
+      <c r="M782" s="114"/>
+      <c r="N782" s="114"/>
+      <c r="O782" s="114"/>
+      <c r="P782" s="115"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21282,12 +21282,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21304,6 +21298,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21889,13 +21889,13 @@
       <c r="F4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="109">
         <v>144</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="109">
         <v>102</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -21975,7 +21975,7 @@
       <c r="F5" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="109">
         <v>94</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -22061,7 +22061,7 @@
       <c r="F6" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="109">
         <v>145</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -22225,7 +22225,7 @@
       <c r="F8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="109">
         <v>104</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -22813,7 +22813,7 @@
       <c r="F18" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="109">
         <v>111</v>
       </c>
       <c r="I18" s="108" t="s">
@@ -25211,15 +25211,15 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="116"/>
-      <c r="AB87" s="116"/>
-      <c r="AC87" s="116"/>
-      <c r="AD87" s="116"/>
-      <c r="AE87" s="116"/>
-      <c r="AF87" s="116"/>
-      <c r="AG87" s="116"/>
-      <c r="AH87" s="116"/>
-      <c r="AI87" s="116"/>
+      <c r="AA87" s="117"/>
+      <c r="AB87" s="117"/>
+      <c r="AC87" s="117"/>
+      <c r="AD87" s="117"/>
+      <c r="AE87" s="117"/>
+      <c r="AF87" s="117"/>
+      <c r="AG87" s="117"/>
+      <c r="AH87" s="117"/>
+      <c r="AI87" s="117"/>
       <c r="AJ87" s="105"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C1C012-ACB1-6746-80CE-F00368171AF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE629BC-346A-354F-BF1F-E6E9A4302DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="460" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="749">
   <si>
     <t>Array</t>
   </si>
@@ -3179,15 +3179,6 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3198,6 +3189,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3944,8 +3944,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5923,23 +5923,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="112"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="115"/>
+      <c r="I99" s="115"/>
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="115"/>
+      <c r="M99" s="115"/>
+      <c r="N99" s="115"/>
+      <c r="O99" s="115"/>
+      <c r="P99" s="116"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8353,23 +8353,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="110" t="s">
+      <c r="B209" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="112"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="115"/>
+      <c r="G209" s="115"/>
+      <c r="H209" s="115"/>
+      <c r="I209" s="115"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="115"/>
+      <c r="L209" s="115"/>
+      <c r="M209" s="115"/>
+      <c r="N209" s="115"/>
+      <c r="O209" s="115"/>
+      <c r="P209" s="116"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9850,23 +9850,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="110" t="s">
+      <c r="B274" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="111"/>
-      <c r="D274" s="111"/>
-      <c r="E274" s="111"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="111"/>
-      <c r="H274" s="111"/>
-      <c r="I274" s="111"/>
-      <c r="J274" s="111"/>
-      <c r="K274" s="111"/>
-      <c r="L274" s="111"/>
-      <c r="M274" s="111"/>
-      <c r="N274" s="111"/>
-      <c r="O274" s="111"/>
-      <c r="P274" s="112"/>
+      <c r="C274" s="115"/>
+      <c r="D274" s="115"/>
+      <c r="E274" s="115"/>
+      <c r="F274" s="115"/>
+      <c r="G274" s="115"/>
+      <c r="H274" s="115"/>
+      <c r="I274" s="115"/>
+      <c r="J274" s="115"/>
+      <c r="K274" s="115"/>
+      <c r="L274" s="115"/>
+      <c r="M274" s="115"/>
+      <c r="N274" s="115"/>
+      <c r="O274" s="115"/>
+      <c r="P274" s="116"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11894,23 +11894,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="110" t="s">
+      <c r="B364" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="111"/>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="111"/>
-      <c r="G364" s="111"/>
-      <c r="H364" s="111"/>
-      <c r="I364" s="111"/>
-      <c r="J364" s="111"/>
-      <c r="K364" s="111"/>
-      <c r="L364" s="111"/>
-      <c r="M364" s="111"/>
-      <c r="N364" s="111"/>
-      <c r="O364" s="111"/>
-      <c r="P364" s="112"/>
+      <c r="C364" s="115"/>
+      <c r="D364" s="115"/>
+      <c r="E364" s="115"/>
+      <c r="F364" s="115"/>
+      <c r="G364" s="115"/>
+      <c r="H364" s="115"/>
+      <c r="I364" s="115"/>
+      <c r="J364" s="115"/>
+      <c r="K364" s="115"/>
+      <c r="L364" s="115"/>
+      <c r="M364" s="115"/>
+      <c r="N364" s="115"/>
+      <c r="O364" s="115"/>
+      <c r="P364" s="116"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12788,23 +12788,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="110" t="s">
+      <c r="B402" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="111"/>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="111"/>
-      <c r="G402" s="111"/>
-      <c r="H402" s="111"/>
-      <c r="I402" s="111"/>
-      <c r="J402" s="111"/>
-      <c r="K402" s="111"/>
-      <c r="L402" s="111"/>
-      <c r="M402" s="111"/>
-      <c r="N402" s="111"/>
-      <c r="O402" s="111"/>
-      <c r="P402" s="112"/>
+      <c r="C402" s="115"/>
+      <c r="D402" s="115"/>
+      <c r="E402" s="115"/>
+      <c r="F402" s="115"/>
+      <c r="G402" s="115"/>
+      <c r="H402" s="115"/>
+      <c r="I402" s="115"/>
+      <c r="J402" s="115"/>
+      <c r="K402" s="115"/>
+      <c r="L402" s="115"/>
+      <c r="M402" s="115"/>
+      <c r="N402" s="115"/>
+      <c r="O402" s="115"/>
+      <c r="P402" s="116"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13660,23 +13660,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="110" t="s">
+      <c r="B440" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="111"/>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="111"/>
-      <c r="G440" s="111"/>
-      <c r="H440" s="111"/>
-      <c r="I440" s="111"/>
-      <c r="J440" s="111"/>
-      <c r="K440" s="111"/>
-      <c r="L440" s="111"/>
-      <c r="M440" s="111"/>
-      <c r="N440" s="111"/>
-      <c r="O440" s="111"/>
-      <c r="P440" s="112"/>
+      <c r="C440" s="115"/>
+      <c r="D440" s="115"/>
+      <c r="E440" s="115"/>
+      <c r="F440" s="115"/>
+      <c r="G440" s="115"/>
+      <c r="H440" s="115"/>
+      <c r="I440" s="115"/>
+      <c r="J440" s="115"/>
+      <c r="K440" s="115"/>
+      <c r="L440" s="115"/>
+      <c r="M440" s="115"/>
+      <c r="N440" s="115"/>
+      <c r="O440" s="115"/>
+      <c r="P440" s="116"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14569,23 +14569,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="110" t="s">
+      <c r="B479" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="111"/>
-      <c r="D479" s="111"/>
-      <c r="E479" s="111"/>
-      <c r="F479" s="111"/>
-      <c r="G479" s="111"/>
-      <c r="H479" s="111"/>
-      <c r="I479" s="111"/>
-      <c r="J479" s="111"/>
-      <c r="K479" s="111"/>
-      <c r="L479" s="111"/>
-      <c r="M479" s="111"/>
-      <c r="N479" s="111"/>
-      <c r="O479" s="111"/>
-      <c r="P479" s="112"/>
+      <c r="C479" s="115"/>
+      <c r="D479" s="115"/>
+      <c r="E479" s="115"/>
+      <c r="F479" s="115"/>
+      <c r="G479" s="115"/>
+      <c r="H479" s="115"/>
+      <c r="I479" s="115"/>
+      <c r="J479" s="115"/>
+      <c r="K479" s="115"/>
+      <c r="L479" s="115"/>
+      <c r="M479" s="115"/>
+      <c r="N479" s="115"/>
+      <c r="O479" s="115"/>
+      <c r="P479" s="116"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15280,23 +15280,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="110" t="s">
+      <c r="B506" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="111"/>
-      <c r="D506" s="111"/>
-      <c r="E506" s="111"/>
-      <c r="F506" s="111"/>
-      <c r="G506" s="111"/>
-      <c r="H506" s="111"/>
-      <c r="I506" s="111"/>
-      <c r="J506" s="111"/>
-      <c r="K506" s="111"/>
-      <c r="L506" s="111"/>
-      <c r="M506" s="111"/>
-      <c r="N506" s="111"/>
-      <c r="O506" s="111"/>
-      <c r="P506" s="112"/>
+      <c r="C506" s="115"/>
+      <c r="D506" s="115"/>
+      <c r="E506" s="115"/>
+      <c r="F506" s="115"/>
+      <c r="G506" s="115"/>
+      <c r="H506" s="115"/>
+      <c r="I506" s="115"/>
+      <c r="J506" s="115"/>
+      <c r="K506" s="115"/>
+      <c r="L506" s="115"/>
+      <c r="M506" s="115"/>
+      <c r="N506" s="115"/>
+      <c r="O506" s="115"/>
+      <c r="P506" s="116"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -15999,23 +15999,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="111"/>
-      <c r="D539" s="111"/>
-      <c r="E539" s="111"/>
-      <c r="F539" s="111"/>
-      <c r="G539" s="111"/>
-      <c r="H539" s="111"/>
-      <c r="I539" s="111"/>
-      <c r="J539" s="111"/>
-      <c r="K539" s="111"/>
-      <c r="L539" s="111"/>
-      <c r="M539" s="111"/>
-      <c r="N539" s="111"/>
-      <c r="O539" s="111"/>
-      <c r="P539" s="112"/>
+      <c r="C539" s="115"/>
+      <c r="D539" s="115"/>
+      <c r="E539" s="115"/>
+      <c r="F539" s="115"/>
+      <c r="G539" s="115"/>
+      <c r="H539" s="115"/>
+      <c r="I539" s="115"/>
+      <c r="J539" s="115"/>
+      <c r="K539" s="115"/>
+      <c r="L539" s="115"/>
+      <c r="M539" s="115"/>
+      <c r="N539" s="115"/>
+      <c r="O539" s="115"/>
+      <c r="P539" s="116"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16823,23 +16823,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="110" t="s">
+      <c r="B577" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="111"/>
-      <c r="D577" s="111"/>
-      <c r="E577" s="111"/>
-      <c r="F577" s="111"/>
-      <c r="G577" s="111"/>
-      <c r="H577" s="111"/>
-      <c r="I577" s="111"/>
-      <c r="J577" s="111"/>
-      <c r="K577" s="111"/>
-      <c r="L577" s="111"/>
-      <c r="M577" s="111"/>
-      <c r="N577" s="111"/>
-      <c r="O577" s="111"/>
-      <c r="P577" s="112"/>
+      <c r="C577" s="115"/>
+      <c r="D577" s="115"/>
+      <c r="E577" s="115"/>
+      <c r="F577" s="115"/>
+      <c r="G577" s="115"/>
+      <c r="H577" s="115"/>
+      <c r="I577" s="115"/>
+      <c r="J577" s="115"/>
+      <c r="K577" s="115"/>
+      <c r="L577" s="115"/>
+      <c r="M577" s="115"/>
+      <c r="N577" s="115"/>
+      <c r="O577" s="115"/>
+      <c r="P577" s="116"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17340,23 +17340,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="110" t="s">
+      <c r="B600" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="111"/>
-      <c r="F600" s="111"/>
-      <c r="G600" s="111"/>
-      <c r="H600" s="111"/>
-      <c r="I600" s="111"/>
-      <c r="J600" s="111"/>
-      <c r="K600" s="111"/>
-      <c r="L600" s="111"/>
-      <c r="M600" s="111"/>
-      <c r="N600" s="111"/>
-      <c r="O600" s="111"/>
-      <c r="P600" s="112"/>
+      <c r="C600" s="115"/>
+      <c r="D600" s="115"/>
+      <c r="E600" s="115"/>
+      <c r="F600" s="115"/>
+      <c r="G600" s="115"/>
+      <c r="H600" s="115"/>
+      <c r="I600" s="115"/>
+      <c r="J600" s="115"/>
+      <c r="K600" s="115"/>
+      <c r="L600" s="115"/>
+      <c r="M600" s="115"/>
+      <c r="N600" s="115"/>
+      <c r="O600" s="115"/>
+      <c r="P600" s="116"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18093,23 +18093,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="110" t="s">
+      <c r="B637" s="114" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="111"/>
-      <c r="D637" s="111"/>
-      <c r="E637" s="111"/>
-      <c r="F637" s="111"/>
-      <c r="G637" s="111"/>
-      <c r="H637" s="111"/>
-      <c r="I637" s="111"/>
-      <c r="J637" s="111"/>
-      <c r="K637" s="111"/>
-      <c r="L637" s="111"/>
-      <c r="M637" s="111"/>
-      <c r="N637" s="111"/>
-      <c r="O637" s="111"/>
-      <c r="P637" s="112"/>
+      <c r="C637" s="115"/>
+      <c r="D637" s="115"/>
+      <c r="E637" s="115"/>
+      <c r="F637" s="115"/>
+      <c r="G637" s="115"/>
+      <c r="H637" s="115"/>
+      <c r="I637" s="115"/>
+      <c r="J637" s="115"/>
+      <c r="K637" s="115"/>
+      <c r="L637" s="115"/>
+      <c r="M637" s="115"/>
+      <c r="N637" s="115"/>
+      <c r="O637" s="115"/>
+      <c r="P637" s="116"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18363,23 +18363,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="110" t="s">
+      <c r="B649" s="114" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="111"/>
-      <c r="D649" s="111"/>
-      <c r="E649" s="111"/>
-      <c r="F649" s="111"/>
-      <c r="G649" s="111"/>
-      <c r="H649" s="111"/>
-      <c r="I649" s="111"/>
-      <c r="J649" s="111"/>
-      <c r="K649" s="111"/>
-      <c r="L649" s="111"/>
-      <c r="M649" s="111"/>
-      <c r="N649" s="111"/>
-      <c r="O649" s="111"/>
-      <c r="P649" s="112"/>
+      <c r="C649" s="115"/>
+      <c r="D649" s="115"/>
+      <c r="E649" s="115"/>
+      <c r="F649" s="115"/>
+      <c r="G649" s="115"/>
+      <c r="H649" s="115"/>
+      <c r="I649" s="115"/>
+      <c r="J649" s="115"/>
+      <c r="K649" s="115"/>
+      <c r="L649" s="115"/>
+      <c r="M649" s="115"/>
+      <c r="N649" s="115"/>
+      <c r="O649" s="115"/>
+      <c r="P649" s="116"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18881,23 +18881,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="113" t="s">
+      <c r="B675" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="114"/>
-      <c r="D675" s="114"/>
-      <c r="E675" s="114"/>
-      <c r="F675" s="114"/>
-      <c r="G675" s="114"/>
-      <c r="H675" s="114"/>
-      <c r="I675" s="114"/>
-      <c r="J675" s="114"/>
-      <c r="K675" s="114"/>
-      <c r="L675" s="114"/>
-      <c r="M675" s="114"/>
-      <c r="N675" s="114"/>
-      <c r="O675" s="114"/>
-      <c r="P675" s="115"/>
+      <c r="C675" s="111"/>
+      <c r="D675" s="111"/>
+      <c r="E675" s="111"/>
+      <c r="F675" s="111"/>
+      <c r="G675" s="111"/>
+      <c r="H675" s="111"/>
+      <c r="I675" s="111"/>
+      <c r="J675" s="111"/>
+      <c r="K675" s="111"/>
+      <c r="L675" s="111"/>
+      <c r="M675" s="111"/>
+      <c r="N675" s="111"/>
+      <c r="O675" s="111"/>
+      <c r="P675" s="112"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19466,23 +19466,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="113" t="s">
+      <c r="B704" s="110" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="114"/>
-      <c r="D704" s="114"/>
-      <c r="E704" s="114"/>
-      <c r="F704" s="114"/>
-      <c r="G704" s="114"/>
-      <c r="H704" s="114"/>
-      <c r="I704" s="114"/>
-      <c r="J704" s="114"/>
-      <c r="K704" s="114"/>
-      <c r="L704" s="114"/>
-      <c r="M704" s="114"/>
-      <c r="N704" s="114"/>
-      <c r="O704" s="114"/>
-      <c r="P704" s="115"/>
+      <c r="C704" s="111"/>
+      <c r="D704" s="111"/>
+      <c r="E704" s="111"/>
+      <c r="F704" s="111"/>
+      <c r="G704" s="111"/>
+      <c r="H704" s="111"/>
+      <c r="I704" s="111"/>
+      <c r="J704" s="111"/>
+      <c r="K704" s="111"/>
+      <c r="L704" s="111"/>
+      <c r="M704" s="111"/>
+      <c r="N704" s="111"/>
+      <c r="O704" s="111"/>
+      <c r="P704" s="112"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19815,23 +19815,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="113" t="s">
+      <c r="B721" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="114"/>
-      <c r="D721" s="114"/>
-      <c r="E721" s="114"/>
-      <c r="F721" s="114"/>
-      <c r="G721" s="114"/>
-      <c r="H721" s="114"/>
-      <c r="I721" s="114"/>
-      <c r="J721" s="114"/>
-      <c r="K721" s="114"/>
-      <c r="L721" s="114"/>
-      <c r="M721" s="114"/>
-      <c r="N721" s="114"/>
-      <c r="O721" s="114"/>
-      <c r="P721" s="115"/>
+      <c r="C721" s="111"/>
+      <c r="D721" s="111"/>
+      <c r="E721" s="111"/>
+      <c r="F721" s="111"/>
+      <c r="G721" s="111"/>
+      <c r="H721" s="111"/>
+      <c r="I721" s="111"/>
+      <c r="J721" s="111"/>
+      <c r="K721" s="111"/>
+      <c r="L721" s="111"/>
+      <c r="M721" s="111"/>
+      <c r="N721" s="111"/>
+      <c r="O721" s="111"/>
+      <c r="P721" s="112"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20207,23 +20207,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="113" t="s">
+      <c r="B741" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="114"/>
-      <c r="D741" s="114"/>
-      <c r="E741" s="114"/>
-      <c r="F741" s="114"/>
-      <c r="G741" s="114"/>
-      <c r="H741" s="114"/>
-      <c r="I741" s="114"/>
-      <c r="J741" s="114"/>
-      <c r="K741" s="114"/>
-      <c r="L741" s="114"/>
-      <c r="M741" s="114"/>
-      <c r="N741" s="114"/>
-      <c r="O741" s="114"/>
-      <c r="P741" s="115"/>
+      <c r="C741" s="111"/>
+      <c r="D741" s="111"/>
+      <c r="E741" s="111"/>
+      <c r="F741" s="111"/>
+      <c r="G741" s="111"/>
+      <c r="H741" s="111"/>
+      <c r="I741" s="111"/>
+      <c r="J741" s="111"/>
+      <c r="K741" s="111"/>
+      <c r="L741" s="111"/>
+      <c r="M741" s="111"/>
+      <c r="N741" s="111"/>
+      <c r="O741" s="111"/>
+      <c r="P741" s="112"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21050,23 +21050,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="113" t="s">
+      <c r="B782" s="110" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="114"/>
-      <c r="D782" s="114"/>
-      <c r="E782" s="114"/>
-      <c r="F782" s="114"/>
-      <c r="G782" s="114"/>
-      <c r="H782" s="114"/>
-      <c r="I782" s="114"/>
-      <c r="J782" s="114"/>
-      <c r="K782" s="114"/>
-      <c r="L782" s="114"/>
-      <c r="M782" s="114"/>
-      <c r="N782" s="114"/>
-      <c r="O782" s="114"/>
-      <c r="P782" s="115"/>
+      <c r="C782" s="111"/>
+      <c r="D782" s="111"/>
+      <c r="E782" s="111"/>
+      <c r="F782" s="111"/>
+      <c r="G782" s="111"/>
+      <c r="H782" s="111"/>
+      <c r="I782" s="111"/>
+      <c r="J782" s="111"/>
+      <c r="K782" s="111"/>
+      <c r="L782" s="111"/>
+      <c r="M782" s="111"/>
+      <c r="N782" s="111"/>
+      <c r="O782" s="111"/>
+      <c r="P782" s="112"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21282,6 +21282,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21298,12 +21304,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22663,7 +22663,7 @@
       <c r="F15" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="109">
         <v>101</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -22821,8 +22821,12 @@
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
+      <c r="N18" s="3">
+        <v>112</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="5"/>
       <c r="T18" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE629BC-346A-354F-BF1F-E6E9A4302DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE3C690-544F-3B4A-95E8-18E7715D46F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="460" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="749">
   <si>
     <t>Array</t>
   </si>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="5"/>
-      <c r="N18" s="3">
+      <c r="N18" s="109">
         <v>112</v>
       </c>
       <c r="O18" s="5" t="s">
@@ -22867,8 +22867,12 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="5"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="5"/>
+      <c r="N19" s="109">
+        <v>113</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="5"/>
       <c r="T19" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE3C690-544F-3B4A-95E8-18E7715D46F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593F740-33ED-EA40-89D6-A2486094E740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11560" yWindow="460" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="749">
   <si>
     <t>Array</t>
   </si>
@@ -3179,6 +3179,15 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3189,15 +3198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3944,8 +3944,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5923,23 +5923,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="115"/>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115"/>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="115"/>
-      <c r="M99" s="115"/>
-      <c r="N99" s="115"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="116"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8353,23 +8353,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="114" t="s">
+      <c r="B209" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="115"/>
-      <c r="D209" s="115"/>
-      <c r="E209" s="115"/>
-      <c r="F209" s="115"/>
-      <c r="G209" s="115"/>
-      <c r="H209" s="115"/>
-      <c r="I209" s="115"/>
-      <c r="J209" s="115"/>
-      <c r="K209" s="115"/>
-      <c r="L209" s="115"/>
-      <c r="M209" s="115"/>
-      <c r="N209" s="115"/>
-      <c r="O209" s="115"/>
-      <c r="P209" s="116"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="111"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="112"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9850,23 +9850,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="115"/>
-      <c r="D274" s="115"/>
-      <c r="E274" s="115"/>
-      <c r="F274" s="115"/>
-      <c r="G274" s="115"/>
-      <c r="H274" s="115"/>
-      <c r="I274" s="115"/>
-      <c r="J274" s="115"/>
-      <c r="K274" s="115"/>
-      <c r="L274" s="115"/>
-      <c r="M274" s="115"/>
-      <c r="N274" s="115"/>
-      <c r="O274" s="115"/>
-      <c r="P274" s="116"/>
+      <c r="C274" s="111"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="111"/>
+      <c r="L274" s="111"/>
+      <c r="M274" s="111"/>
+      <c r="N274" s="111"/>
+      <c r="O274" s="111"/>
+      <c r="P274" s="112"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11894,23 +11894,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="114" t="s">
+      <c r="B364" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="115"/>
-      <c r="D364" s="115"/>
-      <c r="E364" s="115"/>
-      <c r="F364" s="115"/>
-      <c r="G364" s="115"/>
-      <c r="H364" s="115"/>
-      <c r="I364" s="115"/>
-      <c r="J364" s="115"/>
-      <c r="K364" s="115"/>
-      <c r="L364" s="115"/>
-      <c r="M364" s="115"/>
-      <c r="N364" s="115"/>
-      <c r="O364" s="115"/>
-      <c r="P364" s="116"/>
+      <c r="C364" s="111"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="111"/>
+      <c r="G364" s="111"/>
+      <c r="H364" s="111"/>
+      <c r="I364" s="111"/>
+      <c r="J364" s="111"/>
+      <c r="K364" s="111"/>
+      <c r="L364" s="111"/>
+      <c r="M364" s="111"/>
+      <c r="N364" s="111"/>
+      <c r="O364" s="111"/>
+      <c r="P364" s="112"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12788,23 +12788,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="114" t="s">
+      <c r="B402" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="115"/>
-      <c r="D402" s="115"/>
-      <c r="E402" s="115"/>
-      <c r="F402" s="115"/>
-      <c r="G402" s="115"/>
-      <c r="H402" s="115"/>
-      <c r="I402" s="115"/>
-      <c r="J402" s="115"/>
-      <c r="K402" s="115"/>
-      <c r="L402" s="115"/>
-      <c r="M402" s="115"/>
-      <c r="N402" s="115"/>
-      <c r="O402" s="115"/>
-      <c r="P402" s="116"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="112"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13660,23 +13660,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="114" t="s">
+      <c r="B440" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="115"/>
-      <c r="D440" s="115"/>
-      <c r="E440" s="115"/>
-      <c r="F440" s="115"/>
-      <c r="G440" s="115"/>
-      <c r="H440" s="115"/>
-      <c r="I440" s="115"/>
-      <c r="J440" s="115"/>
-      <c r="K440" s="115"/>
-      <c r="L440" s="115"/>
-      <c r="M440" s="115"/>
-      <c r="N440" s="115"/>
-      <c r="O440" s="115"/>
-      <c r="P440" s="116"/>
+      <c r="C440" s="111"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="111"/>
+      <c r="G440" s="111"/>
+      <c r="H440" s="111"/>
+      <c r="I440" s="111"/>
+      <c r="J440" s="111"/>
+      <c r="K440" s="111"/>
+      <c r="L440" s="111"/>
+      <c r="M440" s="111"/>
+      <c r="N440" s="111"/>
+      <c r="O440" s="111"/>
+      <c r="P440" s="112"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14569,23 +14569,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="114" t="s">
+      <c r="B479" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="115"/>
-      <c r="D479" s="115"/>
-      <c r="E479" s="115"/>
-      <c r="F479" s="115"/>
-      <c r="G479" s="115"/>
-      <c r="H479" s="115"/>
-      <c r="I479" s="115"/>
-      <c r="J479" s="115"/>
-      <c r="K479" s="115"/>
-      <c r="L479" s="115"/>
-      <c r="M479" s="115"/>
-      <c r="N479" s="115"/>
-      <c r="O479" s="115"/>
-      <c r="P479" s="116"/>
+      <c r="C479" s="111"/>
+      <c r="D479" s="111"/>
+      <c r="E479" s="111"/>
+      <c r="F479" s="111"/>
+      <c r="G479" s="111"/>
+      <c r="H479" s="111"/>
+      <c r="I479" s="111"/>
+      <c r="J479" s="111"/>
+      <c r="K479" s="111"/>
+      <c r="L479" s="111"/>
+      <c r="M479" s="111"/>
+      <c r="N479" s="111"/>
+      <c r="O479" s="111"/>
+      <c r="P479" s="112"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15280,23 +15280,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="114" t="s">
+      <c r="B506" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="115"/>
-      <c r="D506" s="115"/>
-      <c r="E506" s="115"/>
-      <c r="F506" s="115"/>
-      <c r="G506" s="115"/>
-      <c r="H506" s="115"/>
-      <c r="I506" s="115"/>
-      <c r="J506" s="115"/>
-      <c r="K506" s="115"/>
-      <c r="L506" s="115"/>
-      <c r="M506" s="115"/>
-      <c r="N506" s="115"/>
-      <c r="O506" s="115"/>
-      <c r="P506" s="116"/>
+      <c r="C506" s="111"/>
+      <c r="D506" s="111"/>
+      <c r="E506" s="111"/>
+      <c r="F506" s="111"/>
+      <c r="G506" s="111"/>
+      <c r="H506" s="111"/>
+      <c r="I506" s="111"/>
+      <c r="J506" s="111"/>
+      <c r="K506" s="111"/>
+      <c r="L506" s="111"/>
+      <c r="M506" s="111"/>
+      <c r="N506" s="111"/>
+      <c r="O506" s="111"/>
+      <c r="P506" s="112"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -15999,23 +15999,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="114" t="s">
+      <c r="B539" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="115"/>
-      <c r="D539" s="115"/>
-      <c r="E539" s="115"/>
-      <c r="F539" s="115"/>
-      <c r="G539" s="115"/>
-      <c r="H539" s="115"/>
-      <c r="I539" s="115"/>
-      <c r="J539" s="115"/>
-      <c r="K539" s="115"/>
-      <c r="L539" s="115"/>
-      <c r="M539" s="115"/>
-      <c r="N539" s="115"/>
-      <c r="O539" s="115"/>
-      <c r="P539" s="116"/>
+      <c r="C539" s="111"/>
+      <c r="D539" s="111"/>
+      <c r="E539" s="111"/>
+      <c r="F539" s="111"/>
+      <c r="G539" s="111"/>
+      <c r="H539" s="111"/>
+      <c r="I539" s="111"/>
+      <c r="J539" s="111"/>
+      <c r="K539" s="111"/>
+      <c r="L539" s="111"/>
+      <c r="M539" s="111"/>
+      <c r="N539" s="111"/>
+      <c r="O539" s="111"/>
+      <c r="P539" s="112"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16823,23 +16823,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="114" t="s">
+      <c r="B577" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="115"/>
-      <c r="D577" s="115"/>
-      <c r="E577" s="115"/>
-      <c r="F577" s="115"/>
-      <c r="G577" s="115"/>
-      <c r="H577" s="115"/>
-      <c r="I577" s="115"/>
-      <c r="J577" s="115"/>
-      <c r="K577" s="115"/>
-      <c r="L577" s="115"/>
-      <c r="M577" s="115"/>
-      <c r="N577" s="115"/>
-      <c r="O577" s="115"/>
-      <c r="P577" s="116"/>
+      <c r="C577" s="111"/>
+      <c r="D577" s="111"/>
+      <c r="E577" s="111"/>
+      <c r="F577" s="111"/>
+      <c r="G577" s="111"/>
+      <c r="H577" s="111"/>
+      <c r="I577" s="111"/>
+      <c r="J577" s="111"/>
+      <c r="K577" s="111"/>
+      <c r="L577" s="111"/>
+      <c r="M577" s="111"/>
+      <c r="N577" s="111"/>
+      <c r="O577" s="111"/>
+      <c r="P577" s="112"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17340,23 +17340,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="114" t="s">
+      <c r="B600" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="115"/>
-      <c r="D600" s="115"/>
-      <c r="E600" s="115"/>
-      <c r="F600" s="115"/>
-      <c r="G600" s="115"/>
-      <c r="H600" s="115"/>
-      <c r="I600" s="115"/>
-      <c r="J600" s="115"/>
-      <c r="K600" s="115"/>
-      <c r="L600" s="115"/>
-      <c r="M600" s="115"/>
-      <c r="N600" s="115"/>
-      <c r="O600" s="115"/>
-      <c r="P600" s="116"/>
+      <c r="C600" s="111"/>
+      <c r="D600" s="111"/>
+      <c r="E600" s="111"/>
+      <c r="F600" s="111"/>
+      <c r="G600" s="111"/>
+      <c r="H600" s="111"/>
+      <c r="I600" s="111"/>
+      <c r="J600" s="111"/>
+      <c r="K600" s="111"/>
+      <c r="L600" s="111"/>
+      <c r="M600" s="111"/>
+      <c r="N600" s="111"/>
+      <c r="O600" s="111"/>
+      <c r="P600" s="112"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18093,23 +18093,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="114" t="s">
+      <c r="B637" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="115"/>
-      <c r="D637" s="115"/>
-      <c r="E637" s="115"/>
-      <c r="F637" s="115"/>
-      <c r="G637" s="115"/>
-      <c r="H637" s="115"/>
-      <c r="I637" s="115"/>
-      <c r="J637" s="115"/>
-      <c r="K637" s="115"/>
-      <c r="L637" s="115"/>
-      <c r="M637" s="115"/>
-      <c r="N637" s="115"/>
-      <c r="O637" s="115"/>
-      <c r="P637" s="116"/>
+      <c r="C637" s="111"/>
+      <c r="D637" s="111"/>
+      <c r="E637" s="111"/>
+      <c r="F637" s="111"/>
+      <c r="G637" s="111"/>
+      <c r="H637" s="111"/>
+      <c r="I637" s="111"/>
+      <c r="J637" s="111"/>
+      <c r="K637" s="111"/>
+      <c r="L637" s="111"/>
+      <c r="M637" s="111"/>
+      <c r="N637" s="111"/>
+      <c r="O637" s="111"/>
+      <c r="P637" s="112"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18363,23 +18363,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="114" t="s">
+      <c r="B649" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="115"/>
-      <c r="D649" s="115"/>
-      <c r="E649" s="115"/>
-      <c r="F649" s="115"/>
-      <c r="G649" s="115"/>
-      <c r="H649" s="115"/>
-      <c r="I649" s="115"/>
-      <c r="J649" s="115"/>
-      <c r="K649" s="115"/>
-      <c r="L649" s="115"/>
-      <c r="M649" s="115"/>
-      <c r="N649" s="115"/>
-      <c r="O649" s="115"/>
-      <c r="P649" s="116"/>
+      <c r="C649" s="111"/>
+      <c r="D649" s="111"/>
+      <c r="E649" s="111"/>
+      <c r="F649" s="111"/>
+      <c r="G649" s="111"/>
+      <c r="H649" s="111"/>
+      <c r="I649" s="111"/>
+      <c r="J649" s="111"/>
+      <c r="K649" s="111"/>
+      <c r="L649" s="111"/>
+      <c r="M649" s="111"/>
+      <c r="N649" s="111"/>
+      <c r="O649" s="111"/>
+      <c r="P649" s="112"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18881,23 +18881,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="110" t="s">
+      <c r="B675" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="111"/>
-      <c r="D675" s="111"/>
-      <c r="E675" s="111"/>
-      <c r="F675" s="111"/>
-      <c r="G675" s="111"/>
-      <c r="H675" s="111"/>
-      <c r="I675" s="111"/>
-      <c r="J675" s="111"/>
-      <c r="K675" s="111"/>
-      <c r="L675" s="111"/>
-      <c r="M675" s="111"/>
-      <c r="N675" s="111"/>
-      <c r="O675" s="111"/>
-      <c r="P675" s="112"/>
+      <c r="C675" s="114"/>
+      <c r="D675" s="114"/>
+      <c r="E675" s="114"/>
+      <c r="F675" s="114"/>
+      <c r="G675" s="114"/>
+      <c r="H675" s="114"/>
+      <c r="I675" s="114"/>
+      <c r="J675" s="114"/>
+      <c r="K675" s="114"/>
+      <c r="L675" s="114"/>
+      <c r="M675" s="114"/>
+      <c r="N675" s="114"/>
+      <c r="O675" s="114"/>
+      <c r="P675" s="115"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19466,23 +19466,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="110" t="s">
+      <c r="B704" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="111"/>
-      <c r="D704" s="111"/>
-      <c r="E704" s="111"/>
-      <c r="F704" s="111"/>
-      <c r="G704" s="111"/>
-      <c r="H704" s="111"/>
-      <c r="I704" s="111"/>
-      <c r="J704" s="111"/>
-      <c r="K704" s="111"/>
-      <c r="L704" s="111"/>
-      <c r="M704" s="111"/>
-      <c r="N704" s="111"/>
-      <c r="O704" s="111"/>
-      <c r="P704" s="112"/>
+      <c r="C704" s="114"/>
+      <c r="D704" s="114"/>
+      <c r="E704" s="114"/>
+      <c r="F704" s="114"/>
+      <c r="G704" s="114"/>
+      <c r="H704" s="114"/>
+      <c r="I704" s="114"/>
+      <c r="J704" s="114"/>
+      <c r="K704" s="114"/>
+      <c r="L704" s="114"/>
+      <c r="M704" s="114"/>
+      <c r="N704" s="114"/>
+      <c r="O704" s="114"/>
+      <c r="P704" s="115"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19815,23 +19815,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="110" t="s">
+      <c r="B721" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="111"/>
-      <c r="D721" s="111"/>
-      <c r="E721" s="111"/>
-      <c r="F721" s="111"/>
-      <c r="G721" s="111"/>
-      <c r="H721" s="111"/>
-      <c r="I721" s="111"/>
-      <c r="J721" s="111"/>
-      <c r="K721" s="111"/>
-      <c r="L721" s="111"/>
-      <c r="M721" s="111"/>
-      <c r="N721" s="111"/>
-      <c r="O721" s="111"/>
-      <c r="P721" s="112"/>
+      <c r="C721" s="114"/>
+      <c r="D721" s="114"/>
+      <c r="E721" s="114"/>
+      <c r="F721" s="114"/>
+      <c r="G721" s="114"/>
+      <c r="H721" s="114"/>
+      <c r="I721" s="114"/>
+      <c r="J721" s="114"/>
+      <c r="K721" s="114"/>
+      <c r="L721" s="114"/>
+      <c r="M721" s="114"/>
+      <c r="N721" s="114"/>
+      <c r="O721" s="114"/>
+      <c r="P721" s="115"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20207,23 +20207,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="110" t="s">
+      <c r="B741" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="111"/>
-      <c r="D741" s="111"/>
-      <c r="E741" s="111"/>
-      <c r="F741" s="111"/>
-      <c r="G741" s="111"/>
-      <c r="H741" s="111"/>
-      <c r="I741" s="111"/>
-      <c r="J741" s="111"/>
-      <c r="K741" s="111"/>
-      <c r="L741" s="111"/>
-      <c r="M741" s="111"/>
-      <c r="N741" s="111"/>
-      <c r="O741" s="111"/>
-      <c r="P741" s="112"/>
+      <c r="C741" s="114"/>
+      <c r="D741" s="114"/>
+      <c r="E741" s="114"/>
+      <c r="F741" s="114"/>
+      <c r="G741" s="114"/>
+      <c r="H741" s="114"/>
+      <c r="I741" s="114"/>
+      <c r="J741" s="114"/>
+      <c r="K741" s="114"/>
+      <c r="L741" s="114"/>
+      <c r="M741" s="114"/>
+      <c r="N741" s="114"/>
+      <c r="O741" s="114"/>
+      <c r="P741" s="115"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21050,23 +21050,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="110" t="s">
+      <c r="B782" s="113" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="111"/>
-      <c r="D782" s="111"/>
-      <c r="E782" s="111"/>
-      <c r="F782" s="111"/>
-      <c r="G782" s="111"/>
-      <c r="H782" s="111"/>
-      <c r="I782" s="111"/>
-      <c r="J782" s="111"/>
-      <c r="K782" s="111"/>
-      <c r="L782" s="111"/>
-      <c r="M782" s="111"/>
-      <c r="N782" s="111"/>
-      <c r="O782" s="111"/>
-      <c r="P782" s="112"/>
+      <c r="C782" s="114"/>
+      <c r="D782" s="114"/>
+      <c r="E782" s="114"/>
+      <c r="F782" s="114"/>
+      <c r="G782" s="114"/>
+      <c r="H782" s="114"/>
+      <c r="I782" s="114"/>
+      <c r="J782" s="114"/>
+      <c r="K782" s="114"/>
+      <c r="L782" s="114"/>
+      <c r="M782" s="114"/>
+      <c r="N782" s="114"/>
+      <c r="O782" s="114"/>
+      <c r="P782" s="115"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21282,12 +21282,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21304,6 +21298,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23034,8 +23034,12 @@
       <c r="F23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="109">
+        <v>250</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="5"/>
       <c r="N23" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593F740-33ED-EA40-89D6-A2486094E740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC08386-32F1-AB40-A241-546676D5CA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="460" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="15360" yWindow="11960" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3179,15 +3179,6 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3198,6 +3189,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3944,8 +3944,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5923,23 +5923,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="112"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="115"/>
+      <c r="I99" s="115"/>
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="115"/>
+      <c r="M99" s="115"/>
+      <c r="N99" s="115"/>
+      <c r="O99" s="115"/>
+      <c r="P99" s="116"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8353,23 +8353,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="110" t="s">
+      <c r="B209" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="112"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="115"/>
+      <c r="G209" s="115"/>
+      <c r="H209" s="115"/>
+      <c r="I209" s="115"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="115"/>
+      <c r="L209" s="115"/>
+      <c r="M209" s="115"/>
+      <c r="N209" s="115"/>
+      <c r="O209" s="115"/>
+      <c r="P209" s="116"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9850,23 +9850,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="110" t="s">
+      <c r="B274" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="111"/>
-      <c r="D274" s="111"/>
-      <c r="E274" s="111"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="111"/>
-      <c r="H274" s="111"/>
-      <c r="I274" s="111"/>
-      <c r="J274" s="111"/>
-      <c r="K274" s="111"/>
-      <c r="L274" s="111"/>
-      <c r="M274" s="111"/>
-      <c r="N274" s="111"/>
-      <c r="O274" s="111"/>
-      <c r="P274" s="112"/>
+      <c r="C274" s="115"/>
+      <c r="D274" s="115"/>
+      <c r="E274" s="115"/>
+      <c r="F274" s="115"/>
+      <c r="G274" s="115"/>
+      <c r="H274" s="115"/>
+      <c r="I274" s="115"/>
+      <c r="J274" s="115"/>
+      <c r="K274" s="115"/>
+      <c r="L274" s="115"/>
+      <c r="M274" s="115"/>
+      <c r="N274" s="115"/>
+      <c r="O274" s="115"/>
+      <c r="P274" s="116"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11894,23 +11894,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="110" t="s">
+      <c r="B364" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="111"/>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="111"/>
-      <c r="G364" s="111"/>
-      <c r="H364" s="111"/>
-      <c r="I364" s="111"/>
-      <c r="J364" s="111"/>
-      <c r="K364" s="111"/>
-      <c r="L364" s="111"/>
-      <c r="M364" s="111"/>
-      <c r="N364" s="111"/>
-      <c r="O364" s="111"/>
-      <c r="P364" s="112"/>
+      <c r="C364" s="115"/>
+      <c r="D364" s="115"/>
+      <c r="E364" s="115"/>
+      <c r="F364" s="115"/>
+      <c r="G364" s="115"/>
+      <c r="H364" s="115"/>
+      <c r="I364" s="115"/>
+      <c r="J364" s="115"/>
+      <c r="K364" s="115"/>
+      <c r="L364" s="115"/>
+      <c r="M364" s="115"/>
+      <c r="N364" s="115"/>
+      <c r="O364" s="115"/>
+      <c r="P364" s="116"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12788,23 +12788,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="110" t="s">
+      <c r="B402" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="111"/>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="111"/>
-      <c r="G402" s="111"/>
-      <c r="H402" s="111"/>
-      <c r="I402" s="111"/>
-      <c r="J402" s="111"/>
-      <c r="K402" s="111"/>
-      <c r="L402" s="111"/>
-      <c r="M402" s="111"/>
-      <c r="N402" s="111"/>
-      <c r="O402" s="111"/>
-      <c r="P402" s="112"/>
+      <c r="C402" s="115"/>
+      <c r="D402" s="115"/>
+      <c r="E402" s="115"/>
+      <c r="F402" s="115"/>
+      <c r="G402" s="115"/>
+      <c r="H402" s="115"/>
+      <c r="I402" s="115"/>
+      <c r="J402" s="115"/>
+      <c r="K402" s="115"/>
+      <c r="L402" s="115"/>
+      <c r="M402" s="115"/>
+      <c r="N402" s="115"/>
+      <c r="O402" s="115"/>
+      <c r="P402" s="116"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13660,23 +13660,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="110" t="s">
+      <c r="B440" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="111"/>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="111"/>
-      <c r="G440" s="111"/>
-      <c r="H440" s="111"/>
-      <c r="I440" s="111"/>
-      <c r="J440" s="111"/>
-      <c r="K440" s="111"/>
-      <c r="L440" s="111"/>
-      <c r="M440" s="111"/>
-      <c r="N440" s="111"/>
-      <c r="O440" s="111"/>
-      <c r="P440" s="112"/>
+      <c r="C440" s="115"/>
+      <c r="D440" s="115"/>
+      <c r="E440" s="115"/>
+      <c r="F440" s="115"/>
+      <c r="G440" s="115"/>
+      <c r="H440" s="115"/>
+      <c r="I440" s="115"/>
+      <c r="J440" s="115"/>
+      <c r="K440" s="115"/>
+      <c r="L440" s="115"/>
+      <c r="M440" s="115"/>
+      <c r="N440" s="115"/>
+      <c r="O440" s="115"/>
+      <c r="P440" s="116"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14569,23 +14569,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="110" t="s">
+      <c r="B479" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="111"/>
-      <c r="D479" s="111"/>
-      <c r="E479" s="111"/>
-      <c r="F479" s="111"/>
-      <c r="G479" s="111"/>
-      <c r="H479" s="111"/>
-      <c r="I479" s="111"/>
-      <c r="J479" s="111"/>
-      <c r="K479" s="111"/>
-      <c r="L479" s="111"/>
-      <c r="M479" s="111"/>
-      <c r="N479" s="111"/>
-      <c r="O479" s="111"/>
-      <c r="P479" s="112"/>
+      <c r="C479" s="115"/>
+      <c r="D479" s="115"/>
+      <c r="E479" s="115"/>
+      <c r="F479" s="115"/>
+      <c r="G479" s="115"/>
+      <c r="H479" s="115"/>
+      <c r="I479" s="115"/>
+      <c r="J479" s="115"/>
+      <c r="K479" s="115"/>
+      <c r="L479" s="115"/>
+      <c r="M479" s="115"/>
+      <c r="N479" s="115"/>
+      <c r="O479" s="115"/>
+      <c r="P479" s="116"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15280,23 +15280,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="110" t="s">
+      <c r="B506" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="111"/>
-      <c r="D506" s="111"/>
-      <c r="E506" s="111"/>
-      <c r="F506" s="111"/>
-      <c r="G506" s="111"/>
-      <c r="H506" s="111"/>
-      <c r="I506" s="111"/>
-      <c r="J506" s="111"/>
-      <c r="K506" s="111"/>
-      <c r="L506" s="111"/>
-      <c r="M506" s="111"/>
-      <c r="N506" s="111"/>
-      <c r="O506" s="111"/>
-      <c r="P506" s="112"/>
+      <c r="C506" s="115"/>
+      <c r="D506" s="115"/>
+      <c r="E506" s="115"/>
+      <c r="F506" s="115"/>
+      <c r="G506" s="115"/>
+      <c r="H506" s="115"/>
+      <c r="I506" s="115"/>
+      <c r="J506" s="115"/>
+      <c r="K506" s="115"/>
+      <c r="L506" s="115"/>
+      <c r="M506" s="115"/>
+      <c r="N506" s="115"/>
+      <c r="O506" s="115"/>
+      <c r="P506" s="116"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -15999,23 +15999,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="111"/>
-      <c r="D539" s="111"/>
-      <c r="E539" s="111"/>
-      <c r="F539" s="111"/>
-      <c r="G539" s="111"/>
-      <c r="H539" s="111"/>
-      <c r="I539" s="111"/>
-      <c r="J539" s="111"/>
-      <c r="K539" s="111"/>
-      <c r="L539" s="111"/>
-      <c r="M539" s="111"/>
-      <c r="N539" s="111"/>
-      <c r="O539" s="111"/>
-      <c r="P539" s="112"/>
+      <c r="C539" s="115"/>
+      <c r="D539" s="115"/>
+      <c r="E539" s="115"/>
+      <c r="F539" s="115"/>
+      <c r="G539" s="115"/>
+      <c r="H539" s="115"/>
+      <c r="I539" s="115"/>
+      <c r="J539" s="115"/>
+      <c r="K539" s="115"/>
+      <c r="L539" s="115"/>
+      <c r="M539" s="115"/>
+      <c r="N539" s="115"/>
+      <c r="O539" s="115"/>
+      <c r="P539" s="116"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16823,23 +16823,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="110" t="s">
+      <c r="B577" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="111"/>
-      <c r="D577" s="111"/>
-      <c r="E577" s="111"/>
-      <c r="F577" s="111"/>
-      <c r="G577" s="111"/>
-      <c r="H577" s="111"/>
-      <c r="I577" s="111"/>
-      <c r="J577" s="111"/>
-      <c r="K577" s="111"/>
-      <c r="L577" s="111"/>
-      <c r="M577" s="111"/>
-      <c r="N577" s="111"/>
-      <c r="O577" s="111"/>
-      <c r="P577" s="112"/>
+      <c r="C577" s="115"/>
+      <c r="D577" s="115"/>
+      <c r="E577" s="115"/>
+      <c r="F577" s="115"/>
+      <c r="G577" s="115"/>
+      <c r="H577" s="115"/>
+      <c r="I577" s="115"/>
+      <c r="J577" s="115"/>
+      <c r="K577" s="115"/>
+      <c r="L577" s="115"/>
+      <c r="M577" s="115"/>
+      <c r="N577" s="115"/>
+      <c r="O577" s="115"/>
+      <c r="P577" s="116"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17340,23 +17340,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="110" t="s">
+      <c r="B600" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="111"/>
-      <c r="F600" s="111"/>
-      <c r="G600" s="111"/>
-      <c r="H600" s="111"/>
-      <c r="I600" s="111"/>
-      <c r="J600" s="111"/>
-      <c r="K600" s="111"/>
-      <c r="L600" s="111"/>
-      <c r="M600" s="111"/>
-      <c r="N600" s="111"/>
-      <c r="O600" s="111"/>
-      <c r="P600" s="112"/>
+      <c r="C600" s="115"/>
+      <c r="D600" s="115"/>
+      <c r="E600" s="115"/>
+      <c r="F600" s="115"/>
+      <c r="G600" s="115"/>
+      <c r="H600" s="115"/>
+      <c r="I600" s="115"/>
+      <c r="J600" s="115"/>
+      <c r="K600" s="115"/>
+      <c r="L600" s="115"/>
+      <c r="M600" s="115"/>
+      <c r="N600" s="115"/>
+      <c r="O600" s="115"/>
+      <c r="P600" s="116"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18093,23 +18093,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="110" t="s">
+      <c r="B637" s="114" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="111"/>
-      <c r="D637" s="111"/>
-      <c r="E637" s="111"/>
-      <c r="F637" s="111"/>
-      <c r="G637" s="111"/>
-      <c r="H637" s="111"/>
-      <c r="I637" s="111"/>
-      <c r="J637" s="111"/>
-      <c r="K637" s="111"/>
-      <c r="L637" s="111"/>
-      <c r="M637" s="111"/>
-      <c r="N637" s="111"/>
-      <c r="O637" s="111"/>
-      <c r="P637" s="112"/>
+      <c r="C637" s="115"/>
+      <c r="D637" s="115"/>
+      <c r="E637" s="115"/>
+      <c r="F637" s="115"/>
+      <c r="G637" s="115"/>
+      <c r="H637" s="115"/>
+      <c r="I637" s="115"/>
+      <c r="J637" s="115"/>
+      <c r="K637" s="115"/>
+      <c r="L637" s="115"/>
+      <c r="M637" s="115"/>
+      <c r="N637" s="115"/>
+      <c r="O637" s="115"/>
+      <c r="P637" s="116"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18363,23 +18363,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="110" t="s">
+      <c r="B649" s="114" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="111"/>
-      <c r="D649" s="111"/>
-      <c r="E649" s="111"/>
-      <c r="F649" s="111"/>
-      <c r="G649" s="111"/>
-      <c r="H649" s="111"/>
-      <c r="I649" s="111"/>
-      <c r="J649" s="111"/>
-      <c r="K649" s="111"/>
-      <c r="L649" s="111"/>
-      <c r="M649" s="111"/>
-      <c r="N649" s="111"/>
-      <c r="O649" s="111"/>
-      <c r="P649" s="112"/>
+      <c r="C649" s="115"/>
+      <c r="D649" s="115"/>
+      <c r="E649" s="115"/>
+      <c r="F649" s="115"/>
+      <c r="G649" s="115"/>
+      <c r="H649" s="115"/>
+      <c r="I649" s="115"/>
+      <c r="J649" s="115"/>
+      <c r="K649" s="115"/>
+      <c r="L649" s="115"/>
+      <c r="M649" s="115"/>
+      <c r="N649" s="115"/>
+      <c r="O649" s="115"/>
+      <c r="P649" s="116"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18881,23 +18881,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="113" t="s">
+      <c r="B675" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="114"/>
-      <c r="D675" s="114"/>
-      <c r="E675" s="114"/>
-      <c r="F675" s="114"/>
-      <c r="G675" s="114"/>
-      <c r="H675" s="114"/>
-      <c r="I675" s="114"/>
-      <c r="J675" s="114"/>
-      <c r="K675" s="114"/>
-      <c r="L675" s="114"/>
-      <c r="M675" s="114"/>
-      <c r="N675" s="114"/>
-      <c r="O675" s="114"/>
-      <c r="P675" s="115"/>
+      <c r="C675" s="111"/>
+      <c r="D675" s="111"/>
+      <c r="E675" s="111"/>
+      <c r="F675" s="111"/>
+      <c r="G675" s="111"/>
+      <c r="H675" s="111"/>
+      <c r="I675" s="111"/>
+      <c r="J675" s="111"/>
+      <c r="K675" s="111"/>
+      <c r="L675" s="111"/>
+      <c r="M675" s="111"/>
+      <c r="N675" s="111"/>
+      <c r="O675" s="111"/>
+      <c r="P675" s="112"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19466,23 +19466,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="113" t="s">
+      <c r="B704" s="110" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="114"/>
-      <c r="D704" s="114"/>
-      <c r="E704" s="114"/>
-      <c r="F704" s="114"/>
-      <c r="G704" s="114"/>
-      <c r="H704" s="114"/>
-      <c r="I704" s="114"/>
-      <c r="J704" s="114"/>
-      <c r="K704" s="114"/>
-      <c r="L704" s="114"/>
-      <c r="M704" s="114"/>
-      <c r="N704" s="114"/>
-      <c r="O704" s="114"/>
-      <c r="P704" s="115"/>
+      <c r="C704" s="111"/>
+      <c r="D704" s="111"/>
+      <c r="E704" s="111"/>
+      <c r="F704" s="111"/>
+      <c r="G704" s="111"/>
+      <c r="H704" s="111"/>
+      <c r="I704" s="111"/>
+      <c r="J704" s="111"/>
+      <c r="K704" s="111"/>
+      <c r="L704" s="111"/>
+      <c r="M704" s="111"/>
+      <c r="N704" s="111"/>
+      <c r="O704" s="111"/>
+      <c r="P704" s="112"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19815,23 +19815,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="113" t="s">
+      <c r="B721" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="114"/>
-      <c r="D721" s="114"/>
-      <c r="E721" s="114"/>
-      <c r="F721" s="114"/>
-      <c r="G721" s="114"/>
-      <c r="H721" s="114"/>
-      <c r="I721" s="114"/>
-      <c r="J721" s="114"/>
-      <c r="K721" s="114"/>
-      <c r="L721" s="114"/>
-      <c r="M721" s="114"/>
-      <c r="N721" s="114"/>
-      <c r="O721" s="114"/>
-      <c r="P721" s="115"/>
+      <c r="C721" s="111"/>
+      <c r="D721" s="111"/>
+      <c r="E721" s="111"/>
+      <c r="F721" s="111"/>
+      <c r="G721" s="111"/>
+      <c r="H721" s="111"/>
+      <c r="I721" s="111"/>
+      <c r="J721" s="111"/>
+      <c r="K721" s="111"/>
+      <c r="L721" s="111"/>
+      <c r="M721" s="111"/>
+      <c r="N721" s="111"/>
+      <c r="O721" s="111"/>
+      <c r="P721" s="112"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20207,23 +20207,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="113" t="s">
+      <c r="B741" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="114"/>
-      <c r="D741" s="114"/>
-      <c r="E741" s="114"/>
-      <c r="F741" s="114"/>
-      <c r="G741" s="114"/>
-      <c r="H741" s="114"/>
-      <c r="I741" s="114"/>
-      <c r="J741" s="114"/>
-      <c r="K741" s="114"/>
-      <c r="L741" s="114"/>
-      <c r="M741" s="114"/>
-      <c r="N741" s="114"/>
-      <c r="O741" s="114"/>
-      <c r="P741" s="115"/>
+      <c r="C741" s="111"/>
+      <c r="D741" s="111"/>
+      <c r="E741" s="111"/>
+      <c r="F741" s="111"/>
+      <c r="G741" s="111"/>
+      <c r="H741" s="111"/>
+      <c r="I741" s="111"/>
+      <c r="J741" s="111"/>
+      <c r="K741" s="111"/>
+      <c r="L741" s="111"/>
+      <c r="M741" s="111"/>
+      <c r="N741" s="111"/>
+      <c r="O741" s="111"/>
+      <c r="P741" s="112"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21050,23 +21050,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="113" t="s">
+      <c r="B782" s="110" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="114"/>
-      <c r="D782" s="114"/>
-      <c r="E782" s="114"/>
-      <c r="F782" s="114"/>
-      <c r="G782" s="114"/>
-      <c r="H782" s="114"/>
-      <c r="I782" s="114"/>
-      <c r="J782" s="114"/>
-      <c r="K782" s="114"/>
-      <c r="L782" s="114"/>
-      <c r="M782" s="114"/>
-      <c r="N782" s="114"/>
-      <c r="O782" s="114"/>
-      <c r="P782" s="115"/>
+      <c r="C782" s="111"/>
+      <c r="D782" s="111"/>
+      <c r="E782" s="111"/>
+      <c r="F782" s="111"/>
+      <c r="G782" s="111"/>
+      <c r="H782" s="111"/>
+      <c r="I782" s="111"/>
+      <c r="J782" s="111"/>
+      <c r="K782" s="111"/>
+      <c r="L782" s="111"/>
+      <c r="M782" s="111"/>
+      <c r="N782" s="111"/>
+      <c r="O782" s="111"/>
+      <c r="P782" s="112"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21282,6 +21282,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21298,12 +21304,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22303,7 +22303,7 @@
       <c r="F9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="109">
         <v>257</v>
       </c>
       <c r="I9" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC08386-32F1-AB40-A241-546676D5CA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC277A-8AA3-CD44-9A9C-84756D3EE8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="11960" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="749">
   <si>
     <t>Array</t>
   </si>
@@ -21706,14 +21706,14 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="6" max="6" width="44.83203125" customWidth="1"/>
-    <col min="9" max="9" width="46.83203125" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" customWidth="1"/>
     <col min="12" max="12" width="48.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
     <col min="15" max="15" width="36.83203125" customWidth="1"/>
@@ -23072,8 +23072,12 @@
       <c r="F24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="109">
+        <v>106</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="5"/>
       <c r="N24" s="3"/>
@@ -23106,8 +23110,12 @@
       <c r="F25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="3">
+        <v>105</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="5"/>
       <c r="N25" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC277A-8AA3-CD44-9A9C-84756D3EE8F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2122C47-1359-1C45-83D8-6C1B693F75C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="11960" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="15360" yWindow="11940" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22369,7 +22369,7 @@
       <c r="F10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="109">
         <v>110</v>
       </c>
       <c r="I10" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2122C47-1359-1C45-83D8-6C1B693F75C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FAC5FE-A661-1242-A707-9C7717419632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="11940" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21706,7 +21706,7 @@
   <dimension ref="B1:AP157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22435,7 +22435,7 @@
       <c r="F11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="109">
         <v>1120</v>
       </c>
       <c r="I11" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FAC5FE-A661-1242-A707-9C7717419632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DFC0B-FCDD-5D42-960C-8A3CA8339482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="11940" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="5280" yWindow="14900" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3179,6 +3179,15 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3189,15 +3198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3552,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3944,8 +3944,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5923,23 +5923,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="115"/>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115"/>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="115"/>
-      <c r="M99" s="115"/>
-      <c r="N99" s="115"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="116"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8353,23 +8353,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="114" t="s">
+      <c r="B209" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="115"/>
-      <c r="D209" s="115"/>
-      <c r="E209" s="115"/>
-      <c r="F209" s="115"/>
-      <c r="G209" s="115"/>
-      <c r="H209" s="115"/>
-      <c r="I209" s="115"/>
-      <c r="J209" s="115"/>
-      <c r="K209" s="115"/>
-      <c r="L209" s="115"/>
-      <c r="M209" s="115"/>
-      <c r="N209" s="115"/>
-      <c r="O209" s="115"/>
-      <c r="P209" s="116"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="111"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="112"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9850,23 +9850,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="115"/>
-      <c r="D274" s="115"/>
-      <c r="E274" s="115"/>
-      <c r="F274" s="115"/>
-      <c r="G274" s="115"/>
-      <c r="H274" s="115"/>
-      <c r="I274" s="115"/>
-      <c r="J274" s="115"/>
-      <c r="K274" s="115"/>
-      <c r="L274" s="115"/>
-      <c r="M274" s="115"/>
-      <c r="N274" s="115"/>
-      <c r="O274" s="115"/>
-      <c r="P274" s="116"/>
+      <c r="C274" s="111"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="111"/>
+      <c r="L274" s="111"/>
+      <c r="M274" s="111"/>
+      <c r="N274" s="111"/>
+      <c r="O274" s="111"/>
+      <c r="P274" s="112"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11894,23 +11894,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="114" t="s">
+      <c r="B364" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="115"/>
-      <c r="D364" s="115"/>
-      <c r="E364" s="115"/>
-      <c r="F364" s="115"/>
-      <c r="G364" s="115"/>
-      <c r="H364" s="115"/>
-      <c r="I364" s="115"/>
-      <c r="J364" s="115"/>
-      <c r="K364" s="115"/>
-      <c r="L364" s="115"/>
-      <c r="M364" s="115"/>
-      <c r="N364" s="115"/>
-      <c r="O364" s="115"/>
-      <c r="P364" s="116"/>
+      <c r="C364" s="111"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="111"/>
+      <c r="G364" s="111"/>
+      <c r="H364" s="111"/>
+      <c r="I364" s="111"/>
+      <c r="J364" s="111"/>
+      <c r="K364" s="111"/>
+      <c r="L364" s="111"/>
+      <c r="M364" s="111"/>
+      <c r="N364" s="111"/>
+      <c r="O364" s="111"/>
+      <c r="P364" s="112"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12788,23 +12788,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="114" t="s">
+      <c r="B402" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="115"/>
-      <c r="D402" s="115"/>
-      <c r="E402" s="115"/>
-      <c r="F402" s="115"/>
-      <c r="G402" s="115"/>
-      <c r="H402" s="115"/>
-      <c r="I402" s="115"/>
-      <c r="J402" s="115"/>
-      <c r="K402" s="115"/>
-      <c r="L402" s="115"/>
-      <c r="M402" s="115"/>
-      <c r="N402" s="115"/>
-      <c r="O402" s="115"/>
-      <c r="P402" s="116"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="112"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13660,23 +13660,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="114" t="s">
+      <c r="B440" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="115"/>
-      <c r="D440" s="115"/>
-      <c r="E440" s="115"/>
-      <c r="F440" s="115"/>
-      <c r="G440" s="115"/>
-      <c r="H440" s="115"/>
-      <c r="I440" s="115"/>
-      <c r="J440" s="115"/>
-      <c r="K440" s="115"/>
-      <c r="L440" s="115"/>
-      <c r="M440" s="115"/>
-      <c r="N440" s="115"/>
-      <c r="O440" s="115"/>
-      <c r="P440" s="116"/>
+      <c r="C440" s="111"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="111"/>
+      <c r="G440" s="111"/>
+      <c r="H440" s="111"/>
+      <c r="I440" s="111"/>
+      <c r="J440" s="111"/>
+      <c r="K440" s="111"/>
+      <c r="L440" s="111"/>
+      <c r="M440" s="111"/>
+      <c r="N440" s="111"/>
+      <c r="O440" s="111"/>
+      <c r="P440" s="112"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14569,23 +14569,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="114" t="s">
+      <c r="B479" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="115"/>
-      <c r="D479" s="115"/>
-      <c r="E479" s="115"/>
-      <c r="F479" s="115"/>
-      <c r="G479" s="115"/>
-      <c r="H479" s="115"/>
-      <c r="I479" s="115"/>
-      <c r="J479" s="115"/>
-      <c r="K479" s="115"/>
-      <c r="L479" s="115"/>
-      <c r="M479" s="115"/>
-      <c r="N479" s="115"/>
-      <c r="O479" s="115"/>
-      <c r="P479" s="116"/>
+      <c r="C479" s="111"/>
+      <c r="D479" s="111"/>
+      <c r="E479" s="111"/>
+      <c r="F479" s="111"/>
+      <c r="G479" s="111"/>
+      <c r="H479" s="111"/>
+      <c r="I479" s="111"/>
+      <c r="J479" s="111"/>
+      <c r="K479" s="111"/>
+      <c r="L479" s="111"/>
+      <c r="M479" s="111"/>
+      <c r="N479" s="111"/>
+      <c r="O479" s="111"/>
+      <c r="P479" s="112"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15280,23 +15280,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="114" t="s">
+      <c r="B506" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="115"/>
-      <c r="D506" s="115"/>
-      <c r="E506" s="115"/>
-      <c r="F506" s="115"/>
-      <c r="G506" s="115"/>
-      <c r="H506" s="115"/>
-      <c r="I506" s="115"/>
-      <c r="J506" s="115"/>
-      <c r="K506" s="115"/>
-      <c r="L506" s="115"/>
-      <c r="M506" s="115"/>
-      <c r="N506" s="115"/>
-      <c r="O506" s="115"/>
-      <c r="P506" s="116"/>
+      <c r="C506" s="111"/>
+      <c r="D506" s="111"/>
+      <c r="E506" s="111"/>
+      <c r="F506" s="111"/>
+      <c r="G506" s="111"/>
+      <c r="H506" s="111"/>
+      <c r="I506" s="111"/>
+      <c r="J506" s="111"/>
+      <c r="K506" s="111"/>
+      <c r="L506" s="111"/>
+      <c r="M506" s="111"/>
+      <c r="N506" s="111"/>
+      <c r="O506" s="111"/>
+      <c r="P506" s="112"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -15999,23 +15999,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="114" t="s">
+      <c r="B539" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="115"/>
-      <c r="D539" s="115"/>
-      <c r="E539" s="115"/>
-      <c r="F539" s="115"/>
-      <c r="G539" s="115"/>
-      <c r="H539" s="115"/>
-      <c r="I539" s="115"/>
-      <c r="J539" s="115"/>
-      <c r="K539" s="115"/>
-      <c r="L539" s="115"/>
-      <c r="M539" s="115"/>
-      <c r="N539" s="115"/>
-      <c r="O539" s="115"/>
-      <c r="P539" s="116"/>
+      <c r="C539" s="111"/>
+      <c r="D539" s="111"/>
+      <c r="E539" s="111"/>
+      <c r="F539" s="111"/>
+      <c r="G539" s="111"/>
+      <c r="H539" s="111"/>
+      <c r="I539" s="111"/>
+      <c r="J539" s="111"/>
+      <c r="K539" s="111"/>
+      <c r="L539" s="111"/>
+      <c r="M539" s="111"/>
+      <c r="N539" s="111"/>
+      <c r="O539" s="111"/>
+      <c r="P539" s="112"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16823,23 +16823,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="114" t="s">
+      <c r="B577" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="115"/>
-      <c r="D577" s="115"/>
-      <c r="E577" s="115"/>
-      <c r="F577" s="115"/>
-      <c r="G577" s="115"/>
-      <c r="H577" s="115"/>
-      <c r="I577" s="115"/>
-      <c r="J577" s="115"/>
-      <c r="K577" s="115"/>
-      <c r="L577" s="115"/>
-      <c r="M577" s="115"/>
-      <c r="N577" s="115"/>
-      <c r="O577" s="115"/>
-      <c r="P577" s="116"/>
+      <c r="C577" s="111"/>
+      <c r="D577" s="111"/>
+      <c r="E577" s="111"/>
+      <c r="F577" s="111"/>
+      <c r="G577" s="111"/>
+      <c r="H577" s="111"/>
+      <c r="I577" s="111"/>
+      <c r="J577" s="111"/>
+      <c r="K577" s="111"/>
+      <c r="L577" s="111"/>
+      <c r="M577" s="111"/>
+      <c r="N577" s="111"/>
+      <c r="O577" s="111"/>
+      <c r="P577" s="112"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17340,23 +17340,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="114" t="s">
+      <c r="B600" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="115"/>
-      <c r="D600" s="115"/>
-      <c r="E600" s="115"/>
-      <c r="F600" s="115"/>
-      <c r="G600" s="115"/>
-      <c r="H600" s="115"/>
-      <c r="I600" s="115"/>
-      <c r="J600" s="115"/>
-      <c r="K600" s="115"/>
-      <c r="L600" s="115"/>
-      <c r="M600" s="115"/>
-      <c r="N600" s="115"/>
-      <c r="O600" s="115"/>
-      <c r="P600" s="116"/>
+      <c r="C600" s="111"/>
+      <c r="D600" s="111"/>
+      <c r="E600" s="111"/>
+      <c r="F600" s="111"/>
+      <c r="G600" s="111"/>
+      <c r="H600" s="111"/>
+      <c r="I600" s="111"/>
+      <c r="J600" s="111"/>
+      <c r="K600" s="111"/>
+      <c r="L600" s="111"/>
+      <c r="M600" s="111"/>
+      <c r="N600" s="111"/>
+      <c r="O600" s="111"/>
+      <c r="P600" s="112"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18093,23 +18093,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="114" t="s">
+      <c r="B637" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="115"/>
-      <c r="D637" s="115"/>
-      <c r="E637" s="115"/>
-      <c r="F637" s="115"/>
-      <c r="G637" s="115"/>
-      <c r="H637" s="115"/>
-      <c r="I637" s="115"/>
-      <c r="J637" s="115"/>
-      <c r="K637" s="115"/>
-      <c r="L637" s="115"/>
-      <c r="M637" s="115"/>
-      <c r="N637" s="115"/>
-      <c r="O637" s="115"/>
-      <c r="P637" s="116"/>
+      <c r="C637" s="111"/>
+      <c r="D637" s="111"/>
+      <c r="E637" s="111"/>
+      <c r="F637" s="111"/>
+      <c r="G637" s="111"/>
+      <c r="H637" s="111"/>
+      <c r="I637" s="111"/>
+      <c r="J637" s="111"/>
+      <c r="K637" s="111"/>
+      <c r="L637" s="111"/>
+      <c r="M637" s="111"/>
+      <c r="N637" s="111"/>
+      <c r="O637" s="111"/>
+      <c r="P637" s="112"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18363,23 +18363,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="114" t="s">
+      <c r="B649" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="115"/>
-      <c r="D649" s="115"/>
-      <c r="E649" s="115"/>
-      <c r="F649" s="115"/>
-      <c r="G649" s="115"/>
-      <c r="H649" s="115"/>
-      <c r="I649" s="115"/>
-      <c r="J649" s="115"/>
-      <c r="K649" s="115"/>
-      <c r="L649" s="115"/>
-      <c r="M649" s="115"/>
-      <c r="N649" s="115"/>
-      <c r="O649" s="115"/>
-      <c r="P649" s="116"/>
+      <c r="C649" s="111"/>
+      <c r="D649" s="111"/>
+      <c r="E649" s="111"/>
+      <c r="F649" s="111"/>
+      <c r="G649" s="111"/>
+      <c r="H649" s="111"/>
+      <c r="I649" s="111"/>
+      <c r="J649" s="111"/>
+      <c r="K649" s="111"/>
+      <c r="L649" s="111"/>
+      <c r="M649" s="111"/>
+      <c r="N649" s="111"/>
+      <c r="O649" s="111"/>
+      <c r="P649" s="112"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18881,23 +18881,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="110" t="s">
+      <c r="B675" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="111"/>
-      <c r="D675" s="111"/>
-      <c r="E675" s="111"/>
-      <c r="F675" s="111"/>
-      <c r="G675" s="111"/>
-      <c r="H675" s="111"/>
-      <c r="I675" s="111"/>
-      <c r="J675" s="111"/>
-      <c r="K675" s="111"/>
-      <c r="L675" s="111"/>
-      <c r="M675" s="111"/>
-      <c r="N675" s="111"/>
-      <c r="O675" s="111"/>
-      <c r="P675" s="112"/>
+      <c r="C675" s="114"/>
+      <c r="D675" s="114"/>
+      <c r="E675" s="114"/>
+      <c r="F675" s="114"/>
+      <c r="G675" s="114"/>
+      <c r="H675" s="114"/>
+      <c r="I675" s="114"/>
+      <c r="J675" s="114"/>
+      <c r="K675" s="114"/>
+      <c r="L675" s="114"/>
+      <c r="M675" s="114"/>
+      <c r="N675" s="114"/>
+      <c r="O675" s="114"/>
+      <c r="P675" s="115"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19466,23 +19466,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="110" t="s">
+      <c r="B704" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="111"/>
-      <c r="D704" s="111"/>
-      <c r="E704" s="111"/>
-      <c r="F704" s="111"/>
-      <c r="G704" s="111"/>
-      <c r="H704" s="111"/>
-      <c r="I704" s="111"/>
-      <c r="J704" s="111"/>
-      <c r="K704" s="111"/>
-      <c r="L704" s="111"/>
-      <c r="M704" s="111"/>
-      <c r="N704" s="111"/>
-      <c r="O704" s="111"/>
-      <c r="P704" s="112"/>
+      <c r="C704" s="114"/>
+      <c r="D704" s="114"/>
+      <c r="E704" s="114"/>
+      <c r="F704" s="114"/>
+      <c r="G704" s="114"/>
+      <c r="H704" s="114"/>
+      <c r="I704" s="114"/>
+      <c r="J704" s="114"/>
+      <c r="K704" s="114"/>
+      <c r="L704" s="114"/>
+      <c r="M704" s="114"/>
+      <c r="N704" s="114"/>
+      <c r="O704" s="114"/>
+      <c r="P704" s="115"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19815,23 +19815,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="110" t="s">
+      <c r="B721" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="111"/>
-      <c r="D721" s="111"/>
-      <c r="E721" s="111"/>
-      <c r="F721" s="111"/>
-      <c r="G721" s="111"/>
-      <c r="H721" s="111"/>
-      <c r="I721" s="111"/>
-      <c r="J721" s="111"/>
-      <c r="K721" s="111"/>
-      <c r="L721" s="111"/>
-      <c r="M721" s="111"/>
-      <c r="N721" s="111"/>
-      <c r="O721" s="111"/>
-      <c r="P721" s="112"/>
+      <c r="C721" s="114"/>
+      <c r="D721" s="114"/>
+      <c r="E721" s="114"/>
+      <c r="F721" s="114"/>
+      <c r="G721" s="114"/>
+      <c r="H721" s="114"/>
+      <c r="I721" s="114"/>
+      <c r="J721" s="114"/>
+      <c r="K721" s="114"/>
+      <c r="L721" s="114"/>
+      <c r="M721" s="114"/>
+      <c r="N721" s="114"/>
+      <c r="O721" s="114"/>
+      <c r="P721" s="115"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20207,23 +20207,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="110" t="s">
+      <c r="B741" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="111"/>
-      <c r="D741" s="111"/>
-      <c r="E741" s="111"/>
-      <c r="F741" s="111"/>
-      <c r="G741" s="111"/>
-      <c r="H741" s="111"/>
-      <c r="I741" s="111"/>
-      <c r="J741" s="111"/>
-      <c r="K741" s="111"/>
-      <c r="L741" s="111"/>
-      <c r="M741" s="111"/>
-      <c r="N741" s="111"/>
-      <c r="O741" s="111"/>
-      <c r="P741" s="112"/>
+      <c r="C741" s="114"/>
+      <c r="D741" s="114"/>
+      <c r="E741" s="114"/>
+      <c r="F741" s="114"/>
+      <c r="G741" s="114"/>
+      <c r="H741" s="114"/>
+      <c r="I741" s="114"/>
+      <c r="J741" s="114"/>
+      <c r="K741" s="114"/>
+      <c r="L741" s="114"/>
+      <c r="M741" s="114"/>
+      <c r="N741" s="114"/>
+      <c r="O741" s="114"/>
+      <c r="P741" s="115"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21050,23 +21050,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="110" t="s">
+      <c r="B782" s="113" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="111"/>
-      <c r="D782" s="111"/>
-      <c r="E782" s="111"/>
-      <c r="F782" s="111"/>
-      <c r="G782" s="111"/>
-      <c r="H782" s="111"/>
-      <c r="I782" s="111"/>
-      <c r="J782" s="111"/>
-      <c r="K782" s="111"/>
-      <c r="L782" s="111"/>
-      <c r="M782" s="111"/>
-      <c r="N782" s="111"/>
-      <c r="O782" s="111"/>
-      <c r="P782" s="112"/>
+      <c r="C782" s="114"/>
+      <c r="D782" s="114"/>
+      <c r="E782" s="114"/>
+      <c r="F782" s="114"/>
+      <c r="G782" s="114"/>
+      <c r="H782" s="114"/>
+      <c r="I782" s="114"/>
+      <c r="J782" s="114"/>
+      <c r="K782" s="114"/>
+      <c r="L782" s="114"/>
+      <c r="M782" s="114"/>
+      <c r="N782" s="114"/>
+      <c r="O782" s="114"/>
+      <c r="P782" s="115"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21282,12 +21282,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21304,6 +21298,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21705,8 +21705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AP157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23110,7 +23110,7 @@
       <c r="F25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="109">
         <v>105</v>
       </c>
       <c r="I25" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DFC0B-FCDD-5D42-960C-8A3CA8339482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB95DB-3DA3-4B41-90E3-7D7E9613D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="14900" windowWidth="54620" windowHeight="27300" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="7760" yWindow="5500" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="752">
   <si>
     <t>Array</t>
   </si>
@@ -2273,6 +2273,15 @@
   </si>
   <si>
     <t>Maximum Distance in Arrays</t>
+  </si>
+  <si>
+    <t>Chapter 15</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Validate IP Address</t>
   </si>
 </sst>
 </file>
@@ -21703,10 +21712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
-  <dimension ref="B1:AP157"/>
+  <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AS4" sqref="AS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21729,10 +21738,12 @@
     <col min="39" max="39" width="50.1640625" customWidth="1"/>
     <col min="41" max="41" width="13" customWidth="1"/>
     <col min="42" max="42" width="48.33203125" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" customWidth="1"/>
+    <col min="45" max="45" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="92" t="s">
         <v>519</v>
       </c>
@@ -21817,8 +21828,14 @@
       <c r="AP2" s="94" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR2" s="107" t="s">
+        <v>749</v>
+      </c>
+      <c r="AS2" s="94" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B3" s="91" t="s">
         <v>498</v>
       </c>
@@ -21875,8 +21892,12 @@
         <v>498</v>
       </c>
       <c r="AP3" s="93"/>
-    </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR3" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="AS3" s="93"/>
+    </row>
+    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>28</v>
       </c>
@@ -21961,8 +21982,14 @@
       <c r="AP4" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR4" s="109">
+        <v>468</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>78</v>
       </c>
@@ -22047,8 +22074,10 @@
       <c r="AP5" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="5"/>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>90</v>
       </c>
@@ -22129,8 +22158,10 @@
       <c r="AP6" s="5" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="5"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>46</v>
       </c>
@@ -22211,8 +22242,10 @@
       <c r="AP7" s="5" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="5"/>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>47</v>
       </c>
@@ -22289,8 +22322,10 @@
       <c r="AP8" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="5"/>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>77</v>
       </c>
@@ -22355,8 +22390,10 @@
       <c r="AP9" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="5"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>39</v>
       </c>
@@ -22421,8 +22458,10 @@
       <c r="AP10" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="5"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>40</v>
       </c>
@@ -22483,8 +22522,10 @@
       <c r="AM11" s="5"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="5"/>
-    </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="5"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>216</v>
       </c>
@@ -22545,8 +22586,10 @@
       <c r="AM12" s="5"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="5"/>
-    </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="5"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>377</v>
       </c>
@@ -22603,8 +22646,10 @@
       <c r="AM13" s="5"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="5"/>
-    </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="5"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="E14" s="3">
@@ -22653,8 +22698,10 @@
       <c r="AM14" s="5"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="5"/>
-    </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="5"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="E15" s="3">
@@ -22703,8 +22750,10 @@
       <c r="AM15" s="5"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="5"/>
-    </row>
-    <row r="16" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="5"/>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="E16" s="3">
@@ -22753,8 +22802,10 @@
       <c r="AM16" s="5"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="5"/>
-    </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="5"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="E17" s="3">
@@ -22803,8 +22854,10 @@
       <c r="AM17" s="5"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="5"/>
-    </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="5"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="E18" s="3">
@@ -22849,8 +22902,10 @@
       <c r="AM18" s="5"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="5"/>
-    </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="5"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="E19" s="3">
@@ -22895,8 +22950,10 @@
       <c r="AM19" s="5"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="5"/>
-    </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="5"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="E20" s="3">
@@ -22937,8 +22994,10 @@
       <c r="AM20" s="5"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="5"/>
-    </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="5"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="E21" s="3">
@@ -22982,8 +23041,10 @@
       <c r="AM21" s="5"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="5"/>
-    </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="5"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="E22" s="3">
@@ -23024,8 +23085,10 @@
       <c r="AM22" s="5"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="5"/>
-    </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="5"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="E23" s="3">
@@ -23062,8 +23125,10 @@
       <c r="AM23" s="5"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="5"/>
-    </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="5"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="E24" s="3">
@@ -23100,8 +23165,10 @@
       <c r="AM24" s="5"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="5"/>
-    </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="5"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
       <c r="E25" s="3">
@@ -23138,8 +23205,10 @@
       <c r="AM25" s="5"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="5"/>
-    </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="5"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="E26" s="3">
@@ -23175,8 +23244,10 @@
       <c r="AM26" s="5"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="5"/>
-    </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="5"/>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
       <c r="E27" s="3">
@@ -23212,8 +23283,10 @@
       <c r="AM27" s="5"/>
       <c r="AO27" s="3"/>
       <c r="AP27" s="5"/>
-    </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="5"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
       <c r="E28" s="3">
@@ -23249,8 +23322,10 @@
       <c r="AM28" s="5"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="5"/>
-    </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="5"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
       <c r="E29" s="3">
@@ -23286,8 +23361,10 @@
       <c r="AM29" s="5"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="5"/>
-    </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="5"/>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
       <c r="E30" s="3">
@@ -23323,8 +23400,10 @@
       <c r="AM30" s="5"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="5"/>
-    </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="5"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
       <c r="E31" s="3">
@@ -23360,8 +23439,10 @@
       <c r="AM31" s="5"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="5"/>
-    </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="5"/>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
       <c r="E32" s="3">
@@ -23397,8 +23478,10 @@
       <c r="AM32" s="5"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="5"/>
-    </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="5"/>
+    </row>
+    <row r="33" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="E33" s="3">
@@ -23434,8 +23517,10 @@
       <c r="AM33" s="5"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="5"/>
-    </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="5"/>
+    </row>
+    <row r="34" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
       <c r="E34" s="3">
@@ -23471,8 +23556,10 @@
       <c r="AM34" s="5"/>
       <c r="AO34" s="3"/>
       <c r="AP34" s="5"/>
-    </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="5"/>
+    </row>
+    <row r="35" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
       <c r="E35" s="3">
@@ -23508,8 +23595,10 @@
       <c r="AM35" s="5"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="5"/>
-    </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="5"/>
+    </row>
+    <row r="36" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="5"/>
       <c r="E36" s="3">
@@ -23545,8 +23634,10 @@
       <c r="AM36" s="5"/>
       <c r="AO36" s="3"/>
       <c r="AP36" s="5"/>
-    </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="5"/>
+    </row>
+    <row r="37" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
       <c r="E37" s="3">
@@ -23582,8 +23673,10 @@
       <c r="AM37" s="5"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="5"/>
-    </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="5"/>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="E38" s="3">
@@ -23616,8 +23709,10 @@
       <c r="AM38" s="5"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="5"/>
-    </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="5"/>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="E39" s="3">
@@ -23650,8 +23745,10 @@
       <c r="AM39" s="5"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="5"/>
-    </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="5"/>
+    </row>
+    <row r="40" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="E40" s="3">
@@ -23684,8 +23781,10 @@
       <c r="AM40" s="5"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="5"/>
-    </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="5"/>
+    </row>
+    <row r="41" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="5"/>
       <c r="E41" s="3">
@@ -23721,8 +23820,10 @@
       <c r="AM41" s="5"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="5"/>
-    </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="5"/>
+    </row>
+    <row r="42" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="5"/>
       <c r="E42" s="3">
@@ -23758,8 +23859,10 @@
       <c r="AM42" s="5"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="5"/>
-    </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="5"/>
+    </row>
+    <row r="43" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="E43" s="3"/>
@@ -23791,8 +23894,10 @@
       <c r="AM43" s="5"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="5"/>
-    </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="5"/>
+    </row>
+    <row r="44" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="E44" s="3"/>
@@ -23824,8 +23929,10 @@
       <c r="AM44" s="5"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="5"/>
-    </row>
-    <row r="45" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="5"/>
+    </row>
+    <row r="45" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="E45" s="3"/>
@@ -23857,8 +23964,10 @@
       <c r="AM45" s="5"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="5"/>
-    </row>
-    <row r="46" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="5"/>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="E46" s="3"/>
@@ -23890,8 +23999,10 @@
       <c r="AM46" s="5"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="5"/>
-    </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="5"/>
+    </row>
+    <row r="47" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="E47" s="3"/>
@@ -23923,8 +24034,10 @@
       <c r="AM47" s="5"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="5"/>
-    </row>
-    <row r="48" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="5"/>
+    </row>
+    <row r="48" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="E48" s="3"/>
@@ -23956,8 +24069,10 @@
       <c r="AM48" s="5"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="5"/>
-    </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="5"/>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="E49" s="3"/>
@@ -23989,8 +24104,10 @@
       <c r="AM49" s="5"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="5"/>
-    </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="5"/>
+    </row>
+    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="E50" s="3"/>
@@ -24022,8 +24139,10 @@
       <c r="AM50" s="5"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="5"/>
-    </row>
-    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="5"/>
+    </row>
+    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="E51" s="3"/>
@@ -24055,8 +24174,10 @@
       <c r="AM51" s="5"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="5"/>
-    </row>
-    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="5"/>
+    </row>
+    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="E52" s="3"/>
@@ -24088,8 +24209,10 @@
       <c r="AM52" s="5"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="5"/>
-    </row>
-    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="5"/>
+    </row>
+    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="E53" s="3"/>
@@ -24118,8 +24241,10 @@
       <c r="AM53" s="5"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="5"/>
-    </row>
-    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="5"/>
+    </row>
+    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="E54" s="3"/>
@@ -24148,8 +24273,10 @@
       <c r="AM54" s="5"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="5"/>
-    </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="5"/>
+    </row>
+    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="E55" s="3"/>
@@ -24178,8 +24305,10 @@
       <c r="AM55" s="5"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="5"/>
-    </row>
-    <row r="56" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="5"/>
+    </row>
+    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="5"/>
       <c r="E56" s="3"/>
@@ -24211,8 +24340,10 @@
       <c r="AM56" s="5"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="5"/>
-    </row>
-    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="5"/>
+    </row>
+    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
       <c r="E57" s="3"/>
@@ -24244,8 +24375,10 @@
       <c r="AM57" s="5"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="5"/>
-    </row>
-    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="5"/>
+    </row>
+    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
       <c r="E58" s="3"/>
@@ -24277,8 +24410,10 @@
       <c r="AM58" s="5"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="5"/>
-    </row>
-    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="5"/>
+    </row>
+    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
       <c r="E59" s="3"/>
@@ -24310,8 +24445,10 @@
       <c r="AM59" s="5"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="5"/>
-    </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="5"/>
+    </row>
+    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
       <c r="E60" s="3"/>
@@ -24343,8 +24480,10 @@
       <c r="AM60" s="5"/>
       <c r="AO60" s="3"/>
       <c r="AP60" s="5"/>
-    </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="5"/>
+    </row>
+    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
       <c r="E61" s="3"/>
@@ -24376,8 +24515,10 @@
       <c r="AM61" s="5"/>
       <c r="AO61" s="3"/>
       <c r="AP61" s="5"/>
-    </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="5"/>
+    </row>
+    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="E62" s="3"/>
@@ -24409,8 +24550,10 @@
       <c r="AM62" s="5"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="5"/>
-    </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="5"/>
+    </row>
+    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="E63" s="3"/>
@@ -24442,8 +24585,10 @@
       <c r="AM63" s="5"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="5"/>
-    </row>
-    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="5"/>
+    </row>
+    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="E64" s="3"/>
@@ -24475,8 +24620,10 @@
       <c r="AM64" s="5"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="5"/>
-    </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="5"/>
+    </row>
+    <row r="65" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="E65" s="3"/>
@@ -24508,8 +24655,10 @@
       <c r="AM65" s="5"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="5"/>
-    </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="5"/>
+    </row>
+    <row r="66" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="E66" s="3"/>
@@ -24541,8 +24690,10 @@
       <c r="AM66" s="5"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="5"/>
-    </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR66" s="3"/>
+      <c r="AS66" s="5"/>
+    </row>
+    <row r="67" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="E67" s="3"/>
@@ -24574,8 +24725,10 @@
       <c r="AM67" s="5"/>
       <c r="AO67" s="3"/>
       <c r="AP67" s="5"/>
-    </row>
-    <row r="68" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AR67" s="3"/>
+      <c r="AS67" s="5"/>
+    </row>
+    <row r="68" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B68" s="106"/>
       <c r="C68" s="106"/>
       <c r="D68" s="106"/>
@@ -24612,7 +24765,7 @@
       <c r="AI68" s="106"/>
       <c r="AJ68" s="106"/>
     </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B69" s="106"/>
       <c r="C69" s="106"/>
       <c r="D69" s="106"/>
@@ -24649,7 +24802,7 @@
       <c r="AI69" s="106"/>
       <c r="AJ69" s="106"/>
     </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B70" s="106"/>
       <c r="C70" s="106"/>
       <c r="D70" s="106"/>
@@ -24686,7 +24839,7 @@
       <c r="AI70" s="106"/>
       <c r="AJ70" s="106"/>
     </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B71" s="106"/>
       <c r="C71" s="106"/>
       <c r="D71" s="106"/>
@@ -24723,7 +24876,7 @@
       <c r="AI71" s="106"/>
       <c r="AJ71" s="106"/>
     </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B72" s="106"/>
       <c r="C72" s="106"/>
       <c r="D72" s="106"/>
@@ -24760,7 +24913,7 @@
       <c r="AI72" s="106"/>
       <c r="AJ72" s="106"/>
     </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B73" s="106"/>
       <c r="C73" s="106"/>
       <c r="D73" s="106"/>
@@ -24797,7 +24950,7 @@
       <c r="AI73" s="106"/>
       <c r="AJ73" s="106"/>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B74" s="106"/>
       <c r="C74" s="106"/>
       <c r="D74" s="106"/>
@@ -24834,7 +24987,7 @@
       <c r="AI74" s="106"/>
       <c r="AJ74" s="106"/>
     </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B75" s="106"/>
       <c r="C75" s="106"/>
       <c r="D75" s="106"/>
@@ -24871,7 +25024,7 @@
       <c r="AI75" s="106"/>
       <c r="AJ75" s="106"/>
     </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B76" s="106"/>
       <c r="C76" s="106"/>
       <c r="D76" s="106"/>
@@ -24908,7 +25061,7 @@
       <c r="AI76" s="106"/>
       <c r="AJ76" s="106"/>
     </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B77" s="106"/>
       <c r="C77" s="106"/>
       <c r="D77" s="106"/>
@@ -24945,7 +25098,7 @@
       <c r="AI77" s="106"/>
       <c r="AJ77" s="106"/>
     </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B78" s="106"/>
       <c r="C78" s="106"/>
       <c r="D78" s="106"/>
@@ -24982,7 +25135,7 @@
       <c r="AI78" s="106"/>
       <c r="AJ78" s="106"/>
     </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B79" s="106"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106"/>
@@ -25019,7 +25172,7 @@
       <c r="AI79" s="106"/>
       <c r="AJ79" s="106"/>
     </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
       <c r="D80" s="106"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB95DB-3DA3-4B41-90E3-7D7E9613D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AB6F2-24FC-9E48-8FBD-B142F59178DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="5500" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="14180" yWindow="8880" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3188,15 +3188,6 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3207,6 +3198,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3561,27 +3561,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3953,8 +3953,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5932,23 +5932,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="112"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="115"/>
+      <c r="I99" s="115"/>
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="115"/>
+      <c r="M99" s="115"/>
+      <c r="N99" s="115"/>
+      <c r="O99" s="115"/>
+      <c r="P99" s="116"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8362,23 +8362,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="110" t="s">
+      <c r="B209" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="112"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="115"/>
+      <c r="G209" s="115"/>
+      <c r="H209" s="115"/>
+      <c r="I209" s="115"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="115"/>
+      <c r="L209" s="115"/>
+      <c r="M209" s="115"/>
+      <c r="N209" s="115"/>
+      <c r="O209" s="115"/>
+      <c r="P209" s="116"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9859,23 +9859,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="110" t="s">
+      <c r="B274" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="111"/>
-      <c r="D274" s="111"/>
-      <c r="E274" s="111"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="111"/>
-      <c r="H274" s="111"/>
-      <c r="I274" s="111"/>
-      <c r="J274" s="111"/>
-      <c r="K274" s="111"/>
-      <c r="L274" s="111"/>
-      <c r="M274" s="111"/>
-      <c r="N274" s="111"/>
-      <c r="O274" s="111"/>
-      <c r="P274" s="112"/>
+      <c r="C274" s="115"/>
+      <c r="D274" s="115"/>
+      <c r="E274" s="115"/>
+      <c r="F274" s="115"/>
+      <c r="G274" s="115"/>
+      <c r="H274" s="115"/>
+      <c r="I274" s="115"/>
+      <c r="J274" s="115"/>
+      <c r="K274" s="115"/>
+      <c r="L274" s="115"/>
+      <c r="M274" s="115"/>
+      <c r="N274" s="115"/>
+      <c r="O274" s="115"/>
+      <c r="P274" s="116"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11903,23 +11903,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="110" t="s">
+      <c r="B364" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="111"/>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="111"/>
-      <c r="G364" s="111"/>
-      <c r="H364" s="111"/>
-      <c r="I364" s="111"/>
-      <c r="J364" s="111"/>
-      <c r="K364" s="111"/>
-      <c r="L364" s="111"/>
-      <c r="M364" s="111"/>
-      <c r="N364" s="111"/>
-      <c r="O364" s="111"/>
-      <c r="P364" s="112"/>
+      <c r="C364" s="115"/>
+      <c r="D364" s="115"/>
+      <c r="E364" s="115"/>
+      <c r="F364" s="115"/>
+      <c r="G364" s="115"/>
+      <c r="H364" s="115"/>
+      <c r="I364" s="115"/>
+      <c r="J364" s="115"/>
+      <c r="K364" s="115"/>
+      <c r="L364" s="115"/>
+      <c r="M364" s="115"/>
+      <c r="N364" s="115"/>
+      <c r="O364" s="115"/>
+      <c r="P364" s="116"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12797,23 +12797,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="110" t="s">
+      <c r="B402" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="111"/>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="111"/>
-      <c r="G402" s="111"/>
-      <c r="H402" s="111"/>
-      <c r="I402" s="111"/>
-      <c r="J402" s="111"/>
-      <c r="K402" s="111"/>
-      <c r="L402" s="111"/>
-      <c r="M402" s="111"/>
-      <c r="N402" s="111"/>
-      <c r="O402" s="111"/>
-      <c r="P402" s="112"/>
+      <c r="C402" s="115"/>
+      <c r="D402" s="115"/>
+      <c r="E402" s="115"/>
+      <c r="F402" s="115"/>
+      <c r="G402" s="115"/>
+      <c r="H402" s="115"/>
+      <c r="I402" s="115"/>
+      <c r="J402" s="115"/>
+      <c r="K402" s="115"/>
+      <c r="L402" s="115"/>
+      <c r="M402" s="115"/>
+      <c r="N402" s="115"/>
+      <c r="O402" s="115"/>
+      <c r="P402" s="116"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13669,23 +13669,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="110" t="s">
+      <c r="B440" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="111"/>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="111"/>
-      <c r="G440" s="111"/>
-      <c r="H440" s="111"/>
-      <c r="I440" s="111"/>
-      <c r="J440" s="111"/>
-      <c r="K440" s="111"/>
-      <c r="L440" s="111"/>
-      <c r="M440" s="111"/>
-      <c r="N440" s="111"/>
-      <c r="O440" s="111"/>
-      <c r="P440" s="112"/>
+      <c r="C440" s="115"/>
+      <c r="D440" s="115"/>
+      <c r="E440" s="115"/>
+      <c r="F440" s="115"/>
+      <c r="G440" s="115"/>
+      <c r="H440" s="115"/>
+      <c r="I440" s="115"/>
+      <c r="J440" s="115"/>
+      <c r="K440" s="115"/>
+      <c r="L440" s="115"/>
+      <c r="M440" s="115"/>
+      <c r="N440" s="115"/>
+      <c r="O440" s="115"/>
+      <c r="P440" s="116"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14578,23 +14578,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="110" t="s">
+      <c r="B479" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="111"/>
-      <c r="D479" s="111"/>
-      <c r="E479" s="111"/>
-      <c r="F479" s="111"/>
-      <c r="G479" s="111"/>
-      <c r="H479" s="111"/>
-      <c r="I479" s="111"/>
-      <c r="J479" s="111"/>
-      <c r="K479" s="111"/>
-      <c r="L479" s="111"/>
-      <c r="M479" s="111"/>
-      <c r="N479" s="111"/>
-      <c r="O479" s="111"/>
-      <c r="P479" s="112"/>
+      <c r="C479" s="115"/>
+      <c r="D479" s="115"/>
+      <c r="E479" s="115"/>
+      <c r="F479" s="115"/>
+      <c r="G479" s="115"/>
+      <c r="H479" s="115"/>
+      <c r="I479" s="115"/>
+      <c r="J479" s="115"/>
+      <c r="K479" s="115"/>
+      <c r="L479" s="115"/>
+      <c r="M479" s="115"/>
+      <c r="N479" s="115"/>
+      <c r="O479" s="115"/>
+      <c r="P479" s="116"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15289,23 +15289,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="110" t="s">
+      <c r="B506" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="111"/>
-      <c r="D506" s="111"/>
-      <c r="E506" s="111"/>
-      <c r="F506" s="111"/>
-      <c r="G506" s="111"/>
-      <c r="H506" s="111"/>
-      <c r="I506" s="111"/>
-      <c r="J506" s="111"/>
-      <c r="K506" s="111"/>
-      <c r="L506" s="111"/>
-      <c r="M506" s="111"/>
-      <c r="N506" s="111"/>
-      <c r="O506" s="111"/>
-      <c r="P506" s="112"/>
+      <c r="C506" s="115"/>
+      <c r="D506" s="115"/>
+      <c r="E506" s="115"/>
+      <c r="F506" s="115"/>
+      <c r="G506" s="115"/>
+      <c r="H506" s="115"/>
+      <c r="I506" s="115"/>
+      <c r="J506" s="115"/>
+      <c r="K506" s="115"/>
+      <c r="L506" s="115"/>
+      <c r="M506" s="115"/>
+      <c r="N506" s="115"/>
+      <c r="O506" s="115"/>
+      <c r="P506" s="116"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16008,23 +16008,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="111"/>
-      <c r="D539" s="111"/>
-      <c r="E539" s="111"/>
-      <c r="F539" s="111"/>
-      <c r="G539" s="111"/>
-      <c r="H539" s="111"/>
-      <c r="I539" s="111"/>
-      <c r="J539" s="111"/>
-      <c r="K539" s="111"/>
-      <c r="L539" s="111"/>
-      <c r="M539" s="111"/>
-      <c r="N539" s="111"/>
-      <c r="O539" s="111"/>
-      <c r="P539" s="112"/>
+      <c r="C539" s="115"/>
+      <c r="D539" s="115"/>
+      <c r="E539" s="115"/>
+      <c r="F539" s="115"/>
+      <c r="G539" s="115"/>
+      <c r="H539" s="115"/>
+      <c r="I539" s="115"/>
+      <c r="J539" s="115"/>
+      <c r="K539" s="115"/>
+      <c r="L539" s="115"/>
+      <c r="M539" s="115"/>
+      <c r="N539" s="115"/>
+      <c r="O539" s="115"/>
+      <c r="P539" s="116"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16832,23 +16832,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="110" t="s">
+      <c r="B577" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="111"/>
-      <c r="D577" s="111"/>
-      <c r="E577" s="111"/>
-      <c r="F577" s="111"/>
-      <c r="G577" s="111"/>
-      <c r="H577" s="111"/>
-      <c r="I577" s="111"/>
-      <c r="J577" s="111"/>
-      <c r="K577" s="111"/>
-      <c r="L577" s="111"/>
-      <c r="M577" s="111"/>
-      <c r="N577" s="111"/>
-      <c r="O577" s="111"/>
-      <c r="P577" s="112"/>
+      <c r="C577" s="115"/>
+      <c r="D577" s="115"/>
+      <c r="E577" s="115"/>
+      <c r="F577" s="115"/>
+      <c r="G577" s="115"/>
+      <c r="H577" s="115"/>
+      <c r="I577" s="115"/>
+      <c r="J577" s="115"/>
+      <c r="K577" s="115"/>
+      <c r="L577" s="115"/>
+      <c r="M577" s="115"/>
+      <c r="N577" s="115"/>
+      <c r="O577" s="115"/>
+      <c r="P577" s="116"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17349,23 +17349,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="110" t="s">
+      <c r="B600" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="111"/>
-      <c r="F600" s="111"/>
-      <c r="G600" s="111"/>
-      <c r="H600" s="111"/>
-      <c r="I600" s="111"/>
-      <c r="J600" s="111"/>
-      <c r="K600" s="111"/>
-      <c r="L600" s="111"/>
-      <c r="M600" s="111"/>
-      <c r="N600" s="111"/>
-      <c r="O600" s="111"/>
-      <c r="P600" s="112"/>
+      <c r="C600" s="115"/>
+      <c r="D600" s="115"/>
+      <c r="E600" s="115"/>
+      <c r="F600" s="115"/>
+      <c r="G600" s="115"/>
+      <c r="H600" s="115"/>
+      <c r="I600" s="115"/>
+      <c r="J600" s="115"/>
+      <c r="K600" s="115"/>
+      <c r="L600" s="115"/>
+      <c r="M600" s="115"/>
+      <c r="N600" s="115"/>
+      <c r="O600" s="115"/>
+      <c r="P600" s="116"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18102,23 +18102,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="110" t="s">
+      <c r="B637" s="114" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="111"/>
-      <c r="D637" s="111"/>
-      <c r="E637" s="111"/>
-      <c r="F637" s="111"/>
-      <c r="G637" s="111"/>
-      <c r="H637" s="111"/>
-      <c r="I637" s="111"/>
-      <c r="J637" s="111"/>
-      <c r="K637" s="111"/>
-      <c r="L637" s="111"/>
-      <c r="M637" s="111"/>
-      <c r="N637" s="111"/>
-      <c r="O637" s="111"/>
-      <c r="P637" s="112"/>
+      <c r="C637" s="115"/>
+      <c r="D637" s="115"/>
+      <c r="E637" s="115"/>
+      <c r="F637" s="115"/>
+      <c r="G637" s="115"/>
+      <c r="H637" s="115"/>
+      <c r="I637" s="115"/>
+      <c r="J637" s="115"/>
+      <c r="K637" s="115"/>
+      <c r="L637" s="115"/>
+      <c r="M637" s="115"/>
+      <c r="N637" s="115"/>
+      <c r="O637" s="115"/>
+      <c r="P637" s="116"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18372,23 +18372,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="110" t="s">
+      <c r="B649" s="114" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="111"/>
-      <c r="D649" s="111"/>
-      <c r="E649" s="111"/>
-      <c r="F649" s="111"/>
-      <c r="G649" s="111"/>
-      <c r="H649" s="111"/>
-      <c r="I649" s="111"/>
-      <c r="J649" s="111"/>
-      <c r="K649" s="111"/>
-      <c r="L649" s="111"/>
-      <c r="M649" s="111"/>
-      <c r="N649" s="111"/>
-      <c r="O649" s="111"/>
-      <c r="P649" s="112"/>
+      <c r="C649" s="115"/>
+      <c r="D649" s="115"/>
+      <c r="E649" s="115"/>
+      <c r="F649" s="115"/>
+      <c r="G649" s="115"/>
+      <c r="H649" s="115"/>
+      <c r="I649" s="115"/>
+      <c r="J649" s="115"/>
+      <c r="K649" s="115"/>
+      <c r="L649" s="115"/>
+      <c r="M649" s="115"/>
+      <c r="N649" s="115"/>
+      <c r="O649" s="115"/>
+      <c r="P649" s="116"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18890,23 +18890,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="113" t="s">
+      <c r="B675" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="114"/>
-      <c r="D675" s="114"/>
-      <c r="E675" s="114"/>
-      <c r="F675" s="114"/>
-      <c r="G675" s="114"/>
-      <c r="H675" s="114"/>
-      <c r="I675" s="114"/>
-      <c r="J675" s="114"/>
-      <c r="K675" s="114"/>
-      <c r="L675" s="114"/>
-      <c r="M675" s="114"/>
-      <c r="N675" s="114"/>
-      <c r="O675" s="114"/>
-      <c r="P675" s="115"/>
+      <c r="C675" s="111"/>
+      <c r="D675" s="111"/>
+      <c r="E675" s="111"/>
+      <c r="F675" s="111"/>
+      <c r="G675" s="111"/>
+      <c r="H675" s="111"/>
+      <c r="I675" s="111"/>
+      <c r="J675" s="111"/>
+      <c r="K675" s="111"/>
+      <c r="L675" s="111"/>
+      <c r="M675" s="111"/>
+      <c r="N675" s="111"/>
+      <c r="O675" s="111"/>
+      <c r="P675" s="112"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19475,23 +19475,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="113" t="s">
+      <c r="B704" s="110" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="114"/>
-      <c r="D704" s="114"/>
-      <c r="E704" s="114"/>
-      <c r="F704" s="114"/>
-      <c r="G704" s="114"/>
-      <c r="H704" s="114"/>
-      <c r="I704" s="114"/>
-      <c r="J704" s="114"/>
-      <c r="K704" s="114"/>
-      <c r="L704" s="114"/>
-      <c r="M704" s="114"/>
-      <c r="N704" s="114"/>
-      <c r="O704" s="114"/>
-      <c r="P704" s="115"/>
+      <c r="C704" s="111"/>
+      <c r="D704" s="111"/>
+      <c r="E704" s="111"/>
+      <c r="F704" s="111"/>
+      <c r="G704" s="111"/>
+      <c r="H704" s="111"/>
+      <c r="I704" s="111"/>
+      <c r="J704" s="111"/>
+      <c r="K704" s="111"/>
+      <c r="L704" s="111"/>
+      <c r="M704" s="111"/>
+      <c r="N704" s="111"/>
+      <c r="O704" s="111"/>
+      <c r="P704" s="112"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19824,23 +19824,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="113" t="s">
+      <c r="B721" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="114"/>
-      <c r="D721" s="114"/>
-      <c r="E721" s="114"/>
-      <c r="F721" s="114"/>
-      <c r="G721" s="114"/>
-      <c r="H721" s="114"/>
-      <c r="I721" s="114"/>
-      <c r="J721" s="114"/>
-      <c r="K721" s="114"/>
-      <c r="L721" s="114"/>
-      <c r="M721" s="114"/>
-      <c r="N721" s="114"/>
-      <c r="O721" s="114"/>
-      <c r="P721" s="115"/>
+      <c r="C721" s="111"/>
+      <c r="D721" s="111"/>
+      <c r="E721" s="111"/>
+      <c r="F721" s="111"/>
+      <c r="G721" s="111"/>
+      <c r="H721" s="111"/>
+      <c r="I721" s="111"/>
+      <c r="J721" s="111"/>
+      <c r="K721" s="111"/>
+      <c r="L721" s="111"/>
+      <c r="M721" s="111"/>
+      <c r="N721" s="111"/>
+      <c r="O721" s="111"/>
+      <c r="P721" s="112"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20216,23 +20216,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="113" t="s">
+      <c r="B741" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="114"/>
-      <c r="D741" s="114"/>
-      <c r="E741" s="114"/>
-      <c r="F741" s="114"/>
-      <c r="G741" s="114"/>
-      <c r="H741" s="114"/>
-      <c r="I741" s="114"/>
-      <c r="J741" s="114"/>
-      <c r="K741" s="114"/>
-      <c r="L741" s="114"/>
-      <c r="M741" s="114"/>
-      <c r="N741" s="114"/>
-      <c r="O741" s="114"/>
-      <c r="P741" s="115"/>
+      <c r="C741" s="111"/>
+      <c r="D741" s="111"/>
+      <c r="E741" s="111"/>
+      <c r="F741" s="111"/>
+      <c r="G741" s="111"/>
+      <c r="H741" s="111"/>
+      <c r="I741" s="111"/>
+      <c r="J741" s="111"/>
+      <c r="K741" s="111"/>
+      <c r="L741" s="111"/>
+      <c r="M741" s="111"/>
+      <c r="N741" s="111"/>
+      <c r="O741" s="111"/>
+      <c r="P741" s="112"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21059,23 +21059,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="113" t="s">
+      <c r="B782" s="110" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="114"/>
-      <c r="D782" s="114"/>
-      <c r="E782" s="114"/>
-      <c r="F782" s="114"/>
-      <c r="G782" s="114"/>
-      <c r="H782" s="114"/>
-      <c r="I782" s="114"/>
-      <c r="J782" s="114"/>
-      <c r="K782" s="114"/>
-      <c r="L782" s="114"/>
-      <c r="M782" s="114"/>
-      <c r="N782" s="114"/>
-      <c r="O782" s="114"/>
-      <c r="P782" s="115"/>
+      <c r="C782" s="111"/>
+      <c r="D782" s="111"/>
+      <c r="E782" s="111"/>
+      <c r="F782" s="111"/>
+      <c r="G782" s="111"/>
+      <c r="H782" s="111"/>
+      <c r="I782" s="111"/>
+      <c r="J782" s="111"/>
+      <c r="K782" s="111"/>
+      <c r="L782" s="111"/>
+      <c r="M782" s="111"/>
+      <c r="N782" s="111"/>
+      <c r="O782" s="111"/>
+      <c r="P782" s="112"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21291,6 +21291,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21307,12 +21313,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21714,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22538,7 +22538,7 @@
       <c r="F12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="109">
         <v>236</v>
       </c>
       <c r="I12" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AB6F2-24FC-9E48-8FBD-B142F59178DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E779E8-FFBE-2E48-9493-B056B7927669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14180" yWindow="8880" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21714,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22602,7 +22602,7 @@
       <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="109">
         <v>98</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -22658,7 +22658,7 @@
       <c r="F14" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="109">
         <v>114</v>
       </c>
       <c r="I14" s="108" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E779E8-FFBE-2E48-9493-B056B7927669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0C055-33DA-9043-A027-9BE27813D8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="8880" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="12740" yWindow="4120" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="752">
   <si>
     <t>Array</t>
   </si>
@@ -21714,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21725,7 +21725,7 @@
     <col min="9" max="9" width="55.33203125" customWidth="1"/>
     <col min="12" max="12" width="48.33203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="36.83203125" customWidth="1"/>
+    <col min="15" max="15" width="44.83203125" customWidth="1"/>
     <col min="18" max="18" width="34.83203125" customWidth="1"/>
     <col min="19" max="20" width="10.83203125" customWidth="1"/>
     <col min="21" max="21" width="43.83203125" customWidth="1"/>
@@ -22970,8 +22970,12 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="5"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="5"/>
+      <c r="N20" s="109">
+        <v>116</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="5"/>
       <c r="T20" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0C055-33DA-9043-A027-9BE27813D8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB39E5B-85ED-AA40-920B-E0210A059AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="4120" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="12740" yWindow="4100" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB39E5B-85ED-AA40-920B-E0210A059AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A710DD-788D-CE4D-8E12-DB7C688A5F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12740" yWindow="4100" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="752">
   <si>
     <t>Array</t>
   </si>
@@ -3188,6 +3188,15 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3198,15 +3207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3561,27 +3561,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3953,8 +3953,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5932,23 +5932,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="115"/>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115"/>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="115"/>
-      <c r="M99" s="115"/>
-      <c r="N99" s="115"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="116"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8362,23 +8362,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="114" t="s">
+      <c r="B209" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="115"/>
-      <c r="D209" s="115"/>
-      <c r="E209" s="115"/>
-      <c r="F209" s="115"/>
-      <c r="G209" s="115"/>
-      <c r="H209" s="115"/>
-      <c r="I209" s="115"/>
-      <c r="J209" s="115"/>
-      <c r="K209" s="115"/>
-      <c r="L209" s="115"/>
-      <c r="M209" s="115"/>
-      <c r="N209" s="115"/>
-      <c r="O209" s="115"/>
-      <c r="P209" s="116"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="111"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="112"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9859,23 +9859,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="115"/>
-      <c r="D274" s="115"/>
-      <c r="E274" s="115"/>
-      <c r="F274" s="115"/>
-      <c r="G274" s="115"/>
-      <c r="H274" s="115"/>
-      <c r="I274" s="115"/>
-      <c r="J274" s="115"/>
-      <c r="K274" s="115"/>
-      <c r="L274" s="115"/>
-      <c r="M274" s="115"/>
-      <c r="N274" s="115"/>
-      <c r="O274" s="115"/>
-      <c r="P274" s="116"/>
+      <c r="C274" s="111"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="111"/>
+      <c r="L274" s="111"/>
+      <c r="M274" s="111"/>
+      <c r="N274" s="111"/>
+      <c r="O274" s="111"/>
+      <c r="P274" s="112"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11903,23 +11903,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="114" t="s">
+      <c r="B364" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="115"/>
-      <c r="D364" s="115"/>
-      <c r="E364" s="115"/>
-      <c r="F364" s="115"/>
-      <c r="G364" s="115"/>
-      <c r="H364" s="115"/>
-      <c r="I364" s="115"/>
-      <c r="J364" s="115"/>
-      <c r="K364" s="115"/>
-      <c r="L364" s="115"/>
-      <c r="M364" s="115"/>
-      <c r="N364" s="115"/>
-      <c r="O364" s="115"/>
-      <c r="P364" s="116"/>
+      <c r="C364" s="111"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="111"/>
+      <c r="G364" s="111"/>
+      <c r="H364" s="111"/>
+      <c r="I364" s="111"/>
+      <c r="J364" s="111"/>
+      <c r="K364" s="111"/>
+      <c r="L364" s="111"/>
+      <c r="M364" s="111"/>
+      <c r="N364" s="111"/>
+      <c r="O364" s="111"/>
+      <c r="P364" s="112"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12797,23 +12797,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="114" t="s">
+      <c r="B402" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="115"/>
-      <c r="D402" s="115"/>
-      <c r="E402" s="115"/>
-      <c r="F402" s="115"/>
-      <c r="G402" s="115"/>
-      <c r="H402" s="115"/>
-      <c r="I402" s="115"/>
-      <c r="J402" s="115"/>
-      <c r="K402" s="115"/>
-      <c r="L402" s="115"/>
-      <c r="M402" s="115"/>
-      <c r="N402" s="115"/>
-      <c r="O402" s="115"/>
-      <c r="P402" s="116"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="112"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13669,23 +13669,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="114" t="s">
+      <c r="B440" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="115"/>
-      <c r="D440" s="115"/>
-      <c r="E440" s="115"/>
-      <c r="F440" s="115"/>
-      <c r="G440" s="115"/>
-      <c r="H440" s="115"/>
-      <c r="I440" s="115"/>
-      <c r="J440" s="115"/>
-      <c r="K440" s="115"/>
-      <c r="L440" s="115"/>
-      <c r="M440" s="115"/>
-      <c r="N440" s="115"/>
-      <c r="O440" s="115"/>
-      <c r="P440" s="116"/>
+      <c r="C440" s="111"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="111"/>
+      <c r="G440" s="111"/>
+      <c r="H440" s="111"/>
+      <c r="I440" s="111"/>
+      <c r="J440" s="111"/>
+      <c r="K440" s="111"/>
+      <c r="L440" s="111"/>
+      <c r="M440" s="111"/>
+      <c r="N440" s="111"/>
+      <c r="O440" s="111"/>
+      <c r="P440" s="112"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14578,23 +14578,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="114" t="s">
+      <c r="B479" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="115"/>
-      <c r="D479" s="115"/>
-      <c r="E479" s="115"/>
-      <c r="F479" s="115"/>
-      <c r="G479" s="115"/>
-      <c r="H479" s="115"/>
-      <c r="I479" s="115"/>
-      <c r="J479" s="115"/>
-      <c r="K479" s="115"/>
-      <c r="L479" s="115"/>
-      <c r="M479" s="115"/>
-      <c r="N479" s="115"/>
-      <c r="O479" s="115"/>
-      <c r="P479" s="116"/>
+      <c r="C479" s="111"/>
+      <c r="D479" s="111"/>
+      <c r="E479" s="111"/>
+      <c r="F479" s="111"/>
+      <c r="G479" s="111"/>
+      <c r="H479" s="111"/>
+      <c r="I479" s="111"/>
+      <c r="J479" s="111"/>
+      <c r="K479" s="111"/>
+      <c r="L479" s="111"/>
+      <c r="M479" s="111"/>
+      <c r="N479" s="111"/>
+      <c r="O479" s="111"/>
+      <c r="P479" s="112"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15289,23 +15289,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="114" t="s">
+      <c r="B506" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="115"/>
-      <c r="D506" s="115"/>
-      <c r="E506" s="115"/>
-      <c r="F506" s="115"/>
-      <c r="G506" s="115"/>
-      <c r="H506" s="115"/>
-      <c r="I506" s="115"/>
-      <c r="J506" s="115"/>
-      <c r="K506" s="115"/>
-      <c r="L506" s="115"/>
-      <c r="M506" s="115"/>
-      <c r="N506" s="115"/>
-      <c r="O506" s="115"/>
-      <c r="P506" s="116"/>
+      <c r="C506" s="111"/>
+      <c r="D506" s="111"/>
+      <c r="E506" s="111"/>
+      <c r="F506" s="111"/>
+      <c r="G506" s="111"/>
+      <c r="H506" s="111"/>
+      <c r="I506" s="111"/>
+      <c r="J506" s="111"/>
+      <c r="K506" s="111"/>
+      <c r="L506" s="111"/>
+      <c r="M506" s="111"/>
+      <c r="N506" s="111"/>
+      <c r="O506" s="111"/>
+      <c r="P506" s="112"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16008,23 +16008,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="114" t="s">
+      <c r="B539" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="115"/>
-      <c r="D539" s="115"/>
-      <c r="E539" s="115"/>
-      <c r="F539" s="115"/>
-      <c r="G539" s="115"/>
-      <c r="H539" s="115"/>
-      <c r="I539" s="115"/>
-      <c r="J539" s="115"/>
-      <c r="K539" s="115"/>
-      <c r="L539" s="115"/>
-      <c r="M539" s="115"/>
-      <c r="N539" s="115"/>
-      <c r="O539" s="115"/>
-      <c r="P539" s="116"/>
+      <c r="C539" s="111"/>
+      <c r="D539" s="111"/>
+      <c r="E539" s="111"/>
+      <c r="F539" s="111"/>
+      <c r="G539" s="111"/>
+      <c r="H539" s="111"/>
+      <c r="I539" s="111"/>
+      <c r="J539" s="111"/>
+      <c r="K539" s="111"/>
+      <c r="L539" s="111"/>
+      <c r="M539" s="111"/>
+      <c r="N539" s="111"/>
+      <c r="O539" s="111"/>
+      <c r="P539" s="112"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16832,23 +16832,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="114" t="s">
+      <c r="B577" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="115"/>
-      <c r="D577" s="115"/>
-      <c r="E577" s="115"/>
-      <c r="F577" s="115"/>
-      <c r="G577" s="115"/>
-      <c r="H577" s="115"/>
-      <c r="I577" s="115"/>
-      <c r="J577" s="115"/>
-      <c r="K577" s="115"/>
-      <c r="L577" s="115"/>
-      <c r="M577" s="115"/>
-      <c r="N577" s="115"/>
-      <c r="O577" s="115"/>
-      <c r="P577" s="116"/>
+      <c r="C577" s="111"/>
+      <c r="D577" s="111"/>
+      <c r="E577" s="111"/>
+      <c r="F577" s="111"/>
+      <c r="G577" s="111"/>
+      <c r="H577" s="111"/>
+      <c r="I577" s="111"/>
+      <c r="J577" s="111"/>
+      <c r="K577" s="111"/>
+      <c r="L577" s="111"/>
+      <c r="M577" s="111"/>
+      <c r="N577" s="111"/>
+      <c r="O577" s="111"/>
+      <c r="P577" s="112"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17349,23 +17349,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="114" t="s">
+      <c r="B600" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="115"/>
-      <c r="D600" s="115"/>
-      <c r="E600" s="115"/>
-      <c r="F600" s="115"/>
-      <c r="G600" s="115"/>
-      <c r="H600" s="115"/>
-      <c r="I600" s="115"/>
-      <c r="J600" s="115"/>
-      <c r="K600" s="115"/>
-      <c r="L600" s="115"/>
-      <c r="M600" s="115"/>
-      <c r="N600" s="115"/>
-      <c r="O600" s="115"/>
-      <c r="P600" s="116"/>
+      <c r="C600" s="111"/>
+      <c r="D600" s="111"/>
+      <c r="E600" s="111"/>
+      <c r="F600" s="111"/>
+      <c r="G600" s="111"/>
+      <c r="H600" s="111"/>
+      <c r="I600" s="111"/>
+      <c r="J600" s="111"/>
+      <c r="K600" s="111"/>
+      <c r="L600" s="111"/>
+      <c r="M600" s="111"/>
+      <c r="N600" s="111"/>
+      <c r="O600" s="111"/>
+      <c r="P600" s="112"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18102,23 +18102,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="114" t="s">
+      <c r="B637" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="115"/>
-      <c r="D637" s="115"/>
-      <c r="E637" s="115"/>
-      <c r="F637" s="115"/>
-      <c r="G637" s="115"/>
-      <c r="H637" s="115"/>
-      <c r="I637" s="115"/>
-      <c r="J637" s="115"/>
-      <c r="K637" s="115"/>
-      <c r="L637" s="115"/>
-      <c r="M637" s="115"/>
-      <c r="N637" s="115"/>
-      <c r="O637" s="115"/>
-      <c r="P637" s="116"/>
+      <c r="C637" s="111"/>
+      <c r="D637" s="111"/>
+      <c r="E637" s="111"/>
+      <c r="F637" s="111"/>
+      <c r="G637" s="111"/>
+      <c r="H637" s="111"/>
+      <c r="I637" s="111"/>
+      <c r="J637" s="111"/>
+      <c r="K637" s="111"/>
+      <c r="L637" s="111"/>
+      <c r="M637" s="111"/>
+      <c r="N637" s="111"/>
+      <c r="O637" s="111"/>
+      <c r="P637" s="112"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18372,23 +18372,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="114" t="s">
+      <c r="B649" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="115"/>
-      <c r="D649" s="115"/>
-      <c r="E649" s="115"/>
-      <c r="F649" s="115"/>
-      <c r="G649" s="115"/>
-      <c r="H649" s="115"/>
-      <c r="I649" s="115"/>
-      <c r="J649" s="115"/>
-      <c r="K649" s="115"/>
-      <c r="L649" s="115"/>
-      <c r="M649" s="115"/>
-      <c r="N649" s="115"/>
-      <c r="O649" s="115"/>
-      <c r="P649" s="116"/>
+      <c r="C649" s="111"/>
+      <c r="D649" s="111"/>
+      <c r="E649" s="111"/>
+      <c r="F649" s="111"/>
+      <c r="G649" s="111"/>
+      <c r="H649" s="111"/>
+      <c r="I649" s="111"/>
+      <c r="J649" s="111"/>
+      <c r="K649" s="111"/>
+      <c r="L649" s="111"/>
+      <c r="M649" s="111"/>
+      <c r="N649" s="111"/>
+      <c r="O649" s="111"/>
+      <c r="P649" s="112"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18890,23 +18890,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="110" t="s">
+      <c r="B675" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="111"/>
-      <c r="D675" s="111"/>
-      <c r="E675" s="111"/>
-      <c r="F675" s="111"/>
-      <c r="G675" s="111"/>
-      <c r="H675" s="111"/>
-      <c r="I675" s="111"/>
-      <c r="J675" s="111"/>
-      <c r="K675" s="111"/>
-      <c r="L675" s="111"/>
-      <c r="M675" s="111"/>
-      <c r="N675" s="111"/>
-      <c r="O675" s="111"/>
-      <c r="P675" s="112"/>
+      <c r="C675" s="114"/>
+      <c r="D675" s="114"/>
+      <c r="E675" s="114"/>
+      <c r="F675" s="114"/>
+      <c r="G675" s="114"/>
+      <c r="H675" s="114"/>
+      <c r="I675" s="114"/>
+      <c r="J675" s="114"/>
+      <c r="K675" s="114"/>
+      <c r="L675" s="114"/>
+      <c r="M675" s="114"/>
+      <c r="N675" s="114"/>
+      <c r="O675" s="114"/>
+      <c r="P675" s="115"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19475,23 +19475,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="110" t="s">
+      <c r="B704" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="111"/>
-      <c r="D704" s="111"/>
-      <c r="E704" s="111"/>
-      <c r="F704" s="111"/>
-      <c r="G704" s="111"/>
-      <c r="H704" s="111"/>
-      <c r="I704" s="111"/>
-      <c r="J704" s="111"/>
-      <c r="K704" s="111"/>
-      <c r="L704" s="111"/>
-      <c r="M704" s="111"/>
-      <c r="N704" s="111"/>
-      <c r="O704" s="111"/>
-      <c r="P704" s="112"/>
+      <c r="C704" s="114"/>
+      <c r="D704" s="114"/>
+      <c r="E704" s="114"/>
+      <c r="F704" s="114"/>
+      <c r="G704" s="114"/>
+      <c r="H704" s="114"/>
+      <c r="I704" s="114"/>
+      <c r="J704" s="114"/>
+      <c r="K704" s="114"/>
+      <c r="L704" s="114"/>
+      <c r="M704" s="114"/>
+      <c r="N704" s="114"/>
+      <c r="O704" s="114"/>
+      <c r="P704" s="115"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19824,23 +19824,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="110" t="s">
+      <c r="B721" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="111"/>
-      <c r="D721" s="111"/>
-      <c r="E721" s="111"/>
-      <c r="F721" s="111"/>
-      <c r="G721" s="111"/>
-      <c r="H721" s="111"/>
-      <c r="I721" s="111"/>
-      <c r="J721" s="111"/>
-      <c r="K721" s="111"/>
-      <c r="L721" s="111"/>
-      <c r="M721" s="111"/>
-      <c r="N721" s="111"/>
-      <c r="O721" s="111"/>
-      <c r="P721" s="112"/>
+      <c r="C721" s="114"/>
+      <c r="D721" s="114"/>
+      <c r="E721" s="114"/>
+      <c r="F721" s="114"/>
+      <c r="G721" s="114"/>
+      <c r="H721" s="114"/>
+      <c r="I721" s="114"/>
+      <c r="J721" s="114"/>
+      <c r="K721" s="114"/>
+      <c r="L721" s="114"/>
+      <c r="M721" s="114"/>
+      <c r="N721" s="114"/>
+      <c r="O721" s="114"/>
+      <c r="P721" s="115"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20216,23 +20216,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="110" t="s">
+      <c r="B741" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="111"/>
-      <c r="D741" s="111"/>
-      <c r="E741" s="111"/>
-      <c r="F741" s="111"/>
-      <c r="G741" s="111"/>
-      <c r="H741" s="111"/>
-      <c r="I741" s="111"/>
-      <c r="J741" s="111"/>
-      <c r="K741" s="111"/>
-      <c r="L741" s="111"/>
-      <c r="M741" s="111"/>
-      <c r="N741" s="111"/>
-      <c r="O741" s="111"/>
-      <c r="P741" s="112"/>
+      <c r="C741" s="114"/>
+      <c r="D741" s="114"/>
+      <c r="E741" s="114"/>
+      <c r="F741" s="114"/>
+      <c r="G741" s="114"/>
+      <c r="H741" s="114"/>
+      <c r="I741" s="114"/>
+      <c r="J741" s="114"/>
+      <c r="K741" s="114"/>
+      <c r="L741" s="114"/>
+      <c r="M741" s="114"/>
+      <c r="N741" s="114"/>
+      <c r="O741" s="114"/>
+      <c r="P741" s="115"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21059,23 +21059,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="110" t="s">
+      <c r="B782" s="113" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="111"/>
-      <c r="D782" s="111"/>
-      <c r="E782" s="111"/>
-      <c r="F782" s="111"/>
-      <c r="G782" s="111"/>
-      <c r="H782" s="111"/>
-      <c r="I782" s="111"/>
-      <c r="J782" s="111"/>
-      <c r="K782" s="111"/>
-      <c r="L782" s="111"/>
-      <c r="M782" s="111"/>
-      <c r="N782" s="111"/>
-      <c r="O782" s="111"/>
-      <c r="P782" s="112"/>
+      <c r="C782" s="114"/>
+      <c r="D782" s="114"/>
+      <c r="E782" s="114"/>
+      <c r="F782" s="114"/>
+      <c r="G782" s="114"/>
+      <c r="H782" s="114"/>
+      <c r="I782" s="114"/>
+      <c r="J782" s="114"/>
+      <c r="K782" s="114"/>
+      <c r="L782" s="114"/>
+      <c r="M782" s="114"/>
+      <c r="N782" s="114"/>
+      <c r="O782" s="114"/>
+      <c r="P782" s="115"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21291,12 +21291,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21313,6 +21307,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21715,7 +21715,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23018,8 +23018,12 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="5"/>
+      <c r="N21" s="109">
+        <v>117</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="5"/>
       <c r="T21" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A710DD-788D-CE4D-8E12-DB7C688A5F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209D9961-BD44-5D47-9748-80278D14A42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="4100" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="27000" yWindow="8940" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21715,7 +21715,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N20" sqref="N20:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22664,8 +22664,12 @@
       <c r="I14" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
+      <c r="K14" s="109">
+        <v>116</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="N14" s="3">
         <v>52</v>
       </c>
@@ -22716,8 +22720,12 @@
       <c r="I15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="109">
+        <v>117</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="N15" s="3">
         <v>51</v>
       </c>
@@ -22970,12 +22978,8 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="5"/>
-      <c r="N20" s="109">
-        <v>116</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>249</v>
-      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="5"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="5"/>
       <c r="T20" s="3">
@@ -23018,12 +23022,8 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
-      <c r="N21" s="109">
-        <v>117</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>250</v>
-      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="5"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="5"/>
       <c r="T21" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209D9961-BD44-5D47-9748-80278D14A42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEE3B6-4710-6544-B0BF-7920BD3FCD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27000" yWindow="8940" windowWidth="46140" windowHeight="23100" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="8720" yWindow="7980" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="752">
   <si>
     <t>Array</t>
   </si>
@@ -21714,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:O21"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22062,7 +22062,7 @@
       <c r="AJ5" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="109">
         <v>125</v>
       </c>
       <c r="AM5" s="5" t="s">
@@ -22314,8 +22314,12 @@
       </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="5"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="5"/>
+      <c r="AL8" s="109">
+        <v>680</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="AO8" s="3">
         <v>38</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEE3B6-4710-6544-B0BF-7920BD3FCD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C491FF4-565D-D243-A7E9-6648AF50B0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="7980" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21714,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23065,7 +23065,7 @@
       <c r="F22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="109">
         <v>100</v>
       </c>
       <c r="I22" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C491FF4-565D-D243-A7E9-6648AF50B0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A519E0F-F73E-0E4A-86F2-3D9E6DA94109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="7980" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="752">
   <si>
     <t>Array</t>
   </si>
@@ -3188,15 +3188,6 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3207,6 +3198,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3561,27 +3561,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3953,8 +3953,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5932,23 +5932,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="112"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="115"/>
+      <c r="I99" s="115"/>
+      <c r="J99" s="115"/>
+      <c r="K99" s="115"/>
+      <c r="L99" s="115"/>
+      <c r="M99" s="115"/>
+      <c r="N99" s="115"/>
+      <c r="O99" s="115"/>
+      <c r="P99" s="116"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8362,23 +8362,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="110" t="s">
+      <c r="B209" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="112"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="115"/>
+      <c r="G209" s="115"/>
+      <c r="H209" s="115"/>
+      <c r="I209" s="115"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="115"/>
+      <c r="L209" s="115"/>
+      <c r="M209" s="115"/>
+      <c r="N209" s="115"/>
+      <c r="O209" s="115"/>
+      <c r="P209" s="116"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9859,23 +9859,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="110" t="s">
+      <c r="B274" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="111"/>
-      <c r="D274" s="111"/>
-      <c r="E274" s="111"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="111"/>
-      <c r="H274" s="111"/>
-      <c r="I274" s="111"/>
-      <c r="J274" s="111"/>
-      <c r="K274" s="111"/>
-      <c r="L274" s="111"/>
-      <c r="M274" s="111"/>
-      <c r="N274" s="111"/>
-      <c r="O274" s="111"/>
-      <c r="P274" s="112"/>
+      <c r="C274" s="115"/>
+      <c r="D274" s="115"/>
+      <c r="E274" s="115"/>
+      <c r="F274" s="115"/>
+      <c r="G274" s="115"/>
+      <c r="H274" s="115"/>
+      <c r="I274" s="115"/>
+      <c r="J274" s="115"/>
+      <c r="K274" s="115"/>
+      <c r="L274" s="115"/>
+      <c r="M274" s="115"/>
+      <c r="N274" s="115"/>
+      <c r="O274" s="115"/>
+      <c r="P274" s="116"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11903,23 +11903,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="110" t="s">
+      <c r="B364" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="111"/>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="111"/>
-      <c r="G364" s="111"/>
-      <c r="H364" s="111"/>
-      <c r="I364" s="111"/>
-      <c r="J364" s="111"/>
-      <c r="K364" s="111"/>
-      <c r="L364" s="111"/>
-      <c r="M364" s="111"/>
-      <c r="N364" s="111"/>
-      <c r="O364" s="111"/>
-      <c r="P364" s="112"/>
+      <c r="C364" s="115"/>
+      <c r="D364" s="115"/>
+      <c r="E364" s="115"/>
+      <c r="F364" s="115"/>
+      <c r="G364" s="115"/>
+      <c r="H364" s="115"/>
+      <c r="I364" s="115"/>
+      <c r="J364" s="115"/>
+      <c r="K364" s="115"/>
+      <c r="L364" s="115"/>
+      <c r="M364" s="115"/>
+      <c r="N364" s="115"/>
+      <c r="O364" s="115"/>
+      <c r="P364" s="116"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12797,23 +12797,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="110" t="s">
+      <c r="B402" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="111"/>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="111"/>
-      <c r="G402" s="111"/>
-      <c r="H402" s="111"/>
-      <c r="I402" s="111"/>
-      <c r="J402" s="111"/>
-      <c r="K402" s="111"/>
-      <c r="L402" s="111"/>
-      <c r="M402" s="111"/>
-      <c r="N402" s="111"/>
-      <c r="O402" s="111"/>
-      <c r="P402" s="112"/>
+      <c r="C402" s="115"/>
+      <c r="D402" s="115"/>
+      <c r="E402" s="115"/>
+      <c r="F402" s="115"/>
+      <c r="G402" s="115"/>
+      <c r="H402" s="115"/>
+      <c r="I402" s="115"/>
+      <c r="J402" s="115"/>
+      <c r="K402" s="115"/>
+      <c r="L402" s="115"/>
+      <c r="M402" s="115"/>
+      <c r="N402" s="115"/>
+      <c r="O402" s="115"/>
+      <c r="P402" s="116"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13669,23 +13669,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="110" t="s">
+      <c r="B440" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="111"/>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="111"/>
-      <c r="G440" s="111"/>
-      <c r="H440" s="111"/>
-      <c r="I440" s="111"/>
-      <c r="J440" s="111"/>
-      <c r="K440" s="111"/>
-      <c r="L440" s="111"/>
-      <c r="M440" s="111"/>
-      <c r="N440" s="111"/>
-      <c r="O440" s="111"/>
-      <c r="P440" s="112"/>
+      <c r="C440" s="115"/>
+      <c r="D440" s="115"/>
+      <c r="E440" s="115"/>
+      <c r="F440" s="115"/>
+      <c r="G440" s="115"/>
+      <c r="H440" s="115"/>
+      <c r="I440" s="115"/>
+      <c r="J440" s="115"/>
+      <c r="K440" s="115"/>
+      <c r="L440" s="115"/>
+      <c r="M440" s="115"/>
+      <c r="N440" s="115"/>
+      <c r="O440" s="115"/>
+      <c r="P440" s="116"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14578,23 +14578,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="110" t="s">
+      <c r="B479" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="111"/>
-      <c r="D479" s="111"/>
-      <c r="E479" s="111"/>
-      <c r="F479" s="111"/>
-      <c r="G479" s="111"/>
-      <c r="H479" s="111"/>
-      <c r="I479" s="111"/>
-      <c r="J479" s="111"/>
-      <c r="K479" s="111"/>
-      <c r="L479" s="111"/>
-      <c r="M479" s="111"/>
-      <c r="N479" s="111"/>
-      <c r="O479" s="111"/>
-      <c r="P479" s="112"/>
+      <c r="C479" s="115"/>
+      <c r="D479" s="115"/>
+      <c r="E479" s="115"/>
+      <c r="F479" s="115"/>
+      <c r="G479" s="115"/>
+      <c r="H479" s="115"/>
+      <c r="I479" s="115"/>
+      <c r="J479" s="115"/>
+      <c r="K479" s="115"/>
+      <c r="L479" s="115"/>
+      <c r="M479" s="115"/>
+      <c r="N479" s="115"/>
+      <c r="O479" s="115"/>
+      <c r="P479" s="116"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15289,23 +15289,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="110" t="s">
+      <c r="B506" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="111"/>
-      <c r="D506" s="111"/>
-      <c r="E506" s="111"/>
-      <c r="F506" s="111"/>
-      <c r="G506" s="111"/>
-      <c r="H506" s="111"/>
-      <c r="I506" s="111"/>
-      <c r="J506" s="111"/>
-      <c r="K506" s="111"/>
-      <c r="L506" s="111"/>
-      <c r="M506" s="111"/>
-      <c r="N506" s="111"/>
-      <c r="O506" s="111"/>
-      <c r="P506" s="112"/>
+      <c r="C506" s="115"/>
+      <c r="D506" s="115"/>
+      <c r="E506" s="115"/>
+      <c r="F506" s="115"/>
+      <c r="G506" s="115"/>
+      <c r="H506" s="115"/>
+      <c r="I506" s="115"/>
+      <c r="J506" s="115"/>
+      <c r="K506" s="115"/>
+      <c r="L506" s="115"/>
+      <c r="M506" s="115"/>
+      <c r="N506" s="115"/>
+      <c r="O506" s="115"/>
+      <c r="P506" s="116"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16008,23 +16008,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="114" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="111"/>
-      <c r="D539" s="111"/>
-      <c r="E539" s="111"/>
-      <c r="F539" s="111"/>
-      <c r="G539" s="111"/>
-      <c r="H539" s="111"/>
-      <c r="I539" s="111"/>
-      <c r="J539" s="111"/>
-      <c r="K539" s="111"/>
-      <c r="L539" s="111"/>
-      <c r="M539" s="111"/>
-      <c r="N539" s="111"/>
-      <c r="O539" s="111"/>
-      <c r="P539" s="112"/>
+      <c r="C539" s="115"/>
+      <c r="D539" s="115"/>
+      <c r="E539" s="115"/>
+      <c r="F539" s="115"/>
+      <c r="G539" s="115"/>
+      <c r="H539" s="115"/>
+      <c r="I539" s="115"/>
+      <c r="J539" s="115"/>
+      <c r="K539" s="115"/>
+      <c r="L539" s="115"/>
+      <c r="M539" s="115"/>
+      <c r="N539" s="115"/>
+      <c r="O539" s="115"/>
+      <c r="P539" s="116"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16832,23 +16832,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="110" t="s">
+      <c r="B577" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="111"/>
-      <c r="D577" s="111"/>
-      <c r="E577" s="111"/>
-      <c r="F577" s="111"/>
-      <c r="G577" s="111"/>
-      <c r="H577" s="111"/>
-      <c r="I577" s="111"/>
-      <c r="J577" s="111"/>
-      <c r="K577" s="111"/>
-      <c r="L577" s="111"/>
-      <c r="M577" s="111"/>
-      <c r="N577" s="111"/>
-      <c r="O577" s="111"/>
-      <c r="P577" s="112"/>
+      <c r="C577" s="115"/>
+      <c r="D577" s="115"/>
+      <c r="E577" s="115"/>
+      <c r="F577" s="115"/>
+      <c r="G577" s="115"/>
+      <c r="H577" s="115"/>
+      <c r="I577" s="115"/>
+      <c r="J577" s="115"/>
+      <c r="K577" s="115"/>
+      <c r="L577" s="115"/>
+      <c r="M577" s="115"/>
+      <c r="N577" s="115"/>
+      <c r="O577" s="115"/>
+      <c r="P577" s="116"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17349,23 +17349,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="110" t="s">
+      <c r="B600" s="114" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="111"/>
-      <c r="F600" s="111"/>
-      <c r="G600" s="111"/>
-      <c r="H600" s="111"/>
-      <c r="I600" s="111"/>
-      <c r="J600" s="111"/>
-      <c r="K600" s="111"/>
-      <c r="L600" s="111"/>
-      <c r="M600" s="111"/>
-      <c r="N600" s="111"/>
-      <c r="O600" s="111"/>
-      <c r="P600" s="112"/>
+      <c r="C600" s="115"/>
+      <c r="D600" s="115"/>
+      <c r="E600" s="115"/>
+      <c r="F600" s="115"/>
+      <c r="G600" s="115"/>
+      <c r="H600" s="115"/>
+      <c r="I600" s="115"/>
+      <c r="J600" s="115"/>
+      <c r="K600" s="115"/>
+      <c r="L600" s="115"/>
+      <c r="M600" s="115"/>
+      <c r="N600" s="115"/>
+      <c r="O600" s="115"/>
+      <c r="P600" s="116"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18102,23 +18102,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="110" t="s">
+      <c r="B637" s="114" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="111"/>
-      <c r="D637" s="111"/>
-      <c r="E637" s="111"/>
-      <c r="F637" s="111"/>
-      <c r="G637" s="111"/>
-      <c r="H637" s="111"/>
-      <c r="I637" s="111"/>
-      <c r="J637" s="111"/>
-      <c r="K637" s="111"/>
-      <c r="L637" s="111"/>
-      <c r="M637" s="111"/>
-      <c r="N637" s="111"/>
-      <c r="O637" s="111"/>
-      <c r="P637" s="112"/>
+      <c r="C637" s="115"/>
+      <c r="D637" s="115"/>
+      <c r="E637" s="115"/>
+      <c r="F637" s="115"/>
+      <c r="G637" s="115"/>
+      <c r="H637" s="115"/>
+      <c r="I637" s="115"/>
+      <c r="J637" s="115"/>
+      <c r="K637" s="115"/>
+      <c r="L637" s="115"/>
+      <c r="M637" s="115"/>
+      <c r="N637" s="115"/>
+      <c r="O637" s="115"/>
+      <c r="P637" s="116"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18372,23 +18372,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="110" t="s">
+      <c r="B649" s="114" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="111"/>
-      <c r="D649" s="111"/>
-      <c r="E649" s="111"/>
-      <c r="F649" s="111"/>
-      <c r="G649" s="111"/>
-      <c r="H649" s="111"/>
-      <c r="I649" s="111"/>
-      <c r="J649" s="111"/>
-      <c r="K649" s="111"/>
-      <c r="L649" s="111"/>
-      <c r="M649" s="111"/>
-      <c r="N649" s="111"/>
-      <c r="O649" s="111"/>
-      <c r="P649" s="112"/>
+      <c r="C649" s="115"/>
+      <c r="D649" s="115"/>
+      <c r="E649" s="115"/>
+      <c r="F649" s="115"/>
+      <c r="G649" s="115"/>
+      <c r="H649" s="115"/>
+      <c r="I649" s="115"/>
+      <c r="J649" s="115"/>
+      <c r="K649" s="115"/>
+      <c r="L649" s="115"/>
+      <c r="M649" s="115"/>
+      <c r="N649" s="115"/>
+      <c r="O649" s="115"/>
+      <c r="P649" s="116"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18890,23 +18890,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="113" t="s">
+      <c r="B675" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="114"/>
-      <c r="D675" s="114"/>
-      <c r="E675" s="114"/>
-      <c r="F675" s="114"/>
-      <c r="G675" s="114"/>
-      <c r="H675" s="114"/>
-      <c r="I675" s="114"/>
-      <c r="J675" s="114"/>
-      <c r="K675" s="114"/>
-      <c r="L675" s="114"/>
-      <c r="M675" s="114"/>
-      <c r="N675" s="114"/>
-      <c r="O675" s="114"/>
-      <c r="P675" s="115"/>
+      <c r="C675" s="111"/>
+      <c r="D675" s="111"/>
+      <c r="E675" s="111"/>
+      <c r="F675" s="111"/>
+      <c r="G675" s="111"/>
+      <c r="H675" s="111"/>
+      <c r="I675" s="111"/>
+      <c r="J675" s="111"/>
+      <c r="K675" s="111"/>
+      <c r="L675" s="111"/>
+      <c r="M675" s="111"/>
+      <c r="N675" s="111"/>
+      <c r="O675" s="111"/>
+      <c r="P675" s="112"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19475,23 +19475,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="113" t="s">
+      <c r="B704" s="110" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="114"/>
-      <c r="D704" s="114"/>
-      <c r="E704" s="114"/>
-      <c r="F704" s="114"/>
-      <c r="G704" s="114"/>
-      <c r="H704" s="114"/>
-      <c r="I704" s="114"/>
-      <c r="J704" s="114"/>
-      <c r="K704" s="114"/>
-      <c r="L704" s="114"/>
-      <c r="M704" s="114"/>
-      <c r="N704" s="114"/>
-      <c r="O704" s="114"/>
-      <c r="P704" s="115"/>
+      <c r="C704" s="111"/>
+      <c r="D704" s="111"/>
+      <c r="E704" s="111"/>
+      <c r="F704" s="111"/>
+      <c r="G704" s="111"/>
+      <c r="H704" s="111"/>
+      <c r="I704" s="111"/>
+      <c r="J704" s="111"/>
+      <c r="K704" s="111"/>
+      <c r="L704" s="111"/>
+      <c r="M704" s="111"/>
+      <c r="N704" s="111"/>
+      <c r="O704" s="111"/>
+      <c r="P704" s="112"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19824,23 +19824,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="113" t="s">
+      <c r="B721" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="114"/>
-      <c r="D721" s="114"/>
-      <c r="E721" s="114"/>
-      <c r="F721" s="114"/>
-      <c r="G721" s="114"/>
-      <c r="H721" s="114"/>
-      <c r="I721" s="114"/>
-      <c r="J721" s="114"/>
-      <c r="K721" s="114"/>
-      <c r="L721" s="114"/>
-      <c r="M721" s="114"/>
-      <c r="N721" s="114"/>
-      <c r="O721" s="114"/>
-      <c r="P721" s="115"/>
+      <c r="C721" s="111"/>
+      <c r="D721" s="111"/>
+      <c r="E721" s="111"/>
+      <c r="F721" s="111"/>
+      <c r="G721" s="111"/>
+      <c r="H721" s="111"/>
+      <c r="I721" s="111"/>
+      <c r="J721" s="111"/>
+      <c r="K721" s="111"/>
+      <c r="L721" s="111"/>
+      <c r="M721" s="111"/>
+      <c r="N721" s="111"/>
+      <c r="O721" s="111"/>
+      <c r="P721" s="112"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20216,23 +20216,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="113" t="s">
+      <c r="B741" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="114"/>
-      <c r="D741" s="114"/>
-      <c r="E741" s="114"/>
-      <c r="F741" s="114"/>
-      <c r="G741" s="114"/>
-      <c r="H741" s="114"/>
-      <c r="I741" s="114"/>
-      <c r="J741" s="114"/>
-      <c r="K741" s="114"/>
-      <c r="L741" s="114"/>
-      <c r="M741" s="114"/>
-      <c r="N741" s="114"/>
-      <c r="O741" s="114"/>
-      <c r="P741" s="115"/>
+      <c r="C741" s="111"/>
+      <c r="D741" s="111"/>
+      <c r="E741" s="111"/>
+      <c r="F741" s="111"/>
+      <c r="G741" s="111"/>
+      <c r="H741" s="111"/>
+      <c r="I741" s="111"/>
+      <c r="J741" s="111"/>
+      <c r="K741" s="111"/>
+      <c r="L741" s="111"/>
+      <c r="M741" s="111"/>
+      <c r="N741" s="111"/>
+      <c r="O741" s="111"/>
+      <c r="P741" s="112"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21059,23 +21059,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="113" t="s">
+      <c r="B782" s="110" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="114"/>
-      <c r="D782" s="114"/>
-      <c r="E782" s="114"/>
-      <c r="F782" s="114"/>
-      <c r="G782" s="114"/>
-      <c r="H782" s="114"/>
-      <c r="I782" s="114"/>
-      <c r="J782" s="114"/>
-      <c r="K782" s="114"/>
-      <c r="L782" s="114"/>
-      <c r="M782" s="114"/>
-      <c r="N782" s="114"/>
-      <c r="O782" s="114"/>
-      <c r="P782" s="115"/>
+      <c r="C782" s="111"/>
+      <c r="D782" s="111"/>
+      <c r="E782" s="111"/>
+      <c r="F782" s="111"/>
+      <c r="G782" s="111"/>
+      <c r="H782" s="111"/>
+      <c r="I782" s="111"/>
+      <c r="J782" s="111"/>
+      <c r="K782" s="111"/>
+      <c r="L782" s="111"/>
+      <c r="M782" s="111"/>
+      <c r="N782" s="111"/>
+      <c r="O782" s="111"/>
+      <c r="P782" s="112"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21291,6 +21291,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21307,12 +21313,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21715,7 +21715,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23229,8 +23229,12 @@
       <c r="F26" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="109">
+        <v>938</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="5"/>
       <c r="N26" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A519E0F-F73E-0E4A-86F2-3D9E6DA94109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16D945-C87B-1547-8093-928EFE44855C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="7980" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="3380" yWindow="6520" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="753">
   <si>
     <t>Array</t>
   </si>
@@ -2282,6 +2282,9 @@
   </si>
   <si>
     <t>Validate IP Address</t>
+  </si>
+  <si>
+    <t>Find All The Lonely Nodes</t>
   </si>
 </sst>
 </file>
@@ -21715,7 +21718,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22982,8 +22985,12 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="5"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="5"/>
+      <c r="N20" s="109">
+        <v>1469</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>752</v>
+      </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="5"/>
       <c r="T20" s="3">
@@ -23026,8 +23033,12 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="5"/>
+      <c r="N21" s="109">
+        <v>938</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="5"/>
       <c r="T21" s="3">
@@ -23229,12 +23240,8 @@
       <c r="F26" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="H26" s="109">
-        <v>938</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>492</v>
-      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="5"/>
       <c r="K26" s="3"/>
       <c r="L26" s="5"/>
       <c r="N26" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16D945-C87B-1547-8093-928EFE44855C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F5638-352B-5C49-AF36-4D1318B7DD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="6520" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="3360" yWindow="6520" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="754">
   <si>
     <t>Array</t>
   </si>
@@ -2285,6 +2285,9 @@
   </si>
   <si>
     <t>Find All The Lonely Nodes</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
   </si>
 </sst>
 </file>
@@ -21718,7 +21721,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I26"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23084,8 +23087,12 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="5"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="5"/>
+      <c r="N22" s="109">
+        <v>437</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>753</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="5"/>
       <c r="T22" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F5638-352B-5C49-AF36-4D1318B7DD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52519B4F-6C52-E64A-AB92-EFD60677ADB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="6520" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="5080" yWindow="10960" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="755">
   <si>
     <t>Array</t>
   </si>
@@ -2288,13 +2288,16 @@
   </si>
   <si>
     <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Search Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2329,6 +2332,12 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -2893,7 +2902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3194,6 +3203,15 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3206,17 +3224,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3567,27 +3579,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3959,8 +3971,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5938,23 +5950,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="115"/>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115"/>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="115"/>
-      <c r="M99" s="115"/>
-      <c r="N99" s="115"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="116"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8368,23 +8380,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="114" t="s">
+      <c r="B209" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="115"/>
-      <c r="D209" s="115"/>
-      <c r="E209" s="115"/>
-      <c r="F209" s="115"/>
-      <c r="G209" s="115"/>
-      <c r="H209" s="115"/>
-      <c r="I209" s="115"/>
-      <c r="J209" s="115"/>
-      <c r="K209" s="115"/>
-      <c r="L209" s="115"/>
-      <c r="M209" s="115"/>
-      <c r="N209" s="115"/>
-      <c r="O209" s="115"/>
-      <c r="P209" s="116"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="111"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="112"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9865,23 +9877,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="115"/>
-      <c r="D274" s="115"/>
-      <c r="E274" s="115"/>
-      <c r="F274" s="115"/>
-      <c r="G274" s="115"/>
-      <c r="H274" s="115"/>
-      <c r="I274" s="115"/>
-      <c r="J274" s="115"/>
-      <c r="K274" s="115"/>
-      <c r="L274" s="115"/>
-      <c r="M274" s="115"/>
-      <c r="N274" s="115"/>
-      <c r="O274" s="115"/>
-      <c r="P274" s="116"/>
+      <c r="C274" s="111"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="111"/>
+      <c r="L274" s="111"/>
+      <c r="M274" s="111"/>
+      <c r="N274" s="111"/>
+      <c r="O274" s="111"/>
+      <c r="P274" s="112"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11909,23 +11921,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="114" t="s">
+      <c r="B364" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="115"/>
-      <c r="D364" s="115"/>
-      <c r="E364" s="115"/>
-      <c r="F364" s="115"/>
-      <c r="G364" s="115"/>
-      <c r="H364" s="115"/>
-      <c r="I364" s="115"/>
-      <c r="J364" s="115"/>
-      <c r="K364" s="115"/>
-      <c r="L364" s="115"/>
-      <c r="M364" s="115"/>
-      <c r="N364" s="115"/>
-      <c r="O364" s="115"/>
-      <c r="P364" s="116"/>
+      <c r="C364" s="111"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="111"/>
+      <c r="G364" s="111"/>
+      <c r="H364" s="111"/>
+      <c r="I364" s="111"/>
+      <c r="J364" s="111"/>
+      <c r="K364" s="111"/>
+      <c r="L364" s="111"/>
+      <c r="M364" s="111"/>
+      <c r="N364" s="111"/>
+      <c r="O364" s="111"/>
+      <c r="P364" s="112"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12803,23 +12815,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="114" t="s">
+      <c r="B402" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="115"/>
-      <c r="D402" s="115"/>
-      <c r="E402" s="115"/>
-      <c r="F402" s="115"/>
-      <c r="G402" s="115"/>
-      <c r="H402" s="115"/>
-      <c r="I402" s="115"/>
-      <c r="J402" s="115"/>
-      <c r="K402" s="115"/>
-      <c r="L402" s="115"/>
-      <c r="M402" s="115"/>
-      <c r="N402" s="115"/>
-      <c r="O402" s="115"/>
-      <c r="P402" s="116"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="112"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13675,23 +13687,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="114" t="s">
+      <c r="B440" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="115"/>
-      <c r="D440" s="115"/>
-      <c r="E440" s="115"/>
-      <c r="F440" s="115"/>
-      <c r="G440" s="115"/>
-      <c r="H440" s="115"/>
-      <c r="I440" s="115"/>
-      <c r="J440" s="115"/>
-      <c r="K440" s="115"/>
-      <c r="L440" s="115"/>
-      <c r="M440" s="115"/>
-      <c r="N440" s="115"/>
-      <c r="O440" s="115"/>
-      <c r="P440" s="116"/>
+      <c r="C440" s="111"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="111"/>
+      <c r="G440" s="111"/>
+      <c r="H440" s="111"/>
+      <c r="I440" s="111"/>
+      <c r="J440" s="111"/>
+      <c r="K440" s="111"/>
+      <c r="L440" s="111"/>
+      <c r="M440" s="111"/>
+      <c r="N440" s="111"/>
+      <c r="O440" s="111"/>
+      <c r="P440" s="112"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14584,23 +14596,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="114" t="s">
+      <c r="B479" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="115"/>
-      <c r="D479" s="115"/>
-      <c r="E479" s="115"/>
-      <c r="F479" s="115"/>
-      <c r="G479" s="115"/>
-      <c r="H479" s="115"/>
-      <c r="I479" s="115"/>
-      <c r="J479" s="115"/>
-      <c r="K479" s="115"/>
-      <c r="L479" s="115"/>
-      <c r="M479" s="115"/>
-      <c r="N479" s="115"/>
-      <c r="O479" s="115"/>
-      <c r="P479" s="116"/>
+      <c r="C479" s="111"/>
+      <c r="D479" s="111"/>
+      <c r="E479" s="111"/>
+      <c r="F479" s="111"/>
+      <c r="G479" s="111"/>
+      <c r="H479" s="111"/>
+      <c r="I479" s="111"/>
+      <c r="J479" s="111"/>
+      <c r="K479" s="111"/>
+      <c r="L479" s="111"/>
+      <c r="M479" s="111"/>
+      <c r="N479" s="111"/>
+      <c r="O479" s="111"/>
+      <c r="P479" s="112"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15295,23 +15307,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="114" t="s">
+      <c r="B506" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="115"/>
-      <c r="D506" s="115"/>
-      <c r="E506" s="115"/>
-      <c r="F506" s="115"/>
-      <c r="G506" s="115"/>
-      <c r="H506" s="115"/>
-      <c r="I506" s="115"/>
-      <c r="J506" s="115"/>
-      <c r="K506" s="115"/>
-      <c r="L506" s="115"/>
-      <c r="M506" s="115"/>
-      <c r="N506" s="115"/>
-      <c r="O506" s="115"/>
-      <c r="P506" s="116"/>
+      <c r="C506" s="111"/>
+      <c r="D506" s="111"/>
+      <c r="E506" s="111"/>
+      <c r="F506" s="111"/>
+      <c r="G506" s="111"/>
+      <c r="H506" s="111"/>
+      <c r="I506" s="111"/>
+      <c r="J506" s="111"/>
+      <c r="K506" s="111"/>
+      <c r="L506" s="111"/>
+      <c r="M506" s="111"/>
+      <c r="N506" s="111"/>
+      <c r="O506" s="111"/>
+      <c r="P506" s="112"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16014,23 +16026,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="114" t="s">
+      <c r="B539" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="115"/>
-      <c r="D539" s="115"/>
-      <c r="E539" s="115"/>
-      <c r="F539" s="115"/>
-      <c r="G539" s="115"/>
-      <c r="H539" s="115"/>
-      <c r="I539" s="115"/>
-      <c r="J539" s="115"/>
-      <c r="K539" s="115"/>
-      <c r="L539" s="115"/>
-      <c r="M539" s="115"/>
-      <c r="N539" s="115"/>
-      <c r="O539" s="115"/>
-      <c r="P539" s="116"/>
+      <c r="C539" s="111"/>
+      <c r="D539" s="111"/>
+      <c r="E539" s="111"/>
+      <c r="F539" s="111"/>
+      <c r="G539" s="111"/>
+      <c r="H539" s="111"/>
+      <c r="I539" s="111"/>
+      <c r="J539" s="111"/>
+      <c r="K539" s="111"/>
+      <c r="L539" s="111"/>
+      <c r="M539" s="111"/>
+      <c r="N539" s="111"/>
+      <c r="O539" s="111"/>
+      <c r="P539" s="112"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16838,23 +16850,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="114" t="s">
+      <c r="B577" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="115"/>
-      <c r="D577" s="115"/>
-      <c r="E577" s="115"/>
-      <c r="F577" s="115"/>
-      <c r="G577" s="115"/>
-      <c r="H577" s="115"/>
-      <c r="I577" s="115"/>
-      <c r="J577" s="115"/>
-      <c r="K577" s="115"/>
-      <c r="L577" s="115"/>
-      <c r="M577" s="115"/>
-      <c r="N577" s="115"/>
-      <c r="O577" s="115"/>
-      <c r="P577" s="116"/>
+      <c r="C577" s="111"/>
+      <c r="D577" s="111"/>
+      <c r="E577" s="111"/>
+      <c r="F577" s="111"/>
+      <c r="G577" s="111"/>
+      <c r="H577" s="111"/>
+      <c r="I577" s="111"/>
+      <c r="J577" s="111"/>
+      <c r="K577" s="111"/>
+      <c r="L577" s="111"/>
+      <c r="M577" s="111"/>
+      <c r="N577" s="111"/>
+      <c r="O577" s="111"/>
+      <c r="P577" s="112"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17355,23 +17367,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="114" t="s">
+      <c r="B600" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="115"/>
-      <c r="D600" s="115"/>
-      <c r="E600" s="115"/>
-      <c r="F600" s="115"/>
-      <c r="G600" s="115"/>
-      <c r="H600" s="115"/>
-      <c r="I600" s="115"/>
-      <c r="J600" s="115"/>
-      <c r="K600" s="115"/>
-      <c r="L600" s="115"/>
-      <c r="M600" s="115"/>
-      <c r="N600" s="115"/>
-      <c r="O600" s="115"/>
-      <c r="P600" s="116"/>
+      <c r="C600" s="111"/>
+      <c r="D600" s="111"/>
+      <c r="E600" s="111"/>
+      <c r="F600" s="111"/>
+      <c r="G600" s="111"/>
+      <c r="H600" s="111"/>
+      <c r="I600" s="111"/>
+      <c r="J600" s="111"/>
+      <c r="K600" s="111"/>
+      <c r="L600" s="111"/>
+      <c r="M600" s="111"/>
+      <c r="N600" s="111"/>
+      <c r="O600" s="111"/>
+      <c r="P600" s="112"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18108,23 +18120,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="114" t="s">
+      <c r="B637" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="115"/>
-      <c r="D637" s="115"/>
-      <c r="E637" s="115"/>
-      <c r="F637" s="115"/>
-      <c r="G637" s="115"/>
-      <c r="H637" s="115"/>
-      <c r="I637" s="115"/>
-      <c r="J637" s="115"/>
-      <c r="K637" s="115"/>
-      <c r="L637" s="115"/>
-      <c r="M637" s="115"/>
-      <c r="N637" s="115"/>
-      <c r="O637" s="115"/>
-      <c r="P637" s="116"/>
+      <c r="C637" s="111"/>
+      <c r="D637" s="111"/>
+      <c r="E637" s="111"/>
+      <c r="F637" s="111"/>
+      <c r="G637" s="111"/>
+      <c r="H637" s="111"/>
+      <c r="I637" s="111"/>
+      <c r="J637" s="111"/>
+      <c r="K637" s="111"/>
+      <c r="L637" s="111"/>
+      <c r="M637" s="111"/>
+      <c r="N637" s="111"/>
+      <c r="O637" s="111"/>
+      <c r="P637" s="112"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18378,23 +18390,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="114" t="s">
+      <c r="B649" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="115"/>
-      <c r="D649" s="115"/>
-      <c r="E649" s="115"/>
-      <c r="F649" s="115"/>
-      <c r="G649" s="115"/>
-      <c r="H649" s="115"/>
-      <c r="I649" s="115"/>
-      <c r="J649" s="115"/>
-      <c r="K649" s="115"/>
-      <c r="L649" s="115"/>
-      <c r="M649" s="115"/>
-      <c r="N649" s="115"/>
-      <c r="O649" s="115"/>
-      <c r="P649" s="116"/>
+      <c r="C649" s="111"/>
+      <c r="D649" s="111"/>
+      <c r="E649" s="111"/>
+      <c r="F649" s="111"/>
+      <c r="G649" s="111"/>
+      <c r="H649" s="111"/>
+      <c r="I649" s="111"/>
+      <c r="J649" s="111"/>
+      <c r="K649" s="111"/>
+      <c r="L649" s="111"/>
+      <c r="M649" s="111"/>
+      <c r="N649" s="111"/>
+      <c r="O649" s="111"/>
+      <c r="P649" s="112"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18896,23 +18908,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="110" t="s">
+      <c r="B675" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="111"/>
-      <c r="D675" s="111"/>
-      <c r="E675" s="111"/>
-      <c r="F675" s="111"/>
-      <c r="G675" s="111"/>
-      <c r="H675" s="111"/>
-      <c r="I675" s="111"/>
-      <c r="J675" s="111"/>
-      <c r="K675" s="111"/>
-      <c r="L675" s="111"/>
-      <c r="M675" s="111"/>
-      <c r="N675" s="111"/>
-      <c r="O675" s="111"/>
-      <c r="P675" s="112"/>
+      <c r="C675" s="114"/>
+      <c r="D675" s="114"/>
+      <c r="E675" s="114"/>
+      <c r="F675" s="114"/>
+      <c r="G675" s="114"/>
+      <c r="H675" s="114"/>
+      <c r="I675" s="114"/>
+      <c r="J675" s="114"/>
+      <c r="K675" s="114"/>
+      <c r="L675" s="114"/>
+      <c r="M675" s="114"/>
+      <c r="N675" s="114"/>
+      <c r="O675" s="114"/>
+      <c r="P675" s="115"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19481,23 +19493,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="110" t="s">
+      <c r="B704" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="111"/>
-      <c r="D704" s="111"/>
-      <c r="E704" s="111"/>
-      <c r="F704" s="111"/>
-      <c r="G704" s="111"/>
-      <c r="H704" s="111"/>
-      <c r="I704" s="111"/>
-      <c r="J704" s="111"/>
-      <c r="K704" s="111"/>
-      <c r="L704" s="111"/>
-      <c r="M704" s="111"/>
-      <c r="N704" s="111"/>
-      <c r="O704" s="111"/>
-      <c r="P704" s="112"/>
+      <c r="C704" s="114"/>
+      <c r="D704" s="114"/>
+      <c r="E704" s="114"/>
+      <c r="F704" s="114"/>
+      <c r="G704" s="114"/>
+      <c r="H704" s="114"/>
+      <c r="I704" s="114"/>
+      <c r="J704" s="114"/>
+      <c r="K704" s="114"/>
+      <c r="L704" s="114"/>
+      <c r="M704" s="114"/>
+      <c r="N704" s="114"/>
+      <c r="O704" s="114"/>
+      <c r="P704" s="115"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19830,23 +19842,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="110" t="s">
+      <c r="B721" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="111"/>
-      <c r="D721" s="111"/>
-      <c r="E721" s="111"/>
-      <c r="F721" s="111"/>
-      <c r="G721" s="111"/>
-      <c r="H721" s="111"/>
-      <c r="I721" s="111"/>
-      <c r="J721" s="111"/>
-      <c r="K721" s="111"/>
-      <c r="L721" s="111"/>
-      <c r="M721" s="111"/>
-      <c r="N721" s="111"/>
-      <c r="O721" s="111"/>
-      <c r="P721" s="112"/>
+      <c r="C721" s="114"/>
+      <c r="D721" s="114"/>
+      <c r="E721" s="114"/>
+      <c r="F721" s="114"/>
+      <c r="G721" s="114"/>
+      <c r="H721" s="114"/>
+      <c r="I721" s="114"/>
+      <c r="J721" s="114"/>
+      <c r="K721" s="114"/>
+      <c r="L721" s="114"/>
+      <c r="M721" s="114"/>
+      <c r="N721" s="114"/>
+      <c r="O721" s="114"/>
+      <c r="P721" s="115"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20222,23 +20234,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="110" t="s">
+      <c r="B741" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="111"/>
-      <c r="D741" s="111"/>
-      <c r="E741" s="111"/>
-      <c r="F741" s="111"/>
-      <c r="G741" s="111"/>
-      <c r="H741" s="111"/>
-      <c r="I741" s="111"/>
-      <c r="J741" s="111"/>
-      <c r="K741" s="111"/>
-      <c r="L741" s="111"/>
-      <c r="M741" s="111"/>
-      <c r="N741" s="111"/>
-      <c r="O741" s="111"/>
-      <c r="P741" s="112"/>
+      <c r="C741" s="114"/>
+      <c r="D741" s="114"/>
+      <c r="E741" s="114"/>
+      <c r="F741" s="114"/>
+      <c r="G741" s="114"/>
+      <c r="H741" s="114"/>
+      <c r="I741" s="114"/>
+      <c r="J741" s="114"/>
+      <c r="K741" s="114"/>
+      <c r="L741" s="114"/>
+      <c r="M741" s="114"/>
+      <c r="N741" s="114"/>
+      <c r="O741" s="114"/>
+      <c r="P741" s="115"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21065,23 +21077,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="110" t="s">
+      <c r="B782" s="113" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="111"/>
-      <c r="D782" s="111"/>
-      <c r="E782" s="111"/>
-      <c r="F782" s="111"/>
-      <c r="G782" s="111"/>
-      <c r="H782" s="111"/>
-      <c r="I782" s="111"/>
-      <c r="J782" s="111"/>
-      <c r="K782" s="111"/>
-      <c r="L782" s="111"/>
-      <c r="M782" s="111"/>
-      <c r="N782" s="111"/>
-      <c r="O782" s="111"/>
-      <c r="P782" s="112"/>
+      <c r="C782" s="114"/>
+      <c r="D782" s="114"/>
+      <c r="E782" s="114"/>
+      <c r="F782" s="114"/>
+      <c r="G782" s="114"/>
+      <c r="H782" s="114"/>
+      <c r="I782" s="114"/>
+      <c r="J782" s="114"/>
+      <c r="K782" s="114"/>
+      <c r="L782" s="114"/>
+      <c r="M782" s="114"/>
+      <c r="N782" s="114"/>
+      <c r="O782" s="114"/>
+      <c r="P782" s="115"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21297,12 +21309,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21319,6 +21325,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21721,7 +21733,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22014,10 +22026,10 @@
       <c r="I5" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="109">
         <v>297</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="118" t="s">
         <v>236</v>
       </c>
       <c r="N5" s="3">
@@ -23135,8 +23147,12 @@
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="5"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="5"/>
+      <c r="N23" s="109">
+        <v>449</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>754</v>
+      </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="5"/>
       <c r="T23" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52519B4F-6C52-E64A-AB92-EFD60677ADB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA744B-009B-334E-A0AF-B91D23A33076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="10960" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="6180" yWindow="14420" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="756">
   <si>
     <t>Array</t>
   </si>
@@ -2291,6 +2291,9 @@
   </si>
   <si>
     <t>Serialize and Deserialize Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
   </si>
 </sst>
 </file>
@@ -3203,14 +3206,8 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3224,11 +3221,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3579,27 +3582,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3971,8 +3974,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5950,23 +5953,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="112"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8380,23 +8383,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="110" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="112"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9877,23 +9880,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="110" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="111"/>
-      <c r="D274" s="111"/>
-      <c r="E274" s="111"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="111"/>
-      <c r="H274" s="111"/>
-      <c r="I274" s="111"/>
-      <c r="J274" s="111"/>
-      <c r="K274" s="111"/>
-      <c r="L274" s="111"/>
-      <c r="M274" s="111"/>
-      <c r="N274" s="111"/>
-      <c r="O274" s="111"/>
-      <c r="P274" s="112"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11921,23 +11924,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="110" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="111"/>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="111"/>
-      <c r="G364" s="111"/>
-      <c r="H364" s="111"/>
-      <c r="I364" s="111"/>
-      <c r="J364" s="111"/>
-      <c r="K364" s="111"/>
-      <c r="L364" s="111"/>
-      <c r="M364" s="111"/>
-      <c r="N364" s="111"/>
-      <c r="O364" s="111"/>
-      <c r="P364" s="112"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12815,23 +12818,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="110" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="111"/>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="111"/>
-      <c r="G402" s="111"/>
-      <c r="H402" s="111"/>
-      <c r="I402" s="111"/>
-      <c r="J402" s="111"/>
-      <c r="K402" s="111"/>
-      <c r="L402" s="111"/>
-      <c r="M402" s="111"/>
-      <c r="N402" s="111"/>
-      <c r="O402" s="111"/>
-      <c r="P402" s="112"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13687,23 +13690,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="110" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="111"/>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="111"/>
-      <c r="G440" s="111"/>
-      <c r="H440" s="111"/>
-      <c r="I440" s="111"/>
-      <c r="J440" s="111"/>
-      <c r="K440" s="111"/>
-      <c r="L440" s="111"/>
-      <c r="M440" s="111"/>
-      <c r="N440" s="111"/>
-      <c r="O440" s="111"/>
-      <c r="P440" s="112"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14596,23 +14599,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="110" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="111"/>
-      <c r="D479" s="111"/>
-      <c r="E479" s="111"/>
-      <c r="F479" s="111"/>
-      <c r="G479" s="111"/>
-      <c r="H479" s="111"/>
-      <c r="I479" s="111"/>
-      <c r="J479" s="111"/>
-      <c r="K479" s="111"/>
-      <c r="L479" s="111"/>
-      <c r="M479" s="111"/>
-      <c r="N479" s="111"/>
-      <c r="O479" s="111"/>
-      <c r="P479" s="112"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15307,23 +15310,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="110" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="111"/>
-      <c r="D506" s="111"/>
-      <c r="E506" s="111"/>
-      <c r="F506" s="111"/>
-      <c r="G506" s="111"/>
-      <c r="H506" s="111"/>
-      <c r="I506" s="111"/>
-      <c r="J506" s="111"/>
-      <c r="K506" s="111"/>
-      <c r="L506" s="111"/>
-      <c r="M506" s="111"/>
-      <c r="N506" s="111"/>
-      <c r="O506" s="111"/>
-      <c r="P506" s="112"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16026,23 +16029,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="111"/>
-      <c r="D539" s="111"/>
-      <c r="E539" s="111"/>
-      <c r="F539" s="111"/>
-      <c r="G539" s="111"/>
-      <c r="H539" s="111"/>
-      <c r="I539" s="111"/>
-      <c r="J539" s="111"/>
-      <c r="K539" s="111"/>
-      <c r="L539" s="111"/>
-      <c r="M539" s="111"/>
-      <c r="N539" s="111"/>
-      <c r="O539" s="111"/>
-      <c r="P539" s="112"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16850,23 +16853,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="110" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="111"/>
-      <c r="D577" s="111"/>
-      <c r="E577" s="111"/>
-      <c r="F577" s="111"/>
-      <c r="G577" s="111"/>
-      <c r="H577" s="111"/>
-      <c r="I577" s="111"/>
-      <c r="J577" s="111"/>
-      <c r="K577" s="111"/>
-      <c r="L577" s="111"/>
-      <c r="M577" s="111"/>
-      <c r="N577" s="111"/>
-      <c r="O577" s="111"/>
-      <c r="P577" s="112"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17367,23 +17370,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="110" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="111"/>
-      <c r="F600" s="111"/>
-      <c r="G600" s="111"/>
-      <c r="H600" s="111"/>
-      <c r="I600" s="111"/>
-      <c r="J600" s="111"/>
-      <c r="K600" s="111"/>
-      <c r="L600" s="111"/>
-      <c r="M600" s="111"/>
-      <c r="N600" s="111"/>
-      <c r="O600" s="111"/>
-      <c r="P600" s="112"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18120,23 +18123,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="110" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="111"/>
-      <c r="D637" s="111"/>
-      <c r="E637" s="111"/>
-      <c r="F637" s="111"/>
-      <c r="G637" s="111"/>
-      <c r="H637" s="111"/>
-      <c r="I637" s="111"/>
-      <c r="J637" s="111"/>
-      <c r="K637" s="111"/>
-      <c r="L637" s="111"/>
-      <c r="M637" s="111"/>
-      <c r="N637" s="111"/>
-      <c r="O637" s="111"/>
-      <c r="P637" s="112"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18390,23 +18393,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="110" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="111"/>
-      <c r="D649" s="111"/>
-      <c r="E649" s="111"/>
-      <c r="F649" s="111"/>
-      <c r="G649" s="111"/>
-      <c r="H649" s="111"/>
-      <c r="I649" s="111"/>
-      <c r="J649" s="111"/>
-      <c r="K649" s="111"/>
-      <c r="L649" s="111"/>
-      <c r="M649" s="111"/>
-      <c r="N649" s="111"/>
-      <c r="O649" s="111"/>
-      <c r="P649" s="112"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18908,23 +18911,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="113" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="114"/>
-      <c r="D675" s="114"/>
-      <c r="E675" s="114"/>
-      <c r="F675" s="114"/>
-      <c r="G675" s="114"/>
-      <c r="H675" s="114"/>
-      <c r="I675" s="114"/>
-      <c r="J675" s="114"/>
-      <c r="K675" s="114"/>
-      <c r="L675" s="114"/>
-      <c r="M675" s="114"/>
-      <c r="N675" s="114"/>
-      <c r="O675" s="114"/>
-      <c r="P675" s="115"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19493,23 +19496,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="113" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="114"/>
-      <c r="D704" s="114"/>
-      <c r="E704" s="114"/>
-      <c r="F704" s="114"/>
-      <c r="G704" s="114"/>
-      <c r="H704" s="114"/>
-      <c r="I704" s="114"/>
-      <c r="J704" s="114"/>
-      <c r="K704" s="114"/>
-      <c r="L704" s="114"/>
-      <c r="M704" s="114"/>
-      <c r="N704" s="114"/>
-      <c r="O704" s="114"/>
-      <c r="P704" s="115"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19842,23 +19845,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="113" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="114"/>
-      <c r="D721" s="114"/>
-      <c r="E721" s="114"/>
-      <c r="F721" s="114"/>
-      <c r="G721" s="114"/>
-      <c r="H721" s="114"/>
-      <c r="I721" s="114"/>
-      <c r="J721" s="114"/>
-      <c r="K721" s="114"/>
-      <c r="L721" s="114"/>
-      <c r="M721" s="114"/>
-      <c r="N721" s="114"/>
-      <c r="O721" s="114"/>
-      <c r="P721" s="115"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20234,23 +20237,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="113" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="114"/>
-      <c r="D741" s="114"/>
-      <c r="E741" s="114"/>
-      <c r="F741" s="114"/>
-      <c r="G741" s="114"/>
-      <c r="H741" s="114"/>
-      <c r="I741" s="114"/>
-      <c r="J741" s="114"/>
-      <c r="K741" s="114"/>
-      <c r="L741" s="114"/>
-      <c r="M741" s="114"/>
-      <c r="N741" s="114"/>
-      <c r="O741" s="114"/>
-      <c r="P741" s="115"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21077,23 +21080,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="113" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="114"/>
-      <c r="D782" s="114"/>
-      <c r="E782" s="114"/>
-      <c r="F782" s="114"/>
-      <c r="G782" s="114"/>
-      <c r="H782" s="114"/>
-      <c r="I782" s="114"/>
-      <c r="J782" s="114"/>
-      <c r="K782" s="114"/>
-      <c r="L782" s="114"/>
-      <c r="M782" s="114"/>
-      <c r="N782" s="114"/>
-      <c r="O782" s="114"/>
-      <c r="P782" s="115"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21309,6 +21312,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21325,12 +21334,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21732,8 +21735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22029,7 +22032,7 @@
       <c r="K5" s="109">
         <v>297</v>
       </c>
-      <c r="L5" s="118" t="s">
+      <c r="L5" s="110" t="s">
         <v>236</v>
       </c>
       <c r="N5" s="3">
@@ -22400,8 +22403,12 @@
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="5"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="5"/>
+      <c r="AF9" s="109">
+        <v>485</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>755</v>
+      </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="5"/>
       <c r="AL9" s="3"/>
@@ -25430,15 +25437,15 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="117"/>
-      <c r="AB87" s="117"/>
-      <c r="AC87" s="117"/>
-      <c r="AD87" s="117"/>
-      <c r="AE87" s="117"/>
-      <c r="AF87" s="117"/>
-      <c r="AG87" s="117"/>
-      <c r="AH87" s="117"/>
-      <c r="AI87" s="117"/>
+      <c r="AA87" s="118"/>
+      <c r="AB87" s="118"/>
+      <c r="AC87" s="118"/>
+      <c r="AD87" s="118"/>
+      <c r="AE87" s="118"/>
+      <c r="AF87" s="118"/>
+      <c r="AG87" s="118"/>
+      <c r="AH87" s="118"/>
+      <c r="AI87" s="118"/>
       <c r="AJ87" s="105"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA744B-009B-334E-A0AF-B91D23A33076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72063D2-FDA1-E546-B0A9-B4AB9AA800FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="14420" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="757">
   <si>
     <t>Array</t>
   </si>
@@ -2294,6 +2294,9 @@
   </si>
   <si>
     <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
   </si>
 </sst>
 </file>
@@ -21736,7 +21739,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22475,8 +22478,12 @@
       </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="5"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="5"/>
+      <c r="AF10" s="109">
+        <v>1295</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="5"/>
       <c r="AL10" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72063D2-FDA1-E546-B0A9-B4AB9AA800FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544C956-A8CB-3442-9ADB-0DEEBA116155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="14420" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="758">
   <si>
     <t>Array</t>
   </si>
@@ -2297,6 +2297,9 @@
   </si>
   <si>
     <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -21738,8 +21741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23169,8 +23172,12 @@
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="5"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="5"/>
+      <c r="T23" s="109">
+        <v>977</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>757</v>
+      </c>
       <c r="W23" s="3"/>
       <c r="X23" s="5"/>
       <c r="Z23" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544C956-A8CB-3442-9ADB-0DEEBA116155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C8648C-6034-AC4B-9CFF-B2A7069EB0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="14420" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="6240" yWindow="14360" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="759">
   <si>
     <t>Array</t>
   </si>
@@ -2300,6 +2300,9 @@
   </si>
   <si>
     <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>Duplicate Zeros</t>
   </si>
 </sst>
 </file>
@@ -21742,7 +21745,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23216,8 +23219,12 @@
       <c r="O24" s="5"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="5"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="5"/>
+      <c r="T24" s="109">
+        <v>1089</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>758</v>
+      </c>
       <c r="W24" s="3"/>
       <c r="X24" s="5"/>
       <c r="Z24" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C8648C-6034-AC4B-9CFF-B2A7069EB0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477BB1B1-54C9-0A4E-AF49-E325CDDC74E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="14360" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="3540" yWindow="12740" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21745,7 +21745,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22463,10 +22463,10 @@
         <v>260</v>
       </c>
       <c r="Q10" s="3">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>85</v>
+        <v>316</v>
       </c>
       <c r="T10" s="3">
         <v>15</v>
@@ -22878,12 +22878,8 @@
       <c r="O17" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="Q17" s="3">
-        <v>143</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>316</v>
-      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="5"/>
       <c r="T17" s="3">
         <v>27</v>
       </c>
@@ -23263,8 +23259,12 @@
       <c r="O25" s="5"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="5"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="5"/>
+      <c r="T25" s="109">
+        <v>88</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="W25" s="3"/>
       <c r="X25" s="5"/>
       <c r="Z25" s="3"/>
@@ -28485,7 +28485,7 @@
     <hyperlink ref="R7" r:id="rId50" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{99647E10-1C36-964B-8D68-654BDB5631E6}"/>
     <hyperlink ref="R8" r:id="rId51" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{91DC5915-8109-6544-A15D-694B22A288DD}"/>
     <hyperlink ref="R9" r:id="rId52" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{408CEE82-0512-D14A-94A3-CC85DB4C8B79}"/>
-    <hyperlink ref="R10" r:id="rId53" display="https://leetcode.com/problems/merge-sorted-array/description/" xr:uid="{3E05E511-0FF2-F54F-BBD5-BCCFA6FD78E4}"/>
+    <hyperlink ref="U25" r:id="rId53" display="https://leetcode.com/problems/merge-sorted-array/description/" xr:uid="{3E05E511-0FF2-F54F-BBD5-BCCFA6FD78E4}"/>
     <hyperlink ref="R11" r:id="rId54" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{3C22EE79-4256-3145-BEF2-9EC53DEB1261}"/>
     <hyperlink ref="R12" r:id="rId55" display="https://leetcode.com/problems/intersection-of-two-arrays/description/" xr:uid="{048FF284-6F38-4143-B2A9-93F0B39133C8}"/>
     <hyperlink ref="R13" r:id="rId56" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/description/" xr:uid="{173F6F8B-CE28-4D48-A7AF-1EAF2AC2DB27}"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477BB1B1-54C9-0A4E-AF49-E325CDDC74E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23878F-DA9B-B541-89E7-DF0D7AF38045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="12740" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="4000" yWindow="12720" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21745,7 +21745,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="5"/>
-      <c r="T17" s="3">
+      <c r="T17" s="109">
         <v>27</v>
       </c>
       <c r="U17" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23878F-DA9B-B541-89E7-DF0D7AF38045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2F375-4565-7549-B34D-880C72509A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="12720" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="6220" yWindow="3780" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2F375-4565-7549-B34D-880C72509A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BA907-5B0E-2541-96B7-8ABD883FBD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="3780" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="20" yWindow="10740" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21744,8 +21744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AS157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22126,10 +22126,10 @@
       <c r="I6" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="109">
         <v>261</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="110" t="s">
         <v>409</v>
       </c>
       <c r="N6" s="3">
@@ -22703,7 +22703,7 @@
       <c r="H14" s="109">
         <v>114</v>
       </c>
-      <c r="I14" s="108" t="s">
+      <c r="I14" s="110" t="s">
         <v>243</v>
       </c>
       <c r="K14" s="109">
@@ -22915,7 +22915,7 @@
       <c r="H18" s="109">
         <v>111</v>
       </c>
-      <c r="I18" s="108" t="s">
+      <c r="I18" s="110" t="s">
         <v>217</v>
       </c>
       <c r="K18" s="3"/>
@@ -23218,7 +23218,7 @@
       <c r="T24" s="109">
         <v>1089</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="110" t="s">
         <v>758</v>
       </c>
       <c r="W24" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BA907-5B0E-2541-96B7-8ABD883FBD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD395C-8A52-8D4D-BBBA-C8E2AAB123B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="10740" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21745,7 +21745,7 @@
   <dimension ref="B1:AS157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22650,7 +22650,7 @@
       <c r="I13" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="109">
         <v>133</v>
       </c>
       <c r="L13" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AD395C-8A52-8D4D-BBBA-C8E2AAB123B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A2CC46-28FB-E248-9DA4-484B9BCB2228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10740" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="4720" yWindow="5140" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="761">
   <si>
     <t>Array</t>
   </si>
@@ -2303,6 +2303,12 @@
   </si>
   <si>
     <t>Duplicate Zeros</t>
+  </si>
+  <si>
+    <t>Chapter 16</t>
+  </si>
+  <si>
+    <t>First Unique Number</t>
   </si>
 </sst>
 </file>
@@ -21742,10 +21748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
-  <dimension ref="B1:AS157"/>
+  <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21770,10 +21776,11 @@
     <col min="42" max="42" width="48.33203125" customWidth="1"/>
     <col min="44" max="44" width="12.33203125" customWidth="1"/>
     <col min="45" max="45" width="44" customWidth="1"/>
+    <col min="48" max="48" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="92" t="s">
         <v>519</v>
       </c>
@@ -21864,8 +21871,14 @@
       <c r="AS2" s="94" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU2" s="107" t="s">
+        <v>759</v>
+      </c>
+      <c r="AV2" s="94" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B3" s="91" t="s">
         <v>498</v>
       </c>
@@ -21926,8 +21939,12 @@
         <v>498</v>
       </c>
       <c r="AS3" s="93"/>
-    </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU3" s="91" t="s">
+        <v>498</v>
+      </c>
+      <c r="AV3" s="93"/>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>28</v>
       </c>
@@ -22018,8 +22035,14 @@
       <c r="AS4" s="5" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU4" s="109">
+        <v>1429</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>78</v>
       </c>
@@ -22106,8 +22129,10 @@
       </c>
       <c r="AR5" s="3"/>
       <c r="AS5" s="5"/>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="5"/>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>90</v>
       </c>
@@ -22190,8 +22215,10 @@
       </c>
       <c r="AR6" s="3"/>
       <c r="AS6" s="5"/>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="5"/>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>46</v>
       </c>
@@ -22274,8 +22301,10 @@
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="5"/>
-    </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="5"/>
+    </row>
+    <row r="8" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>47</v>
       </c>
@@ -22358,8 +22387,10 @@
       </c>
       <c r="AR8" s="3"/>
       <c r="AS8" s="5"/>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="5"/>
+    </row>
+    <row r="9" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>77</v>
       </c>
@@ -22430,8 +22461,10 @@
       </c>
       <c r="AR9" s="3"/>
       <c r="AS9" s="5"/>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="5"/>
+    </row>
+    <row r="10" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>39</v>
       </c>
@@ -22502,8 +22535,10 @@
       </c>
       <c r="AR10" s="3"/>
       <c r="AS10" s="5"/>
-    </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="5"/>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>40</v>
       </c>
@@ -22566,8 +22601,10 @@
       <c r="AP11" s="5"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="5"/>
-    </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="5"/>
+    </row>
+    <row r="12" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>216</v>
       </c>
@@ -22630,8 +22667,10 @@
       <c r="AP12" s="5"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="5"/>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="5"/>
+    </row>
+    <row r="13" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>377</v>
       </c>
@@ -22690,8 +22729,10 @@
       <c r="AP13" s="5"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="5"/>
-    </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="5"/>
+    </row>
+    <row r="14" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="E14" s="3">
@@ -22746,8 +22787,10 @@
       <c r="AP14" s="5"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="5"/>
-    </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="5"/>
+    </row>
+    <row r="15" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="E15" s="3">
@@ -22802,8 +22845,10 @@
       <c r="AP15" s="5"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="5"/>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="5"/>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="E16" s="3">
@@ -22854,8 +22899,10 @@
       <c r="AP16" s="5"/>
       <c r="AR16" s="3"/>
       <c r="AS16" s="5"/>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="5"/>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="E17" s="3">
@@ -22902,8 +22949,10 @@
       <c r="AP17" s="5"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="5"/>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="5"/>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="E18" s="3">
@@ -22950,8 +22999,10 @@
       <c r="AP18" s="5"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="5"/>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="5"/>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="E19" s="3">
@@ -22998,8 +23049,10 @@
       <c r="AP19" s="5"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="5"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="5"/>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="E20" s="3">
@@ -23046,8 +23099,10 @@
       <c r="AP20" s="5"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="5"/>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="5"/>
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="E21" s="3">
@@ -23097,8 +23152,10 @@
       <c r="AP21" s="5"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="5"/>
-    </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="5"/>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="E22" s="3">
@@ -23145,8 +23202,10 @@
       <c r="AP22" s="5"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="5"/>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="5"/>
+    </row>
+    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="E23" s="3">
@@ -23193,8 +23252,10 @@
       <c r="AP23" s="5"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="5"/>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="5"/>
+    </row>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="E24" s="3">
@@ -23237,8 +23298,10 @@
       <c r="AP24" s="5"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="5"/>
-    </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="5"/>
+    </row>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
       <c r="E25" s="3">
@@ -23281,8 +23344,10 @@
       <c r="AP25" s="5"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="5"/>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="5"/>
+    </row>
+    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="E26" s="3">
@@ -23320,8 +23385,10 @@
       <c r="AP26" s="5"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="5"/>
-    </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="5"/>
+    </row>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
       <c r="E27" s="3">
@@ -23359,8 +23426,10 @@
       <c r="AP27" s="5"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="5"/>
-    </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="5"/>
+    </row>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
       <c r="E28" s="3">
@@ -23398,8 +23467,10 @@
       <c r="AP28" s="5"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="5"/>
-    </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="5"/>
+    </row>
+    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
       <c r="E29" s="3">
@@ -23437,8 +23508,10 @@
       <c r="AP29" s="5"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="5"/>
-    </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="5"/>
+    </row>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
       <c r="E30" s="3">
@@ -23476,8 +23549,10 @@
       <c r="AP30" s="5"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="5"/>
-    </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="5"/>
+    </row>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
       <c r="E31" s="3">
@@ -23515,8 +23590,10 @@
       <c r="AP31" s="5"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="5"/>
-    </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="5"/>
+    </row>
+    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
       <c r="E32" s="3">
@@ -23554,8 +23631,10 @@
       <c r="AP32" s="5"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="5"/>
-    </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="5"/>
+    </row>
+    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="E33" s="3">
@@ -23593,8 +23672,10 @@
       <c r="AP33" s="5"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="5"/>
-    </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="5"/>
+    </row>
+    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
       <c r="E34" s="3">
@@ -23632,8 +23713,10 @@
       <c r="AP34" s="5"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="5"/>
-    </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="5"/>
+    </row>
+    <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
       <c r="E35" s="3">
@@ -23671,8 +23754,10 @@
       <c r="AP35" s="5"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="5"/>
-    </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="5"/>
+    </row>
+    <row r="36" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="5"/>
       <c r="E36" s="3">
@@ -23710,8 +23795,10 @@
       <c r="AP36" s="5"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="5"/>
-    </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="5"/>
+    </row>
+    <row r="37" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
       <c r="E37" s="3">
@@ -23749,8 +23836,10 @@
       <c r="AP37" s="5"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="5"/>
-    </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="5"/>
+    </row>
+    <row r="38" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="E38" s="3">
@@ -23785,8 +23874,10 @@
       <c r="AP38" s="5"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="5"/>
-    </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="5"/>
+    </row>
+    <row r="39" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="E39" s="3">
@@ -23821,8 +23912,10 @@
       <c r="AP39" s="5"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="5"/>
-    </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="5"/>
+    </row>
+    <row r="40" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="E40" s="3">
@@ -23857,8 +23950,10 @@
       <c r="AP40" s="5"/>
       <c r="AR40" s="3"/>
       <c r="AS40" s="5"/>
-    </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="5"/>
+    </row>
+    <row r="41" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="5"/>
       <c r="E41" s="3">
@@ -23896,8 +23991,10 @@
       <c r="AP41" s="5"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="5"/>
-    </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="5"/>
+    </row>
+    <row r="42" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="5"/>
       <c r="E42" s="3">
@@ -23935,8 +24032,10 @@
       <c r="AP42" s="5"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="5"/>
-    </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="5"/>
+    </row>
+    <row r="43" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="E43" s="3"/>
@@ -23970,8 +24069,10 @@
       <c r="AP43" s="5"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="5"/>
-    </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="5"/>
+    </row>
+    <row r="44" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="E44" s="3"/>
@@ -24005,8 +24106,10 @@
       <c r="AP44" s="5"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="5"/>
-    </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="5"/>
+    </row>
+    <row r="45" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="E45" s="3"/>
@@ -24040,8 +24143,10 @@
       <c r="AP45" s="5"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="5"/>
-    </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="5"/>
+    </row>
+    <row r="46" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="E46" s="3"/>
@@ -24075,8 +24180,10 @@
       <c r="AP46" s="5"/>
       <c r="AR46" s="3"/>
       <c r="AS46" s="5"/>
-    </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="5"/>
+    </row>
+    <row r="47" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="E47" s="3"/>
@@ -24110,8 +24217,10 @@
       <c r="AP47" s="5"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="5"/>
-    </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="5"/>
+    </row>
+    <row r="48" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="E48" s="3"/>
@@ -24145,8 +24254,10 @@
       <c r="AP48" s="5"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="5"/>
-    </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="5"/>
+    </row>
+    <row r="49" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="E49" s="3"/>
@@ -24180,8 +24291,10 @@
       <c r="AP49" s="5"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="5"/>
-    </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="5"/>
+    </row>
+    <row r="50" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="E50" s="3"/>
@@ -24215,8 +24328,10 @@
       <c r="AP50" s="5"/>
       <c r="AR50" s="3"/>
       <c r="AS50" s="5"/>
-    </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="5"/>
+    </row>
+    <row r="51" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="E51" s="3"/>
@@ -24250,8 +24365,10 @@
       <c r="AP51" s="5"/>
       <c r="AR51" s="3"/>
       <c r="AS51" s="5"/>
-    </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="5"/>
+    </row>
+    <row r="52" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="E52" s="3"/>
@@ -24285,8 +24402,10 @@
       <c r="AP52" s="5"/>
       <c r="AR52" s="3"/>
       <c r="AS52" s="5"/>
-    </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="5"/>
+    </row>
+    <row r="53" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="E53" s="3"/>
@@ -24317,8 +24436,10 @@
       <c r="AP53" s="5"/>
       <c r="AR53" s="3"/>
       <c r="AS53" s="5"/>
-    </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="5"/>
+    </row>
+    <row r="54" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="E54" s="3"/>
@@ -24349,8 +24470,10 @@
       <c r="AP54" s="5"/>
       <c r="AR54" s="3"/>
       <c r="AS54" s="5"/>
-    </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="5"/>
+    </row>
+    <row r="55" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="E55" s="3"/>
@@ -24381,8 +24504,10 @@
       <c r="AP55" s="5"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="5"/>
-    </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="5"/>
+    </row>
+    <row r="56" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="5"/>
       <c r="E56" s="3"/>
@@ -24416,8 +24541,10 @@
       <c r="AP56" s="5"/>
       <c r="AR56" s="3"/>
       <c r="AS56" s="5"/>
-    </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="5"/>
+    </row>
+    <row r="57" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
       <c r="E57" s="3"/>
@@ -24451,8 +24578,10 @@
       <c r="AP57" s="5"/>
       <c r="AR57" s="3"/>
       <c r="AS57" s="5"/>
-    </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="5"/>
+    </row>
+    <row r="58" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
       <c r="E58" s="3"/>
@@ -24486,8 +24615,10 @@
       <c r="AP58" s="5"/>
       <c r="AR58" s="3"/>
       <c r="AS58" s="5"/>
-    </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="5"/>
+    </row>
+    <row r="59" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
       <c r="E59" s="3"/>
@@ -24521,8 +24652,10 @@
       <c r="AP59" s="5"/>
       <c r="AR59" s="3"/>
       <c r="AS59" s="5"/>
-    </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="5"/>
+    </row>
+    <row r="60" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
       <c r="E60" s="3"/>
@@ -24556,8 +24689,10 @@
       <c r="AP60" s="5"/>
       <c r="AR60" s="3"/>
       <c r="AS60" s="5"/>
-    </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="5"/>
+    </row>
+    <row r="61" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
       <c r="E61" s="3"/>
@@ -24591,8 +24726,10 @@
       <c r="AP61" s="5"/>
       <c r="AR61" s="3"/>
       <c r="AS61" s="5"/>
-    </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="5"/>
+    </row>
+    <row r="62" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="E62" s="3"/>
@@ -24626,8 +24763,10 @@
       <c r="AP62" s="5"/>
       <c r="AR62" s="3"/>
       <c r="AS62" s="5"/>
-    </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="5"/>
+    </row>
+    <row r="63" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="E63" s="3"/>
@@ -24661,8 +24800,10 @@
       <c r="AP63" s="5"/>
       <c r="AR63" s="3"/>
       <c r="AS63" s="5"/>
-    </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="5"/>
+    </row>
+    <row r="64" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="E64" s="3"/>
@@ -24696,8 +24837,10 @@
       <c r="AP64" s="5"/>
       <c r="AR64" s="3"/>
       <c r="AS64" s="5"/>
-    </row>
-    <row r="65" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="5"/>
+    </row>
+    <row r="65" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="E65" s="3"/>
@@ -24731,8 +24874,10 @@
       <c r="AP65" s="5"/>
       <c r="AR65" s="3"/>
       <c r="AS65" s="5"/>
-    </row>
-    <row r="66" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU65" s="3"/>
+      <c r="AV65" s="5"/>
+    </row>
+    <row r="66" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="E66" s="3"/>
@@ -24766,8 +24911,10 @@
       <c r="AP66" s="5"/>
       <c r="AR66" s="3"/>
       <c r="AS66" s="5"/>
-    </row>
-    <row r="67" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="5"/>
+    </row>
+    <row r="67" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="E67" s="3"/>
@@ -24801,8 +24948,10 @@
       <c r="AP67" s="5"/>
       <c r="AR67" s="3"/>
       <c r="AS67" s="5"/>
-    </row>
-    <row r="68" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="5"/>
+    </row>
+    <row r="68" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B68" s="106"/>
       <c r="C68" s="106"/>
       <c r="D68" s="106"/>
@@ -24839,7 +24988,7 @@
       <c r="AI68" s="106"/>
       <c r="AJ68" s="106"/>
     </row>
-    <row r="69" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B69" s="106"/>
       <c r="C69" s="106"/>
       <c r="D69" s="106"/>
@@ -24876,7 +25025,7 @@
       <c r="AI69" s="106"/>
       <c r="AJ69" s="106"/>
     </row>
-    <row r="70" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B70" s="106"/>
       <c r="C70" s="106"/>
       <c r="D70" s="106"/>
@@ -24913,7 +25062,7 @@
       <c r="AI70" s="106"/>
       <c r="AJ70" s="106"/>
     </row>
-    <row r="71" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B71" s="106"/>
       <c r="C71" s="106"/>
       <c r="D71" s="106"/>
@@ -24950,7 +25099,7 @@
       <c r="AI71" s="106"/>
       <c r="AJ71" s="106"/>
     </row>
-    <row r="72" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B72" s="106"/>
       <c r="C72" s="106"/>
       <c r="D72" s="106"/>
@@ -24987,7 +25136,7 @@
       <c r="AI72" s="106"/>
       <c r="AJ72" s="106"/>
     </row>
-    <row r="73" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B73" s="106"/>
       <c r="C73" s="106"/>
       <c r="D73" s="106"/>
@@ -25024,7 +25173,7 @@
       <c r="AI73" s="106"/>
       <c r="AJ73" s="106"/>
     </row>
-    <row r="74" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B74" s="106"/>
       <c r="C74" s="106"/>
       <c r="D74" s="106"/>
@@ -25061,7 +25210,7 @@
       <c r="AI74" s="106"/>
       <c r="AJ74" s="106"/>
     </row>
-    <row r="75" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B75" s="106"/>
       <c r="C75" s="106"/>
       <c r="D75" s="106"/>
@@ -25098,7 +25247,7 @@
       <c r="AI75" s="106"/>
       <c r="AJ75" s="106"/>
     </row>
-    <row r="76" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B76" s="106"/>
       <c r="C76" s="106"/>
       <c r="D76" s="106"/>
@@ -25135,7 +25284,7 @@
       <c r="AI76" s="106"/>
       <c r="AJ76" s="106"/>
     </row>
-    <row r="77" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B77" s="106"/>
       <c r="C77" s="106"/>
       <c r="D77" s="106"/>
@@ -25172,7 +25321,7 @@
       <c r="AI77" s="106"/>
       <c r="AJ77" s="106"/>
     </row>
-    <row r="78" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B78" s="106"/>
       <c r="C78" s="106"/>
       <c r="D78" s="106"/>
@@ -25209,7 +25358,7 @@
       <c r="AI78" s="106"/>
       <c r="AJ78" s="106"/>
     </row>
-    <row r="79" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B79" s="106"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106"/>
@@ -25246,7 +25395,7 @@
       <c r="AI79" s="106"/>
       <c r="AJ79" s="106"/>
     </row>
-    <row r="80" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
       <c r="D80" s="106"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A2CC46-28FB-E248-9DA4-484B9BCB2228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D063EF-4426-CC45-967D-F5BDC24BCEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="5140" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="20580" yWindow="11080" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21750,8 +21750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22237,7 +22237,7 @@
       <c r="I7" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="109">
         <v>200</v>
       </c>
       <c r="L7" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D063EF-4426-CC45-967D-F5BDC24BCEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DDE08-0698-B045-9A5B-D586AD3B2810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="11080" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="15620" yWindow="8160" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="761">
   <si>
     <t>Array</t>
   </si>
@@ -3224,6 +3224,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3234,15 +3243,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3597,27 +3597,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3989,8 +3989,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5968,23 +5968,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8398,23 +8398,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9895,23 +9895,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11939,23 +11939,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12833,23 +12833,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13705,23 +13705,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14614,23 +14614,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15325,23 +15325,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16044,23 +16044,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16868,23 +16868,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17385,23 +17385,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18138,23 +18138,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18408,23 +18408,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18926,23 +18926,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19511,23 +19511,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19860,23 +19860,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20252,23 +20252,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21095,23 +21095,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21327,12 +21327,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21349,6 +21343,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21751,7 +21751,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22863,8 +22863,12 @@
       <c r="I16" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="109">
+        <v>130</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="N16" s="3">
         <v>1530</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DDE08-0698-B045-9A5B-D586AD3B2810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E20239-A863-E149-AE72-A02509C80C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="8160" windowWidth="53180" windowHeight="19600" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="3240" yWindow="6080" windowWidth="60880" windowHeight="20440" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,15 +3224,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3243,6 +3234,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3597,27 +3597,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3989,8 +3989,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5968,23 +5968,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8398,23 +8398,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9895,23 +9895,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11939,23 +11939,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12833,23 +12833,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13705,23 +13705,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14614,23 +14614,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15325,23 +15325,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16044,23 +16044,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16868,23 +16868,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17385,23 +17385,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18138,23 +18138,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18408,23 +18408,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18926,23 +18926,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19511,23 +19511,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19860,23 +19860,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20252,23 +20252,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21095,23 +21095,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21327,6 +21327,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21343,12 +21349,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21751,7 +21751,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22079,7 +22079,7 @@
       <c r="R5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="109">
         <v>26</v>
       </c>
       <c r="U5" s="5" t="s">
@@ -22863,12 +22863,8 @@
       <c r="I16" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="K16" s="109">
-        <v>130</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>345</v>
-      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
       <c r="N16" s="3">
         <v>1530</v>
       </c>
@@ -23276,8 +23272,12 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="5"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="5"/>
+      <c r="N24" s="109">
+        <v>130</v>
+      </c>
+      <c r="O24" s="110" t="s">
+        <v>345</v>
+      </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="5"/>
       <c r="T24" s="109">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E20239-A863-E149-AE72-A02509C80C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B1C06-CFD7-9C42-8651-DA7FD039EB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="6080" windowWidth="60880" windowHeight="20440" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="40" yWindow="5840" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="762">
   <si>
     <t>Array</t>
   </si>
@@ -2309,6 +2309,9 @@
   </si>
   <si>
     <t>First Unique Number</t>
+  </si>
+  <si>
+    <t>Check If N and Its Double Exist</t>
   </si>
 </sst>
 </file>
@@ -21750,8 +21753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22591,8 +22594,12 @@
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="5"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="5"/>
+      <c r="AF11" s="109">
+        <v>1346</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>761</v>
+      </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="5"/>
       <c r="AL11" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B1C06-CFD7-9C42-8651-DA7FD039EB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD179C-44A0-284E-8849-DE2D17284FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="5840" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="763">
   <si>
     <t>Array</t>
   </si>
@@ -2312,6 +2312,9 @@
   </si>
   <si>
     <t>Check If N and Its Double Exist</t>
+  </si>
+  <si>
+    <t>Valid Mountain Array</t>
   </si>
 </sst>
 </file>
@@ -21754,7 +21757,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22664,8 +22667,12 @@
       </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="5"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="5"/>
+      <c r="AF12" s="109">
+        <v>941</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>762</v>
+      </c>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="5"/>
       <c r="AL12" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD179C-44A0-284E-8849-DE2D17284FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF75704-C6E6-314C-8D1E-B2646FC730C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="5840" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="764">
   <si>
     <t>Array</t>
   </si>
@@ -2315,13 +2315,16 @@
   </si>
   <si>
     <t>Valid Mountain Array</t>
+  </si>
+  <si>
+    <t>Replace Elements with Greatest Element on Right Side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3588,7 +3591,7 @@
       <selection activeCell="C747" sqref="C747"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
@@ -3601,8 +3604,8 @@
     <col min="20" max="21" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="17" thickBot="1"/>
+    <row r="2" spans="2:21" ht="17" thickBot="1">
       <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
@@ -3625,7 +3628,7 @@
       <c r="T2" s="114"/>
       <c r="U2" s="114"/>
     </row>
-    <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
@@ -3676,7 +3679,7 @@
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21">
       <c r="B4" s="19"/>
       <c r="C4" s="86"/>
       <c r="D4" s="5"/>
@@ -3697,7 +3700,7 @@
       <c r="T4" s="102"/>
       <c r="U4" s="102"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21">
       <c r="B5" s="19"/>
       <c r="C5" s="86" t="s">
         <v>498</v>
@@ -3720,7 +3723,7 @@
       <c r="T5" s="102"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21">
       <c r="B6" s="19"/>
       <c r="C6" s="86" t="s">
         <v>44</v>
@@ -3749,7 +3752,7 @@
       <c r="T6" s="102"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="T7" s="102"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="T8" s="102"/>
       <c r="U8" s="102"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -3838,7 +3841,7 @@
       <c r="T9" s="102"/>
       <c r="U9" s="102"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21">
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -3865,7 +3868,7 @@
       <c r="T10" s="102"/>
       <c r="U10" s="102"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -3892,7 +3895,7 @@
       <c r="T11" s="102"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="T12" s="102"/>
       <c r="U12" s="102"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="T13" s="102"/>
       <c r="U13" s="102"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -3973,7 +3976,7 @@
       <c r="T14" s="102"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21">
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -4000,7 +4003,7 @@
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21">
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -4027,7 +4030,7 @@
       <c r="T16" s="102"/>
       <c r="U16" s="102"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21">
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -4054,7 +4057,7 @@
       <c r="T17" s="102"/>
       <c r="U17" s="102"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21">
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -4081,7 +4084,7 @@
       <c r="T18" s="102"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21">
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -4108,7 +4111,7 @@
       <c r="T19" s="102"/>
       <c r="U19" s="102"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21">
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -4135,7 +4138,7 @@
       <c r="T20" s="102"/>
       <c r="U20" s="102"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21">
       <c r="B21" s="1">
         <v>15</v>
       </c>
@@ -4170,7 +4173,7 @@
       <c r="T21" s="102"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21">
       <c r="B22" s="1">
         <v>16</v>
       </c>
@@ -4199,7 +4202,7 @@
       <c r="T22" s="102"/>
       <c r="U22" s="102"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21">
       <c r="B23" s="1">
         <v>17</v>
       </c>
@@ -4226,7 +4229,7 @@
       <c r="T23" s="102"/>
       <c r="U23" s="102"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21">
       <c r="B24" s="1">
         <v>18</v>
       </c>
@@ -4253,7 +4256,7 @@
       <c r="T24" s="102"/>
       <c r="U24" s="102"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21">
       <c r="B25" s="1">
         <v>19</v>
       </c>
@@ -4280,7 +4283,7 @@
       <c r="T25" s="102"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21">
       <c r="B26" s="1">
         <v>20</v>
       </c>
@@ -4307,7 +4310,7 @@
       <c r="T26" s="102"/>
       <c r="U26" s="102"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21">
       <c r="B27" s="1">
         <v>21</v>
       </c>
@@ -4340,7 +4343,7 @@
       <c r="T27" s="102"/>
       <c r="U27" s="102"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21">
       <c r="B28" s="1">
         <v>22</v>
       </c>
@@ -4371,7 +4374,7 @@
       <c r="T28" s="102"/>
       <c r="U28" s="102"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21">
       <c r="B29" s="1">
         <v>23</v>
       </c>
@@ -4398,7 +4401,7 @@
       <c r="T29" s="102"/>
       <c r="U29" s="102"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21">
       <c r="B30" s="1">
         <v>24</v>
       </c>
@@ -4425,7 +4428,7 @@
       <c r="T30" s="102"/>
       <c r="U30" s="102"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21">
       <c r="B31" s="1">
         <v>25</v>
       </c>
@@ -4452,7 +4455,7 @@
       <c r="T31" s="102"/>
       <c r="U31" s="102"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21">
       <c r="B32" s="1">
         <v>26</v>
       </c>
@@ -4479,7 +4482,7 @@
       <c r="T32" s="102"/>
       <c r="U32" s="102"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21">
       <c r="B33" s="1">
         <v>27</v>
       </c>
@@ -4506,7 +4509,7 @@
       <c r="T33" s="102"/>
       <c r="U33" s="102"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21">
       <c r="B34" s="1">
         <v>28</v>
       </c>
@@ -4539,7 +4542,7 @@
       <c r="T34" s="102"/>
       <c r="U34" s="102"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21">
       <c r="B35" s="1">
         <v>29</v>
       </c>
@@ -4566,7 +4569,7 @@
       <c r="T35" s="102"/>
       <c r="U35" s="102"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21">
       <c r="B36" s="1">
         <v>30</v>
       </c>
@@ -4593,7 +4596,7 @@
       <c r="T36" s="84"/>
       <c r="U36" s="84"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21">
       <c r="B37" s="1">
         <v>31</v>
       </c>
@@ -4620,7 +4623,7 @@
       <c r="T37" s="84"/>
       <c r="U37" s="84"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21">
       <c r="B38" s="1">
         <v>32</v>
       </c>
@@ -4647,7 +4650,7 @@
       <c r="T38" s="84"/>
       <c r="U38" s="84"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21">
       <c r="B39" s="1">
         <v>33</v>
       </c>
@@ -4680,7 +4683,7 @@
       <c r="T39" s="84"/>
       <c r="U39" s="84"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21">
       <c r="B40" s="1">
         <v>34</v>
       </c>
@@ -4707,7 +4710,7 @@
       <c r="T40" s="84"/>
       <c r="U40" s="84"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21">
       <c r="B41" s="1">
         <v>35</v>
       </c>
@@ -4734,7 +4737,7 @@
       <c r="T41" s="84"/>
       <c r="U41" s="84"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21">
       <c r="B42" s="1"/>
       <c r="C42" s="86" t="s">
         <v>77</v>
@@ -4757,7 +4760,7 @@
       <c r="T42" s="84"/>
       <c r="U42" s="84"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21">
       <c r="B43" s="1">
         <v>36</v>
       </c>
@@ -4794,7 +4797,7 @@
       <c r="T43" s="84"/>
       <c r="U43" s="84"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21">
       <c r="B44" s="1">
         <v>37</v>
       </c>
@@ -4821,7 +4824,7 @@
       <c r="T44" s="84"/>
       <c r="U44" s="84"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21">
       <c r="B45" s="1">
         <v>38</v>
       </c>
@@ -4848,7 +4851,7 @@
       <c r="T45" s="84"/>
       <c r="U45" s="84"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21">
       <c r="B46" s="1">
         <v>39</v>
       </c>
@@ -4875,7 +4878,7 @@
       <c r="T46" s="84"/>
       <c r="U46" s="84"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21">
       <c r="B47" s="1"/>
       <c r="C47" s="86" t="s">
         <v>82</v>
@@ -4898,7 +4901,7 @@
       <c r="T47" s="84"/>
       <c r="U47" s="84"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21">
       <c r="B48" s="1">
         <v>40</v>
       </c>
@@ -4925,7 +4928,7 @@
       <c r="T48" s="84"/>
       <c r="U48" s="84"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:21">
       <c r="B49" s="1">
         <v>41</v>
       </c>
@@ -4952,7 +4955,7 @@
       <c r="T49" s="84"/>
       <c r="U49" s="84"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21">
       <c r="B50" s="1">
         <v>42</v>
       </c>
@@ -4983,7 +4986,7 @@
       <c r="T50" s="84"/>
       <c r="U50" s="84"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21">
       <c r="B51" s="1">
         <v>43</v>
       </c>
@@ -5014,7 +5017,7 @@
       <c r="T51" s="84"/>
       <c r="U51" s="84"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21">
       <c r="B52" s="1">
         <v>44</v>
       </c>
@@ -5041,7 +5044,7 @@
       <c r="T52" s="84"/>
       <c r="U52" s="84"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21">
       <c r="B53" s="1"/>
       <c r="C53" s="86" t="s">
         <v>84</v>
@@ -5064,7 +5067,7 @@
       <c r="T53" s="84"/>
       <c r="U53" s="84"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21">
       <c r="B54" s="1">
         <v>45</v>
       </c>
@@ -5091,7 +5094,7 @@
       <c r="T54" s="84"/>
       <c r="U54" s="84"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21">
       <c r="B55" s="1">
         <v>46</v>
       </c>
@@ -5118,7 +5121,7 @@
       <c r="T55" s="84"/>
       <c r="U55" s="84"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21">
       <c r="B56" s="1">
         <v>47</v>
       </c>
@@ -5151,7 +5154,7 @@
       <c r="T56" s="84"/>
       <c r="U56" s="84"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21">
       <c r="B57" s="1">
         <v>48</v>
       </c>
@@ -5178,7 +5181,7 @@
       <c r="T57" s="84"/>
       <c r="U57" s="84"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:21">
       <c r="B58" s="1">
         <v>49</v>
       </c>
@@ -5205,7 +5208,7 @@
       <c r="T58" s="84"/>
       <c r="U58" s="84"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:21">
       <c r="B59" s="1">
         <v>50</v>
       </c>
@@ -5232,7 +5235,7 @@
       <c r="T59" s="84"/>
       <c r="U59" s="84"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21">
       <c r="B60" s="1">
         <v>51</v>
       </c>
@@ -5259,7 +5262,7 @@
       <c r="T60" s="84"/>
       <c r="U60" s="84"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21">
       <c r="B61" s="1">
         <v>52</v>
       </c>
@@ -5286,7 +5289,7 @@
       <c r="T61" s="84"/>
       <c r="U61" s="84"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:21">
       <c r="B62" s="1">
         <v>53</v>
       </c>
@@ -5313,7 +5316,7 @@
       <c r="T62" s="84"/>
       <c r="U62" s="84"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21">
       <c r="B63" s="1"/>
       <c r="C63" s="86" t="s">
         <v>84</v>
@@ -5336,7 +5339,7 @@
       <c r="T63" s="84"/>
       <c r="U63" s="84"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21">
       <c r="B64" s="1">
         <v>54</v>
       </c>
@@ -5365,7 +5368,7 @@
       <c r="O64" s="15"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16">
       <c r="B65" s="1">
         <v>55</v>
       </c>
@@ -5394,7 +5397,7 @@
       <c r="O65" s="15"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16">
       <c r="B66" s="1">
         <v>56</v>
       </c>
@@ -5425,7 +5428,7 @@
       <c r="O66" s="15"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16">
       <c r="B67" s="1">
         <v>57</v>
       </c>
@@ -5448,7 +5451,7 @@
       <c r="O67" s="15"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16">
       <c r="B68" s="1">
         <v>58</v>
       </c>
@@ -5471,7 +5474,7 @@
       <c r="O68" s="15"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16">
       <c r="B69" s="1">
         <v>59</v>
       </c>
@@ -5494,7 +5497,7 @@
       <c r="O69" s="15"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16">
       <c r="B70" s="1">
         <v>60</v>
       </c>
@@ -5517,7 +5520,7 @@
       <c r="O70" s="15"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16">
       <c r="B71" s="1">
         <v>61</v>
       </c>
@@ -5544,7 +5547,7 @@
       <c r="O71" s="15"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16">
       <c r="B72" s="1">
         <v>62</v>
       </c>
@@ -5567,7 +5570,7 @@
       <c r="O72" s="15"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16">
       <c r="B73" s="1">
         <v>63</v>
       </c>
@@ -5590,7 +5593,7 @@
       <c r="O73" s="15"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16">
       <c r="B74" s="1">
         <v>64</v>
       </c>
@@ -5613,7 +5616,7 @@
       <c r="O74" s="15"/>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16">
       <c r="B75" s="1">
         <v>65</v>
       </c>
@@ -5636,7 +5639,7 @@
       <c r="O75" s="15"/>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16">
       <c r="B76" s="1">
         <v>66</v>
       </c>
@@ -5659,7 +5662,7 @@
       <c r="O76" s="15"/>
       <c r="P76" s="17"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16">
       <c r="B77" s="1"/>
       <c r="C77" s="86"/>
       <c r="D77" s="5"/>
@@ -5676,7 +5679,7 @@
       <c r="O77" s="15"/>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16">
       <c r="B78" s="1"/>
       <c r="C78" s="86"/>
       <c r="D78" s="5"/>
@@ -5693,7 +5696,7 @@
       <c r="O78" s="15"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16">
       <c r="B79" s="1">
         <v>67</v>
       </c>
@@ -5724,7 +5727,7 @@
       <c r="O79" s="15"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16">
       <c r="B80" s="1">
         <v>68</v>
       </c>
@@ -5751,7 +5754,7 @@
       <c r="O80" s="15"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16">
       <c r="B81" s="1">
         <v>69</v>
       </c>
@@ -5780,7 +5783,7 @@
       <c r="O81" s="15"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16">
       <c r="B82" s="1">
         <v>70</v>
       </c>
@@ -5807,7 +5810,7 @@
       <c r="O82" s="15"/>
       <c r="P82" s="17"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16">
       <c r="B83" s="1">
         <v>71</v>
       </c>
@@ -5834,7 +5837,7 @@
       <c r="O83" s="15"/>
       <c r="P83" s="17"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16">
       <c r="B84" s="1"/>
       <c r="C84" s="86"/>
       <c r="D84" s="5"/>
@@ -5851,7 +5854,7 @@
       <c r="O84" s="15"/>
       <c r="P84" s="17"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16">
       <c r="B85" s="1"/>
       <c r="C85" s="86"/>
       <c r="D85" s="5"/>
@@ -5868,7 +5871,7 @@
       <c r="O85" s="15"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16">
       <c r="B86" s="1"/>
       <c r="C86" s="86"/>
       <c r="D86" s="5"/>
@@ -5885,7 +5888,7 @@
       <c r="O86" s="15"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16">
       <c r="B87" s="1"/>
       <c r="C87" s="86"/>
       <c r="D87" s="5"/>
@@ -5902,7 +5905,7 @@
       <c r="O87" s="15"/>
       <c r="P87" s="17"/>
     </row>
-    <row r="88" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" ht="17" thickBot="1">
       <c r="B88" s="87"/>
       <c r="C88" s="88"/>
       <c r="D88" s="6"/>
@@ -5919,10 +5922,10 @@
       <c r="O88" s="16"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16">
       <c r="B89" s="85"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16">
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
@@ -5939,7 +5942,7 @@
       <c r="O96" s="45"/>
       <c r="P96" s="45"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16">
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
@@ -5956,7 +5959,7 @@
       <c r="O97" s="45"/>
       <c r="P97" s="45"/>
     </row>
-    <row r="98" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" ht="17" thickBot="1">
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
       <c r="D98" s="45"/>
@@ -5973,7 +5976,7 @@
       <c r="O98" s="45"/>
       <c r="P98" s="45"/>
     </row>
-    <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" ht="17" thickBot="1">
       <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
@@ -5992,7 +5995,7 @@
       <c r="O99" s="116"/>
       <c r="P99" s="117"/>
     </row>
-    <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
         <v>14</v>
       </c>
@@ -6039,7 +6042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16">
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
       <c r="D101" s="5"/>
@@ -6056,7 +6059,7 @@
       <c r="O101" s="15"/>
       <c r="P101" s="17"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16">
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
         <v>498</v>
@@ -6075,7 +6078,7 @@
       <c r="O102" s="15"/>
       <c r="P102" s="17"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16">
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>44</v>
@@ -6094,7 +6097,7 @@
       <c r="O103" s="15"/>
       <c r="P103" s="17"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16">
       <c r="B104" s="1">
         <v>1</v>
       </c>
@@ -6125,7 +6128,7 @@
       <c r="O104" s="15"/>
       <c r="P104" s="17"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16">
       <c r="B105" s="1">
         <v>2</v>
       </c>
@@ -6152,7 +6155,7 @@
       <c r="O105" s="15"/>
       <c r="P105" s="17"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16">
       <c r="B106" s="1">
         <v>3</v>
       </c>
@@ -6175,7 +6178,7 @@
       <c r="O106" s="15"/>
       <c r="P106" s="17"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16">
       <c r="B107" s="1">
         <v>4</v>
       </c>
@@ -6198,7 +6201,7 @@
       <c r="O107" s="15"/>
       <c r="P107" s="17"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16">
       <c r="B108" s="1">
         <v>5</v>
       </c>
@@ -6221,7 +6224,7 @@
       <c r="O108" s="15"/>
       <c r="P108" s="17"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16">
       <c r="B109" s="1">
         <v>6</v>
       </c>
@@ -6248,7 +6251,7 @@
       <c r="O109" s="15"/>
       <c r="P109" s="17"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16">
       <c r="B110" s="1">
         <v>7</v>
       </c>
@@ -6271,7 +6274,7 @@
       <c r="O110" s="15"/>
       <c r="P110" s="17"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16">
       <c r="B111" s="1">
         <v>8</v>
       </c>
@@ -6294,7 +6297,7 @@
       <c r="O111" s="15"/>
       <c r="P111" s="17"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16">
       <c r="B112" s="1">
         <v>9</v>
       </c>
@@ -6317,7 +6320,7 @@
       <c r="O112" s="15"/>
       <c r="P112" s="17"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16">
       <c r="B113" s="1">
         <v>10</v>
       </c>
@@ -6340,7 +6343,7 @@
       <c r="O113" s="15"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16">
       <c r="B114" s="1">
         <v>11</v>
       </c>
@@ -6363,7 +6366,7 @@
       <c r="O114" s="15"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16">
       <c r="B115" s="1">
         <v>12</v>
       </c>
@@ -6386,7 +6389,7 @@
       <c r="O115" s="15"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16">
       <c r="B116" s="1">
         <v>13</v>
       </c>
@@ -6409,7 +6412,7 @@
       <c r="O116" s="15"/>
       <c r="P116" s="17"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16">
       <c r="B117" s="1">
         <v>14</v>
       </c>
@@ -6438,7 +6441,7 @@
       <c r="O117" s="15"/>
       <c r="P117" s="17"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16">
       <c r="B118" s="1">
         <v>15</v>
       </c>
@@ -6461,7 +6464,7 @@
       <c r="O118" s="15"/>
       <c r="P118" s="17"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16">
       <c r="B119" s="1">
         <v>16</v>
       </c>
@@ -6484,7 +6487,7 @@
       <c r="O119" s="15"/>
       <c r="P119" s="17"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16">
       <c r="B120" s="1">
         <v>17</v>
       </c>
@@ -6507,7 +6510,7 @@
       <c r="O120" s="15"/>
       <c r="P120" s="17"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16">
       <c r="B121" s="1">
         <v>18</v>
       </c>
@@ -6530,7 +6533,7 @@
       <c r="O121" s="15"/>
       <c r="P121" s="17"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16">
       <c r="B122" s="1">
         <v>19</v>
       </c>
@@ -6553,7 +6556,7 @@
       <c r="O122" s="15"/>
       <c r="P122" s="17"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16">
       <c r="B123" s="1">
         <v>20</v>
       </c>
@@ -6580,7 +6583,7 @@
       <c r="O123" s="15"/>
       <c r="P123" s="17"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16">
       <c r="B124" s="1">
         <v>21</v>
       </c>
@@ -6603,7 +6606,7 @@
       <c r="O124" s="15"/>
       <c r="P124" s="17"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16">
       <c r="B125" s="1">
         <v>22</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="O125" s="15"/>
       <c r="P125" s="17"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16">
       <c r="B126" s="1">
         <v>23</v>
       </c>
@@ -6649,7 +6652,7 @@
       <c r="O126" s="15"/>
       <c r="P126" s="17"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16">
       <c r="B127" s="1">
         <v>24</v>
       </c>
@@ -6672,7 +6675,7 @@
       <c r="O127" s="15"/>
       <c r="P127" s="17"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16">
       <c r="B128" s="1">
         <v>25</v>
       </c>
@@ -6695,7 +6698,7 @@
       <c r="O128" s="15"/>
       <c r="P128" s="17"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16">
       <c r="B129" s="1">
         <v>26</v>
       </c>
@@ -6718,7 +6721,7 @@
       <c r="O129" s="15"/>
       <c r="P129" s="17"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16">
       <c r="B130" s="1">
         <v>27</v>
       </c>
@@ -6741,7 +6744,7 @@
       <c r="O130" s="15"/>
       <c r="P130" s="17"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16">
       <c r="B131" s="1">
         <v>28</v>
       </c>
@@ -6764,7 +6767,7 @@
       <c r="O131" s="15"/>
       <c r="P131" s="17"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16">
       <c r="B132" s="1">
         <v>29</v>
       </c>
@@ -6787,7 +6790,7 @@
       <c r="O132" s="15"/>
       <c r="P132" s="17"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16">
       <c r="B133" s="1">
         <v>30</v>
       </c>
@@ -6810,7 +6813,7 @@
       <c r="O133" s="15"/>
       <c r="P133" s="17"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16">
       <c r="B134" s="1">
         <v>31</v>
       </c>
@@ -6833,7 +6836,7 @@
       <c r="O134" s="15"/>
       <c r="P134" s="17"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16">
       <c r="B135" s="1">
         <v>32</v>
       </c>
@@ -6856,7 +6859,7 @@
       <c r="O135" s="15"/>
       <c r="P135" s="17"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16">
       <c r="B136" s="1"/>
       <c r="C136" s="3" t="s">
         <v>77</v>
@@ -6875,7 +6878,7 @@
       <c r="O136" s="15"/>
       <c r="P136" s="17"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16">
       <c r="B137" s="1">
         <v>33</v>
       </c>
@@ -6898,7 +6901,7 @@
       <c r="O137" s="15"/>
       <c r="P137" s="17"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16">
       <c r="B138" s="1">
         <v>34</v>
       </c>
@@ -6921,7 +6924,7 @@
       <c r="O138" s="15"/>
       <c r="P138" s="17"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16">
       <c r="B139" s="1">
         <v>35</v>
       </c>
@@ -6950,7 +6953,7 @@
       <c r="O139" s="15"/>
       <c r="P139" s="17"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16">
       <c r="B140" s="1">
         <v>36</v>
       </c>
@@ -6973,7 +6976,7 @@
       <c r="O140" s="15"/>
       <c r="P140" s="17"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16">
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
         <v>138</v>
@@ -6992,7 +6995,7 @@
       <c r="O141" s="15"/>
       <c r="P141" s="17"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16">
       <c r="B142" s="1">
         <v>37</v>
       </c>
@@ -7015,7 +7018,7 @@
       <c r="O142" s="15"/>
       <c r="P142" s="17"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16">
       <c r="B143" s="1">
         <v>38</v>
       </c>
@@ -7038,7 +7041,7 @@
       <c r="O143" s="15"/>
       <c r="P143" s="17"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16">
       <c r="B144" s="1">
         <v>39</v>
       </c>
@@ -7067,7 +7070,7 @@
       <c r="O144" s="15"/>
       <c r="P144" s="17"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:16">
       <c r="B145" s="1">
         <v>40</v>
       </c>
@@ -7090,7 +7093,7 @@
       <c r="O145" s="15"/>
       <c r="P145" s="17"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:16">
       <c r="B146" s="1">
         <v>41</v>
       </c>
@@ -7113,7 +7116,7 @@
       <c r="O146" s="15"/>
       <c r="P146" s="17"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:16">
       <c r="B147" s="1">
         <v>42</v>
       </c>
@@ -7136,7 +7139,7 @@
       <c r="O147" s="15"/>
       <c r="P147" s="17"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:16">
       <c r="B148" s="1"/>
       <c r="C148" s="3"/>
       <c r="D148" s="5"/>
@@ -7153,7 +7156,7 @@
       <c r="O148" s="15"/>
       <c r="P148" s="17"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:16">
       <c r="B149" s="1"/>
       <c r="C149" s="3"/>
       <c r="D149" s="5"/>
@@ -7170,7 +7173,7 @@
       <c r="O149" s="15"/>
       <c r="P149" s="17"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:16">
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
       <c r="D150" s="5"/>
@@ -7187,7 +7190,7 @@
       <c r="O150" s="15"/>
       <c r="P150" s="17"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:16">
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
       <c r="D151" s="5"/>
@@ -7204,7 +7207,7 @@
       <c r="O151" s="15"/>
       <c r="P151" s="17"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:16">
       <c r="B152" s="1"/>
       <c r="C152" s="3" t="s">
         <v>145</v>
@@ -7223,7 +7226,7 @@
       <c r="O152" s="15"/>
       <c r="P152" s="17"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:16">
       <c r="B153" s="1">
         <v>43</v>
       </c>
@@ -7256,7 +7259,7 @@
       <c r="O153" s="15"/>
       <c r="P153" s="17"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:16">
       <c r="B154" s="1">
         <v>44</v>
       </c>
@@ -7279,7 +7282,7 @@
       <c r="O154" s="15"/>
       <c r="P154" s="17"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:16">
       <c r="B155" s="1">
         <v>45</v>
       </c>
@@ -7310,7 +7313,7 @@
       <c r="O155" s="15"/>
       <c r="P155" s="17"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:16">
       <c r="B156" s="1">
         <v>46</v>
       </c>
@@ -7335,7 +7338,7 @@
       <c r="O156" s="15"/>
       <c r="P156" s="17"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:16">
       <c r="B157" s="1">
         <v>47</v>
       </c>
@@ -7358,7 +7361,7 @@
       <c r="O157" s="15"/>
       <c r="P157" s="17"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:16">
       <c r="B158" s="1">
         <v>48</v>
       </c>
@@ -7381,7 +7384,7 @@
       <c r="O158" s="15"/>
       <c r="P158" s="17"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:16">
       <c r="B159" s="1">
         <v>49</v>
       </c>
@@ -7410,7 +7413,7 @@
       <c r="O159" s="15"/>
       <c r="P159" s="17"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:16">
       <c r="B160" s="1">
         <v>50</v>
       </c>
@@ -7433,7 +7436,7 @@
       <c r="O160" s="15"/>
       <c r="P160" s="17"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16">
       <c r="B161" s="1">
         <v>51</v>
       </c>
@@ -7456,7 +7459,7 @@
       <c r="O161" s="15"/>
       <c r="P161" s="17"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16">
       <c r="B162" s="1">
         <v>52</v>
       </c>
@@ -7483,7 +7486,7 @@
       <c r="O162" s="15"/>
       <c r="P162" s="17"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16">
       <c r="B163" s="1">
         <v>53</v>
       </c>
@@ -7508,7 +7511,7 @@
       <c r="O163" s="15"/>
       <c r="P163" s="17"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16">
       <c r="B164" s="1">
         <v>54</v>
       </c>
@@ -7531,7 +7534,7 @@
       <c r="O164" s="15"/>
       <c r="P164" s="17"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16">
       <c r="B165" s="1">
         <v>55</v>
       </c>
@@ -7554,7 +7557,7 @@
       <c r="O165" s="15"/>
       <c r="P165" s="17"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16">
       <c r="B166" s="1">
         <v>56</v>
       </c>
@@ -7577,7 +7580,7 @@
       <c r="O166" s="15"/>
       <c r="P166" s="17"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16">
       <c r="B167" s="1">
         <v>57</v>
       </c>
@@ -7600,7 +7603,7 @@
       <c r="O167" s="15"/>
       <c r="P167" s="17"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16">
       <c r="B168" s="1">
         <v>58</v>
       </c>
@@ -7623,7 +7626,7 @@
       <c r="O168" s="15"/>
       <c r="P168" s="17"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16">
       <c r="B169" s="1">
         <v>59</v>
       </c>
@@ -7646,7 +7649,7 @@
       <c r="O169" s="15"/>
       <c r="P169" s="17"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16">
       <c r="B170" s="1">
         <v>60</v>
       </c>
@@ -7669,7 +7672,7 @@
       <c r="O170" s="15"/>
       <c r="P170" s="17"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16">
       <c r="B171" s="1">
         <v>61</v>
       </c>
@@ -7692,7 +7695,7 @@
       <c r="O171" s="15"/>
       <c r="P171" s="17"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16">
       <c r="B172" s="1">
         <v>62</v>
       </c>
@@ -7715,7 +7718,7 @@
       <c r="O172" s="15"/>
       <c r="P172" s="17"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16">
       <c r="B173" s="1"/>
       <c r="C173" s="3"/>
       <c r="D173" s="5"/>
@@ -7732,7 +7735,7 @@
       <c r="O173" s="15"/>
       <c r="P173" s="17"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16">
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
       <c r="D174" s="5"/>
@@ -7749,7 +7752,7 @@
       <c r="O174" s="15"/>
       <c r="P174" s="17"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16">
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
       <c r="D175" s="5"/>
@@ -7766,7 +7769,7 @@
       <c r="O175" s="15"/>
       <c r="P175" s="17"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16">
       <c r="B176" s="1"/>
       <c r="C176" s="3" t="s">
         <v>155</v>
@@ -7785,7 +7788,7 @@
       <c r="O176" s="15"/>
       <c r="P176" s="17"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16">
       <c r="B177" s="1">
         <v>63</v>
       </c>
@@ -7814,7 +7817,7 @@
       <c r="O177" s="15"/>
       <c r="P177" s="17"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16">
       <c r="B178" s="1">
         <v>64</v>
       </c>
@@ -7841,7 +7844,7 @@
       <c r="O178" s="15"/>
       <c r="P178" s="17"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16">
       <c r="B179" s="1">
         <v>65</v>
       </c>
@@ -7864,7 +7867,7 @@
       <c r="O179" s="15"/>
       <c r="P179" s="17"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16">
       <c r="B180" s="1">
         <v>66</v>
       </c>
@@ -7887,7 +7890,7 @@
       <c r="O180" s="15"/>
       <c r="P180" s="17"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16">
       <c r="B181" s="1">
         <v>67</v>
       </c>
@@ -7910,7 +7913,7 @@
       <c r="O181" s="15"/>
       <c r="P181" s="17"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16">
       <c r="B182" s="1"/>
       <c r="C182" s="3"/>
       <c r="D182" s="5"/>
@@ -7927,7 +7930,7 @@
       <c r="O182" s="15"/>
       <c r="P182" s="17"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16">
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
       <c r="D183" s="5"/>
@@ -7944,7 +7947,7 @@
       <c r="O183" s="15"/>
       <c r="P183" s="17"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16">
       <c r="B184" s="1"/>
       <c r="C184" s="3"/>
       <c r="D184" s="5"/>
@@ -7961,7 +7964,7 @@
       <c r="O184" s="15"/>
       <c r="P184" s="17"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16">
       <c r="B185" s="1"/>
       <c r="C185" s="3" t="s">
         <v>161</v>
@@ -7980,7 +7983,7 @@
       <c r="O185" s="15"/>
       <c r="P185" s="17"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16">
       <c r="B186" s="1">
         <v>68</v>
       </c>
@@ -8003,7 +8006,7 @@
       <c r="O186" s="15"/>
       <c r="P186" s="17"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16">
       <c r="B187" s="1">
         <v>69</v>
       </c>
@@ -8026,7 +8029,7 @@
       <c r="O187" s="15"/>
       <c r="P187" s="17"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16">
       <c r="B188" s="1">
         <v>70</v>
       </c>
@@ -8049,7 +8052,7 @@
       <c r="O188" s="15"/>
       <c r="P188" s="17"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16">
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
       <c r="D189" s="5"/>
@@ -8066,7 +8069,7 @@
       <c r="O189" s="15"/>
       <c r="P189" s="17"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16">
       <c r="B190" s="1"/>
       <c r="C190" s="3"/>
       <c r="D190" s="5"/>
@@ -8083,7 +8086,7 @@
       <c r="O190" s="15"/>
       <c r="P190" s="17"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16">
       <c r="B191" s="1">
         <v>71</v>
       </c>
@@ -8112,7 +8115,7 @@
       <c r="O191" s="15"/>
       <c r="P191" s="17"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16">
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
       <c r="D192" s="5"/>
@@ -8129,7 +8132,7 @@
       <c r="O192" s="15"/>
       <c r="P192" s="17"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:16">
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
       <c r="D193" s="5"/>
@@ -8146,7 +8149,7 @@
       <c r="O193" s="15"/>
       <c r="P193" s="17"/>
     </row>
-    <row r="194" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:16" ht="12" customHeight="1">
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
       <c r="D194" s="5"/>
@@ -8163,7 +8166,7 @@
       <c r="O194" s="15"/>
       <c r="P194" s="17"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:16">
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
       <c r="D195" s="5"/>
@@ -8180,7 +8183,7 @@
       <c r="O195" s="15"/>
       <c r="P195" s="17"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:16">
       <c r="B196" s="1"/>
       <c r="C196" s="3"/>
       <c r="D196" s="5"/>
@@ -8197,7 +8200,7 @@
       <c r="O196" s="15"/>
       <c r="P196" s="17"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:16">
       <c r="B197" s="1"/>
       <c r="C197" s="3"/>
       <c r="D197" s="5"/>
@@ -8214,7 +8217,7 @@
       <c r="O197" s="15"/>
       <c r="P197" s="17"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:16">
       <c r="B198" s="1"/>
       <c r="C198" s="3"/>
       <c r="D198" s="5"/>
@@ -8231,7 +8234,7 @@
       <c r="O198" s="15"/>
       <c r="P198" s="17"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:16">
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
       <c r="D199" s="5"/>
@@ -8248,7 +8251,7 @@
       <c r="O199" s="15"/>
       <c r="P199" s="17"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:16">
       <c r="B200" s="1"/>
       <c r="C200" s="3"/>
       <c r="D200" s="5"/>
@@ -8265,7 +8268,7 @@
       <c r="O200" s="15"/>
       <c r="P200" s="17"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:16">
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
       <c r="D201" s="5"/>
@@ -8282,7 +8285,7 @@
       <c r="O201" s="15"/>
       <c r="P201" s="17"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:16">
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
       <c r="D202" s="5"/>
@@ -8299,7 +8302,7 @@
       <c r="O202" s="15"/>
       <c r="P202" s="17"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:16">
       <c r="B203" s="1"/>
       <c r="C203" s="3"/>
       <c r="D203" s="5"/>
@@ -8316,7 +8319,7 @@
       <c r="O203" s="15"/>
       <c r="P203" s="17"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:16">
       <c r="B204" s="1"/>
       <c r="C204" s="3"/>
       <c r="D204" s="5"/>
@@ -8333,7 +8336,7 @@
       <c r="O204" s="15"/>
       <c r="P204" s="17"/>
     </row>
-    <row r="205" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:16" ht="17" thickBot="1">
       <c r="B205" s="2"/>
       <c r="C205" s="4"/>
       <c r="D205" s="6" t="s">
@@ -8352,7 +8355,7 @@
       <c r="O205" s="16"/>
       <c r="P205" s="18"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:16">
       <c r="B206" s="45"/>
       <c r="C206" s="45"/>
       <c r="D206" s="45"/>
@@ -8369,7 +8372,7 @@
       <c r="O206" s="45"/>
       <c r="P206" s="45"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:16">
       <c r="B207" s="45"/>
       <c r="C207" s="45"/>
       <c r="D207" s="45"/>
@@ -8386,7 +8389,7 @@
       <c r="O207" s="45"/>
       <c r="P207" s="45"/>
     </row>
-    <row r="208" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:16" ht="17" thickBot="1">
       <c r="B208" s="45"/>
       <c r="C208" s="45"/>
       <c r="D208" s="45"/>
@@ -8403,7 +8406,7 @@
       <c r="O208" s="45"/>
       <c r="P208" s="45"/>
     </row>
-    <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" ht="17" thickBot="1">
       <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
@@ -8422,7 +8425,7 @@
       <c r="O209" s="116"/>
       <c r="P209" s="117"/>
     </row>
-    <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
         <v>14</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:16">
       <c r="B211" s="19"/>
       <c r="C211" s="3"/>
       <c r="D211" s="5"/>
@@ -8486,7 +8489,7 @@
       <c r="O211" s="23"/>
       <c r="P211" s="24"/>
     </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:16">
       <c r="B212" s="19"/>
       <c r="C212" s="3"/>
       <c r="D212" s="5"/>
@@ -8503,7 +8506,7 @@
       <c r="O212" s="23"/>
       <c r="P212" s="24"/>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:16">
       <c r="B213" s="19"/>
       <c r="C213" s="3" t="s">
         <v>498</v>
@@ -8522,7 +8525,7 @@
       <c r="O213" s="23"/>
       <c r="P213" s="24"/>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:16">
       <c r="B214" s="19"/>
       <c r="C214" s="3" t="s">
         <v>44</v>
@@ -8541,7 +8544,7 @@
       <c r="O214" s="23"/>
       <c r="P214" s="24"/>
     </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:16">
       <c r="B215" s="1">
         <v>1</v>
       </c>
@@ -8566,7 +8569,7 @@
       <c r="O215" s="15"/>
       <c r="P215" s="17"/>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:16">
       <c r="B216" s="1">
         <v>2</v>
       </c>
@@ -8589,7 +8592,7 @@
       <c r="O216" s="15"/>
       <c r="P216" s="17"/>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:16">
       <c r="B217" s="1">
         <v>3</v>
       </c>
@@ -8614,7 +8617,7 @@
       <c r="O217" s="15"/>
       <c r="P217" s="17"/>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:16">
       <c r="B218" s="1">
         <v>4</v>
       </c>
@@ -8637,7 +8640,7 @@
       <c r="O218" s="15"/>
       <c r="P218" s="17"/>
     </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:16">
       <c r="B219" s="1">
         <v>5</v>
       </c>
@@ -8662,7 +8665,7 @@
       <c r="O219" s="15"/>
       <c r="P219" s="17"/>
     </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:16">
       <c r="B220" s="1">
         <v>6</v>
       </c>
@@ -8685,7 +8688,7 @@
       <c r="O220" s="15"/>
       <c r="P220" s="17"/>
     </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:16">
       <c r="B221" s="1">
         <v>7</v>
       </c>
@@ -8708,7 +8711,7 @@
       <c r="O221" s="15"/>
       <c r="P221" s="17"/>
     </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:16">
       <c r="B222" s="1">
         <v>8</v>
       </c>
@@ -8731,7 +8734,7 @@
       <c r="O222" s="15"/>
       <c r="P222" s="17"/>
     </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:16">
       <c r="B223" s="1">
         <v>9</v>
       </c>
@@ -8760,7 +8763,7 @@
       <c r="O223" s="15"/>
       <c r="P223" s="17"/>
     </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:16">
       <c r="B224" s="1">
         <v>10</v>
       </c>
@@ -8783,7 +8786,7 @@
       <c r="O224" s="15"/>
       <c r="P224" s="17"/>
     </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:16">
       <c r="B225" s="1">
         <v>11</v>
       </c>
@@ -8810,7 +8813,7 @@
       <c r="O225" s="15"/>
       <c r="P225" s="17"/>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:16">
       <c r="B226" s="1">
         <v>12</v>
       </c>
@@ -8833,7 +8836,7 @@
       <c r="O226" s="15"/>
       <c r="P226" s="17"/>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:16">
       <c r="B227" s="1">
         <v>13</v>
       </c>
@@ -8862,7 +8865,7 @@
       <c r="O227" s="15"/>
       <c r="P227" s="17"/>
     </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:16">
       <c r="B228" s="1">
         <v>14</v>
       </c>
@@ -8883,7 +8886,7 @@
       <c r="O228" s="15"/>
       <c r="P228" s="17"/>
     </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:16">
       <c r="B229" s="1">
         <v>15</v>
       </c>
@@ -8916,7 +8919,7 @@
       <c r="O229" s="15"/>
       <c r="P229" s="17"/>
     </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:16">
       <c r="B230" s="1">
         <v>16</v>
       </c>
@@ -8949,7 +8952,7 @@
       <c r="O230" s="15"/>
       <c r="P230" s="17"/>
     </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:16">
       <c r="B231" s="1">
         <v>17</v>
       </c>
@@ -8980,7 +8983,7 @@
       <c r="O231" s="15"/>
       <c r="P231" s="17"/>
     </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:16">
       <c r="B232" s="1">
         <v>18</v>
       </c>
@@ -9009,7 +9012,7 @@
       <c r="O232" s="15"/>
       <c r="P232" s="17"/>
     </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:16">
       <c r="B233" s="1">
         <v>19</v>
       </c>
@@ -9032,7 +9035,7 @@
       <c r="O233" s="15"/>
       <c r="P233" s="17"/>
     </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:16">
       <c r="B234" s="1">
         <v>20</v>
       </c>
@@ -9061,7 +9064,7 @@
       <c r="O234" s="15"/>
       <c r="P234" s="17"/>
     </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:16">
       <c r="B235" s="1"/>
       <c r="C235" s="3" t="s">
         <v>53</v>
@@ -9080,7 +9083,7 @@
       <c r="O235" s="15"/>
       <c r="P235" s="17"/>
     </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:16">
       <c r="B236" s="1">
         <v>21</v>
       </c>
@@ -9103,7 +9106,7 @@
       <c r="O236" s="15"/>
       <c r="P236" s="17"/>
     </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:16">
       <c r="B237" s="1">
         <v>22</v>
       </c>
@@ -9126,7 +9129,7 @@
       <c r="O237" s="15"/>
       <c r="P237" s="17"/>
     </row>
-    <row r="238" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:16">
       <c r="B238" s="1">
         <v>23</v>
       </c>
@@ -9149,7 +9152,7 @@
       <c r="O238" s="15"/>
       <c r="P238" s="17"/>
     </row>
-    <row r="239" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:16">
       <c r="B239" s="1">
         <v>24</v>
       </c>
@@ -9172,7 +9175,7 @@
       <c r="O239" s="15"/>
       <c r="P239" s="17"/>
     </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:16">
       <c r="B240" s="1">
         <v>25</v>
       </c>
@@ -9195,7 +9198,7 @@
       <c r="O240" s="15"/>
       <c r="P240" s="17"/>
     </row>
-    <row r="241" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:16">
       <c r="B241" s="1">
         <v>26</v>
       </c>
@@ -9218,7 +9221,7 @@
       <c r="O241" s="15"/>
       <c r="P241" s="17"/>
     </row>
-    <row r="242" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:16">
       <c r="B242" s="1">
         <v>27</v>
       </c>
@@ -9241,7 +9244,7 @@
       <c r="O242" s="15"/>
       <c r="P242" s="17"/>
     </row>
-    <row r="243" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:16">
       <c r="B243" s="1">
         <v>28</v>
       </c>
@@ -9270,7 +9273,7 @@
       <c r="O243" s="15"/>
       <c r="P243" s="17"/>
     </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:16">
       <c r="B244" s="1">
         <v>29</v>
       </c>
@@ -9293,7 +9296,7 @@
       <c r="O244" s="15"/>
       <c r="P244" s="17"/>
     </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:16">
       <c r="B245" s="1">
         <v>30</v>
       </c>
@@ -9316,7 +9319,7 @@
       <c r="O245" s="15"/>
       <c r="P245" s="17"/>
     </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:16">
       <c r="B246" s="1">
         <v>31</v>
       </c>
@@ -9343,7 +9346,7 @@
       <c r="O246" s="15"/>
       <c r="P246" s="17"/>
     </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:16">
       <c r="B247" s="1">
         <v>32</v>
       </c>
@@ -9366,7 +9369,7 @@
       <c r="O247" s="15"/>
       <c r="P247" s="17"/>
     </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:16">
       <c r="B248" s="1">
         <v>33</v>
       </c>
@@ -9389,7 +9392,7 @@
       <c r="O248" s="15"/>
       <c r="P248" s="17"/>
     </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:16">
       <c r="B249" s="1">
         <v>34</v>
       </c>
@@ -9412,7 +9415,7 @@
       <c r="O249" s="15"/>
       <c r="P249" s="17"/>
     </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:16">
       <c r="B250" s="1">
         <v>35</v>
       </c>
@@ -9435,7 +9438,7 @@
       <c r="O250" s="15"/>
       <c r="P250" s="17"/>
     </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:16">
       <c r="B251" s="1">
         <v>36</v>
       </c>
@@ -9458,7 +9461,7 @@
       <c r="O251" s="15"/>
       <c r="P251" s="17"/>
     </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:16">
       <c r="B252" s="1">
         <v>37</v>
       </c>
@@ -9481,7 +9484,7 @@
       <c r="O252" s="15"/>
       <c r="P252" s="17"/>
     </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:16">
       <c r="B253" s="1">
         <v>38</v>
       </c>
@@ -9504,7 +9507,7 @@
       <c r="O253" s="15"/>
       <c r="P253" s="17"/>
     </row>
-    <row r="254" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:16">
       <c r="B254" s="1">
         <v>39</v>
       </c>
@@ -9527,7 +9530,7 @@
       <c r="O254" s="15"/>
       <c r="P254" s="17"/>
     </row>
-    <row r="255" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:16">
       <c r="B255" s="1">
         <v>40</v>
       </c>
@@ -9550,7 +9553,7 @@
       <c r="O255" s="15"/>
       <c r="P255" s="17"/>
     </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:16">
       <c r="B256" s="1">
         <v>41</v>
       </c>
@@ -9573,7 +9576,7 @@
       <c r="O256" s="15"/>
       <c r="P256" s="17"/>
     </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:16">
       <c r="B257" s="1"/>
       <c r="C257" s="3"/>
       <c r="D257" s="5"/>
@@ -9590,7 +9593,7 @@
       <c r="O257" s="15"/>
       <c r="P257" s="17"/>
     </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:16">
       <c r="B258" s="1">
         <v>42</v>
       </c>
@@ -9619,7 +9622,7 @@
       <c r="O258" s="15"/>
       <c r="P258" s="17"/>
     </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:16">
       <c r="B259" s="1">
         <v>43</v>
       </c>
@@ -9648,7 +9651,7 @@
       <c r="O259" s="15"/>
       <c r="P259" s="17"/>
     </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:16">
       <c r="B260" s="1">
         <v>44</v>
       </c>
@@ -9679,7 +9682,7 @@
       <c r="O260" s="15"/>
       <c r="P260" s="17"/>
     </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:16">
       <c r="B261" s="1"/>
       <c r="C261" s="3"/>
       <c r="D261" s="5"/>
@@ -9696,7 +9699,7 @@
       <c r="O261" s="15"/>
       <c r="P261" s="17"/>
     </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:16">
       <c r="B262" s="1"/>
       <c r="C262" s="3"/>
       <c r="D262" s="5"/>
@@ -9713,7 +9716,7 @@
       <c r="O262" s="15"/>
       <c r="P262" s="17"/>
     </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:16">
       <c r="B263" s="1"/>
       <c r="C263" s="3"/>
       <c r="D263" s="5"/>
@@ -9730,7 +9733,7 @@
       <c r="O263" s="15"/>
       <c r="P263" s="17"/>
     </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:16">
       <c r="B264" s="1"/>
       <c r="C264" s="3"/>
       <c r="D264" s="5"/>
@@ -9747,7 +9750,7 @@
       <c r="O264" s="15"/>
       <c r="P264" s="17"/>
     </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:16">
       <c r="B265" s="1"/>
       <c r="C265" s="3"/>
       <c r="D265" s="5"/>
@@ -9764,7 +9767,7 @@
       <c r="O265" s="15"/>
       <c r="P265" s="17"/>
     </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:16">
       <c r="B266" s="1"/>
       <c r="C266" s="3"/>
       <c r="D266" s="5"/>
@@ -9781,7 +9784,7 @@
       <c r="O266" s="15"/>
       <c r="P266" s="17"/>
     </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:16">
       <c r="B267" s="1"/>
       <c r="C267" s="3"/>
       <c r="D267" s="5"/>
@@ -9798,7 +9801,7 @@
       <c r="O267" s="15"/>
       <c r="P267" s="17"/>
     </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:16">
       <c r="B268" s="1"/>
       <c r="C268" s="3"/>
       <c r="D268" s="5"/>
@@ -9815,7 +9818,7 @@
       <c r="O268" s="15"/>
       <c r="P268" s="17"/>
     </row>
-    <row r="269" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:16">
       <c r="B269" s="1"/>
       <c r="C269" s="3"/>
       <c r="D269" s="5"/>
@@ -9832,7 +9835,7 @@
       <c r="O269" s="15"/>
       <c r="P269" s="17"/>
     </row>
-    <row r="270" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:16" ht="17" thickBot="1">
       <c r="B270" s="2"/>
       <c r="C270" s="4"/>
       <c r="D270" s="6"/>
@@ -9849,7 +9852,7 @@
       <c r="O270" s="16"/>
       <c r="P270" s="18"/>
     </row>
-    <row r="271" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:16">
       <c r="B271" s="45"/>
       <c r="C271" s="45"/>
       <c r="D271" s="45"/>
@@ -9866,7 +9869,7 @@
       <c r="O271" s="45"/>
       <c r="P271" s="45"/>
     </row>
-    <row r="272" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:16">
       <c r="B272" s="45"/>
       <c r="C272" s="45"/>
       <c r="D272" s="45"/>
@@ -9883,7 +9886,7 @@
       <c r="O272" s="45"/>
       <c r="P272" s="45"/>
     </row>
-    <row r="273" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:16" ht="17" thickBot="1">
       <c r="B273" s="45"/>
       <c r="C273" s="45"/>
       <c r="D273" s="45"/>
@@ -9900,7 +9903,7 @@
       <c r="O273" s="45"/>
       <c r="P273" s="45"/>
     </row>
-    <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:16" ht="17" thickBot="1">
       <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
@@ -9919,7 +9922,7 @@
       <c r="O274" s="116"/>
       <c r="P274" s="117"/>
     </row>
-    <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
         <v>14</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:16">
       <c r="B276" s="19"/>
       <c r="C276" s="3"/>
       <c r="D276" s="5"/>
@@ -9983,7 +9986,7 @@
       <c r="O276" s="23"/>
       <c r="P276" s="24"/>
     </row>
-    <row r="277" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:16">
       <c r="B277" s="19"/>
       <c r="C277" s="3" t="s">
         <v>498</v>
@@ -10002,7 +10005,7 @@
       <c r="O277" s="23"/>
       <c r="P277" s="24"/>
     </row>
-    <row r="278" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:16">
       <c r="B278" s="19"/>
       <c r="C278" s="3" t="s">
         <v>44</v>
@@ -10021,7 +10024,7 @@
       <c r="O278" s="23"/>
       <c r="P278" s="24"/>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:16">
       <c r="B279" s="1">
         <v>1</v>
       </c>
@@ -10054,7 +10057,7 @@
       <c r="O279" s="15"/>
       <c r="P279" s="17"/>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:16">
       <c r="B280" s="1">
         <v>2</v>
       </c>
@@ -10087,7 +10090,7 @@
       <c r="O280" s="15"/>
       <c r="P280" s="17"/>
     </row>
-    <row r="281" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:16">
       <c r="B281" s="1">
         <v>3</v>
       </c>
@@ -10118,7 +10121,7 @@
       <c r="O281" s="15"/>
       <c r="P281" s="17"/>
     </row>
-    <row r="282" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:16">
       <c r="B282" s="1">
         <v>4</v>
       </c>
@@ -10153,7 +10156,7 @@
       <c r="O282" s="15"/>
       <c r="P282" s="17"/>
     </row>
-    <row r="283" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:16">
       <c r="B283" s="1"/>
       <c r="C283" s="3" t="s">
         <v>208</v>
@@ -10172,7 +10175,7 @@
       <c r="O283" s="15"/>
       <c r="P283" s="17"/>
     </row>
-    <row r="284" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:16">
       <c r="B284" s="1">
         <v>5</v>
       </c>
@@ -10195,7 +10198,7 @@
       <c r="O284" s="15"/>
       <c r="P284" s="17"/>
     </row>
-    <row r="285" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:16">
       <c r="B285" s="1">
         <v>6</v>
       </c>
@@ -10218,7 +10221,7 @@
       <c r="O285" s="15"/>
       <c r="P285" s="17"/>
     </row>
-    <row r="286" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:16">
       <c r="B286" s="1">
         <v>7</v>
       </c>
@@ -10241,7 +10244,7 @@
       <c r="O286" s="15"/>
       <c r="P286" s="17"/>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:16">
       <c r="B287" s="1">
         <v>8</v>
       </c>
@@ -10274,7 +10277,7 @@
       <c r="O287" s="15"/>
       <c r="P287" s="17"/>
     </row>
-    <row r="288" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:16">
       <c r="B288" s="1">
         <v>9</v>
       </c>
@@ -10297,7 +10300,7 @@
       <c r="O288" s="15"/>
       <c r="P288" s="17"/>
     </row>
-    <row r="289" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:16">
       <c r="B289" s="1">
         <v>10</v>
       </c>
@@ -10322,7 +10325,7 @@
       <c r="O289" s="15"/>
       <c r="P289" s="17"/>
     </row>
-    <row r="290" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:16">
       <c r="B290" s="1">
         <v>11</v>
       </c>
@@ -10345,7 +10348,7 @@
       <c r="O290" s="15"/>
       <c r="P290" s="17"/>
     </row>
-    <row r="291" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:16">
       <c r="B291" s="1">
         <v>12</v>
       </c>
@@ -10368,7 +10371,7 @@
       <c r="O291" s="15"/>
       <c r="P291" s="17"/>
     </row>
-    <row r="292" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:16">
       <c r="B292" s="1">
         <v>13</v>
       </c>
@@ -10399,7 +10402,7 @@
       <c r="O292" s="15"/>
       <c r="P292" s="17"/>
     </row>
-    <row r="293" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:16">
       <c r="B293" s="1"/>
       <c r="C293" s="3" t="s">
         <v>208</v>
@@ -10418,7 +10421,7 @@
       <c r="O293" s="15"/>
       <c r="P293" s="17"/>
     </row>
-    <row r="294" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:16">
       <c r="B294" s="1">
         <v>14</v>
       </c>
@@ -10455,7 +10458,7 @@
       <c r="O294" s="15"/>
       <c r="P294" s="17"/>
     </row>
-    <row r="295" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:16">
       <c r="B295" s="1">
         <v>15</v>
       </c>
@@ -10488,7 +10491,7 @@
       <c r="O295" s="15"/>
       <c r="P295" s="17"/>
     </row>
-    <row r="296" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:16">
       <c r="B296" s="1">
         <v>16</v>
       </c>
@@ -10511,7 +10514,7 @@
       <c r="O296" s="15"/>
       <c r="P296" s="17"/>
     </row>
-    <row r="297" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:16">
       <c r="B297" s="1">
         <v>17</v>
       </c>
@@ -10534,7 +10537,7 @@
       <c r="O297" s="15"/>
       <c r="P297" s="17"/>
     </row>
-    <row r="298" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:16">
       <c r="B298" s="1">
         <v>18</v>
       </c>
@@ -10557,7 +10560,7 @@
       <c r="O298" s="15"/>
       <c r="P298" s="17"/>
     </row>
-    <row r="299" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:16">
       <c r="B299" s="1">
         <v>19</v>
       </c>
@@ -10580,7 +10583,7 @@
       <c r="O299" s="15"/>
       <c r="P299" s="17"/>
     </row>
-    <row r="300" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:16">
       <c r="B300" s="1"/>
       <c r="C300" s="3" t="s">
         <v>224</v>
@@ -10599,7 +10602,7 @@
       <c r="O300" s="15"/>
       <c r="P300" s="17"/>
     </row>
-    <row r="301" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:16">
       <c r="B301" s="1">
         <v>20</v>
       </c>
@@ -10628,7 +10631,7 @@
       <c r="O301" s="15"/>
       <c r="P301" s="17"/>
     </row>
-    <row r="302" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:16">
       <c r="B302" s="1">
         <v>21</v>
       </c>
@@ -10651,7 +10654,7 @@
       <c r="O302" s="15"/>
       <c r="P302" s="17"/>
     </row>
-    <row r="303" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:16">
       <c r="B303" s="1">
         <v>22</v>
       </c>
@@ -10674,7 +10677,7 @@
       <c r="O303" s="15"/>
       <c r="P303" s="17"/>
     </row>
-    <row r="304" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:16">
       <c r="B304" s="1"/>
       <c r="C304" s="3" t="s">
         <v>228</v>
@@ -10693,7 +10696,7 @@
       <c r="O304" s="15"/>
       <c r="P304" s="17"/>
     </row>
-    <row r="305" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:16">
       <c r="B305" s="1">
         <v>23</v>
       </c>
@@ -10724,7 +10727,7 @@
       <c r="O305" s="15"/>
       <c r="P305" s="17"/>
     </row>
-    <row r="306" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:16">
       <c r="B306" s="1">
         <v>24</v>
       </c>
@@ -10755,7 +10758,7 @@
       <c r="O306" s="15"/>
       <c r="P306" s="17"/>
     </row>
-    <row r="307" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:16">
       <c r="B307" s="1">
         <v>25</v>
       </c>
@@ -10788,7 +10791,7 @@
       <c r="O307" s="15"/>
       <c r="P307" s="17"/>
     </row>
-    <row r="308" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:16">
       <c r="B308" s="1">
         <v>26</v>
       </c>
@@ -10811,7 +10814,7 @@
       <c r="O308" s="15"/>
       <c r="P308" s="17"/>
     </row>
-    <row r="309" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:16">
       <c r="B309" s="1">
         <v>27</v>
       </c>
@@ -10834,7 +10837,7 @@
       <c r="O309" s="15"/>
       <c r="P309" s="17"/>
     </row>
-    <row r="310" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:16">
       <c r="B310" s="1">
         <v>28</v>
       </c>
@@ -10857,7 +10860,7 @@
       <c r="O310" s="15"/>
       <c r="P310" s="17"/>
     </row>
-    <row r="311" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:16">
       <c r="B311" s="1">
         <v>29</v>
       </c>
@@ -10888,7 +10891,7 @@
       <c r="O311" s="15"/>
       <c r="P311" s="17"/>
     </row>
-    <row r="312" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:16">
       <c r="B312" s="1">
         <v>30</v>
       </c>
@@ -10919,7 +10922,7 @@
       <c r="O312" s="15"/>
       <c r="P312" s="17"/>
     </row>
-    <row r="313" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:16">
       <c r="B313" s="1">
         <v>31</v>
       </c>
@@ -10942,7 +10945,7 @@
       <c r="O313" s="15"/>
       <c r="P313" s="17"/>
     </row>
-    <row r="314" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:16">
       <c r="B314" s="1">
         <v>32</v>
       </c>
@@ -10965,7 +10968,7 @@
       <c r="O314" s="15"/>
       <c r="P314" s="17"/>
     </row>
-    <row r="315" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:16">
       <c r="B315" s="1">
         <v>33</v>
       </c>
@@ -10988,7 +10991,7 @@
       <c r="O315" s="15"/>
       <c r="P315" s="17"/>
     </row>
-    <row r="316" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:16">
       <c r="B316" s="1">
         <v>34</v>
       </c>
@@ -11011,7 +11014,7 @@
       <c r="O316" s="15"/>
       <c r="P316" s="17"/>
     </row>
-    <row r="317" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:16">
       <c r="B317" s="1"/>
       <c r="C317" s="3" t="s">
         <v>241</v>
@@ -11030,7 +11033,7 @@
       <c r="O317" s="15"/>
       <c r="P317" s="17"/>
     </row>
-    <row r="318" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:16">
       <c r="B318" s="1">
         <v>35</v>
       </c>
@@ -11053,7 +11056,7 @@
       <c r="O318" s="15"/>
       <c r="P318" s="17"/>
     </row>
-    <row r="319" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:16">
       <c r="B319" s="1">
         <v>36</v>
       </c>
@@ -11084,7 +11087,7 @@
       <c r="O319" s="15"/>
       <c r="P319" s="17"/>
     </row>
-    <row r="320" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:16">
       <c r="B320" s="1">
         <v>37</v>
       </c>
@@ -11107,7 +11110,7 @@
       <c r="O320" s="15"/>
       <c r="P320" s="17"/>
     </row>
-    <row r="321" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:16">
       <c r="B321" s="1">
         <v>38</v>
       </c>
@@ -11130,7 +11133,7 @@
       <c r="O321" s="15"/>
       <c r="P321" s="17"/>
     </row>
-    <row r="322" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:16">
       <c r="B322" s="1">
         <v>39</v>
       </c>
@@ -11153,7 +11156,7 @@
       <c r="O322" s="15"/>
       <c r="P322" s="17"/>
     </row>
-    <row r="323" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:16">
       <c r="B323" s="1">
         <v>40</v>
       </c>
@@ -11176,7 +11179,7 @@
       <c r="O323" s="15"/>
       <c r="P323" s="17"/>
     </row>
-    <row r="324" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:16">
       <c r="B324" s="1">
         <v>41</v>
       </c>
@@ -11199,7 +11202,7 @@
       <c r="O324" s="15"/>
       <c r="P324" s="17"/>
     </row>
-    <row r="325" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:16">
       <c r="B325" s="1">
         <v>42</v>
       </c>
@@ -11222,7 +11225,7 @@
       <c r="O325" s="15"/>
       <c r="P325" s="17"/>
     </row>
-    <row r="326" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:16">
       <c r="B326" s="1">
         <v>43</v>
       </c>
@@ -11245,7 +11248,7 @@
       <c r="O326" s="15"/>
       <c r="P326" s="17"/>
     </row>
-    <row r="327" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:16">
       <c r="B327" s="1">
         <v>44</v>
       </c>
@@ -11268,7 +11271,7 @@
       <c r="O327" s="15"/>
       <c r="P327" s="17"/>
     </row>
-    <row r="328" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:16">
       <c r="B328" s="1">
         <v>45</v>
       </c>
@@ -11291,7 +11294,7 @@
       <c r="O328" s="15"/>
       <c r="P328" s="17"/>
     </row>
-    <row r="329" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:16">
       <c r="B329" s="1">
         <v>46</v>
       </c>
@@ -11314,7 +11317,7 @@
       <c r="O329" s="15"/>
       <c r="P329" s="17"/>
     </row>
-    <row r="330" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:16">
       <c r="B330" s="1">
         <v>47</v>
       </c>
@@ -11337,7 +11340,7 @@
       <c r="O330" s="15"/>
       <c r="P330" s="17"/>
     </row>
-    <row r="331" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:16">
       <c r="B331" s="1"/>
       <c r="C331" s="3"/>
       <c r="D331" s="5"/>
@@ -11354,7 +11357,7 @@
       <c r="O331" s="15"/>
       <c r="P331" s="17"/>
     </row>
-    <row r="332" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:16">
       <c r="B332" s="1">
         <v>48</v>
       </c>
@@ -11381,7 +11384,7 @@
       <c r="O332" s="15"/>
       <c r="P332" s="17"/>
     </row>
-    <row r="333" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:16">
       <c r="B333" s="1">
         <v>49</v>
       </c>
@@ -11412,7 +11415,7 @@
       <c r="O333" s="15"/>
       <c r="P333" s="17"/>
     </row>
-    <row r="334" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:16">
       <c r="B334" s="1">
         <v>50</v>
       </c>
@@ -11439,7 +11442,7 @@
       <c r="O334" s="15"/>
       <c r="P334" s="17"/>
     </row>
-    <row r="335" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:16">
       <c r="B335" s="1">
         <v>51</v>
       </c>
@@ -11468,7 +11471,7 @@
       <c r="O335" s="15"/>
       <c r="P335" s="17"/>
     </row>
-    <row r="336" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:16">
       <c r="B336" s="1"/>
       <c r="C336" s="3"/>
       <c r="D336" s="5"/>
@@ -11485,7 +11488,7 @@
       <c r="O336" s="15"/>
       <c r="P336" s="17"/>
     </row>
-    <row r="337" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:16">
       <c r="B337" s="1"/>
       <c r="C337" s="3"/>
       <c r="D337" s="5"/>
@@ -11502,7 +11505,7 @@
       <c r="O337" s="15"/>
       <c r="P337" s="17"/>
     </row>
-    <row r="338" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:16">
       <c r="B338" s="1"/>
       <c r="C338" s="3"/>
       <c r="D338" s="5"/>
@@ -11519,7 +11522,7 @@
       <c r="O338" s="15"/>
       <c r="P338" s="17"/>
     </row>
-    <row r="339" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:16">
       <c r="B339" s="1"/>
       <c r="C339" s="3"/>
       <c r="D339" s="5"/>
@@ -11536,7 +11539,7 @@
       <c r="O339" s="15"/>
       <c r="P339" s="17"/>
     </row>
-    <row r="340" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:16">
       <c r="B340" s="1"/>
       <c r="C340" s="3"/>
       <c r="D340" s="5"/>
@@ -11553,7 +11556,7 @@
       <c r="O340" s="15"/>
       <c r="P340" s="17"/>
     </row>
-    <row r="341" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:16">
       <c r="B341" s="1"/>
       <c r="C341" s="3"/>
       <c r="D341" s="5"/>
@@ -11570,7 +11573,7 @@
       <c r="O341" s="15"/>
       <c r="P341" s="17"/>
     </row>
-    <row r="342" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:16">
       <c r="B342" s="1"/>
       <c r="C342" s="3"/>
       <c r="D342" s="5"/>
@@ -11587,7 +11590,7 @@
       <c r="O342" s="15"/>
       <c r="P342" s="17"/>
     </row>
-    <row r="343" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:16">
       <c r="B343" s="1"/>
       <c r="C343" s="3"/>
       <c r="D343" s="5"/>
@@ -11604,7 +11607,7 @@
       <c r="O343" s="15"/>
       <c r="P343" s="17"/>
     </row>
-    <row r="344" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:16">
       <c r="B344" s="1"/>
       <c r="C344" s="3"/>
       <c r="D344" s="5"/>
@@ -11621,7 +11624,7 @@
       <c r="O344" s="15"/>
       <c r="P344" s="17"/>
     </row>
-    <row r="345" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:16">
       <c r="B345" s="1"/>
       <c r="C345" s="3"/>
       <c r="D345" s="5"/>
@@ -11638,7 +11641,7 @@
       <c r="O345" s="15"/>
       <c r="P345" s="17"/>
     </row>
-    <row r="346" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:16">
       <c r="B346" s="1"/>
       <c r="C346" s="3"/>
       <c r="D346" s="5"/>
@@ -11655,7 +11658,7 @@
       <c r="O346" s="15"/>
       <c r="P346" s="17"/>
     </row>
-    <row r="347" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:16">
       <c r="B347" s="1"/>
       <c r="C347" s="3"/>
       <c r="D347" s="5"/>
@@ -11672,7 +11675,7 @@
       <c r="O347" s="15"/>
       <c r="P347" s="17"/>
     </row>
-    <row r="348" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:16">
       <c r="B348" s="1"/>
       <c r="C348" s="3"/>
       <c r="D348" s="5"/>
@@ -11689,7 +11692,7 @@
       <c r="O348" s="15"/>
       <c r="P348" s="17"/>
     </row>
-    <row r="349" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:16">
       <c r="B349" s="1"/>
       <c r="C349" s="3"/>
       <c r="D349" s="5"/>
@@ -11706,7 +11709,7 @@
       <c r="O349" s="15"/>
       <c r="P349" s="17"/>
     </row>
-    <row r="350" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:16">
       <c r="B350" s="1"/>
       <c r="C350" s="3"/>
       <c r="D350" s="5"/>
@@ -11723,7 +11726,7 @@
       <c r="O350" s="15"/>
       <c r="P350" s="17"/>
     </row>
-    <row r="351" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:16">
       <c r="B351" s="1"/>
       <c r="C351" s="3"/>
       <c r="D351" s="5"/>
@@ -11740,7 +11743,7 @@
       <c r="O351" s="15"/>
       <c r="P351" s="17"/>
     </row>
-    <row r="352" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:16">
       <c r="B352" s="1"/>
       <c r="C352" s="3"/>
       <c r="D352" s="5"/>
@@ -11757,7 +11760,7 @@
       <c r="O352" s="15"/>
       <c r="P352" s="17"/>
     </row>
-    <row r="353" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:16">
       <c r="B353" s="1"/>
       <c r="C353" s="3"/>
       <c r="D353" s="5"/>
@@ -11774,7 +11777,7 @@
       <c r="O353" s="15"/>
       <c r="P353" s="17"/>
     </row>
-    <row r="354" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:16">
       <c r="B354" s="1"/>
       <c r="C354" s="3"/>
       <c r="D354" s="5"/>
@@ -11791,7 +11794,7 @@
       <c r="O354" s="15"/>
       <c r="P354" s="17"/>
     </row>
-    <row r="355" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:16">
       <c r="B355" s="1"/>
       <c r="C355" s="3"/>
       <c r="D355" s="5"/>
@@ -11808,7 +11811,7 @@
       <c r="O355" s="15"/>
       <c r="P355" s="17"/>
     </row>
-    <row r="356" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:16">
       <c r="B356" s="1"/>
       <c r="C356" s="3"/>
       <c r="D356" s="5"/>
@@ -11825,7 +11828,7 @@
       <c r="O356" s="15"/>
       <c r="P356" s="17"/>
     </row>
-    <row r="357" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:16">
       <c r="B357" s="1"/>
       <c r="C357" s="3"/>
       <c r="D357" s="5"/>
@@ -11842,7 +11845,7 @@
       <c r="O357" s="15"/>
       <c r="P357" s="17"/>
     </row>
-    <row r="358" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:16" ht="17" thickBot="1">
       <c r="B358" s="2"/>
       <c r="C358" s="4"/>
       <c r="D358" s="6"/>
@@ -11859,7 +11862,7 @@
       <c r="O358" s="16"/>
       <c r="P358" s="18"/>
     </row>
-    <row r="359" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:16">
       <c r="B359" s="85"/>
       <c r="C359" s="85"/>
       <c r="D359" s="89"/>
@@ -11876,7 +11879,7 @@
       <c r="O359" s="85"/>
       <c r="P359" s="85"/>
     </row>
-    <row r="360" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:16">
       <c r="B360" s="85"/>
       <c r="C360" s="85"/>
       <c r="D360" s="89"/>
@@ -11893,7 +11896,7 @@
       <c r="O360" s="85"/>
       <c r="P360" s="85"/>
     </row>
-    <row r="361" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:16">
       <c r="B361" s="45"/>
       <c r="C361" s="45"/>
       <c r="D361" s="45"/>
@@ -11910,7 +11913,7 @@
       <c r="O361" s="45"/>
       <c r="P361" s="45"/>
     </row>
-    <row r="362" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:16">
       <c r="B362" s="45"/>
       <c r="C362" s="45"/>
       <c r="D362" s="45"/>
@@ -11927,7 +11930,7 @@
       <c r="O362" s="45"/>
       <c r="P362" s="45"/>
     </row>
-    <row r="363" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:16" ht="17" thickBot="1">
       <c r="B363" s="45"/>
       <c r="C363" s="45"/>
       <c r="D363" s="45"/>
@@ -11944,7 +11947,7 @@
       <c r="O363" s="45"/>
       <c r="P363" s="45"/>
     </row>
-    <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:16" ht="17" thickBot="1">
       <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
@@ -11963,7 +11966,7 @@
       <c r="O364" s="116"/>
       <c r="P364" s="117"/>
     </row>
-    <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
         <v>14</v>
       </c>
@@ -12010,7 +12013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:16">
       <c r="B366" s="19"/>
       <c r="C366" s="3"/>
       <c r="D366" s="5"/>
@@ -12027,7 +12030,7 @@
       <c r="O366" s="23"/>
       <c r="P366" s="24"/>
     </row>
-    <row r="367" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:16">
       <c r="B367" s="19"/>
       <c r="C367" s="3" t="s">
         <v>498</v>
@@ -12046,7 +12049,7 @@
       <c r="O367" s="23"/>
       <c r="P367" s="24"/>
     </row>
-    <row r="368" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:16">
       <c r="B368" s="19">
         <v>1</v>
       </c>
@@ -12083,7 +12086,7 @@
       <c r="O368" s="23"/>
       <c r="P368" s="24"/>
     </row>
-    <row r="369" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:16">
       <c r="B369" s="1">
         <v>2</v>
       </c>
@@ -12118,7 +12121,7 @@
       <c r="O369" s="15"/>
       <c r="P369" s="17"/>
     </row>
-    <row r="370" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:16">
       <c r="B370" s="19">
         <v>3</v>
       </c>
@@ -12151,7 +12154,7 @@
       <c r="O370" s="15"/>
       <c r="P370" s="17"/>
     </row>
-    <row r="371" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:16">
       <c r="B371" s="1">
         <v>4</v>
       </c>
@@ -12184,7 +12187,7 @@
       <c r="O371" s="15"/>
       <c r="P371" s="17"/>
     </row>
-    <row r="372" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:16">
       <c r="B372" s="19">
         <v>5</v>
       </c>
@@ -12217,7 +12220,7 @@
       <c r="O372" s="15"/>
       <c r="P372" s="17"/>
     </row>
-    <row r="373" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:16">
       <c r="B373" s="1">
         <v>6</v>
       </c>
@@ -12250,7 +12253,7 @@
       <c r="O373" s="15"/>
       <c r="P373" s="17"/>
     </row>
-    <row r="374" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:16">
       <c r="B374" s="19">
         <v>7</v>
       </c>
@@ -12281,7 +12284,7 @@
       <c r="O374" s="15"/>
       <c r="P374" s="17"/>
     </row>
-    <row r="375" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:16">
       <c r="B375" s="1">
         <v>8</v>
       </c>
@@ -12304,7 +12307,7 @@
       <c r="O375" s="15"/>
       <c r="P375" s="17"/>
     </row>
-    <row r="376" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:16">
       <c r="B376" s="19">
         <v>9</v>
       </c>
@@ -12339,7 +12342,7 @@
       <c r="O376" s="15"/>
       <c r="P376" s="17"/>
     </row>
-    <row r="377" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:16">
       <c r="B377" s="1">
         <v>10</v>
       </c>
@@ -12374,7 +12377,7 @@
       <c r="O377" s="15"/>
       <c r="P377" s="17"/>
     </row>
-    <row r="378" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:16">
       <c r="B378" s="19">
         <v>11</v>
       </c>
@@ -12397,7 +12400,7 @@
       <c r="O378" s="15"/>
       <c r="P378" s="17"/>
     </row>
-    <row r="379" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:16">
       <c r="B379" s="1">
         <v>12</v>
       </c>
@@ -12422,7 +12425,7 @@
       <c r="O379" s="15"/>
       <c r="P379" s="17"/>
     </row>
-    <row r="380" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:16">
       <c r="B380" s="19">
         <v>13</v>
       </c>
@@ -12445,7 +12448,7 @@
       <c r="O380" s="15"/>
       <c r="P380" s="17"/>
     </row>
-    <row r="381" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:16">
       <c r="B381" s="1">
         <v>14</v>
       </c>
@@ -12468,7 +12471,7 @@
       <c r="O381" s="15"/>
       <c r="P381" s="17"/>
     </row>
-    <row r="382" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:16">
       <c r="B382" s="19">
         <v>15</v>
       </c>
@@ -12491,7 +12494,7 @@
       <c r="O382" s="15"/>
       <c r="P382" s="17"/>
     </row>
-    <row r="383" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:16">
       <c r="B383" s="1">
         <v>16</v>
       </c>
@@ -12514,7 +12517,7 @@
       <c r="O383" s="15"/>
       <c r="P383" s="17"/>
     </row>
-    <row r="384" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:16">
       <c r="B384" s="19">
         <v>17</v>
       </c>
@@ -12537,7 +12540,7 @@
       <c r="O384" s="15"/>
       <c r="P384" s="17"/>
     </row>
-    <row r="385" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:16">
       <c r="B385" s="1">
         <v>18</v>
       </c>
@@ -12560,7 +12563,7 @@
       <c r="O385" s="15"/>
       <c r="P385" s="17"/>
     </row>
-    <row r="386" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:16">
       <c r="B386" s="19">
         <v>19</v>
       </c>
@@ -12583,7 +12586,7 @@
       <c r="O386" s="15"/>
       <c r="P386" s="17"/>
     </row>
-    <row r="387" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:16">
       <c r="B387" s="1"/>
       <c r="C387" s="3"/>
       <c r="D387" s="5"/>
@@ -12600,7 +12603,7 @@
       <c r="O387" s="15"/>
       <c r="P387" s="17"/>
     </row>
-    <row r="388" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:16">
       <c r="B388" s="1"/>
       <c r="C388" s="3"/>
       <c r="D388" s="5"/>
@@ -12617,7 +12620,7 @@
       <c r="O388" s="15"/>
       <c r="P388" s="17"/>
     </row>
-    <row r="389" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:16">
       <c r="B389" s="1"/>
       <c r="C389" s="3"/>
       <c r="D389" s="5"/>
@@ -12634,7 +12637,7 @@
       <c r="O389" s="15"/>
       <c r="P389" s="17"/>
     </row>
-    <row r="390" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:16">
       <c r="B390" s="1"/>
       <c r="C390" s="3"/>
       <c r="D390" s="5"/>
@@ -12651,7 +12654,7 @@
       <c r="O390" s="15"/>
       <c r="P390" s="17"/>
     </row>
-    <row r="391" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:16">
       <c r="B391" s="1"/>
       <c r="C391" s="3"/>
       <c r="D391" s="5"/>
@@ -12668,7 +12671,7 @@
       <c r="O391" s="15"/>
       <c r="P391" s="17"/>
     </row>
-    <row r="392" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:16">
       <c r="B392" s="1"/>
       <c r="C392" s="3"/>
       <c r="D392" s="5"/>
@@ -12685,7 +12688,7 @@
       <c r="O392" s="15"/>
       <c r="P392" s="17"/>
     </row>
-    <row r="393" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:16">
       <c r="B393" s="1"/>
       <c r="C393" s="3"/>
       <c r="D393" s="5"/>
@@ -12702,7 +12705,7 @@
       <c r="O393" s="15"/>
       <c r="P393" s="17"/>
     </row>
-    <row r="394" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:16">
       <c r="B394" s="1"/>
       <c r="C394" s="3"/>
       <c r="D394" s="5"/>
@@ -12719,7 +12722,7 @@
       <c r="O394" s="15"/>
       <c r="P394" s="17"/>
     </row>
-    <row r="395" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:16">
       <c r="B395" s="1"/>
       <c r="C395" s="3"/>
       <c r="D395" s="5"/>
@@ -12736,7 +12739,7 @@
       <c r="O395" s="15"/>
       <c r="P395" s="17"/>
     </row>
-    <row r="396" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:16">
       <c r="B396" s="1"/>
       <c r="C396" s="3"/>
       <c r="D396" s="5"/>
@@ -12753,7 +12756,7 @@
       <c r="O396" s="15"/>
       <c r="P396" s="17"/>
     </row>
-    <row r="397" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:16">
       <c r="B397" s="1"/>
       <c r="C397" s="3"/>
       <c r="D397" s="5"/>
@@ -12770,7 +12773,7 @@
       <c r="O397" s="15"/>
       <c r="P397" s="17"/>
     </row>
-    <row r="398" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:16" ht="17" thickBot="1">
       <c r="B398" s="2"/>
       <c r="C398" s="4"/>
       <c r="D398" s="6"/>
@@ -12787,7 +12790,7 @@
       <c r="O398" s="16"/>
       <c r="P398" s="18"/>
     </row>
-    <row r="399" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:16">
       <c r="B399" s="45"/>
       <c r="C399" s="45"/>
       <c r="D399" s="45"/>
@@ -12804,7 +12807,7 @@
       <c r="O399" s="45"/>
       <c r="P399" s="45"/>
     </row>
-    <row r="400" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:16">
       <c r="B400" s="45"/>
       <c r="C400" s="45"/>
       <c r="D400" s="45"/>
@@ -12821,7 +12824,7 @@
       <c r="O400" s="45"/>
       <c r="P400" s="45"/>
     </row>
-    <row r="401" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:16" ht="17" thickBot="1">
       <c r="B401" s="45"/>
       <c r="C401" s="45"/>
       <c r="D401" s="45"/>
@@ -12838,7 +12841,7 @@
       <c r="O401" s="45"/>
       <c r="P401" s="45"/>
     </row>
-    <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:16" ht="17" thickBot="1">
       <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
@@ -12857,7 +12860,7 @@
       <c r="O402" s="116"/>
       <c r="P402" s="117"/>
     </row>
-    <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
         <v>14</v>
       </c>
@@ -12904,7 +12907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:16">
       <c r="B404" s="19"/>
       <c r="C404" s="3" t="s">
         <v>498</v>
@@ -12923,7 +12926,7 @@
       <c r="O404" s="23"/>
       <c r="P404" s="24"/>
     </row>
-    <row r="405" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:16">
       <c r="B405" s="19"/>
       <c r="C405" s="3" t="s">
         <v>273</v>
@@ -12942,7 +12945,7 @@
       <c r="O405" s="23"/>
       <c r="P405" s="24"/>
     </row>
-    <row r="406" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:16">
       <c r="B406" s="1">
         <v>1</v>
       </c>
@@ -12971,7 +12974,7 @@
       <c r="O406" s="15"/>
       <c r="P406" s="17"/>
     </row>
-    <row r="407" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:16">
       <c r="B407" s="19">
         <v>2</v>
       </c>
@@ -12994,7 +12997,7 @@
       <c r="O407" s="15"/>
       <c r="P407" s="17"/>
     </row>
-    <row r="408" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:16">
       <c r="B408" s="1">
         <v>3</v>
       </c>
@@ -13017,7 +13020,7 @@
       <c r="O408" s="15"/>
       <c r="P408" s="17"/>
     </row>
-    <row r="409" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:16">
       <c r="B409" s="19">
         <v>4</v>
       </c>
@@ -13048,7 +13051,7 @@
       <c r="O409" s="15"/>
       <c r="P409" s="17"/>
     </row>
-    <row r="410" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:16">
       <c r="B410" s="1">
         <v>5</v>
       </c>
@@ -13071,7 +13074,7 @@
       <c r="O410" s="15"/>
       <c r="P410" s="17"/>
     </row>
-    <row r="411" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:16">
       <c r="B411" s="19">
         <v>6</v>
       </c>
@@ -13094,7 +13097,7 @@
       <c r="O411" s="15"/>
       <c r="P411" s="17"/>
     </row>
-    <row r="412" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:16">
       <c r="B412" s="1">
         <v>7</v>
       </c>
@@ -13117,7 +13120,7 @@
       <c r="O412" s="15"/>
       <c r="P412" s="17"/>
     </row>
-    <row r="413" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:16">
       <c r="B413" s="19">
         <v>8</v>
       </c>
@@ -13140,7 +13143,7 @@
       <c r="O413" s="15"/>
       <c r="P413" s="17"/>
     </row>
-    <row r="414" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:16">
       <c r="B414" s="1">
         <v>9</v>
       </c>
@@ -13163,7 +13166,7 @@
       <c r="O414" s="15"/>
       <c r="P414" s="17"/>
     </row>
-    <row r="415" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:16">
       <c r="B415" s="19"/>
       <c r="C415" s="3" t="s">
         <v>283</v>
@@ -13182,7 +13185,7 @@
       <c r="O415" s="15"/>
       <c r="P415" s="17"/>
     </row>
-    <row r="416" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:16">
       <c r="B416" s="1">
         <v>10</v>
       </c>
@@ -13207,7 +13210,7 @@
       <c r="O416" s="15"/>
       <c r="P416" s="17"/>
     </row>
-    <row r="417" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:16">
       <c r="B417" s="19">
         <v>11</v>
       </c>
@@ -13230,7 +13233,7 @@
       <c r="O417" s="15"/>
       <c r="P417" s="17"/>
     </row>
-    <row r="418" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:16">
       <c r="B418" s="1">
         <v>12</v>
       </c>
@@ -13259,7 +13262,7 @@
       <c r="O418" s="15"/>
       <c r="P418" s="17"/>
     </row>
-    <row r="419" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:16">
       <c r="B419" s="19">
         <v>13</v>
       </c>
@@ -13288,7 +13291,7 @@
       <c r="O419" s="15"/>
       <c r="P419" s="17"/>
     </row>
-    <row r="420" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:16">
       <c r="B420" s="1">
         <v>14</v>
       </c>
@@ -13311,7 +13314,7 @@
       <c r="O420" s="15"/>
       <c r="P420" s="17"/>
     </row>
-    <row r="421" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:16">
       <c r="B421" s="19">
         <v>15</v>
       </c>
@@ -13334,7 +13337,7 @@
       <c r="O421" s="15"/>
       <c r="P421" s="17"/>
     </row>
-    <row r="422" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:16">
       <c r="B422" s="1">
         <v>16</v>
       </c>
@@ -13357,7 +13360,7 @@
       <c r="O422" s="15"/>
       <c r="P422" s="17"/>
     </row>
-    <row r="423" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:16">
       <c r="B423" s="19">
         <v>17</v>
       </c>
@@ -13380,7 +13383,7 @@
       <c r="O423" s="15"/>
       <c r="P423" s="17"/>
     </row>
-    <row r="424" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:16">
       <c r="B424" s="1">
         <v>18</v>
       </c>
@@ -13403,7 +13406,7 @@
       <c r="O424" s="15"/>
       <c r="P424" s="17"/>
     </row>
-    <row r="425" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:16">
       <c r="B425" s="1"/>
       <c r="C425" s="3" t="s">
         <v>293</v>
@@ -13422,7 +13425,7 @@
       <c r="O425" s="15"/>
       <c r="P425" s="17"/>
     </row>
-    <row r="426" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:16">
       <c r="B426" s="1">
         <v>19</v>
       </c>
@@ -13453,7 +13456,7 @@
       <c r="O426" s="15"/>
       <c r="P426" s="17"/>
     </row>
-    <row r="427" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:16">
       <c r="B427" s="1">
         <v>20</v>
       </c>
@@ -13482,7 +13485,7 @@
       <c r="O427" s="15"/>
       <c r="P427" s="17"/>
     </row>
-    <row r="428" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:16">
       <c r="B428" s="1">
         <v>21</v>
       </c>
@@ -13505,7 +13508,7 @@
       <c r="O428" s="15"/>
       <c r="P428" s="17"/>
     </row>
-    <row r="429" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:16">
       <c r="B429" s="1">
         <v>22</v>
       </c>
@@ -13528,7 +13531,7 @@
       <c r="O429" s="15"/>
       <c r="P429" s="17"/>
     </row>
-    <row r="430" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:16">
       <c r="B430" s="1">
         <v>23</v>
       </c>
@@ -13551,7 +13554,7 @@
       <c r="O430" s="15"/>
       <c r="P430" s="17"/>
     </row>
-    <row r="431" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:16">
       <c r="B431" s="1">
         <v>24</v>
       </c>
@@ -13574,7 +13577,7 @@
       <c r="O431" s="15"/>
       <c r="P431" s="17"/>
     </row>
-    <row r="432" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:16">
       <c r="B432" s="1"/>
       <c r="C432" s="3"/>
       <c r="D432" s="5"/>
@@ -13591,7 +13594,7 @@
       <c r="O432" s="15"/>
       <c r="P432" s="17"/>
     </row>
-    <row r="433" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:16">
       <c r="B433" s="1"/>
       <c r="C433" s="3"/>
       <c r="D433" s="5"/>
@@ -13608,7 +13611,7 @@
       <c r="O433" s="15"/>
       <c r="P433" s="17"/>
     </row>
-    <row r="434" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:16">
       <c r="B434" s="1"/>
       <c r="C434" s="3"/>
       <c r="D434" s="5"/>
@@ -13625,7 +13628,7 @@
       <c r="O434" s="15"/>
       <c r="P434" s="17"/>
     </row>
-    <row r="435" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:16">
       <c r="B435" s="1"/>
       <c r="C435" s="3"/>
       <c r="D435" s="5"/>
@@ -13642,7 +13645,7 @@
       <c r="O435" s="15"/>
       <c r="P435" s="17"/>
     </row>
-    <row r="436" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:16" ht="17" thickBot="1">
       <c r="B436" s="2"/>
       <c r="C436" s="4"/>
       <c r="D436" s="6"/>
@@ -13659,7 +13662,7 @@
       <c r="O436" s="16"/>
       <c r="P436" s="18"/>
     </row>
-    <row r="437" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:16">
       <c r="B437" s="45"/>
       <c r="C437" s="45"/>
       <c r="D437" s="45"/>
@@ -13676,7 +13679,7 @@
       <c r="O437" s="45"/>
       <c r="P437" s="45"/>
     </row>
-    <row r="438" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:16">
       <c r="B438" s="45"/>
       <c r="C438" s="45"/>
       <c r="D438" s="45"/>
@@ -13693,7 +13696,7 @@
       <c r="O438" s="45"/>
       <c r="P438" s="45"/>
     </row>
-    <row r="439" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:16" ht="17" thickBot="1">
       <c r="B439" s="45"/>
       <c r="C439" s="45"/>
       <c r="D439" s="45"/>
@@ -13710,7 +13713,7 @@
       <c r="O439" s="45"/>
       <c r="P439" s="45"/>
     </row>
-    <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:16" ht="17" thickBot="1">
       <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
@@ -13729,7 +13732,7 @@
       <c r="O440" s="116"/>
       <c r="P440" s="117"/>
     </row>
-    <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
         <v>14</v>
       </c>
@@ -13776,7 +13779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:16">
       <c r="B442" s="19"/>
       <c r="C442" s="3"/>
       <c r="D442" s="5"/>
@@ -13793,7 +13796,7 @@
       <c r="O442" s="23"/>
       <c r="P442" s="24"/>
     </row>
-    <row r="443" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:16">
       <c r="B443" s="19"/>
       <c r="C443" s="3" t="s">
         <v>498</v>
@@ -13812,7 +13815,7 @@
       <c r="O443" s="23"/>
       <c r="P443" s="24"/>
     </row>
-    <row r="444" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:16">
       <c r="B444" s="19"/>
       <c r="C444" s="3" t="s">
         <v>44</v>
@@ -13831,7 +13834,7 @@
       <c r="O444" s="23"/>
       <c r="P444" s="24"/>
     </row>
-    <row r="445" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:16">
       <c r="B445" s="1">
         <v>1</v>
       </c>
@@ -13866,7 +13869,7 @@
       <c r="O445" s="15"/>
       <c r="P445" s="17"/>
     </row>
-    <row r="446" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:16">
       <c r="B446" s="19">
         <v>2</v>
       </c>
@@ -13897,7 +13900,7 @@
       <c r="O446" s="15"/>
       <c r="P446" s="17"/>
     </row>
-    <row r="447" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:16">
       <c r="B447" s="1">
         <v>3</v>
       </c>
@@ -13920,7 +13923,7 @@
       <c r="O447" s="15"/>
       <c r="P447" s="17"/>
     </row>
-    <row r="448" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:16">
       <c r="B448" s="19">
         <v>4</v>
       </c>
@@ -13943,7 +13946,7 @@
       <c r="O448" s="15"/>
       <c r="P448" s="17"/>
     </row>
-    <row r="449" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:16">
       <c r="B449" s="1">
         <v>5</v>
       </c>
@@ -13974,7 +13977,7 @@
       <c r="O449" s="15"/>
       <c r="P449" s="17"/>
     </row>
-    <row r="450" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:16">
       <c r="B450" s="19">
         <v>6</v>
       </c>
@@ -13997,7 +14000,7 @@
       <c r="O450" s="15"/>
       <c r="P450" s="17"/>
     </row>
-    <row r="451" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:16">
       <c r="B451" s="1">
         <v>7</v>
       </c>
@@ -14020,7 +14023,7 @@
       <c r="O451" s="15"/>
       <c r="P451" s="17"/>
     </row>
-    <row r="452" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:16">
       <c r="B452" s="19">
         <v>8</v>
       </c>
@@ -14051,7 +14054,7 @@
       <c r="O452" s="15"/>
       <c r="P452" s="17"/>
     </row>
-    <row r="453" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:16">
       <c r="B453" s="1">
         <v>9</v>
       </c>
@@ -14074,7 +14077,7 @@
       <c r="O453" s="15"/>
       <c r="P453" s="17"/>
     </row>
-    <row r="454" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:16">
       <c r="B454" s="19">
         <v>10</v>
       </c>
@@ -14105,7 +14108,7 @@
       <c r="O454" s="15"/>
       <c r="P454" s="17"/>
     </row>
-    <row r="455" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:16">
       <c r="B455" s="1">
         <v>11</v>
       </c>
@@ -14130,7 +14133,7 @@
       <c r="O455" s="15"/>
       <c r="P455" s="17"/>
     </row>
-    <row r="456" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:16">
       <c r="B456" s="19">
         <v>12</v>
       </c>
@@ -14157,7 +14160,7 @@
       <c r="O456" s="15"/>
       <c r="P456" s="17"/>
     </row>
-    <row r="457" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:16">
       <c r="B457" s="1">
         <v>13</v>
       </c>
@@ -14180,7 +14183,7 @@
       <c r="O457" s="15"/>
       <c r="P457" s="17"/>
     </row>
-    <row r="458" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:16">
       <c r="B458" s="19">
         <v>14</v>
       </c>
@@ -14211,7 +14214,7 @@
       <c r="O458" s="15"/>
       <c r="P458" s="17"/>
     </row>
-    <row r="459" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:16">
       <c r="B459" s="1"/>
       <c r="C459" s="3" t="s">
         <v>77</v>
@@ -14230,7 +14233,7 @@
       <c r="O459" s="15"/>
       <c r="P459" s="17"/>
     </row>
-    <row r="460" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:16">
       <c r="B460" s="19">
         <v>15</v>
       </c>
@@ -14253,7 +14256,7 @@
       <c r="O460" s="15"/>
       <c r="P460" s="17"/>
     </row>
-    <row r="461" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:16">
       <c r="B461" s="1">
         <v>16</v>
       </c>
@@ -14276,7 +14279,7 @@
       <c r="O461" s="15"/>
       <c r="P461" s="17"/>
     </row>
-    <row r="462" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:16">
       <c r="B462" s="19">
         <v>17</v>
       </c>
@@ -14307,7 +14310,7 @@
       <c r="O462" s="15"/>
       <c r="P462" s="17"/>
     </row>
-    <row r="463" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:16">
       <c r="B463" s="1">
         <v>18</v>
       </c>
@@ -14334,7 +14337,7 @@
       <c r="O463" s="15"/>
       <c r="P463" s="17"/>
     </row>
-    <row r="464" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:16">
       <c r="B464" s="19">
         <v>19</v>
       </c>
@@ -14357,7 +14360,7 @@
       <c r="O464" s="15"/>
       <c r="P464" s="17"/>
     </row>
-    <row r="465" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:16">
       <c r="B465" s="1">
         <v>20</v>
       </c>
@@ -14380,7 +14383,7 @@
       <c r="O465" s="15"/>
       <c r="P465" s="17"/>
     </row>
-    <row r="466" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:16">
       <c r="B466" s="19">
         <v>21</v>
       </c>
@@ -14403,7 +14406,7 @@
       <c r="O466" s="15"/>
       <c r="P466" s="17"/>
     </row>
-    <row r="467" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:16">
       <c r="B467" s="1">
         <v>22</v>
       </c>
@@ -14426,7 +14429,7 @@
       <c r="O467" s="15"/>
       <c r="P467" s="17"/>
     </row>
-    <row r="468" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:16">
       <c r="B468" s="19">
         <v>23</v>
       </c>
@@ -14449,7 +14452,7 @@
       <c r="O468" s="15"/>
       <c r="P468" s="17"/>
     </row>
-    <row r="469" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:16">
       <c r="B469" s="1"/>
       <c r="C469" s="3"/>
       <c r="D469" s="5"/>
@@ -14466,7 +14469,7 @@
       <c r="O469" s="15"/>
       <c r="P469" s="17"/>
     </row>
-    <row r="470" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:16">
       <c r="B470" s="1"/>
       <c r="C470" s="3"/>
       <c r="D470" s="5"/>
@@ -14483,7 +14486,7 @@
       <c r="O470" s="15"/>
       <c r="P470" s="17"/>
     </row>
-    <row r="471" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:16">
       <c r="B471" s="1"/>
       <c r="C471" s="3"/>
       <c r="D471" s="5"/>
@@ -14500,7 +14503,7 @@
       <c r="O471" s="15"/>
       <c r="P471" s="17"/>
     </row>
-    <row r="472" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:16">
       <c r="B472" s="1"/>
       <c r="C472" s="3"/>
       <c r="D472" s="5"/>
@@ -14517,7 +14520,7 @@
       <c r="O472" s="15"/>
       <c r="P472" s="17"/>
     </row>
-    <row r="473" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:16">
       <c r="B473" s="1"/>
       <c r="C473" s="3"/>
       <c r="D473" s="5"/>
@@ -14534,7 +14537,7 @@
       <c r="O473" s="15"/>
       <c r="P473" s="17"/>
     </row>
-    <row r="474" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:16">
       <c r="B474" s="1"/>
       <c r="C474" s="3"/>
       <c r="D474" s="5"/>
@@ -14551,7 +14554,7 @@
       <c r="O474" s="15"/>
       <c r="P474" s="17"/>
     </row>
-    <row r="475" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:16" ht="17" thickBot="1">
       <c r="B475" s="2"/>
       <c r="C475" s="4"/>
       <c r="D475" s="6"/>
@@ -14568,7 +14571,7 @@
       <c r="O475" s="16"/>
       <c r="P475" s="18"/>
     </row>
-    <row r="476" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:16">
       <c r="B476" s="45"/>
       <c r="C476" s="45"/>
       <c r="D476" s="45"/>
@@ -14585,7 +14588,7 @@
       <c r="O476" s="45"/>
       <c r="P476" s="45"/>
     </row>
-    <row r="477" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:16">
       <c r="B477" s="45"/>
       <c r="C477" s="45"/>
       <c r="D477" s="45"/>
@@ -14602,7 +14605,7 @@
       <c r="O477" s="45"/>
       <c r="P477" s="45"/>
     </row>
-    <row r="478" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:16" ht="17" thickBot="1">
       <c r="B478" s="45"/>
       <c r="C478" s="45"/>
       <c r="D478" s="45"/>
@@ -14619,7 +14622,7 @@
       <c r="O478" s="45"/>
       <c r="P478" s="45"/>
     </row>
-    <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:16" ht="17" thickBot="1">
       <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
@@ -14638,7 +14641,7 @@
       <c r="O479" s="116"/>
       <c r="P479" s="117"/>
     </row>
-    <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
         <v>14</v>
       </c>
@@ -14685,7 +14688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:27">
       <c r="B481" s="19"/>
       <c r="C481" s="3"/>
       <c r="D481" s="5"/>
@@ -14712,7 +14715,7 @@
       <c r="Z481" s="85"/>
       <c r="AA481" s="85"/>
     </row>
-    <row r="482" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:27">
       <c r="B482" s="19"/>
       <c r="C482" s="3" t="s">
         <v>498</v>
@@ -14741,7 +14744,7 @@
       <c r="Z482" s="85"/>
       <c r="AA482" s="85"/>
     </row>
-    <row r="483" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:27">
       <c r="B483" s="19">
         <v>1</v>
       </c>
@@ -14782,7 +14785,7 @@
       <c r="Z483" s="85"/>
       <c r="AA483" s="85"/>
     </row>
-    <row r="484" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:27">
       <c r="B484" s="1">
         <v>2</v>
       </c>
@@ -14815,7 +14818,7 @@
       <c r="Z484" s="85"/>
       <c r="AA484" s="85"/>
     </row>
-    <row r="485" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:27">
       <c r="B485" s="19">
         <v>3</v>
       </c>
@@ -14856,7 +14859,7 @@
       <c r="Z485" s="85"/>
       <c r="AA485" s="85"/>
     </row>
-    <row r="486" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:27">
       <c r="B486" s="1">
         <v>4</v>
       </c>
@@ -14885,7 +14888,7 @@
       <c r="O486" s="15"/>
       <c r="P486" s="17"/>
     </row>
-    <row r="487" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:27">
       <c r="B487" s="19">
         <v>5</v>
       </c>
@@ -14918,7 +14921,7 @@
       <c r="O487" s="15"/>
       <c r="P487" s="17"/>
     </row>
-    <row r="488" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:27">
       <c r="B488" s="1">
         <v>6</v>
       </c>
@@ -14947,7 +14950,7 @@
       <c r="O488" s="15"/>
       <c r="P488" s="17"/>
     </row>
-    <row r="489" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:27">
       <c r="B489" s="19">
         <v>7</v>
       </c>
@@ -14978,7 +14981,7 @@
       <c r="O489" s="15"/>
       <c r="P489" s="17"/>
     </row>
-    <row r="490" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:27">
       <c r="B490" s="1">
         <v>8</v>
       </c>
@@ -15001,7 +15004,7 @@
       <c r="O490" s="15"/>
       <c r="P490" s="17"/>
     </row>
-    <row r="491" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:27">
       <c r="B491" s="19">
         <v>9</v>
       </c>
@@ -15032,7 +15035,7 @@
       <c r="O491" s="15"/>
       <c r="P491" s="17"/>
     </row>
-    <row r="492" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:27">
       <c r="B492" s="1">
         <v>10</v>
       </c>
@@ -15061,7 +15064,7 @@
       <c r="O492" s="15"/>
       <c r="P492" s="17"/>
     </row>
-    <row r="493" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:27">
       <c r="B493" s="19">
         <v>11</v>
       </c>
@@ -15084,7 +15087,7 @@
       <c r="O493" s="15"/>
       <c r="P493" s="17"/>
     </row>
-    <row r="494" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:27">
       <c r="B494" s="1">
         <v>12</v>
       </c>
@@ -15109,7 +15112,7 @@
       <c r="O494" s="15"/>
       <c r="P494" s="17"/>
     </row>
-    <row r="495" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:27">
       <c r="B495" s="19">
         <v>13</v>
       </c>
@@ -15132,7 +15135,7 @@
       <c r="O495" s="15"/>
       <c r="P495" s="17"/>
     </row>
-    <row r="496" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:27">
       <c r="B496" s="1">
         <v>14</v>
       </c>
@@ -15155,7 +15158,7 @@
       <c r="O496" s="15"/>
       <c r="P496" s="17"/>
     </row>
-    <row r="497" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:16">
       <c r="B497" s="19">
         <v>15</v>
       </c>
@@ -15184,7 +15187,7 @@
       <c r="O497" s="15"/>
       <c r="P497" s="17"/>
     </row>
-    <row r="498" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:16">
       <c r="B498" s="1">
         <v>16</v>
       </c>
@@ -15211,7 +15214,7 @@
       <c r="O498" s="15"/>
       <c r="P498" s="17"/>
     </row>
-    <row r="499" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:16">
       <c r="B499" s="19"/>
       <c r="C499" s="3"/>
       <c r="D499" s="5"/>
@@ -15228,7 +15231,7 @@
       <c r="O499" s="15"/>
       <c r="P499" s="17"/>
     </row>
-    <row r="500" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:16">
       <c r="B500" s="1"/>
       <c r="C500" s="3"/>
       <c r="D500" s="5"/>
@@ -15245,7 +15248,7 @@
       <c r="O500" s="15"/>
       <c r="P500" s="17"/>
     </row>
-    <row r="501" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:16">
       <c r="B501" s="1"/>
       <c r="C501" s="3"/>
       <c r="D501" s="5"/>
@@ -15262,7 +15265,7 @@
       <c r="O501" s="15"/>
       <c r="P501" s="17"/>
     </row>
-    <row r="502" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:16" ht="17" thickBot="1">
       <c r="B502" s="2"/>
       <c r="C502" s="4"/>
       <c r="D502" s="6"/>
@@ -15279,7 +15282,7 @@
       <c r="O502" s="16"/>
       <c r="P502" s="18"/>
     </row>
-    <row r="503" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:16">
       <c r="B503" s="45"/>
       <c r="C503" s="45"/>
       <c r="D503" s="45"/>
@@ -15296,7 +15299,7 @@
       <c r="O503" s="45"/>
       <c r="P503" s="45"/>
     </row>
-    <row r="504" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:16">
       <c r="B504" s="45"/>
       <c r="C504" s="45"/>
       <c r="D504" s="45"/>
@@ -15313,7 +15316,7 @@
       <c r="O504" s="45"/>
       <c r="P504" s="45"/>
     </row>
-    <row r="505" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:16" ht="17" thickBot="1">
       <c r="B505" s="45"/>
       <c r="C505" s="45"/>
       <c r="D505" s="45"/>
@@ -15330,7 +15333,7 @@
       <c r="O505" s="45"/>
       <c r="P505" s="45"/>
     </row>
-    <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:16" ht="17" thickBot="1">
       <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
@@ -15349,7 +15352,7 @@
       <c r="O506" s="116"/>
       <c r="P506" s="117"/>
     </row>
-    <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
         <v>14</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:16">
       <c r="B508" s="19"/>
       <c r="C508" s="3"/>
       <c r="D508" s="5"/>
@@ -15413,7 +15416,7 @@
       <c r="O508" s="15"/>
       <c r="P508" s="17"/>
     </row>
-    <row r="509" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:16">
       <c r="B509" s="1"/>
       <c r="C509" s="3" t="s">
         <v>498</v>
@@ -15432,7 +15435,7 @@
       <c r="O509" s="15"/>
       <c r="P509" s="17"/>
     </row>
-    <row r="510" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:16">
       <c r="B510" s="19">
         <v>1</v>
       </c>
@@ -15455,7 +15458,7 @@
       <c r="O510" s="23"/>
       <c r="P510" s="24"/>
     </row>
-    <row r="511" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:16">
       <c r="B511" s="1">
         <v>2</v>
       </c>
@@ -15478,7 +15481,7 @@
       <c r="O511" s="15"/>
       <c r="P511" s="17"/>
     </row>
-    <row r="512" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:16">
       <c r="B512" s="19">
         <v>3</v>
       </c>
@@ -15501,7 +15504,7 @@
       <c r="O512" s="15"/>
       <c r="P512" s="17"/>
     </row>
-    <row r="513" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:16">
       <c r="B513" s="1">
         <v>4</v>
       </c>
@@ -15524,7 +15527,7 @@
       <c r="O513" s="15"/>
       <c r="P513" s="17"/>
     </row>
-    <row r="514" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:16">
       <c r="B514" s="19">
         <v>5</v>
       </c>
@@ -15547,7 +15550,7 @@
       <c r="O514" s="15"/>
       <c r="P514" s="17"/>
     </row>
-    <row r="515" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:16">
       <c r="B515" s="1">
         <v>6</v>
       </c>
@@ -15576,7 +15579,7 @@
       <c r="O515" s="15"/>
       <c r="P515" s="17"/>
     </row>
-    <row r="516" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:16">
       <c r="B516" s="19">
         <v>7</v>
       </c>
@@ -15599,7 +15602,7 @@
       <c r="O516" s="15"/>
       <c r="P516" s="17"/>
     </row>
-    <row r="517" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:16">
       <c r="B517" s="1">
         <v>8</v>
       </c>
@@ -15628,7 +15631,7 @@
       <c r="O517" s="15"/>
       <c r="P517" s="17"/>
     </row>
-    <row r="518" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:16">
       <c r="B518" s="19">
         <v>9</v>
       </c>
@@ -15657,7 +15660,7 @@
       <c r="O518" s="15"/>
       <c r="P518" s="17"/>
     </row>
-    <row r="519" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:16">
       <c r="B519" s="1">
         <v>10</v>
       </c>
@@ -15680,7 +15683,7 @@
       <c r="O519" s="15"/>
       <c r="P519" s="17"/>
     </row>
-    <row r="520" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:16">
       <c r="B520" s="19">
         <v>11</v>
       </c>
@@ -15703,7 +15706,7 @@
       <c r="O520" s="15"/>
       <c r="P520" s="17"/>
     </row>
-    <row r="521" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:16">
       <c r="B521" s="1">
         <v>12</v>
       </c>
@@ -15730,7 +15733,7 @@
       <c r="O521" s="15"/>
       <c r="P521" s="17"/>
     </row>
-    <row r="522" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:16">
       <c r="B522" s="19">
         <v>13</v>
       </c>
@@ -15753,7 +15756,7 @@
       <c r="O522" s="15"/>
       <c r="P522" s="17"/>
     </row>
-    <row r="523" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:16">
       <c r="B523" s="1">
         <v>14</v>
       </c>
@@ -15776,7 +15779,7 @@
       <c r="O523" s="15"/>
       <c r="P523" s="17"/>
     </row>
-    <row r="524" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:16">
       <c r="B524" s="19">
         <v>15</v>
       </c>
@@ -15799,7 +15802,7 @@
       <c r="O524" s="15"/>
       <c r="P524" s="17"/>
     </row>
-    <row r="525" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:16">
       <c r="B525" s="1">
         <v>16</v>
       </c>
@@ -15822,7 +15825,7 @@
       <c r="O525" s="15"/>
       <c r="P525" s="17"/>
     </row>
-    <row r="526" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:16">
       <c r="B526" s="19">
         <v>17</v>
       </c>
@@ -15845,7 +15848,7 @@
       <c r="O526" s="15"/>
       <c r="P526" s="17"/>
     </row>
-    <row r="527" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:16">
       <c r="B527" s="1"/>
       <c r="C527" s="3"/>
       <c r="D527" s="5"/>
@@ -15862,7 +15865,7 @@
       <c r="O527" s="15"/>
       <c r="P527" s="17"/>
     </row>
-    <row r="528" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:16">
       <c r="B528" s="1"/>
       <c r="C528" s="3"/>
       <c r="D528" s="5"/>
@@ -15879,7 +15882,7 @@
       <c r="O528" s="15"/>
       <c r="P528" s="17"/>
     </row>
-    <row r="529" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:16">
       <c r="B529" s="1"/>
       <c r="C529" s="3"/>
       <c r="D529" s="5"/>
@@ -15896,7 +15899,7 @@
       <c r="O529" s="15"/>
       <c r="P529" s="17"/>
     </row>
-    <row r="530" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:16">
       <c r="B530" s="1"/>
       <c r="C530" s="3"/>
       <c r="D530" s="5"/>
@@ -15913,7 +15916,7 @@
       <c r="O530" s="15"/>
       <c r="P530" s="17"/>
     </row>
-    <row r="531" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:16">
       <c r="B531" s="1"/>
       <c r="C531" s="3"/>
       <c r="D531" s="5"/>
@@ -15930,7 +15933,7 @@
       <c r="O531" s="15"/>
       <c r="P531" s="17"/>
     </row>
-    <row r="532" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:16">
       <c r="B532" s="1"/>
       <c r="C532" s="3"/>
       <c r="D532" s="5"/>
@@ -15947,7 +15950,7 @@
       <c r="O532" s="15"/>
       <c r="P532" s="17"/>
     </row>
-    <row r="533" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:16">
       <c r="B533" s="1"/>
       <c r="C533" s="3"/>
       <c r="D533" s="5"/>
@@ -15964,7 +15967,7 @@
       <c r="O533" s="15"/>
       <c r="P533" s="17"/>
     </row>
-    <row r="534" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:16">
       <c r="B534" s="1"/>
       <c r="C534" s="3"/>
       <c r="D534" s="5"/>
@@ -15981,7 +15984,7 @@
       <c r="O534" s="15"/>
       <c r="P534" s="17"/>
     </row>
-    <row r="535" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:16" ht="17" thickBot="1">
       <c r="B535" s="2"/>
       <c r="C535" s="4"/>
       <c r="D535" s="6"/>
@@ -15998,7 +16001,7 @@
       <c r="O535" s="16"/>
       <c r="P535" s="18"/>
     </row>
-    <row r="536" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:16">
       <c r="B536" s="45"/>
       <c r="C536" s="45"/>
       <c r="D536" s="45"/>
@@ -16015,7 +16018,7 @@
       <c r="O536" s="45"/>
       <c r="P536" s="45"/>
     </row>
-    <row r="537" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:16">
       <c r="B537" s="45"/>
       <c r="C537" s="45"/>
       <c r="D537" s="45"/>
@@ -16032,7 +16035,7 @@
       <c r="O537" s="45"/>
       <c r="P537" s="45"/>
     </row>
-    <row r="538" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:16" ht="17" thickBot="1">
       <c r="B538" s="45"/>
       <c r="C538" s="45"/>
       <c r="D538" s="45"/>
@@ -16049,7 +16052,7 @@
       <c r="O538" s="45"/>
       <c r="P538" s="45"/>
     </row>
-    <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:16" ht="17" thickBot="1">
       <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
@@ -16068,7 +16071,7 @@
       <c r="O539" s="116"/>
       <c r="P539" s="117"/>
     </row>
-    <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
         <v>14</v>
       </c>
@@ -16115,7 +16118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:16">
       <c r="B541" s="19"/>
       <c r="C541" s="3"/>
       <c r="D541" s="5"/>
@@ -16132,7 +16135,7 @@
       <c r="O541" s="23"/>
       <c r="P541" s="24"/>
     </row>
-    <row r="542" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:16">
       <c r="B542" s="19"/>
       <c r="C542" s="3" t="s">
         <v>498</v>
@@ -16151,7 +16154,7 @@
       <c r="O542" s="23"/>
       <c r="P542" s="24"/>
     </row>
-    <row r="543" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:16">
       <c r="B543" s="19"/>
       <c r="C543" s="3" t="s">
         <v>353</v>
@@ -16170,7 +16173,7 @@
       <c r="O543" s="23"/>
       <c r="P543" s="24"/>
     </row>
-    <row r="544" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:16">
       <c r="B544" s="1">
         <v>1</v>
       </c>
@@ -16201,7 +16204,7 @@
       <c r="O544" s="15"/>
       <c r="P544" s="17"/>
     </row>
-    <row r="545" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:16">
       <c r="B545" s="19">
         <v>2</v>
       </c>
@@ -16228,7 +16231,7 @@
       <c r="O545" s="15"/>
       <c r="P545" s="17"/>
     </row>
-    <row r="546" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:16">
       <c r="B546" s="1">
         <v>3</v>
       </c>
@@ -16255,7 +16258,7 @@
       <c r="O546" s="15"/>
       <c r="P546" s="17"/>
     </row>
-    <row r="547" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:16">
       <c r="B547" s="19">
         <v>4</v>
       </c>
@@ -16278,7 +16281,7 @@
       <c r="O547" s="15"/>
       <c r="P547" s="17"/>
     </row>
-    <row r="548" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:16">
       <c r="B548" s="1">
         <v>5</v>
       </c>
@@ -16301,7 +16304,7 @@
       <c r="O548" s="15"/>
       <c r="P548" s="17"/>
     </row>
-    <row r="549" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:16">
       <c r="B549" s="19">
         <v>6</v>
       </c>
@@ -16324,7 +16327,7 @@
       <c r="O549" s="15"/>
       <c r="P549" s="17"/>
     </row>
-    <row r="550" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:16">
       <c r="B550" s="1">
         <v>7</v>
       </c>
@@ -16347,7 +16350,7 @@
       <c r="O550" s="15"/>
       <c r="P550" s="17"/>
     </row>
-    <row r="551" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:16">
       <c r="B551" s="19">
         <v>8</v>
       </c>
@@ -16370,7 +16373,7 @@
       <c r="O551" s="15"/>
       <c r="P551" s="17"/>
     </row>
-    <row r="552" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:16">
       <c r="B552" s="1">
         <v>9</v>
       </c>
@@ -16393,7 +16396,7 @@
       <c r="O552" s="15"/>
       <c r="P552" s="17"/>
     </row>
-    <row r="553" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:16">
       <c r="B553" s="19">
         <v>10</v>
       </c>
@@ -16416,7 +16419,7 @@
       <c r="O553" s="15"/>
       <c r="P553" s="17"/>
     </row>
-    <row r="554" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:16">
       <c r="B554" s="1">
         <v>11</v>
       </c>
@@ -16441,7 +16444,7 @@
       <c r="O554" s="15"/>
       <c r="P554" s="17"/>
     </row>
-    <row r="555" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:16">
       <c r="B555" s="19"/>
       <c r="C555" s="3" t="s">
         <v>365</v>
@@ -16460,7 +16463,7 @@
       <c r="O555" s="15"/>
       <c r="P555" s="17"/>
     </row>
-    <row r="556" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:16">
       <c r="B556" s="1">
         <v>12</v>
       </c>
@@ -16483,7 +16486,7 @@
       <c r="O556" s="15"/>
       <c r="P556" s="17"/>
     </row>
-    <row r="557" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:16">
       <c r="B557" s="19">
         <v>13</v>
       </c>
@@ -16506,7 +16509,7 @@
       <c r="O557" s="15"/>
       <c r="P557" s="17"/>
     </row>
-    <row r="558" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:16">
       <c r="B558" s="1">
         <v>14</v>
       </c>
@@ -16529,7 +16532,7 @@
       <c r="O558" s="15"/>
       <c r="P558" s="17"/>
     </row>
-    <row r="559" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:16">
       <c r="B559" s="19">
         <v>15</v>
       </c>
@@ -16552,7 +16555,7 @@
       <c r="O559" s="15"/>
       <c r="P559" s="17"/>
     </row>
-    <row r="560" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:16">
       <c r="B560" s="1">
         <v>16</v>
       </c>
@@ -16575,7 +16578,7 @@
       <c r="O560" s="15"/>
       <c r="P560" s="17"/>
     </row>
-    <row r="561" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:16">
       <c r="B561" s="19">
         <v>17</v>
       </c>
@@ -16598,7 +16601,7 @@
       <c r="O561" s="15"/>
       <c r="P561" s="17"/>
     </row>
-    <row r="562" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:16">
       <c r="B562" s="1">
         <v>18</v>
       </c>
@@ -16621,7 +16624,7 @@
       <c r="O562" s="15"/>
       <c r="P562" s="17"/>
     </row>
-    <row r="563" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:16">
       <c r="B563" s="19"/>
       <c r="C563" s="3"/>
       <c r="D563" s="5"/>
@@ -16638,7 +16641,7 @@
       <c r="O563" s="15"/>
       <c r="P563" s="17"/>
     </row>
-    <row r="564" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:16">
       <c r="B564" s="1"/>
       <c r="C564" s="3"/>
       <c r="D564" s="5"/>
@@ -16655,7 +16658,7 @@
       <c r="O564" s="15"/>
       <c r="P564" s="17"/>
     </row>
-    <row r="565" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:16">
       <c r="B565" s="19">
         <v>19</v>
       </c>
@@ -16686,7 +16689,7 @@
       <c r="O565" s="15"/>
       <c r="P565" s="17"/>
     </row>
-    <row r="566" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:16">
       <c r="B566" s="1"/>
       <c r="C566" s="3"/>
       <c r="D566" s="5"/>
@@ -16703,7 +16706,7 @@
       <c r="O566" s="15"/>
       <c r="P566" s="17"/>
     </row>
-    <row r="567" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:16">
       <c r="B567" s="1"/>
       <c r="C567" s="3"/>
       <c r="D567" s="5"/>
@@ -16720,7 +16723,7 @@
       <c r="O567" s="15"/>
       <c r="P567" s="17"/>
     </row>
-    <row r="568" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:16">
       <c r="B568" s="1"/>
       <c r="C568" s="3"/>
       <c r="D568" s="5"/>
@@ -16737,7 +16740,7 @@
       <c r="O568" s="15"/>
       <c r="P568" s="17"/>
     </row>
-    <row r="569" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:16">
       <c r="B569" s="1"/>
       <c r="C569" s="3"/>
       <c r="D569" s="5"/>
@@ -16754,7 +16757,7 @@
       <c r="O569" s="15"/>
       <c r="P569" s="17"/>
     </row>
-    <row r="570" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:16">
       <c r="B570" s="1"/>
       <c r="C570" s="3"/>
       <c r="D570" s="5"/>
@@ -16771,7 +16774,7 @@
       <c r="O570" s="15"/>
       <c r="P570" s="17"/>
     </row>
-    <row r="571" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:16">
       <c r="B571" s="1"/>
       <c r="C571" s="3"/>
       <c r="D571" s="5"/>
@@ -16788,7 +16791,7 @@
       <c r="O571" s="15"/>
       <c r="P571" s="17"/>
     </row>
-    <row r="572" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:16">
       <c r="B572" s="1"/>
       <c r="C572" s="3"/>
       <c r="D572" s="5"/>
@@ -16805,7 +16808,7 @@
       <c r="O572" s="15"/>
       <c r="P572" s="17"/>
     </row>
-    <row r="573" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:16" ht="17" thickBot="1">
       <c r="B573" s="2"/>
       <c r="C573" s="4"/>
       <c r="D573" s="6"/>
@@ -16822,7 +16825,7 @@
       <c r="O573" s="16"/>
       <c r="P573" s="18"/>
     </row>
-    <row r="574" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:16">
       <c r="B574" s="45"/>
       <c r="C574" s="45"/>
       <c r="D574" s="45"/>
@@ -16839,7 +16842,7 @@
       <c r="O574" s="45"/>
       <c r="P574" s="45"/>
     </row>
-    <row r="575" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:16">
       <c r="B575" s="45"/>
       <c r="C575" s="45"/>
       <c r="D575" s="45"/>
@@ -16856,7 +16859,7 @@
       <c r="O575" s="45"/>
       <c r="P575" s="45"/>
     </row>
-    <row r="576" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:16" ht="17" thickBot="1">
       <c r="B576" s="45"/>
       <c r="C576" s="45"/>
       <c r="D576" s="45"/>
@@ -16873,7 +16876,7 @@
       <c r="O576" s="45"/>
       <c r="P576" s="45"/>
     </row>
-    <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:16" ht="17" thickBot="1">
       <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
@@ -16892,7 +16895,7 @@
       <c r="O577" s="116"/>
       <c r="P577" s="117"/>
     </row>
-    <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
         <v>14</v>
       </c>
@@ -16939,7 +16942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:16">
       <c r="B579" s="19"/>
       <c r="C579" s="3" t="s">
         <v>498</v>
@@ -16958,7 +16961,7 @@
       <c r="O579" s="23"/>
       <c r="P579" s="24"/>
     </row>
-    <row r="580" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:16">
       <c r="B580" s="19">
         <v>1</v>
       </c>
@@ -16989,7 +16992,7 @@
       <c r="O580" s="23"/>
       <c r="P580" s="24"/>
     </row>
-    <row r="581" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:16">
       <c r="B581" s="1">
         <v>2</v>
       </c>
@@ -17012,7 +17015,7 @@
       <c r="O581" s="15"/>
       <c r="P581" s="17"/>
     </row>
-    <row r="582" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:16">
       <c r="B582" s="19">
         <v>3</v>
       </c>
@@ -17035,7 +17038,7 @@
       <c r="O582" s="15"/>
       <c r="P582" s="17"/>
     </row>
-    <row r="583" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:16">
       <c r="B583" s="1">
         <v>4</v>
       </c>
@@ -17058,7 +17061,7 @@
       <c r="O583" s="15"/>
       <c r="P583" s="17"/>
     </row>
-    <row r="584" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:16">
       <c r="B584" s="19">
         <v>5</v>
       </c>
@@ -17081,7 +17084,7 @@
       <c r="O584" s="15"/>
       <c r="P584" s="17"/>
     </row>
-    <row r="585" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:16">
       <c r="B585" s="1">
         <v>6</v>
       </c>
@@ -17112,7 +17115,7 @@
       <c r="O585" s="15"/>
       <c r="P585" s="17"/>
     </row>
-    <row r="586" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:16">
       <c r="B586" s="19">
         <v>7</v>
       </c>
@@ -17143,7 +17146,7 @@
       <c r="O586" s="15"/>
       <c r="P586" s="17"/>
     </row>
-    <row r="587" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:16">
       <c r="B587" s="1">
         <v>8</v>
       </c>
@@ -17174,7 +17177,7 @@
       <c r="O587" s="15"/>
       <c r="P587" s="17"/>
     </row>
-    <row r="588" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:16">
       <c r="B588" s="19">
         <v>9</v>
       </c>
@@ -17199,7 +17202,7 @@
       <c r="O588" s="15"/>
       <c r="P588" s="17"/>
     </row>
-    <row r="589" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:16">
       <c r="B589" s="1"/>
       <c r="C589" s="3"/>
       <c r="D589" s="5"/>
@@ -17216,7 +17219,7 @@
       <c r="O589" s="15"/>
       <c r="P589" s="17"/>
     </row>
-    <row r="590" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:16">
       <c r="B590" s="19"/>
       <c r="C590" s="3"/>
       <c r="D590" s="5"/>
@@ -17233,7 +17236,7 @@
       <c r="O590" s="15"/>
       <c r="P590" s="17"/>
     </row>
-    <row r="591" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:16">
       <c r="B591" s="1"/>
       <c r="C591" s="3"/>
       <c r="D591" s="5"/>
@@ -17254,7 +17257,7 @@
       <c r="O591" s="15"/>
       <c r="P591" s="17"/>
     </row>
-    <row r="592" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:16">
       <c r="B592" s="19"/>
       <c r="C592" s="3"/>
       <c r="D592" s="5"/>
@@ -17271,7 +17274,7 @@
       <c r="O592" s="15"/>
       <c r="P592" s="17"/>
     </row>
-    <row r="593" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:16">
       <c r="B593" s="1"/>
       <c r="C593" s="3"/>
       <c r="D593" s="5"/>
@@ -17288,7 +17291,7 @@
       <c r="O593" s="15"/>
       <c r="P593" s="17"/>
     </row>
-    <row r="594" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:16">
       <c r="B594" s="19"/>
       <c r="C594" s="3"/>
       <c r="D594" s="5"/>
@@ -17305,7 +17308,7 @@
       <c r="O594" s="15"/>
       <c r="P594" s="17"/>
     </row>
-    <row r="595" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:16">
       <c r="B595" s="1"/>
       <c r="C595" s="3"/>
       <c r="D595" s="5"/>
@@ -17322,7 +17325,7 @@
       <c r="O595" s="15"/>
       <c r="P595" s="17"/>
     </row>
-    <row r="596" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:16" ht="17" thickBot="1">
       <c r="B596" s="2"/>
       <c r="C596" s="4"/>
       <c r="D596" s="6"/>
@@ -17339,7 +17342,7 @@
       <c r="O596" s="16"/>
       <c r="P596" s="18"/>
     </row>
-    <row r="597" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:16">
       <c r="B597" s="45"/>
       <c r="C597" s="45"/>
       <c r="D597" s="45"/>
@@ -17356,7 +17359,7 @@
       <c r="O597" s="45"/>
       <c r="P597" s="45"/>
     </row>
-    <row r="598" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:16">
       <c r="B598" s="45"/>
       <c r="C598" s="45"/>
       <c r="D598" s="45"/>
@@ -17373,7 +17376,7 @@
       <c r="O598" s="45"/>
       <c r="P598" s="45"/>
     </row>
-    <row r="599" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:16" ht="17" thickBot="1">
       <c r="B599" s="45"/>
       <c r="C599" s="45"/>
       <c r="D599" s="45"/>
@@ -17390,7 +17393,7 @@
       <c r="O599" s="45"/>
       <c r="P599" s="45"/>
     </row>
-    <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:16" ht="17" thickBot="1">
       <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
@@ -17409,7 +17412,7 @@
       <c r="O600" s="116"/>
       <c r="P600" s="117"/>
     </row>
-    <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
         <v>14</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:16">
       <c r="B602" s="1"/>
       <c r="C602" s="3" t="s">
         <v>498</v>
@@ -17475,7 +17478,7 @@
       <c r="O602" s="15"/>
       <c r="P602" s="17"/>
     </row>
-    <row r="603" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:16">
       <c r="B603" s="19">
         <v>1</v>
       </c>
@@ -17498,7 +17501,7 @@
       <c r="O603" s="23"/>
       <c r="P603" s="24"/>
     </row>
-    <row r="604" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:16">
       <c r="B604" s="1">
         <v>2</v>
       </c>
@@ -17521,7 +17524,7 @@
       <c r="O604" s="15"/>
       <c r="P604" s="17"/>
     </row>
-    <row r="605" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:16">
       <c r="B605" s="19">
         <v>3</v>
       </c>
@@ -17544,7 +17547,7 @@
       <c r="O605" s="15"/>
       <c r="P605" s="17"/>
     </row>
-    <row r="606" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:16">
       <c r="B606" s="1"/>
       <c r="C606" s="3" t="s">
         <v>53</v>
@@ -17563,7 +17566,7 @@
       <c r="O606" s="15"/>
       <c r="P606" s="17"/>
     </row>
-    <row r="607" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:16">
       <c r="B607" s="19">
         <v>4</v>
       </c>
@@ -17586,7 +17589,7 @@
       <c r="O607" s="15"/>
       <c r="P607" s="17"/>
     </row>
-    <row r="608" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:16">
       <c r="B608" s="1">
         <v>5</v>
       </c>
@@ -17609,7 +17612,7 @@
       <c r="O608" s="15"/>
       <c r="P608" s="17"/>
     </row>
-    <row r="609" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:16">
       <c r="B609" s="19">
         <v>6</v>
       </c>
@@ -17632,7 +17635,7 @@
       <c r="O609" s="15"/>
       <c r="P609" s="17"/>
     </row>
-    <row r="610" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:16">
       <c r="B610" s="1">
         <v>7</v>
       </c>
@@ -17655,7 +17658,7 @@
       <c r="O610" s="15"/>
       <c r="P610" s="17"/>
     </row>
-    <row r="611" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:16">
       <c r="B611" s="19">
         <v>8</v>
       </c>
@@ -17678,7 +17681,7 @@
       <c r="O611" s="15"/>
       <c r="P611" s="17"/>
     </row>
-    <row r="612" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:16">
       <c r="B612" s="1">
         <v>9</v>
       </c>
@@ -17707,7 +17710,7 @@
       <c r="O612" s="15"/>
       <c r="P612" s="17"/>
     </row>
-    <row r="613" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:16">
       <c r="B613" s="19">
         <v>10</v>
       </c>
@@ -17730,7 +17733,7 @@
       <c r="O613" s="15"/>
       <c r="P613" s="17"/>
     </row>
-    <row r="614" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:16">
       <c r="B614" s="1">
         <v>11</v>
       </c>
@@ -17757,7 +17760,7 @@
       <c r="O614" s="15"/>
       <c r="P614" s="17"/>
     </row>
-    <row r="615" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:16">
       <c r="B615" s="19">
         <v>12</v>
       </c>
@@ -17780,7 +17783,7 @@
       <c r="O615" s="15"/>
       <c r="P615" s="17"/>
     </row>
-    <row r="616" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:16">
       <c r="B616" s="1">
         <v>13</v>
       </c>
@@ -17803,7 +17806,7 @@
       <c r="O616" s="15"/>
       <c r="P616" s="17"/>
     </row>
-    <row r="617" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:16">
       <c r="B617" s="19"/>
       <c r="C617" s="3"/>
       <c r="D617" s="5"/>
@@ -17820,7 +17823,7 @@
       <c r="O617" s="15"/>
       <c r="P617" s="17"/>
     </row>
-    <row r="618" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:16">
       <c r="B618" s="1"/>
       <c r="C618" s="3"/>
       <c r="D618" s="5"/>
@@ -17837,7 +17840,7 @@
       <c r="O618" s="15"/>
       <c r="P618" s="17"/>
     </row>
-    <row r="619" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:16">
       <c r="B619" s="19"/>
       <c r="C619" s="3"/>
       <c r="D619" s="5"/>
@@ -17854,7 +17857,7 @@
       <c r="O619" s="15"/>
       <c r="P619" s="17"/>
     </row>
-    <row r="620" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:16">
       <c r="B620" s="1"/>
       <c r="C620" s="3"/>
       <c r="D620" s="5"/>
@@ -17871,7 +17874,7 @@
       <c r="O620" s="15"/>
       <c r="P620" s="17"/>
     </row>
-    <row r="621" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:16">
       <c r="B621" s="1"/>
       <c r="C621" s="3"/>
       <c r="D621" s="5"/>
@@ -17888,7 +17891,7 @@
       <c r="O621" s="15"/>
       <c r="P621" s="17"/>
     </row>
-    <row r="622" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:16">
       <c r="B622" s="1"/>
       <c r="C622" s="3"/>
       <c r="D622" s="5"/>
@@ -17905,7 +17908,7 @@
       <c r="O622" s="15"/>
       <c r="P622" s="17"/>
     </row>
-    <row r="623" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:16">
       <c r="B623" s="1"/>
       <c r="C623" s="3"/>
       <c r="D623" s="5"/>
@@ -17922,7 +17925,7 @@
       <c r="O623" s="15"/>
       <c r="P623" s="17"/>
     </row>
-    <row r="624" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:16">
       <c r="B624" s="1"/>
       <c r="C624" s="3"/>
       <c r="D624" s="5"/>
@@ -17939,7 +17942,7 @@
       <c r="O624" s="15"/>
       <c r="P624" s="17"/>
     </row>
-    <row r="625" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:16">
       <c r="B625" s="1"/>
       <c r="C625" s="3"/>
       <c r="D625" s="5"/>
@@ -17956,7 +17959,7 @@
       <c r="O625" s="15"/>
       <c r="P625" s="17"/>
     </row>
-    <row r="626" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:16">
       <c r="B626" s="1"/>
       <c r="C626" s="3"/>
       <c r="D626" s="5"/>
@@ -17973,7 +17976,7 @@
       <c r="O626" s="15"/>
       <c r="P626" s="17"/>
     </row>
-    <row r="627" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:16">
       <c r="B627" s="1"/>
       <c r="C627" s="3"/>
       <c r="D627" s="5"/>
@@ -17990,7 +17993,7 @@
       <c r="O627" s="15"/>
       <c r="P627" s="17"/>
     </row>
-    <row r="628" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:16">
       <c r="B628" s="1"/>
       <c r="C628" s="3"/>
       <c r="D628" s="5"/>
@@ -18007,7 +18010,7 @@
       <c r="O628" s="15"/>
       <c r="P628" s="17"/>
     </row>
-    <row r="629" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:16">
       <c r="B629" s="1"/>
       <c r="C629" s="3"/>
       <c r="D629" s="5"/>
@@ -18024,7 +18027,7 @@
       <c r="O629" s="15"/>
       <c r="P629" s="17"/>
     </row>
-    <row r="630" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:16">
       <c r="B630" s="1"/>
       <c r="C630" s="3"/>
       <c r="D630" s="5"/>
@@ -18041,7 +18044,7 @@
       <c r="O630" s="15"/>
       <c r="P630" s="17"/>
     </row>
-    <row r="631" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:16">
       <c r="B631" s="1"/>
       <c r="C631" s="3"/>
       <c r="D631" s="5"/>
@@ -18058,7 +18061,7 @@
       <c r="O631" s="15"/>
       <c r="P631" s="17"/>
     </row>
-    <row r="632" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:16">
       <c r="B632" s="1"/>
       <c r="C632" s="3"/>
       <c r="D632" s="5"/>
@@ -18075,7 +18078,7 @@
       <c r="O632" s="15"/>
       <c r="P632" s="17"/>
     </row>
-    <row r="633" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:16" ht="17" thickBot="1">
       <c r="B633" s="2"/>
       <c r="C633" s="4"/>
       <c r="D633" s="6"/>
@@ -18092,7 +18095,7 @@
       <c r="O633" s="16"/>
       <c r="P633" s="18"/>
     </row>
-    <row r="634" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:16">
       <c r="B634" s="45"/>
       <c r="C634" s="45"/>
       <c r="D634" s="45"/>
@@ -18109,7 +18112,7 @@
       <c r="O634" s="45"/>
       <c r="P634" s="45"/>
     </row>
-    <row r="635" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:16">
       <c r="B635" s="45"/>
       <c r="C635" s="45"/>
       <c r="D635" s="45"/>
@@ -18126,7 +18129,7 @@
       <c r="O635" s="45"/>
       <c r="P635" s="45"/>
     </row>
-    <row r="636" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:16" ht="17" thickBot="1">
       <c r="B636" s="45"/>
       <c r="C636" s="45"/>
       <c r="D636" s="45"/>
@@ -18143,7 +18146,7 @@
       <c r="O636" s="45"/>
       <c r="P636" s="45"/>
     </row>
-    <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:16" ht="17" thickBot="1">
       <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
@@ -18162,7 +18165,7 @@
       <c r="O637" s="116"/>
       <c r="P637" s="117"/>
     </row>
-    <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
         <v>14</v>
       </c>
@@ -18209,7 +18212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:16">
       <c r="B639" s="19"/>
       <c r="C639" s="3" t="s">
         <v>498</v>
@@ -18228,7 +18231,7 @@
       <c r="O639" s="15"/>
       <c r="P639" s="17"/>
     </row>
-    <row r="640" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:16">
       <c r="B640" s="19">
         <v>1</v>
       </c>
@@ -18257,7 +18260,7 @@
       <c r="O640" s="15"/>
       <c r="P640" s="17"/>
     </row>
-    <row r="641" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:16">
       <c r="B641" s="1">
         <v>2</v>
       </c>
@@ -18280,7 +18283,7 @@
       <c r="O641" s="15"/>
       <c r="P641" s="17"/>
     </row>
-    <row r="642" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:16">
       <c r="B642" s="19">
         <v>3</v>
       </c>
@@ -18303,7 +18306,7 @@
       <c r="O642" s="15"/>
       <c r="P642" s="17"/>
     </row>
-    <row r="643" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:16">
       <c r="B643" s="1">
         <v>4</v>
       </c>
@@ -18328,7 +18331,7 @@
       <c r="O643" s="15"/>
       <c r="P643" s="17"/>
     </row>
-    <row r="644" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:16">
       <c r="B644" s="19"/>
       <c r="C644" s="3"/>
       <c r="D644" s="5"/>
@@ -18345,7 +18348,7 @@
       <c r="O644" s="15"/>
       <c r="P644" s="17"/>
     </row>
-    <row r="645" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:16" ht="17" thickBot="1">
       <c r="B645" s="2"/>
       <c r="C645" s="4"/>
       <c r="D645" s="6"/>
@@ -18362,7 +18365,7 @@
       <c r="O645" s="16"/>
       <c r="P645" s="18"/>
     </row>
-    <row r="646" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:16">
       <c r="B646" s="45"/>
       <c r="C646" s="45"/>
       <c r="D646" s="45"/>
@@ -18379,7 +18382,7 @@
       <c r="O646" s="45"/>
       <c r="P646" s="45"/>
     </row>
-    <row r="647" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:16">
       <c r="B647" s="45"/>
       <c r="C647" s="45"/>
       <c r="D647" s="45"/>
@@ -18396,7 +18399,7 @@
       <c r="O647" s="45"/>
       <c r="P647" s="45"/>
     </row>
-    <row r="648" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:16" ht="17" thickBot="1">
       <c r="B648" s="45"/>
       <c r="C648" s="45"/>
       <c r="D648" s="45"/>
@@ -18413,7 +18416,7 @@
       <c r="O648" s="45"/>
       <c r="P648" s="45"/>
     </row>
-    <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:16" ht="17" thickBot="1">
       <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
@@ -18432,7 +18435,7 @@
       <c r="O649" s="116"/>
       <c r="P649" s="117"/>
     </row>
-    <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
         <v>14</v>
       </c>
@@ -18479,7 +18482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:16">
       <c r="B651" s="19"/>
       <c r="C651" s="3"/>
       <c r="D651" s="5"/>
@@ -18496,7 +18499,7 @@
       <c r="O651" s="15"/>
       <c r="P651" s="17"/>
     </row>
-    <row r="652" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:16">
       <c r="B652" s="19"/>
       <c r="C652" s="3" t="s">
         <v>498</v>
@@ -18515,7 +18518,7 @@
       <c r="O652" s="15"/>
       <c r="P652" s="17"/>
     </row>
-    <row r="653" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:16">
       <c r="B653" s="19">
         <v>1</v>
       </c>
@@ -18538,7 +18541,7 @@
       <c r="O653" s="23"/>
       <c r="P653" s="24"/>
     </row>
-    <row r="654" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:16">
       <c r="B654" s="1">
         <v>2</v>
       </c>
@@ -18561,7 +18564,7 @@
       <c r="O654" s="15"/>
       <c r="P654" s="17"/>
     </row>
-    <row r="655" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:16">
       <c r="B655" s="19">
         <v>3</v>
       </c>
@@ -18584,7 +18587,7 @@
       <c r="O655" s="15"/>
       <c r="P655" s="17"/>
     </row>
-    <row r="656" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:16">
       <c r="B656" s="1">
         <v>4</v>
       </c>
@@ -18607,7 +18610,7 @@
       <c r="O656" s="15"/>
       <c r="P656" s="17"/>
     </row>
-    <row r="657" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:16">
       <c r="B657" s="19">
         <v>5</v>
       </c>
@@ -18630,7 +18633,7 @@
       <c r="O657" s="15"/>
       <c r="P657" s="17"/>
     </row>
-    <row r="658" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:16">
       <c r="B658" s="1">
         <v>6</v>
       </c>
@@ -18659,7 +18662,7 @@
       <c r="O658" s="15"/>
       <c r="P658" s="17"/>
     </row>
-    <row r="659" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:16">
       <c r="B659" s="19"/>
       <c r="C659" s="3"/>
       <c r="D659" s="5"/>
@@ -18676,7 +18679,7 @@
       <c r="O659" s="15"/>
       <c r="P659" s="17"/>
     </row>
-    <row r="660" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:16">
       <c r="B660" s="1"/>
       <c r="C660" s="3"/>
       <c r="D660" s="5"/>
@@ -18693,7 +18696,7 @@
       <c r="O660" s="15"/>
       <c r="P660" s="17"/>
     </row>
-    <row r="661" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:16">
       <c r="B661" s="19"/>
       <c r="C661" s="3"/>
       <c r="D661" s="5"/>
@@ -18710,7 +18713,7 @@
       <c r="O661" s="15"/>
       <c r="P661" s="17"/>
     </row>
-    <row r="662" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:16">
       <c r="B662" s="1"/>
       <c r="C662" s="3"/>
       <c r="D662" s="5"/>
@@ -18727,7 +18730,7 @@
       <c r="O662" s="15"/>
       <c r="P662" s="17"/>
     </row>
-    <row r="663" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:16">
       <c r="B663" s="19"/>
       <c r="C663" s="3"/>
       <c r="D663" s="5"/>
@@ -18744,7 +18747,7 @@
       <c r="O663" s="15"/>
       <c r="P663" s="17"/>
     </row>
-    <row r="664" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:16">
       <c r="B664" s="1"/>
       <c r="C664" s="3"/>
       <c r="D664" s="5"/>
@@ -18761,7 +18764,7 @@
       <c r="O664" s="15"/>
       <c r="P664" s="17"/>
     </row>
-    <row r="665" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:16">
       <c r="B665" s="1"/>
       <c r="C665" s="3"/>
       <c r="D665" s="5"/>
@@ -18778,7 +18781,7 @@
       <c r="O665" s="15"/>
       <c r="P665" s="17"/>
     </row>
-    <row r="666" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:16">
       <c r="B666" s="1"/>
       <c r="C666" s="3"/>
       <c r="D666" s="5"/>
@@ -18795,7 +18798,7 @@
       <c r="O666" s="15"/>
       <c r="P666" s="17"/>
     </row>
-    <row r="667" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:16">
       <c r="B667" s="1"/>
       <c r="C667" s="3"/>
       <c r="D667" s="5"/>
@@ -18812,7 +18815,7 @@
       <c r="O667" s="15"/>
       <c r="P667" s="17"/>
     </row>
-    <row r="668" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:16">
       <c r="B668" s="1"/>
       <c r="C668" s="3"/>
       <c r="D668" s="5"/>
@@ -18829,7 +18832,7 @@
       <c r="O668" s="15"/>
       <c r="P668" s="17"/>
     </row>
-    <row r="669" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:16">
       <c r="B669" s="1"/>
       <c r="C669" s="3"/>
       <c r="D669" s="5"/>
@@ -18846,7 +18849,7 @@
       <c r="O669" s="15"/>
       <c r="P669" s="17"/>
     </row>
-    <row r="670" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:16">
       <c r="B670" s="1"/>
       <c r="C670" s="3"/>
       <c r="D670" s="5"/>
@@ -18863,7 +18866,7 @@
       <c r="O670" s="15"/>
       <c r="P670" s="17"/>
     </row>
-    <row r="671" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:16" ht="17" thickBot="1">
       <c r="B671" s="2"/>
       <c r="C671" s="4"/>
       <c r="D671" s="6"/>
@@ -18880,7 +18883,7 @@
       <c r="O671" s="16"/>
       <c r="P671" s="18"/>
     </row>
-    <row r="672" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:16">
       <c r="B672" s="45"/>
       <c r="C672" s="45"/>
       <c r="D672" s="45"/>
@@ -18897,7 +18900,7 @@
       <c r="O672" s="45"/>
       <c r="P672" s="45"/>
     </row>
-    <row r="673" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:16">
       <c r="B673" s="45"/>
       <c r="C673" s="45"/>
       <c r="D673" s="45"/>
@@ -18914,7 +18917,7 @@
       <c r="O673" s="45"/>
       <c r="P673" s="45"/>
     </row>
-    <row r="674" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:16" ht="17" thickBot="1">
       <c r="B674" s="45"/>
       <c r="C674" s="45"/>
       <c r="D674" s="45"/>
@@ -18931,7 +18934,7 @@
       <c r="O674" s="45"/>
       <c r="P674" s="45"/>
     </row>
-    <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:16" ht="17" thickBot="1">
       <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
@@ -18950,7 +18953,7 @@
       <c r="O675" s="112"/>
       <c r="P675" s="113"/>
     </row>
-    <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
         <v>14</v>
       </c>
@@ -18997,7 +19000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:16">
       <c r="B677" s="59"/>
       <c r="C677" s="60" t="s">
         <v>498</v>
@@ -19016,7 +19019,7 @@
       <c r="O677" s="68"/>
       <c r="P677" s="69"/>
     </row>
-    <row r="678" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:16">
       <c r="B678" s="59"/>
       <c r="C678" s="60" t="s">
         <v>44</v>
@@ -19035,7 +19038,7 @@
       <c r="O678" s="68"/>
       <c r="P678" s="69"/>
     </row>
-    <row r="679" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:16">
       <c r="B679" s="59">
         <v>1</v>
       </c>
@@ -19064,7 +19067,7 @@
       <c r="O679" s="68"/>
       <c r="P679" s="69"/>
     </row>
-    <row r="680" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:16">
       <c r="B680" s="59">
         <v>2</v>
       </c>
@@ -19087,7 +19090,7 @@
       <c r="O680" s="68"/>
       <c r="P680" s="69"/>
     </row>
-    <row r="681" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:16">
       <c r="B681" s="59">
         <v>3</v>
       </c>
@@ -19110,7 +19113,7 @@
       <c r="O681" s="68"/>
       <c r="P681" s="69"/>
     </row>
-    <row r="682" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:16">
       <c r="B682" s="59"/>
       <c r="C682" s="60" t="s">
         <v>402</v>
@@ -19129,7 +19132,7 @@
       <c r="O682" s="68"/>
       <c r="P682" s="69"/>
     </row>
-    <row r="683" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:16">
       <c r="B683" s="59">
         <v>4</v>
       </c>
@@ -19152,7 +19155,7 @@
       <c r="O683" s="68"/>
       <c r="P683" s="69"/>
     </row>
-    <row r="684" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:16">
       <c r="B684" s="59">
         <v>5</v>
       </c>
@@ -19175,7 +19178,7 @@
       <c r="O684" s="68"/>
       <c r="P684" s="69"/>
     </row>
-    <row r="685" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:16">
       <c r="B685" s="59">
         <v>6</v>
       </c>
@@ -19198,7 +19201,7 @@
       <c r="O685" s="68"/>
       <c r="P685" s="69"/>
     </row>
-    <row r="686" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:16">
       <c r="B686" s="59">
         <v>7</v>
       </c>
@@ -19221,7 +19224,7 @@
       <c r="O686" s="68"/>
       <c r="P686" s="69"/>
     </row>
-    <row r="687" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:16">
       <c r="B687" s="59">
         <v>8</v>
       </c>
@@ -19244,7 +19247,7 @@
       <c r="O687" s="68"/>
       <c r="P687" s="69"/>
     </row>
-    <row r="688" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:16">
       <c r="B688" s="59"/>
       <c r="C688" s="60"/>
       <c r="D688" s="61"/>
@@ -19261,7 +19264,7 @@
       <c r="O688" s="68"/>
       <c r="P688" s="69"/>
     </row>
-    <row r="689" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:16">
       <c r="B689" s="59"/>
       <c r="C689" s="60"/>
       <c r="D689" s="61"/>
@@ -19278,7 +19281,7 @@
       <c r="O689" s="68"/>
       <c r="P689" s="69"/>
     </row>
-    <row r="690" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:16">
       <c r="B690" s="59"/>
       <c r="C690" s="60"/>
       <c r="D690" s="61"/>
@@ -19295,7 +19298,7 @@
       <c r="O690" s="68"/>
       <c r="P690" s="69"/>
     </row>
-    <row r="691" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:16">
       <c r="B691" s="59"/>
       <c r="C691" s="60"/>
       <c r="D691" s="61"/>
@@ -19312,7 +19315,7 @@
       <c r="O691" s="68"/>
       <c r="P691" s="69"/>
     </row>
-    <row r="692" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:16">
       <c r="B692" s="59"/>
       <c r="C692" s="60"/>
       <c r="D692" s="61"/>
@@ -19329,7 +19332,7 @@
       <c r="O692" s="68"/>
       <c r="P692" s="69"/>
     </row>
-    <row r="693" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:16">
       <c r="B693" s="59"/>
       <c r="C693" s="60"/>
       <c r="D693" s="61"/>
@@ -19346,7 +19349,7 @@
       <c r="O693" s="68"/>
       <c r="P693" s="69"/>
     </row>
-    <row r="694" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:16">
       <c r="B694" s="59"/>
       <c r="C694" s="60"/>
       <c r="D694" s="61"/>
@@ -19363,7 +19366,7 @@
       <c r="O694" s="68"/>
       <c r="P694" s="69"/>
     </row>
-    <row r="695" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:16">
       <c r="B695" s="59"/>
       <c r="C695" s="60"/>
       <c r="D695" s="61"/>
@@ -19380,7 +19383,7 @@
       <c r="O695" s="68"/>
       <c r="P695" s="69"/>
     </row>
-    <row r="696" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:16">
       <c r="B696" s="59"/>
       <c r="C696" s="60"/>
       <c r="D696" s="61"/>
@@ -19397,7 +19400,7 @@
       <c r="O696" s="68"/>
       <c r="P696" s="69"/>
     </row>
-    <row r="697" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:16">
       <c r="B697" s="59"/>
       <c r="C697" s="60"/>
       <c r="D697" s="61"/>
@@ -19414,7 +19417,7 @@
       <c r="O697" s="68"/>
       <c r="P697" s="69"/>
     </row>
-    <row r="698" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:16">
       <c r="B698" s="59"/>
       <c r="C698" s="60"/>
       <c r="D698" s="61"/>
@@ -19431,7 +19434,7 @@
       <c r="O698" s="68"/>
       <c r="P698" s="69"/>
     </row>
-    <row r="699" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:16">
       <c r="B699" s="59"/>
       <c r="C699" s="60"/>
       <c r="D699" s="61"/>
@@ -19448,7 +19451,7 @@
       <c r="O699" s="68"/>
       <c r="P699" s="69"/>
     </row>
-    <row r="700" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:16" ht="17" thickBot="1">
       <c r="B700" s="71"/>
       <c r="C700" s="72"/>
       <c r="D700" s="73"/>
@@ -19465,7 +19468,7 @@
       <c r="O700" s="80"/>
       <c r="P700" s="81"/>
     </row>
-    <row r="701" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:16">
       <c r="B701" s="45"/>
       <c r="C701" s="45"/>
       <c r="D701" s="45"/>
@@ -19482,7 +19485,7 @@
       <c r="O701" s="45"/>
       <c r="P701" s="45"/>
     </row>
-    <row r="702" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:16">
       <c r="B702" s="45"/>
       <c r="C702" s="45"/>
       <c r="D702" s="45"/>
@@ -19499,7 +19502,7 @@
       <c r="O702" s="45"/>
       <c r="P702" s="45"/>
     </row>
-    <row r="703" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:16" ht="17" thickBot="1">
       <c r="B703" s="45"/>
       <c r="C703" s="45"/>
       <c r="D703" s="45"/>
@@ -19516,7 +19519,7 @@
       <c r="O703" s="45"/>
       <c r="P703" s="45"/>
     </row>
-    <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:16" ht="17" thickBot="1">
       <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
@@ -19535,7 +19538,7 @@
       <c r="O704" s="112"/>
       <c r="P704" s="113"/>
     </row>
-    <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
         <v>14</v>
       </c>
@@ -19582,7 +19585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="706" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:16">
       <c r="B706" s="59"/>
       <c r="C706" s="60" t="s">
         <v>498</v>
@@ -19601,7 +19604,7 @@
       <c r="O706" s="68"/>
       <c r="P706" s="69"/>
     </row>
-    <row r="707" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:16">
       <c r="B707" s="59">
         <v>1</v>
       </c>
@@ -19632,7 +19635,7 @@
       <c r="O707" s="68"/>
       <c r="P707" s="69"/>
     </row>
-    <row r="708" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:16">
       <c r="B708" s="59">
         <v>2</v>
       </c>
@@ -19655,7 +19658,7 @@
       <c r="O708" s="68"/>
       <c r="P708" s="69"/>
     </row>
-    <row r="709" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:16">
       <c r="B709" s="59">
         <v>3</v>
       </c>
@@ -19678,7 +19681,7 @@
       <c r="O709" s="68"/>
       <c r="P709" s="69"/>
     </row>
-    <row r="710" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:16">
       <c r="B710" s="59"/>
       <c r="C710" s="60"/>
       <c r="D710" s="61"/>
@@ -19695,7 +19698,7 @@
       <c r="O710" s="68"/>
       <c r="P710" s="69"/>
     </row>
-    <row r="711" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:16">
       <c r="B711" s="59"/>
       <c r="C711" s="60"/>
       <c r="D711" s="61"/>
@@ -19712,7 +19715,7 @@
       <c r="O711" s="68"/>
       <c r="P711" s="69"/>
     </row>
-    <row r="712" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:16">
       <c r="B712" s="59"/>
       <c r="C712" s="60"/>
       <c r="D712" s="61"/>
@@ -19729,7 +19732,7 @@
       <c r="O712" s="68"/>
       <c r="P712" s="69"/>
     </row>
-    <row r="713" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:16">
       <c r="B713" s="59"/>
       <c r="C713" s="60"/>
       <c r="D713" s="61"/>
@@ -19746,7 +19749,7 @@
       <c r="O713" s="68"/>
       <c r="P713" s="69"/>
     </row>
-    <row r="714" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:16">
       <c r="B714" s="59"/>
       <c r="C714" s="60"/>
       <c r="D714" s="61"/>
@@ -19763,7 +19766,7 @@
       <c r="O714" s="68"/>
       <c r="P714" s="69"/>
     </row>
-    <row r="715" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:16">
       <c r="B715" s="59"/>
       <c r="C715" s="60"/>
       <c r="D715" s="61"/>
@@ -19780,7 +19783,7 @@
       <c r="O715" s="68"/>
       <c r="P715" s="69"/>
     </row>
-    <row r="716" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:16">
       <c r="B716" s="59"/>
       <c r="C716" s="60"/>
       <c r="D716" s="61"/>
@@ -19797,7 +19800,7 @@
       <c r="O716" s="68"/>
       <c r="P716" s="69"/>
     </row>
-    <row r="717" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:16" ht="17" thickBot="1">
       <c r="B717" s="71"/>
       <c r="C717" s="72"/>
       <c r="D717" s="73"/>
@@ -19814,7 +19817,7 @@
       <c r="O717" s="80"/>
       <c r="P717" s="81"/>
     </row>
-    <row r="718" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:16">
       <c r="B718" s="45"/>
       <c r="C718" s="45"/>
       <c r="D718" s="45"/>
@@ -19831,7 +19834,7 @@
       <c r="O718" s="45"/>
       <c r="P718" s="45"/>
     </row>
-    <row r="719" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:16">
       <c r="B719" s="45"/>
       <c r="C719" s="45"/>
       <c r="D719" s="45"/>
@@ -19848,7 +19851,7 @@
       <c r="O719" s="45"/>
       <c r="P719" s="45"/>
     </row>
-    <row r="720" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:16" ht="17" thickBot="1">
       <c r="B720" s="45"/>
       <c r="C720" s="45"/>
       <c r="D720" s="45"/>
@@ -19865,7 +19868,7 @@
       <c r="O720" s="45"/>
       <c r="P720" s="45"/>
     </row>
-    <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:16" ht="17" thickBot="1">
       <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
@@ -19884,7 +19887,7 @@
       <c r="O721" s="112"/>
       <c r="P721" s="113"/>
     </row>
-    <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
         <v>14</v>
       </c>
@@ -19931,7 +19934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:16">
       <c r="B723" s="59"/>
       <c r="C723" s="60" t="s">
         <v>498</v>
@@ -19950,7 +19953,7 @@
       <c r="O723" s="68"/>
       <c r="P723" s="69"/>
     </row>
-    <row r="724" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:16">
       <c r="B724" s="59">
         <v>1</v>
       </c>
@@ -19973,7 +19976,7 @@
       <c r="O724" s="68"/>
       <c r="P724" s="69"/>
     </row>
-    <row r="725" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:16">
       <c r="B725" s="59">
         <v>2</v>
       </c>
@@ -19996,7 +19999,7 @@
       <c r="O725" s="68"/>
       <c r="P725" s="69"/>
     </row>
-    <row r="726" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:16">
       <c r="B726" s="59">
         <v>3</v>
       </c>
@@ -20019,7 +20022,7 @@
       <c r="O726" s="68"/>
       <c r="P726" s="69"/>
     </row>
-    <row r="727" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:16">
       <c r="B727" s="59"/>
       <c r="C727" s="60"/>
       <c r="D727" s="61"/>
@@ -20036,7 +20039,7 @@
       <c r="O727" s="68"/>
       <c r="P727" s="69"/>
     </row>
-    <row r="728" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:16">
       <c r="B728" s="59"/>
       <c r="C728" s="60"/>
       <c r="D728" s="61"/>
@@ -20053,7 +20056,7 @@
       <c r="O728" s="68"/>
       <c r="P728" s="69"/>
     </row>
-    <row r="729" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:16">
       <c r="B729" s="59"/>
       <c r="C729" s="60"/>
       <c r="D729" s="61"/>
@@ -20070,7 +20073,7 @@
       <c r="O729" s="68"/>
       <c r="P729" s="69"/>
     </row>
-    <row r="730" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:16">
       <c r="B730" s="59"/>
       <c r="C730" s="60"/>
       <c r="D730" s="61"/>
@@ -20087,7 +20090,7 @@
       <c r="O730" s="68"/>
       <c r="P730" s="69"/>
     </row>
-    <row r="731" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:16">
       <c r="B731" s="59"/>
       <c r="C731" s="60"/>
       <c r="D731" s="61"/>
@@ -20104,7 +20107,7 @@
       <c r="O731" s="68"/>
       <c r="P731" s="69"/>
     </row>
-    <row r="732" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:16">
       <c r="B732" s="59"/>
       <c r="C732" s="60"/>
       <c r="D732" s="61"/>
@@ -20121,7 +20124,7 @@
       <c r="O732" s="68"/>
       <c r="P732" s="69"/>
     </row>
-    <row r="733" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:16">
       <c r="B733" s="59"/>
       <c r="C733" s="60"/>
       <c r="D733" s="61"/>
@@ -20138,7 +20141,7 @@
       <c r="O733" s="68"/>
       <c r="P733" s="69"/>
     </row>
-    <row r="734" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:16">
       <c r="B734" s="59"/>
       <c r="C734" s="60"/>
       <c r="D734" s="61"/>
@@ -20155,7 +20158,7 @@
       <c r="O734" s="68"/>
       <c r="P734" s="69"/>
     </row>
-    <row r="735" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:16">
       <c r="B735" s="59"/>
       <c r="C735" s="60"/>
       <c r="D735" s="61"/>
@@ -20172,7 +20175,7 @@
       <c r="O735" s="68"/>
       <c r="P735" s="69"/>
     </row>
-    <row r="736" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:16">
       <c r="B736" s="59"/>
       <c r="C736" s="60"/>
       <c r="D736" s="61"/>
@@ -20189,7 +20192,7 @@
       <c r="O736" s="68"/>
       <c r="P736" s="69"/>
     </row>
-    <row r="737" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:16" ht="17" thickBot="1">
       <c r="B737" s="71"/>
       <c r="C737" s="72"/>
       <c r="D737" s="73"/>
@@ -20206,7 +20209,7 @@
       <c r="O737" s="80"/>
       <c r="P737" s="81"/>
     </row>
-    <row r="738" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:16">
       <c r="B738" s="45"/>
       <c r="C738" s="45"/>
       <c r="D738" s="45"/>
@@ -20223,7 +20226,7 @@
       <c r="O738" s="45"/>
       <c r="P738" s="45"/>
     </row>
-    <row r="739" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:16">
       <c r="B739" s="45"/>
       <c r="C739" s="45"/>
       <c r="D739" s="45"/>
@@ -20240,7 +20243,7 @@
       <c r="O739" s="45"/>
       <c r="P739" s="45"/>
     </row>
-    <row r="740" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:16" ht="17" thickBot="1">
       <c r="B740" s="45"/>
       <c r="C740" s="45"/>
       <c r="D740" s="45"/>
@@ -20257,7 +20260,7 @@
       <c r="O740" s="45"/>
       <c r="P740" s="45"/>
     </row>
-    <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:16" ht="17" thickBot="1">
       <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
@@ -20276,7 +20279,7 @@
       <c r="O741" s="112"/>
       <c r="P741" s="113"/>
     </row>
-    <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
         <v>14</v>
       </c>
@@ -20323,7 +20326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:16">
       <c r="B743" s="59"/>
       <c r="C743" s="60" t="s">
         <v>498</v>
@@ -20342,7 +20345,7 @@
       <c r="O743" s="68"/>
       <c r="P743" s="69"/>
     </row>
-    <row r="744" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:16">
       <c r="B744" s="59">
         <v>1</v>
       </c>
@@ -20365,7 +20368,7 @@
       <c r="O744" s="68"/>
       <c r="P744" s="69"/>
     </row>
-    <row r="745" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:16">
       <c r="B745" s="59">
         <v>2</v>
       </c>
@@ -20388,7 +20391,7 @@
       <c r="O745" s="68"/>
       <c r="P745" s="69"/>
     </row>
-    <row r="746" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:16">
       <c r="B746" s="59">
         <v>3</v>
       </c>
@@ -20411,7 +20414,7 @@
       <c r="O746" s="68"/>
       <c r="P746" s="69"/>
     </row>
-    <row r="747" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:16">
       <c r="B747" s="59">
         <v>4</v>
       </c>
@@ -20434,7 +20437,7 @@
       <c r="O747" s="68"/>
       <c r="P747" s="69"/>
     </row>
-    <row r="748" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:16">
       <c r="B748" s="59">
         <v>5</v>
       </c>
@@ -20457,7 +20460,7 @@
       <c r="O748" s="68"/>
       <c r="P748" s="69"/>
     </row>
-    <row r="749" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:16">
       <c r="B749" s="59">
         <v>6</v>
       </c>
@@ -20480,7 +20483,7 @@
       <c r="O749" s="68"/>
       <c r="P749" s="69"/>
     </row>
-    <row r="750" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:16">
       <c r="B750" s="59">
         <v>7</v>
       </c>
@@ -20503,7 +20506,7 @@
       <c r="O750" s="68"/>
       <c r="P750" s="69"/>
     </row>
-    <row r="751" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:16">
       <c r="B751" s="59">
         <v>8</v>
       </c>
@@ -20534,7 +20537,7 @@
       <c r="O751" s="68"/>
       <c r="P751" s="69"/>
     </row>
-    <row r="752" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:16">
       <c r="B752" s="59">
         <v>9</v>
       </c>
@@ -20557,7 +20560,7 @@
       <c r="O752" s="68"/>
       <c r="P752" s="69"/>
     </row>
-    <row r="753" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:16">
       <c r="B753" s="59">
         <v>10</v>
       </c>
@@ -20580,7 +20583,7 @@
       <c r="O753" s="68"/>
       <c r="P753" s="69"/>
     </row>
-    <row r="754" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:16">
       <c r="B754" s="59">
         <v>11</v>
       </c>
@@ -20603,7 +20606,7 @@
       <c r="O754" s="68"/>
       <c r="P754" s="69"/>
     </row>
-    <row r="755" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:16">
       <c r="B755" s="59">
         <v>12</v>
       </c>
@@ -20628,7 +20631,7 @@
       <c r="O755" s="68"/>
       <c r="P755" s="69"/>
     </row>
-    <row r="756" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:16">
       <c r="B756" s="59">
         <v>13</v>
       </c>
@@ -20651,7 +20654,7 @@
       <c r="O756" s="68"/>
       <c r="P756" s="69"/>
     </row>
-    <row r="757" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:16">
       <c r="B757" s="59">
         <v>14</v>
       </c>
@@ -20674,7 +20677,7 @@
       <c r="O757" s="68"/>
       <c r="P757" s="69"/>
     </row>
-    <row r="758" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:16">
       <c r="B758" s="59">
         <v>15</v>
       </c>
@@ -20697,7 +20700,7 @@
       <c r="O758" s="68"/>
       <c r="P758" s="69"/>
     </row>
-    <row r="759" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:16">
       <c r="B759" s="59">
         <v>16</v>
       </c>
@@ -20720,7 +20723,7 @@
       <c r="O759" s="68"/>
       <c r="P759" s="69"/>
     </row>
-    <row r="760" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:16">
       <c r="B760" s="59">
         <v>17</v>
       </c>
@@ -20743,7 +20746,7 @@
       <c r="O760" s="68"/>
       <c r="P760" s="69"/>
     </row>
-    <row r="761" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:16">
       <c r="B761" s="59"/>
       <c r="C761" s="60"/>
       <c r="D761" s="61"/>
@@ -20760,7 +20763,7 @@
       <c r="O761" s="68"/>
       <c r="P761" s="69"/>
     </row>
-    <row r="762" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:16">
       <c r="B762" s="59"/>
       <c r="C762" s="60"/>
       <c r="D762" s="61"/>
@@ -20777,7 +20780,7 @@
       <c r="O762" s="68"/>
       <c r="P762" s="69"/>
     </row>
-    <row r="763" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:16">
       <c r="B763" s="59"/>
       <c r="C763" s="60"/>
       <c r="D763" s="61"/>
@@ -20794,7 +20797,7 @@
       <c r="O763" s="68"/>
       <c r="P763" s="69"/>
     </row>
-    <row r="764" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:16">
       <c r="B764" s="59"/>
       <c r="C764" s="60"/>
       <c r="D764" s="61"/>
@@ -20811,7 +20814,7 @@
       <c r="O764" s="68"/>
       <c r="P764" s="69"/>
     </row>
-    <row r="765" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:16">
       <c r="B765" s="59"/>
       <c r="C765" s="60"/>
       <c r="D765" s="61"/>
@@ -20828,7 +20831,7 @@
       <c r="O765" s="68"/>
       <c r="P765" s="69"/>
     </row>
-    <row r="766" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:16" ht="17" thickBot="1">
       <c r="B766" s="71"/>
       <c r="C766" s="72"/>
       <c r="D766" s="73"/>
@@ -20845,7 +20848,7 @@
       <c r="O766" s="80"/>
       <c r="P766" s="81"/>
     </row>
-    <row r="767" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:16">
       <c r="B767" s="45"/>
       <c r="C767" s="45"/>
       <c r="D767" s="45"/>
@@ -20862,7 +20865,7 @@
       <c r="O767" s="45"/>
       <c r="P767" s="45"/>
     </row>
-    <row r="768" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:16">
       <c r="B768" s="45"/>
       <c r="C768" s="45"/>
       <c r="D768" s="45"/>
@@ -20879,7 +20882,7 @@
       <c r="O768" s="45"/>
       <c r="P768" s="45"/>
     </row>
-    <row r="769" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:16">
       <c r="B769" s="45"/>
       <c r="C769" s="45"/>
       <c r="D769" s="45"/>
@@ -20896,7 +20899,7 @@
       <c r="O769" s="45"/>
       <c r="P769" s="45"/>
     </row>
-    <row r="770" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:16">
       <c r="B770" s="45"/>
       <c r="C770" s="45"/>
       <c r="D770" s="45"/>
@@ -20913,7 +20916,7 @@
       <c r="O770" s="45"/>
       <c r="P770" s="45"/>
     </row>
-    <row r="771" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:16">
       <c r="B771" s="45"/>
       <c r="C771" s="45"/>
       <c r="D771" s="45"/>
@@ -20930,7 +20933,7 @@
       <c r="O771" s="45"/>
       <c r="P771" s="45"/>
     </row>
-    <row r="772" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:16">
       <c r="B772" s="45"/>
       <c r="C772" s="45"/>
       <c r="D772" s="45"/>
@@ -20947,7 +20950,7 @@
       <c r="O772" s="45"/>
       <c r="P772" s="45"/>
     </row>
-    <row r="773" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:16">
       <c r="B773" s="45"/>
       <c r="C773" s="45"/>
       <c r="D773" s="45"/>
@@ -20964,7 +20967,7 @@
       <c r="O773" s="45"/>
       <c r="P773" s="45"/>
     </row>
-    <row r="774" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:16">
       <c r="B774" s="45"/>
       <c r="C774" s="45"/>
       <c r="D774" s="45"/>
@@ -20981,7 +20984,7 @@
       <c r="O774" s="45"/>
       <c r="P774" s="45"/>
     </row>
-    <row r="775" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:16">
       <c r="B775" s="45"/>
       <c r="C775" s="45"/>
       <c r="D775" s="45"/>
@@ -20998,7 +21001,7 @@
       <c r="O775" s="45"/>
       <c r="P775" s="45"/>
     </row>
-    <row r="776" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:16">
       <c r="B776" s="45"/>
       <c r="C776" s="45"/>
       <c r="D776" s="45"/>
@@ -21015,7 +21018,7 @@
       <c r="O776" s="45"/>
       <c r="P776" s="45"/>
     </row>
-    <row r="777" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:16">
       <c r="B777" s="45"/>
       <c r="C777" s="45"/>
       <c r="D777" s="45"/>
@@ -21032,7 +21035,7 @@
       <c r="O777" s="45"/>
       <c r="P777" s="45"/>
     </row>
-    <row r="778" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:16">
       <c r="B778" s="45"/>
       <c r="C778" s="45"/>
       <c r="D778" s="45"/>
@@ -21049,7 +21052,7 @@
       <c r="O778" s="45"/>
       <c r="P778" s="45"/>
     </row>
-    <row r="779" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:16">
       <c r="B779" s="45"/>
       <c r="C779" s="45"/>
       <c r="D779" s="45"/>
@@ -21066,7 +21069,7 @@
       <c r="O779" s="45"/>
       <c r="P779" s="45"/>
     </row>
-    <row r="780" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:16">
       <c r="B780" s="45"/>
       <c r="C780" s="45"/>
       <c r="D780" s="45"/>
@@ -21083,7 +21086,7 @@
       <c r="O780" s="45"/>
       <c r="P780" s="45"/>
     </row>
-    <row r="781" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:16" ht="17" thickBot="1">
       <c r="B781" s="45"/>
       <c r="C781" s="45"/>
       <c r="D781" s="45"/>
@@ -21100,7 +21103,7 @@
       <c r="O781" s="45"/>
       <c r="P781" s="45"/>
     </row>
-    <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:16" ht="17" thickBot="1">
       <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
@@ -21119,7 +21122,7 @@
       <c r="O782" s="112"/>
       <c r="P782" s="113"/>
     </row>
-    <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
         <v>14</v>
       </c>
@@ -21166,7 +21169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="784" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:16">
       <c r="B784" s="59"/>
       <c r="C784" s="60" t="s">
         <v>498</v>
@@ -21185,7 +21188,7 @@
       <c r="O784" s="68"/>
       <c r="P784" s="69"/>
     </row>
-    <row r="785" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:16">
       <c r="B785" s="59"/>
       <c r="C785" s="60">
         <v>912</v>
@@ -21212,7 +21215,7 @@
       <c r="O785" s="68"/>
       <c r="P785" s="69"/>
     </row>
-    <row r="786" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:16">
       <c r="B786" s="59"/>
       <c r="C786" s="60"/>
       <c r="D786" s="61"/>
@@ -21229,7 +21232,7 @@
       <c r="O786" s="68"/>
       <c r="P786" s="69"/>
     </row>
-    <row r="787" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:16">
       <c r="B787" s="59"/>
       <c r="C787" s="60"/>
       <c r="D787" s="61"/>
@@ -21246,7 +21249,7 @@
       <c r="O787" s="68"/>
       <c r="P787" s="69"/>
     </row>
-    <row r="788" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:16">
       <c r="B788" s="59"/>
       <c r="C788" s="60"/>
       <c r="D788" s="61"/>
@@ -21263,7 +21266,7 @@
       <c r="O788" s="68"/>
       <c r="P788" s="69"/>
     </row>
-    <row r="789" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:16">
       <c r="B789" s="59"/>
       <c r="C789" s="60"/>
       <c r="D789" s="61"/>
@@ -21280,7 +21283,7 @@
       <c r="O789" s="68"/>
       <c r="P789" s="69"/>
     </row>
-    <row r="790" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:16">
       <c r="B790" s="59"/>
       <c r="C790" s="60"/>
       <c r="D790" s="61"/>
@@ -21297,7 +21300,7 @@
       <c r="O790" s="68"/>
       <c r="P790" s="69"/>
     </row>
-    <row r="791" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:16">
       <c r="B791" s="59"/>
       <c r="C791" s="60"/>
       <c r="D791" s="61"/>
@@ -21314,7 +21317,7 @@
       <c r="O791" s="68"/>
       <c r="P791" s="69"/>
     </row>
-    <row r="792" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:16">
       <c r="B792" s="59"/>
       <c r="C792" s="60"/>
       <c r="D792" s="61"/>
@@ -21757,10 +21760,10 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="6" max="6" width="44.83203125" customWidth="1"/>
@@ -21785,8 +21788,8 @@
     <col min="48" max="48" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" ht="17" thickBot="1"/>
+    <row r="2" spans="2:48" ht="17" thickBot="1">
       <c r="B2" s="92" t="s">
         <v>519</v>
       </c>
@@ -21884,7 +21887,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:48">
       <c r="B3" s="91" t="s">
         <v>498</v>
       </c>
@@ -21950,7 +21953,7 @@
       </c>
       <c r="AV3" s="93"/>
     </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:48">
       <c r="B4" s="3">
         <v>28</v>
       </c>
@@ -22048,7 +22051,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:48">
       <c r="B5" s="3">
         <v>78</v>
       </c>
@@ -22138,7 +22141,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="5"/>
     </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:48">
       <c r="B6" s="3">
         <v>90</v>
       </c>
@@ -22224,7 +22227,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="5"/>
     </row>
-    <row r="7" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:48">
       <c r="B7" s="3">
         <v>46</v>
       </c>
@@ -22310,7 +22313,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="5"/>
     </row>
-    <row r="8" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:48">
       <c r="B8" s="3">
         <v>47</v>
       </c>
@@ -22396,7 +22399,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="5"/>
     </row>
-    <row r="9" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:48">
       <c r="B9" s="3">
         <v>77</v>
       </c>
@@ -22470,7 +22473,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="5"/>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:48">
       <c r="B10" s="3">
         <v>39</v>
       </c>
@@ -22544,7 +22547,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="5"/>
     </row>
-    <row r="11" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:48">
       <c r="B11" s="3">
         <v>40</v>
       </c>
@@ -22614,7 +22617,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:48">
       <c r="B12" s="3">
         <v>216</v>
       </c>
@@ -22684,7 +22687,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:48">
       <c r="B13" s="3">
         <v>377</v>
       </c>
@@ -22733,8 +22736,12 @@
       <c r="AA13" s="5"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="5"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="5"/>
+      <c r="AF13" s="109">
+        <v>1299</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>763</v>
+      </c>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="5"/>
       <c r="AL13" s="3"/>
@@ -22746,7 +22753,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="5"/>
     </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:48">
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="E14" s="3">
@@ -22804,7 +22811,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="5"/>
     </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:48">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="E15" s="3">
@@ -22862,7 +22869,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:48">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="E16" s="3">
@@ -22916,7 +22923,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:48">
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="E17" s="3">
@@ -22966,7 +22973,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="5"/>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:48">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="E18" s="3">
@@ -23016,7 +23023,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="5"/>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:48">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="E19" s="3">
@@ -23066,7 +23073,7 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:48">
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="E20" s="3">
@@ -23116,7 +23123,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:48">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="E21" s="3">
@@ -23169,7 +23176,7 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="5"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:48">
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="E22" s="3">
@@ -23219,7 +23226,7 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="5"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:48">
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="E23" s="3">
@@ -23269,7 +23276,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="5"/>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:48">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="E24" s="3">
@@ -23319,7 +23326,7 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="5"/>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:48">
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
       <c r="E25" s="3">
@@ -23365,7 +23372,7 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="5"/>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:48">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="E26" s="3">
@@ -23406,7 +23413,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="5"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:48">
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
       <c r="E27" s="3">
@@ -23447,7 +23454,7 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="5"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:48">
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
       <c r="E28" s="3">
@@ -23488,7 +23495,7 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="5"/>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:48">
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
       <c r="E29" s="3">
@@ -23529,7 +23536,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="5"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:48">
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
       <c r="E30" s="3">
@@ -23570,7 +23577,7 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="5"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:48">
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
       <c r="E31" s="3">
@@ -23611,7 +23618,7 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="5"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:48">
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
       <c r="E32" s="3">
@@ -23652,7 +23659,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="5"/>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:48">
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="E33" s="3">
@@ -23693,7 +23700,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="5"/>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:48">
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
       <c r="E34" s="3">
@@ -23734,7 +23741,7 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="5"/>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:48">
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
       <c r="E35" s="3">
@@ -23775,7 +23782,7 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="5"/>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:48">
       <c r="B36" s="3"/>
       <c r="C36" s="5"/>
       <c r="E36" s="3">
@@ -23816,7 +23823,7 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="5"/>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:48">
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
       <c r="E37" s="3">
@@ -23857,7 +23864,7 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="5"/>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:48">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="E38" s="3">
@@ -23895,7 +23902,7 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="5"/>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:48">
       <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="E39" s="3">
@@ -23933,7 +23940,7 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="5"/>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:48">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="E40" s="3">
@@ -23971,7 +23978,7 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="5"/>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:48">
       <c r="B41" s="3"/>
       <c r="C41" s="5"/>
       <c r="E41" s="3">
@@ -24012,7 +24019,7 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="5"/>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:48">
       <c r="B42" s="3"/>
       <c r="C42" s="5"/>
       <c r="E42" s="3">
@@ -24053,7 +24060,7 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="5"/>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:48">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="E43" s="3"/>
@@ -24090,7 +24097,7 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="5"/>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:48">
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="E44" s="3"/>
@@ -24127,7 +24134,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="5"/>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:48">
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="E45" s="3"/>
@@ -24164,7 +24171,7 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="5"/>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:48">
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="E46" s="3"/>
@@ -24201,7 +24208,7 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="5"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:48">
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="E47" s="3"/>
@@ -24238,7 +24245,7 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="5"/>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:48">
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="E48" s="3"/>
@@ -24275,7 +24282,7 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="5"/>
     </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:48">
       <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="E49" s="3"/>
@@ -24312,7 +24319,7 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="5"/>
     </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:48">
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="E50" s="3"/>
@@ -24349,7 +24356,7 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="5"/>
     </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:48">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="E51" s="3"/>
@@ -24386,7 +24393,7 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="5"/>
     </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:48">
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="E52" s="3"/>
@@ -24423,7 +24430,7 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="5"/>
     </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:48">
       <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="E53" s="3"/>
@@ -24457,7 +24464,7 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="5"/>
     </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:48">
       <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="E54" s="3"/>
@@ -24491,7 +24498,7 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="5"/>
     </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:48">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="E55" s="3"/>
@@ -24525,7 +24532,7 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="5"/>
     </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:48">
       <c r="B56" s="3"/>
       <c r="C56" s="5"/>
       <c r="E56" s="3"/>
@@ -24562,7 +24569,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="5"/>
     </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:48">
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
       <c r="E57" s="3"/>
@@ -24599,7 +24606,7 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="5"/>
     </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:48">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
       <c r="E58" s="3"/>
@@ -24636,7 +24643,7 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="5"/>
     </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:48">
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
       <c r="E59" s="3"/>
@@ -24673,7 +24680,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="5"/>
     </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:48">
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
       <c r="E60" s="3"/>
@@ -24710,7 +24717,7 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="5"/>
     </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:48">
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
       <c r="E61" s="3"/>
@@ -24747,7 +24754,7 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="5"/>
     </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:48">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="E62" s="3"/>
@@ -24784,7 +24791,7 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="5"/>
     </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:48">
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="E63" s="3"/>
@@ -24821,7 +24828,7 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="5"/>
     </row>
-    <row r="64" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:48">
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="E64" s="3"/>
@@ -24858,7 +24865,7 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="5"/>
     </row>
-    <row r="65" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:48">
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="E65" s="3"/>
@@ -24895,7 +24902,7 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="5"/>
     </row>
-    <row r="66" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:48">
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="E66" s="3"/>
@@ -24932,7 +24939,7 @@
       <c r="AU66" s="3"/>
       <c r="AV66" s="5"/>
     </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:48">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="E67" s="3"/>
@@ -24969,7 +24976,7 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="5"/>
     </row>
-    <row r="68" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:48">
       <c r="B68" s="106"/>
       <c r="C68" s="106"/>
       <c r="D68" s="106"/>
@@ -25006,7 +25013,7 @@
       <c r="AI68" s="106"/>
       <c r="AJ68" s="106"/>
     </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:48">
       <c r="B69" s="106"/>
       <c r="C69" s="106"/>
       <c r="D69" s="106"/>
@@ -25043,7 +25050,7 @@
       <c r="AI69" s="106"/>
       <c r="AJ69" s="106"/>
     </row>
-    <row r="70" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:48">
       <c r="B70" s="106"/>
       <c r="C70" s="106"/>
       <c r="D70" s="106"/>
@@ -25080,7 +25087,7 @@
       <c r="AI70" s="106"/>
       <c r="AJ70" s="106"/>
     </row>
-    <row r="71" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:48">
       <c r="B71" s="106"/>
       <c r="C71" s="106"/>
       <c r="D71" s="106"/>
@@ -25117,7 +25124,7 @@
       <c r="AI71" s="106"/>
       <c r="AJ71" s="106"/>
     </row>
-    <row r="72" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:48">
       <c r="B72" s="106"/>
       <c r="C72" s="106"/>
       <c r="D72" s="106"/>
@@ -25154,7 +25161,7 @@
       <c r="AI72" s="106"/>
       <c r="AJ72" s="106"/>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:48">
       <c r="B73" s="106"/>
       <c r="C73" s="106"/>
       <c r="D73" s="106"/>
@@ -25191,7 +25198,7 @@
       <c r="AI73" s="106"/>
       <c r="AJ73" s="106"/>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:48">
       <c r="B74" s="106"/>
       <c r="C74" s="106"/>
       <c r="D74" s="106"/>
@@ -25228,7 +25235,7 @@
       <c r="AI74" s="106"/>
       <c r="AJ74" s="106"/>
     </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:48">
       <c r="B75" s="106"/>
       <c r="C75" s="106"/>
       <c r="D75" s="106"/>
@@ -25265,7 +25272,7 @@
       <c r="AI75" s="106"/>
       <c r="AJ75" s="106"/>
     </row>
-    <row r="76" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:48">
       <c r="B76" s="106"/>
       <c r="C76" s="106"/>
       <c r="D76" s="106"/>
@@ -25302,7 +25309,7 @@
       <c r="AI76" s="106"/>
       <c r="AJ76" s="106"/>
     </row>
-    <row r="77" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:48">
       <c r="B77" s="106"/>
       <c r="C77" s="106"/>
       <c r="D77" s="106"/>
@@ -25339,7 +25346,7 @@
       <c r="AI77" s="106"/>
       <c r="AJ77" s="106"/>
     </row>
-    <row r="78" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:48">
       <c r="B78" s="106"/>
       <c r="C78" s="106"/>
       <c r="D78" s="106"/>
@@ -25376,7 +25383,7 @@
       <c r="AI78" s="106"/>
       <c r="AJ78" s="106"/>
     </row>
-    <row r="79" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:48">
       <c r="B79" s="106"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106"/>
@@ -25413,7 +25420,7 @@
       <c r="AI79" s="106"/>
       <c r="AJ79" s="106"/>
     </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:48">
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
       <c r="D80" s="106"/>
@@ -25450,7 +25457,7 @@
       <c r="AI80" s="106"/>
       <c r="AJ80" s="106"/>
     </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:36">
       <c r="B81" s="106"/>
       <c r="C81" s="106"/>
       <c r="D81" s="106"/>
@@ -25487,7 +25494,7 @@
       <c r="AI81" s="106"/>
       <c r="AJ81" s="106"/>
     </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:36">
       <c r="B82" s="106"/>
       <c r="C82" s="106"/>
       <c r="D82" s="106"/>
@@ -25524,7 +25531,7 @@
       <c r="AI82" s="106"/>
       <c r="AJ82" s="106"/>
     </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:36">
       <c r="B83" s="106"/>
       <c r="C83" s="106"/>
       <c r="D83" s="106"/>
@@ -25561,7 +25568,7 @@
       <c r="AI83" s="106"/>
       <c r="AJ83" s="106"/>
     </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:36">
       <c r="B84" s="106"/>
       <c r="C84" s="106"/>
       <c r="D84" s="106"/>
@@ -25598,8 +25605,8 @@
       <c r="AI84" s="106"/>
       <c r="AJ84" s="106"/>
     </row>
-    <row r="86" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:36" ht="17" thickBot="1"/>
+    <row r="87" spans="2:36" ht="17" thickBot="1">
       <c r="B87" s="97"/>
       <c r="C87" s="98"/>
       <c r="D87" s="98"/>
@@ -25636,7 +25643,7 @@
       <c r="AI87" s="118"/>
       <c r="AJ87" s="105"/>
     </row>
-    <row r="88" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:36" ht="17" thickBot="1">
       <c r="B88" s="95" t="s">
         <v>497</v>
       </c>
@@ -25686,7 +25693,7 @@
       </c>
       <c r="AJ88" s="96"/>
     </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:36">
       <c r="B89" s="100">
         <v>627</v>
       </c>
@@ -25760,7 +25767,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:36">
       <c r="B90" s="100">
         <v>415</v>
       </c>
@@ -25834,7 +25841,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:36">
       <c r="B91" s="100">
         <v>13</v>
       </c>
@@ -25908,7 +25915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:36">
       <c r="B92" s="100">
         <v>200</v>
       </c>
@@ -25982,7 +25989,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="93" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:36">
       <c r="B93" s="100">
         <v>594</v>
       </c>
@@ -26056,7 +26063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:36">
       <c r="B94" s="100">
         <v>16</v>
       </c>
@@ -26130,7 +26137,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:36">
       <c r="B95" s="100">
         <v>15</v>
       </c>
@@ -26204,7 +26211,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:36">
       <c r="B96" s="3"/>
       <c r="C96" s="5"/>
       <c r="E96" s="100">
@@ -26272,7 +26279,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:36">
       <c r="B97" s="3"/>
       <c r="C97" s="5"/>
       <c r="E97" s="100">
@@ -26342,7 +26349,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:36">
       <c r="B98" s="3"/>
       <c r="C98" s="5"/>
       <c r="E98" s="3" t="s">
@@ -26410,7 +26417,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:36">
       <c r="B99" s="3"/>
       <c r="C99" s="5"/>
       <c r="E99" s="100">
@@ -26470,7 +26477,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:36">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
       <c r="E100" s="100">
@@ -26540,7 +26547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:36">
       <c r="B101" s="3"/>
       <c r="C101" s="5"/>
       <c r="E101" s="100">
@@ -26608,7 +26615,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:36">
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
       <c r="E102" s="100">
@@ -26678,7 +26685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:36">
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
       <c r="E103" s="100">
@@ -26744,7 +26751,7 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="5"/>
     </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:36">
       <c r="B104" s="3"/>
       <c r="C104" s="5"/>
       <c r="E104" s="100">
@@ -26810,7 +26817,7 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="5"/>
     </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:36">
       <c r="B105" s="3"/>
       <c r="C105" s="5"/>
       <c r="E105" s="100">
@@ -26874,7 +26881,7 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="5"/>
     </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:36">
       <c r="B106" s="3"/>
       <c r="C106" s="5"/>
       <c r="E106" s="100">
@@ -26936,7 +26943,7 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="5"/>
     </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:36">
       <c r="B107" s="3"/>
       <c r="C107" s="5"/>
       <c r="E107" s="3" t="s">
@@ -27000,7 +27007,7 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="5"/>
     </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:36">
       <c r="B108" s="3"/>
       <c r="C108" s="5"/>
       <c r="E108" s="100">
@@ -27062,7 +27069,7 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="5"/>
     </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:36">
       <c r="B109" s="3"/>
       <c r="C109" s="5"/>
       <c r="E109" s="100">
@@ -27124,7 +27131,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="5"/>
     </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:36">
       <c r="B110" s="3"/>
       <c r="C110" s="5"/>
       <c r="E110" s="100">
@@ -27186,7 +27193,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="5"/>
     </row>
-    <row r="111" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:36">
       <c r="B111" s="3"/>
       <c r="C111" s="5"/>
       <c r="E111" s="100">
@@ -27242,7 +27249,7 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="5"/>
     </row>
-    <row r="112" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:36">
       <c r="B112" s="3"/>
       <c r="C112" s="5"/>
       <c r="E112" s="100">
@@ -27300,7 +27307,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="5"/>
     </row>
-    <row r="113" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:36">
       <c r="B113" s="3"/>
       <c r="C113" s="5"/>
       <c r="E113" s="100">
@@ -27350,7 +27357,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="5"/>
     </row>
-    <row r="114" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:36">
       <c r="B114" s="3"/>
       <c r="C114" s="5"/>
       <c r="E114" s="100">
@@ -27396,7 +27403,7 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="5"/>
     </row>
-    <row r="115" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:36">
       <c r="B115" s="3"/>
       <c r="C115" s="5"/>
       <c r="E115" s="100">
@@ -27439,7 +27446,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="5"/>
     </row>
-    <row r="116" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:36">
       <c r="B116" s="3"/>
       <c r="C116" s="5"/>
       <c r="E116" s="3"/>
@@ -27477,7 +27484,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="5"/>
     </row>
-    <row r="117" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:36">
       <c r="B117" s="3"/>
       <c r="C117" s="5"/>
       <c r="E117" s="3"/>
@@ -27515,7 +27522,7 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="5"/>
     </row>
-    <row r="118" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:36">
       <c r="B118" s="3"/>
       <c r="C118" s="5"/>
       <c r="E118" s="3"/>
@@ -27553,7 +27560,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="5"/>
     </row>
-    <row r="119" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:36">
       <c r="B119" s="3"/>
       <c r="C119" s="5"/>
       <c r="E119" s="3"/>
@@ -27591,7 +27598,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="5"/>
     </row>
-    <row r="120" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:36">
       <c r="B120" s="3"/>
       <c r="C120" s="5"/>
       <c r="E120" s="3"/>
@@ -27625,7 +27632,7 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="5"/>
     </row>
-    <row r="121" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:36">
       <c r="B121" s="3"/>
       <c r="C121" s="5"/>
       <c r="E121" s="3"/>
@@ -27655,7 +27662,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="5"/>
     </row>
-    <row r="122" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:36">
       <c r="B122" s="3"/>
       <c r="C122" s="5"/>
       <c r="E122" s="3"/>
@@ -27685,7 +27692,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="5"/>
     </row>
-    <row r="123" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:36">
       <c r="B123" s="3"/>
       <c r="C123" s="5"/>
       <c r="E123" s="3"/>
@@ -27711,7 +27718,7 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="5"/>
     </row>
-    <row r="124" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:36">
       <c r="B124" s="3"/>
       <c r="C124" s="5"/>
       <c r="E124" s="3"/>
@@ -27737,7 +27744,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="5"/>
     </row>
-    <row r="125" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:36">
       <c r="B125" s="3"/>
       <c r="C125" s="5"/>
       <c r="E125" s="3"/>
@@ -27763,7 +27770,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="5"/>
     </row>
-    <row r="126" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:36">
       <c r="B126" s="3"/>
       <c r="C126" s="5"/>
       <c r="E126" s="3"/>
@@ -27789,7 +27796,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="5"/>
     </row>
-    <row r="127" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:36">
       <c r="B127" s="3"/>
       <c r="C127" s="5"/>
       <c r="E127" s="3"/>
@@ -27815,7 +27822,7 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="5"/>
     </row>
-    <row r="128" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:36">
       <c r="B128" s="3"/>
       <c r="C128" s="5"/>
       <c r="E128" s="3"/>
@@ -27841,7 +27848,7 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="5"/>
     </row>
-    <row r="129" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:36">
       <c r="B129" s="3"/>
       <c r="C129" s="5"/>
       <c r="E129" s="3"/>
@@ -27867,7 +27874,7 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="5"/>
     </row>
-    <row r="130" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:36">
       <c r="B130" s="3"/>
       <c r="C130" s="5"/>
       <c r="E130" s="3"/>
@@ -27893,7 +27900,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="5"/>
     </row>
-    <row r="131" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:36">
       <c r="B131" s="3"/>
       <c r="C131" s="5"/>
       <c r="E131" s="3"/>
@@ -27919,7 +27926,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="5"/>
     </row>
-    <row r="132" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:36">
       <c r="B132" s="3"/>
       <c r="C132" s="5"/>
       <c r="E132" s="3"/>
@@ -27945,7 +27952,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="5"/>
     </row>
-    <row r="133" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:36">
       <c r="B133" s="3"/>
       <c r="C133" s="5"/>
       <c r="E133" s="3"/>
@@ -27971,7 +27978,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="5"/>
     </row>
-    <row r="134" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:36">
       <c r="B134" s="3"/>
       <c r="C134" s="5"/>
       <c r="E134" s="3"/>
@@ -27997,7 +28004,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="5"/>
     </row>
-    <row r="135" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:36">
       <c r="B135" s="3"/>
       <c r="C135" s="5"/>
       <c r="E135" s="3"/>
@@ -28023,7 +28030,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="5"/>
     </row>
-    <row r="136" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:36">
       <c r="B136" s="3"/>
       <c r="C136" s="5"/>
       <c r="E136" s="3"/>
@@ -28049,7 +28056,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="5"/>
     </row>
-    <row r="137" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:36">
       <c r="B137" s="3"/>
       <c r="C137" s="5"/>
       <c r="E137" s="3"/>
@@ -28075,7 +28082,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="5"/>
     </row>
-    <row r="138" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:36">
       <c r="B138" s="3"/>
       <c r="C138" s="5"/>
       <c r="E138" s="3"/>
@@ -28101,7 +28108,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="5"/>
     </row>
-    <row r="139" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:36">
       <c r="B139" s="3"/>
       <c r="C139" s="5"/>
       <c r="E139" s="3"/>
@@ -28127,7 +28134,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="5"/>
     </row>
-    <row r="140" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:36">
       <c r="B140" s="3"/>
       <c r="C140" s="5"/>
       <c r="E140" s="3"/>
@@ -28153,7 +28160,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="5"/>
     </row>
-    <row r="141" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:36">
       <c r="B141" s="3"/>
       <c r="C141" s="5"/>
       <c r="E141" s="3"/>
@@ -28179,7 +28186,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="5"/>
     </row>
-    <row r="142" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:36">
       <c r="B142" s="3"/>
       <c r="C142" s="5"/>
       <c r="E142" s="3"/>
@@ -28205,7 +28212,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="5"/>
     </row>
-    <row r="143" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:36">
       <c r="B143" s="3"/>
       <c r="C143" s="5"/>
       <c r="E143" s="3"/>
@@ -28231,7 +28238,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="5"/>
     </row>
-    <row r="144" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:36">
       <c r="B144" s="3"/>
       <c r="C144" s="5"/>
       <c r="E144" s="3"/>
@@ -28257,7 +28264,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="5"/>
     </row>
-    <row r="145" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:36">
       <c r="B145" s="3"/>
       <c r="C145" s="5"/>
       <c r="E145" s="3"/>
@@ -28283,7 +28290,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="5"/>
     </row>
-    <row r="146" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:36">
       <c r="B146" s="3"/>
       <c r="C146" s="5"/>
       <c r="E146" s="3"/>
@@ -28309,7 +28316,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="5"/>
     </row>
-    <row r="147" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:36">
       <c r="B147" s="3"/>
       <c r="C147" s="5"/>
       <c r="E147" s="3"/>
@@ -28335,7 +28342,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="5"/>
     </row>
-    <row r="148" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:36">
       <c r="B148" s="3"/>
       <c r="C148" s="5"/>
       <c r="E148" s="3"/>
@@ -28361,7 +28368,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="5"/>
     </row>
-    <row r="149" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:36">
       <c r="B149" s="3"/>
       <c r="C149" s="5"/>
       <c r="E149" s="3"/>
@@ -28387,7 +28394,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="5"/>
     </row>
-    <row r="150" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:36">
       <c r="B150" s="3"/>
       <c r="C150" s="5"/>
       <c r="E150" s="3"/>
@@ -28413,7 +28420,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="5"/>
     </row>
-    <row r="151" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:36">
       <c r="B151" s="3"/>
       <c r="C151" s="5"/>
       <c r="E151" s="3"/>
@@ -28439,7 +28446,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="5"/>
     </row>
-    <row r="152" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:36">
       <c r="B152" s="3"/>
       <c r="C152" s="5"/>
       <c r="E152" s="3"/>
@@ -28465,7 +28472,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="5"/>
     </row>
-    <row r="153" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:36">
       <c r="B153" s="3"/>
       <c r="C153" s="5"/>
       <c r="E153" s="3"/>
@@ -28491,7 +28498,7 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="5"/>
     </row>
-    <row r="154" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:36">
       <c r="B154" s="3"/>
       <c r="C154" s="5"/>
       <c r="E154" s="3"/>
@@ -28517,7 +28524,7 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="5"/>
     </row>
-    <row r="155" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:36">
       <c r="B155" s="3"/>
       <c r="C155" s="5"/>
       <c r="E155" s="3"/>
@@ -28543,7 +28550,7 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="5"/>
     </row>
-    <row r="156" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:36">
       <c r="B156" s="3"/>
       <c r="C156" s="5"/>
       <c r="E156" s="3"/>
@@ -28569,7 +28576,7 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="5"/>
     </row>
-    <row r="157" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:36">
       <c r="B157" s="3"/>
       <c r="C157" s="5"/>
       <c r="E157" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF75704-C6E6-314C-8D1E-B2646FC730C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4680EC8-7E95-E14B-BC77-5901697BC03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="5840" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="-100" yWindow="11100" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2324,7 +2324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3591,7 +3591,7 @@
       <selection activeCell="C747" sqref="C747"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
@@ -3604,8 +3604,8 @@
     <col min="20" max="21" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17" thickBot="1"/>
-    <row r="2" spans="2:21" ht="17" thickBot="1">
+    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="T2" s="114"/>
       <c r="U2" s="114"/>
     </row>
-    <row r="3" spans="2:21" ht="17" thickBot="1">
+    <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="T3" s="85"/>
       <c r="U3" s="85"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="86"/>
       <c r="D4" s="5"/>
@@ -3700,7 +3700,7 @@
       <c r="T4" s="102"/>
       <c r="U4" s="102"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="86" t="s">
         <v>498</v>
@@ -3723,7 +3723,7 @@
       <c r="T5" s="102"/>
       <c r="U5" s="102"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
       <c r="C6" s="86" t="s">
         <v>44</v>
@@ -3752,7 +3752,7 @@
       <c r="T6" s="102"/>
       <c r="U6" s="102"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="T7" s="102"/>
       <c r="U7" s="102"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="T8" s="102"/>
       <c r="U8" s="102"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="T9" s="102"/>
       <c r="U9" s="102"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="T10" s="102"/>
       <c r="U10" s="102"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="T11" s="102"/>
       <c r="U11" s="102"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="T12" s="102"/>
       <c r="U12" s="102"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="T13" s="102"/>
       <c r="U13" s="102"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="T14" s="102"/>
       <c r="U14" s="102"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="T16" s="102"/>
       <c r="U16" s="102"/>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="T17" s="102"/>
       <c r="U17" s="102"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="T18" s="102"/>
       <c r="U18" s="102"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="T19" s="102"/>
       <c r="U19" s="102"/>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="T20" s="102"/>
       <c r="U20" s="102"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>15</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="T21" s="102"/>
       <c r="U21" s="102"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>16</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="T22" s="102"/>
       <c r="U22" s="102"/>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>17</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="T23" s="102"/>
       <c r="U23" s="102"/>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>18</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="T24" s="102"/>
       <c r="U24" s="102"/>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>19</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="T25" s="102"/>
       <c r="U25" s="102"/>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>20</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="T26" s="102"/>
       <c r="U26" s="102"/>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>21</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="T27" s="102"/>
       <c r="U27" s="102"/>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>22</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="T28" s="102"/>
       <c r="U28" s="102"/>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>23</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="T29" s="102"/>
       <c r="U29" s="102"/>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>24</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="T30" s="102"/>
       <c r="U30" s="102"/>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>25</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="T31" s="102"/>
       <c r="U31" s="102"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>26</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="T32" s="102"/>
       <c r="U32" s="102"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>27</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="T33" s="102"/>
       <c r="U33" s="102"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>28</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="T34" s="102"/>
       <c r="U34" s="102"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>29</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="T35" s="102"/>
       <c r="U35" s="102"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>30</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="T36" s="84"/>
       <c r="U36" s="84"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>31</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="T37" s="84"/>
       <c r="U37" s="84"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>32</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="T38" s="84"/>
       <c r="U38" s="84"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>33</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="T39" s="84"/>
       <c r="U39" s="84"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>34</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="T40" s="84"/>
       <c r="U40" s="84"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>35</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="T41" s="84"/>
       <c r="U41" s="84"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="86" t="s">
         <v>77</v>
@@ -4760,7 +4760,7 @@
       <c r="T42" s="84"/>
       <c r="U42" s="84"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>36</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="T43" s="84"/>
       <c r="U43" s="84"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>37</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="T44" s="84"/>
       <c r="U44" s="84"/>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>38</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="T45" s="84"/>
       <c r="U45" s="84"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>39</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="T46" s="84"/>
       <c r="U46" s="84"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="86" t="s">
         <v>82</v>
@@ -4901,7 +4901,7 @@
       <c r="T47" s="84"/>
       <c r="U47" s="84"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>40</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="T48" s="84"/>
       <c r="U48" s="84"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>41</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="T49" s="84"/>
       <c r="U49" s="84"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>42</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="T50" s="84"/>
       <c r="U50" s="84"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>43</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="T51" s="84"/>
       <c r="U51" s="84"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>44</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="T52" s="84"/>
       <c r="U52" s="84"/>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="86" t="s">
         <v>84</v>
@@ -5067,7 +5067,7 @@
       <c r="T53" s="84"/>
       <c r="U53" s="84"/>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>45</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="T54" s="84"/>
       <c r="U54" s="84"/>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>46</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="T55" s="84"/>
       <c r="U55" s="84"/>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>47</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="T56" s="84"/>
       <c r="U56" s="84"/>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>48</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="T57" s="84"/>
       <c r="U57" s="84"/>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>49</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="T58" s="84"/>
       <c r="U58" s="84"/>
     </row>
-    <row r="59" spans="2:21">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>50</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="T59" s="84"/>
       <c r="U59" s="84"/>
     </row>
-    <row r="60" spans="2:21">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>51</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="T60" s="84"/>
       <c r="U60" s="84"/>
     </row>
-    <row r="61" spans="2:21">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>52</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="T61" s="84"/>
       <c r="U61" s="84"/>
     </row>
-    <row r="62" spans="2:21">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>53</v>
       </c>
@@ -5316,7 +5316,7 @@
       <c r="T62" s="84"/>
       <c r="U62" s="84"/>
     </row>
-    <row r="63" spans="2:21">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="86" t="s">
         <v>84</v>
@@ -5339,7 +5339,7 @@
       <c r="T63" s="84"/>
       <c r="U63" s="84"/>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>54</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="O64" s="15"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>55</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="O65" s="15"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>56</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="O66" s="15"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>57</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="O67" s="15"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>58</v>
       </c>
@@ -5474,7 +5474,7 @@
       <c r="O68" s="15"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>59</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="O69" s="15"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>60</v>
       </c>
@@ -5520,7 +5520,7 @@
       <c r="O70" s="15"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>61</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="O71" s="15"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>62</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="O72" s="15"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>63</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="O73" s="15"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>64</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="O74" s="15"/>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>65</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="O75" s="15"/>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>66</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="O76" s="15"/>
       <c r="P76" s="17"/>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="86"/>
       <c r="D77" s="5"/>
@@ -5679,7 +5679,7 @@
       <c r="O77" s="15"/>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="86"/>
       <c r="D78" s="5"/>
@@ -5696,7 +5696,7 @@
       <c r="O78" s="15"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>67</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="O79" s="15"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>68</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="O80" s="15"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>69</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="O81" s="15"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>70</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="O82" s="15"/>
       <c r="P82" s="17"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>71</v>
       </c>
@@ -5837,7 +5837,7 @@
       <c r="O83" s="15"/>
       <c r="P83" s="17"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="86"/>
       <c r="D84" s="5"/>
@@ -5854,7 +5854,7 @@
       <c r="O84" s="15"/>
       <c r="P84" s="17"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="86"/>
       <c r="D85" s="5"/>
@@ -5871,7 +5871,7 @@
       <c r="O85" s="15"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="86"/>
       <c r="D86" s="5"/>
@@ -5888,7 +5888,7 @@
       <c r="O86" s="15"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="86"/>
       <c r="D87" s="5"/>
@@ -5905,7 +5905,7 @@
       <c r="O87" s="15"/>
       <c r="P87" s="17"/>
     </row>
-    <row r="88" spans="2:16" ht="17" thickBot="1">
+    <row r="88" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="87"/>
       <c r="C88" s="88"/>
       <c r="D88" s="6"/>
@@ -5922,10 +5922,10 @@
       <c r="O88" s="16"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="85"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
@@ -5942,7 +5942,7 @@
       <c r="O96" s="45"/>
       <c r="P96" s="45"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
@@ -5959,7 +5959,7 @@
       <c r="O97" s="45"/>
       <c r="P97" s="45"/>
     </row>
-    <row r="98" spans="2:16" ht="17" thickBot="1">
+    <row r="98" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
       <c r="D98" s="45"/>
@@ -5976,7 +5976,7 @@
       <c r="O98" s="45"/>
       <c r="P98" s="45"/>
     </row>
-    <row r="99" spans="2:16" ht="17" thickBot="1">
+    <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="O99" s="116"/>
       <c r="P99" s="117"/>
     </row>
-    <row r="100" spans="2:16" ht="17" thickBot="1">
+    <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
         <v>14</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
       <c r="D101" s="5"/>
@@ -6059,7 +6059,7 @@
       <c r="O101" s="15"/>
       <c r="P101" s="17"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
         <v>498</v>
@@ -6078,7 +6078,7 @@
       <c r="O102" s="15"/>
       <c r="P102" s="17"/>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>44</v>
@@ -6097,7 +6097,7 @@
       <c r="O103" s="15"/>
       <c r="P103" s="17"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>1</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="O104" s="15"/>
       <c r="P104" s="17"/>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>2</v>
       </c>
@@ -6155,7 +6155,7 @@
       <c r="O105" s="15"/>
       <c r="P105" s="17"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>3</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="O106" s="15"/>
       <c r="P106" s="17"/>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>4</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="O107" s="15"/>
       <c r="P107" s="17"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>5</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="O108" s="15"/>
       <c r="P108" s="17"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>6</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="O109" s="15"/>
       <c r="P109" s="17"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>7</v>
       </c>
@@ -6274,7 +6274,7 @@
       <c r="O110" s="15"/>
       <c r="P110" s="17"/>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>8</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="O111" s="15"/>
       <c r="P111" s="17"/>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>9</v>
       </c>
@@ -6320,7 +6320,7 @@
       <c r="O112" s="15"/>
       <c r="P112" s="17"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>10</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="O113" s="15"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>11</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="O114" s="15"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>12</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="O115" s="15"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>13</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="O116" s="15"/>
       <c r="P116" s="17"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>14</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="O117" s="15"/>
       <c r="P117" s="17"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>15</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="O118" s="15"/>
       <c r="P118" s="17"/>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>16</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="O119" s="15"/>
       <c r="P119" s="17"/>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>17</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="O120" s="15"/>
       <c r="P120" s="17"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>18</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="O121" s="15"/>
       <c r="P121" s="17"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <v>19</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="O122" s="15"/>
       <c r="P122" s="17"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>20</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="O123" s="15"/>
       <c r="P123" s="17"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>21</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="O124" s="15"/>
       <c r="P124" s="17"/>
     </row>
-    <row r="125" spans="2:16">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>22</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="O125" s="15"/>
       <c r="P125" s="17"/>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>23</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="O126" s="15"/>
       <c r="P126" s="17"/>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>24</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="O127" s="15"/>
       <c r="P127" s="17"/>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>25</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="O128" s="15"/>
       <c r="P128" s="17"/>
     </row>
-    <row r="129" spans="2:16">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>26</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="O129" s="15"/>
       <c r="P129" s="17"/>
     </row>
-    <row r="130" spans="2:16">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>27</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="O130" s="15"/>
       <c r="P130" s="17"/>
     </row>
-    <row r="131" spans="2:16">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>28</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="O131" s="15"/>
       <c r="P131" s="17"/>
     </row>
-    <row r="132" spans="2:16">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <v>29</v>
       </c>
@@ -6790,7 +6790,7 @@
       <c r="O132" s="15"/>
       <c r="P132" s="17"/>
     </row>
-    <row r="133" spans="2:16">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <v>30</v>
       </c>
@@ -6813,7 +6813,7 @@
       <c r="O133" s="15"/>
       <c r="P133" s="17"/>
     </row>
-    <row r="134" spans="2:16">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <v>31</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="O134" s="15"/>
       <c r="P134" s="17"/>
     </row>
-    <row r="135" spans="2:16">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <v>32</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="O135" s="15"/>
       <c r="P135" s="17"/>
     </row>
-    <row r="136" spans="2:16">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="3" t="s">
         <v>77</v>
@@ -6878,7 +6878,7 @@
       <c r="O136" s="15"/>
       <c r="P136" s="17"/>
     </row>
-    <row r="137" spans="2:16">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
         <v>33</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="O137" s="15"/>
       <c r="P137" s="17"/>
     </row>
-    <row r="138" spans="2:16">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
         <v>34</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="O138" s="15"/>
       <c r="P138" s="17"/>
     </row>
-    <row r="139" spans="2:16">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <v>35</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="O139" s="15"/>
       <c r="P139" s="17"/>
     </row>
-    <row r="140" spans="2:16">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
         <v>36</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="O140" s="15"/>
       <c r="P140" s="17"/>
     </row>
-    <row r="141" spans="2:16">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="3" t="s">
         <v>138</v>
@@ -6995,7 +6995,7 @@
       <c r="O141" s="15"/>
       <c r="P141" s="17"/>
     </row>
-    <row r="142" spans="2:16">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
         <v>37</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="O142" s="15"/>
       <c r="P142" s="17"/>
     </row>
-    <row r="143" spans="2:16">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
         <v>38</v>
       </c>
@@ -7041,7 +7041,7 @@
       <c r="O143" s="15"/>
       <c r="P143" s="17"/>
     </row>
-    <row r="144" spans="2:16">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <v>39</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="O144" s="15"/>
       <c r="P144" s="17"/>
     </row>
-    <row r="145" spans="2:16">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
         <v>40</v>
       </c>
@@ -7093,7 +7093,7 @@
       <c r="O145" s="15"/>
       <c r="P145" s="17"/>
     </row>
-    <row r="146" spans="2:16">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <v>41</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="O146" s="15"/>
       <c r="P146" s="17"/>
     </row>
-    <row r="147" spans="2:16">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <v>42</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="O147" s="15"/>
       <c r="P147" s="17"/>
     </row>
-    <row r="148" spans="2:16">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="3"/>
       <c r="D148" s="5"/>
@@ -7156,7 +7156,7 @@
       <c r="O148" s="15"/>
       <c r="P148" s="17"/>
     </row>
-    <row r="149" spans="2:16">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="3"/>
       <c r="D149" s="5"/>
@@ -7173,7 +7173,7 @@
       <c r="O149" s="15"/>
       <c r="P149" s="17"/>
     </row>
-    <row r="150" spans="2:16">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
       <c r="D150" s="5"/>
@@ -7190,7 +7190,7 @@
       <c r="O150" s="15"/>
       <c r="P150" s="17"/>
     </row>
-    <row r="151" spans="2:16">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
       <c r="D151" s="5"/>
@@ -7207,7 +7207,7 @@
       <c r="O151" s="15"/>
       <c r="P151" s="17"/>
     </row>
-    <row r="152" spans="2:16">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="3" t="s">
         <v>145</v>
@@ -7226,7 +7226,7 @@
       <c r="O152" s="15"/>
       <c r="P152" s="17"/>
     </row>
-    <row r="153" spans="2:16">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
         <v>43</v>
       </c>
@@ -7259,7 +7259,7 @@
       <c r="O153" s="15"/>
       <c r="P153" s="17"/>
     </row>
-    <row r="154" spans="2:16">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <v>44</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="O154" s="15"/>
       <c r="P154" s="17"/>
     </row>
-    <row r="155" spans="2:16">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <v>45</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="O155" s="15"/>
       <c r="P155" s="17"/>
     </row>
-    <row r="156" spans="2:16">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <v>46</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="O156" s="15"/>
       <c r="P156" s="17"/>
     </row>
-    <row r="157" spans="2:16">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <v>47</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="O157" s="15"/>
       <c r="P157" s="17"/>
     </row>
-    <row r="158" spans="2:16">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <v>48</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="O158" s="15"/>
       <c r="P158" s="17"/>
     </row>
-    <row r="159" spans="2:16">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <v>49</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="O159" s="15"/>
       <c r="P159" s="17"/>
     </row>
-    <row r="160" spans="2:16">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
         <v>50</v>
       </c>
@@ -7436,7 +7436,7 @@
       <c r="O160" s="15"/>
       <c r="P160" s="17"/>
     </row>
-    <row r="161" spans="2:16">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <v>51</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="O161" s="15"/>
       <c r="P161" s="17"/>
     </row>
-    <row r="162" spans="2:16">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <v>52</v>
       </c>
@@ -7486,7 +7486,7 @@
       <c r="O162" s="15"/>
       <c r="P162" s="17"/>
     </row>
-    <row r="163" spans="2:16">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <v>53</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="O163" s="15"/>
       <c r="P163" s="17"/>
     </row>
-    <row r="164" spans="2:16">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <v>54</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="O164" s="15"/>
       <c r="P164" s="17"/>
     </row>
-    <row r="165" spans="2:16">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <v>55</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="O165" s="15"/>
       <c r="P165" s="17"/>
     </row>
-    <row r="166" spans="2:16">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <v>56</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="O166" s="15"/>
       <c r="P166" s="17"/>
     </row>
-    <row r="167" spans="2:16">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <v>57</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="O167" s="15"/>
       <c r="P167" s="17"/>
     </row>
-    <row r="168" spans="2:16">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <v>58</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="O168" s="15"/>
       <c r="P168" s="17"/>
     </row>
-    <row r="169" spans="2:16">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <v>59</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="O169" s="15"/>
       <c r="P169" s="17"/>
     </row>
-    <row r="170" spans="2:16">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
         <v>60</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="O170" s="15"/>
       <c r="P170" s="17"/>
     </row>
-    <row r="171" spans="2:16">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
         <v>61</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="O171" s="15"/>
       <c r="P171" s="17"/>
     </row>
-    <row r="172" spans="2:16">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
         <v>62</v>
       </c>
@@ -7718,7 +7718,7 @@
       <c r="O172" s="15"/>
       <c r="P172" s="17"/>
     </row>
-    <row r="173" spans="2:16">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="3"/>
       <c r="D173" s="5"/>
@@ -7735,7 +7735,7 @@
       <c r="O173" s="15"/>
       <c r="P173" s="17"/>
     </row>
-    <row r="174" spans="2:16">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
       <c r="D174" s="5"/>
@@ -7752,7 +7752,7 @@
       <c r="O174" s="15"/>
       <c r="P174" s="17"/>
     </row>
-    <row r="175" spans="2:16">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
       <c r="D175" s="5"/>
@@ -7769,7 +7769,7 @@
       <c r="O175" s="15"/>
       <c r="P175" s="17"/>
     </row>
-    <row r="176" spans="2:16">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
       <c r="C176" s="3" t="s">
         <v>155</v>
@@ -7788,7 +7788,7 @@
       <c r="O176" s="15"/>
       <c r="P176" s="17"/>
     </row>
-    <row r="177" spans="2:16">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
         <v>63</v>
       </c>
@@ -7817,7 +7817,7 @@
       <c r="O177" s="15"/>
       <c r="P177" s="17"/>
     </row>
-    <row r="178" spans="2:16">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
         <v>64</v>
       </c>
@@ -7844,7 +7844,7 @@
       <c r="O178" s="15"/>
       <c r="P178" s="17"/>
     </row>
-    <row r="179" spans="2:16">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <v>65</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="O179" s="15"/>
       <c r="P179" s="17"/>
     </row>
-    <row r="180" spans="2:16">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
         <v>66</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="O180" s="15"/>
       <c r="P180" s="17"/>
     </row>
-    <row r="181" spans="2:16">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
         <v>67</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="O181" s="15"/>
       <c r="P181" s="17"/>
     </row>
-    <row r="182" spans="2:16">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="3"/>
       <c r="D182" s="5"/>
@@ -7930,7 +7930,7 @@
       <c r="O182" s="15"/>
       <c r="P182" s="17"/>
     </row>
-    <row r="183" spans="2:16">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
       <c r="D183" s="5"/>
@@ -7947,7 +7947,7 @@
       <c r="O183" s="15"/>
       <c r="P183" s="17"/>
     </row>
-    <row r="184" spans="2:16">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="3"/>
       <c r="D184" s="5"/>
@@ -7964,7 +7964,7 @@
       <c r="O184" s="15"/>
       <c r="P184" s="17"/>
     </row>
-    <row r="185" spans="2:16">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="3" t="s">
         <v>161</v>
@@ -7983,7 +7983,7 @@
       <c r="O185" s="15"/>
       <c r="P185" s="17"/>
     </row>
-    <row r="186" spans="2:16">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
         <v>68</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="O186" s="15"/>
       <c r="P186" s="17"/>
     </row>
-    <row r="187" spans="2:16">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
         <v>69</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="O187" s="15"/>
       <c r="P187" s="17"/>
     </row>
-    <row r="188" spans="2:16">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
         <v>70</v>
       </c>
@@ -8052,7 +8052,7 @@
       <c r="O188" s="15"/>
       <c r="P188" s="17"/>
     </row>
-    <row r="189" spans="2:16">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
       <c r="D189" s="5"/>
@@ -8069,7 +8069,7 @@
       <c r="O189" s="15"/>
       <c r="P189" s="17"/>
     </row>
-    <row r="190" spans="2:16">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="3"/>
       <c r="D190" s="5"/>
@@ -8086,7 +8086,7 @@
       <c r="O190" s="15"/>
       <c r="P190" s="17"/>
     </row>
-    <row r="191" spans="2:16">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
         <v>71</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="O191" s="15"/>
       <c r="P191" s="17"/>
     </row>
-    <row r="192" spans="2:16">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
       <c r="D192" s="5"/>
@@ -8132,7 +8132,7 @@
       <c r="O192" s="15"/>
       <c r="P192" s="17"/>
     </row>
-    <row r="193" spans="2:16">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
       <c r="D193" s="5"/>
@@ -8149,7 +8149,7 @@
       <c r="O193" s="15"/>
       <c r="P193" s="17"/>
     </row>
-    <row r="194" spans="2:16" ht="12" customHeight="1">
+    <row r="194" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
       <c r="D194" s="5"/>
@@ -8166,7 +8166,7 @@
       <c r="O194" s="15"/>
       <c r="P194" s="17"/>
     </row>
-    <row r="195" spans="2:16">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
       <c r="D195" s="5"/>
@@ -8183,7 +8183,7 @@
       <c r="O195" s="15"/>
       <c r="P195" s="17"/>
     </row>
-    <row r="196" spans="2:16">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="3"/>
       <c r="D196" s="5"/>
@@ -8200,7 +8200,7 @@
       <c r="O196" s="15"/>
       <c r="P196" s="17"/>
     </row>
-    <row r="197" spans="2:16">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="3"/>
       <c r="D197" s="5"/>
@@ -8217,7 +8217,7 @@
       <c r="O197" s="15"/>
       <c r="P197" s="17"/>
     </row>
-    <row r="198" spans="2:16">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="3"/>
       <c r="D198" s="5"/>
@@ -8234,7 +8234,7 @@
       <c r="O198" s="15"/>
       <c r="P198" s="17"/>
     </row>
-    <row r="199" spans="2:16">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
       <c r="D199" s="5"/>
@@ -8251,7 +8251,7 @@
       <c r="O199" s="15"/>
       <c r="P199" s="17"/>
     </row>
-    <row r="200" spans="2:16">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="3"/>
       <c r="D200" s="5"/>
@@ -8268,7 +8268,7 @@
       <c r="O200" s="15"/>
       <c r="P200" s="17"/>
     </row>
-    <row r="201" spans="2:16">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
       <c r="D201" s="5"/>
@@ -8285,7 +8285,7 @@
       <c r="O201" s="15"/>
       <c r="P201" s="17"/>
     </row>
-    <row r="202" spans="2:16">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
       <c r="D202" s="5"/>
@@ -8302,7 +8302,7 @@
       <c r="O202" s="15"/>
       <c r="P202" s="17"/>
     </row>
-    <row r="203" spans="2:16">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="3"/>
       <c r="D203" s="5"/>
@@ -8319,7 +8319,7 @@
       <c r="O203" s="15"/>
       <c r="P203" s="17"/>
     </row>
-    <row r="204" spans="2:16">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="3"/>
       <c r="D204" s="5"/>
@@ -8336,7 +8336,7 @@
       <c r="O204" s="15"/>
       <c r="P204" s="17"/>
     </row>
-    <row r="205" spans="2:16" ht="17" thickBot="1">
+    <row r="205" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="4"/>
       <c r="D205" s="6" t="s">
@@ -8355,7 +8355,7 @@
       <c r="O205" s="16"/>
       <c r="P205" s="18"/>
     </row>
-    <row r="206" spans="2:16">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B206" s="45"/>
       <c r="C206" s="45"/>
       <c r="D206" s="45"/>
@@ -8372,7 +8372,7 @@
       <c r="O206" s="45"/>
       <c r="P206" s="45"/>
     </row>
-    <row r="207" spans="2:16">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B207" s="45"/>
       <c r="C207" s="45"/>
       <c r="D207" s="45"/>
@@ -8389,7 +8389,7 @@
       <c r="O207" s="45"/>
       <c r="P207" s="45"/>
     </row>
-    <row r="208" spans="2:16" ht="17" thickBot="1">
+    <row r="208" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B208" s="45"/>
       <c r="C208" s="45"/>
       <c r="D208" s="45"/>
@@ -8406,7 +8406,7 @@
       <c r="O208" s="45"/>
       <c r="P208" s="45"/>
     </row>
-    <row r="209" spans="2:16" ht="17" thickBot="1">
+    <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="O209" s="116"/>
       <c r="P209" s="117"/>
     </row>
-    <row r="210" spans="2:16" ht="17" thickBot="1">
+    <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
         <v>14</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="2:16">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B211" s="19"/>
       <c r="C211" s="3"/>
       <c r="D211" s="5"/>
@@ -8489,7 +8489,7 @@
       <c r="O211" s="23"/>
       <c r="P211" s="24"/>
     </row>
-    <row r="212" spans="2:16">
+    <row r="212" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B212" s="19"/>
       <c r="C212" s="3"/>
       <c r="D212" s="5"/>
@@ -8506,7 +8506,7 @@
       <c r="O212" s="23"/>
       <c r="P212" s="24"/>
     </row>
-    <row r="213" spans="2:16">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B213" s="19"/>
       <c r="C213" s="3" t="s">
         <v>498</v>
@@ -8525,7 +8525,7 @@
       <c r="O213" s="23"/>
       <c r="P213" s="24"/>
     </row>
-    <row r="214" spans="2:16">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B214" s="19"/>
       <c r="C214" s="3" t="s">
         <v>44</v>
@@ -8544,7 +8544,7 @@
       <c r="O214" s="23"/>
       <c r="P214" s="24"/>
     </row>
-    <row r="215" spans="2:16">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B215" s="1">
         <v>1</v>
       </c>
@@ -8569,7 +8569,7 @@
       <c r="O215" s="15"/>
       <c r="P215" s="17"/>
     </row>
-    <row r="216" spans="2:16">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B216" s="1">
         <v>2</v>
       </c>
@@ -8592,7 +8592,7 @@
       <c r="O216" s="15"/>
       <c r="P216" s="17"/>
     </row>
-    <row r="217" spans="2:16">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B217" s="1">
         <v>3</v>
       </c>
@@ -8617,7 +8617,7 @@
       <c r="O217" s="15"/>
       <c r="P217" s="17"/>
     </row>
-    <row r="218" spans="2:16">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B218" s="1">
         <v>4</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="O218" s="15"/>
       <c r="P218" s="17"/>
     </row>
-    <row r="219" spans="2:16">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B219" s="1">
         <v>5</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="O219" s="15"/>
       <c r="P219" s="17"/>
     </row>
-    <row r="220" spans="2:16">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B220" s="1">
         <v>6</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="O220" s="15"/>
       <c r="P220" s="17"/>
     </row>
-    <row r="221" spans="2:16">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B221" s="1">
         <v>7</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="O221" s="15"/>
       <c r="P221" s="17"/>
     </row>
-    <row r="222" spans="2:16">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B222" s="1">
         <v>8</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="O222" s="15"/>
       <c r="P222" s="17"/>
     </row>
-    <row r="223" spans="2:16">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B223" s="1">
         <v>9</v>
       </c>
@@ -8763,7 +8763,7 @@
       <c r="O223" s="15"/>
       <c r="P223" s="17"/>
     </row>
-    <row r="224" spans="2:16">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
         <v>10</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="O224" s="15"/>
       <c r="P224" s="17"/>
     </row>
-    <row r="225" spans="2:16">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B225" s="1">
         <v>11</v>
       </c>
@@ -8813,7 +8813,7 @@
       <c r="O225" s="15"/>
       <c r="P225" s="17"/>
     </row>
-    <row r="226" spans="2:16">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
         <v>12</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="O226" s="15"/>
       <c r="P226" s="17"/>
     </row>
-    <row r="227" spans="2:16">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B227" s="1">
         <v>13</v>
       </c>
@@ -8865,7 +8865,7 @@
       <c r="O227" s="15"/>
       <c r="P227" s="17"/>
     </row>
-    <row r="228" spans="2:16">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B228" s="1">
         <v>14</v>
       </c>
@@ -8886,7 +8886,7 @@
       <c r="O228" s="15"/>
       <c r="P228" s="17"/>
     </row>
-    <row r="229" spans="2:16">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B229" s="1">
         <v>15</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="O229" s="15"/>
       <c r="P229" s="17"/>
     </row>
-    <row r="230" spans="2:16">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B230" s="1">
         <v>16</v>
       </c>
@@ -8952,7 +8952,7 @@
       <c r="O230" s="15"/>
       <c r="P230" s="17"/>
     </row>
-    <row r="231" spans="2:16">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B231" s="1">
         <v>17</v>
       </c>
@@ -8983,7 +8983,7 @@
       <c r="O231" s="15"/>
       <c r="P231" s="17"/>
     </row>
-    <row r="232" spans="2:16">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
         <v>18</v>
       </c>
@@ -9012,7 +9012,7 @@
       <c r="O232" s="15"/>
       <c r="P232" s="17"/>
     </row>
-    <row r="233" spans="2:16">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B233" s="1">
         <v>19</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="O233" s="15"/>
       <c r="P233" s="17"/>
     </row>
-    <row r="234" spans="2:16">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B234" s="1">
         <v>20</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="O234" s="15"/>
       <c r="P234" s="17"/>
     </row>
-    <row r="235" spans="2:16">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="3" t="s">
         <v>53</v>
@@ -9083,7 +9083,7 @@
       <c r="O235" s="15"/>
       <c r="P235" s="17"/>
     </row>
-    <row r="236" spans="2:16">
+    <row r="236" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B236" s="1">
         <v>21</v>
       </c>
@@ -9106,7 +9106,7 @@
       <c r="O236" s="15"/>
       <c r="P236" s="17"/>
     </row>
-    <row r="237" spans="2:16">
+    <row r="237" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B237" s="1">
         <v>22</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="O237" s="15"/>
       <c r="P237" s="17"/>
     </row>
-    <row r="238" spans="2:16">
+    <row r="238" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B238" s="1">
         <v>23</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="O238" s="15"/>
       <c r="P238" s="17"/>
     </row>
-    <row r="239" spans="2:16">
+    <row r="239" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B239" s="1">
         <v>24</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="O239" s="15"/>
       <c r="P239" s="17"/>
     </row>
-    <row r="240" spans="2:16">
+    <row r="240" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B240" s="1">
         <v>25</v>
       </c>
@@ -9198,7 +9198,7 @@
       <c r="O240" s="15"/>
       <c r="P240" s="17"/>
     </row>
-    <row r="241" spans="2:16">
+    <row r="241" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B241" s="1">
         <v>26</v>
       </c>
@@ -9221,7 +9221,7 @@
       <c r="O241" s="15"/>
       <c r="P241" s="17"/>
     </row>
-    <row r="242" spans="2:16">
+    <row r="242" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B242" s="1">
         <v>27</v>
       </c>
@@ -9244,7 +9244,7 @@
       <c r="O242" s="15"/>
       <c r="P242" s="17"/>
     </row>
-    <row r="243" spans="2:16">
+    <row r="243" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B243" s="1">
         <v>28</v>
       </c>
@@ -9273,7 +9273,7 @@
       <c r="O243" s="15"/>
       <c r="P243" s="17"/>
     </row>
-    <row r="244" spans="2:16">
+    <row r="244" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B244" s="1">
         <v>29</v>
       </c>
@@ -9296,7 +9296,7 @@
       <c r="O244" s="15"/>
       <c r="P244" s="17"/>
     </row>
-    <row r="245" spans="2:16">
+    <row r="245" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B245" s="1">
         <v>30</v>
       </c>
@@ -9319,7 +9319,7 @@
       <c r="O245" s="15"/>
       <c r="P245" s="17"/>
     </row>
-    <row r="246" spans="2:16">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B246" s="1">
         <v>31</v>
       </c>
@@ -9346,7 +9346,7 @@
       <c r="O246" s="15"/>
       <c r="P246" s="17"/>
     </row>
-    <row r="247" spans="2:16">
+    <row r="247" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B247" s="1">
         <v>32</v>
       </c>
@@ -9369,7 +9369,7 @@
       <c r="O247" s="15"/>
       <c r="P247" s="17"/>
     </row>
-    <row r="248" spans="2:16">
+    <row r="248" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B248" s="1">
         <v>33</v>
       </c>
@@ -9392,7 +9392,7 @@
       <c r="O248" s="15"/>
       <c r="P248" s="17"/>
     </row>
-    <row r="249" spans="2:16">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B249" s="1">
         <v>34</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="O249" s="15"/>
       <c r="P249" s="17"/>
     </row>
-    <row r="250" spans="2:16">
+    <row r="250" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B250" s="1">
         <v>35</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="O250" s="15"/>
       <c r="P250" s="17"/>
     </row>
-    <row r="251" spans="2:16">
+    <row r="251" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B251" s="1">
         <v>36</v>
       </c>
@@ -9461,7 +9461,7 @@
       <c r="O251" s="15"/>
       <c r="P251" s="17"/>
     </row>
-    <row r="252" spans="2:16">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B252" s="1">
         <v>37</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="O252" s="15"/>
       <c r="P252" s="17"/>
     </row>
-    <row r="253" spans="2:16">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B253" s="1">
         <v>38</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="O253" s="15"/>
       <c r="P253" s="17"/>
     </row>
-    <row r="254" spans="2:16">
+    <row r="254" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B254" s="1">
         <v>39</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="O254" s="15"/>
       <c r="P254" s="17"/>
     </row>
-    <row r="255" spans="2:16">
+    <row r="255" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B255" s="1">
         <v>40</v>
       </c>
@@ -9553,7 +9553,7 @@
       <c r="O255" s="15"/>
       <c r="P255" s="17"/>
     </row>
-    <row r="256" spans="2:16">
+    <row r="256" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B256" s="1">
         <v>41</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="O256" s="15"/>
       <c r="P256" s="17"/>
     </row>
-    <row r="257" spans="2:16">
+    <row r="257" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="3"/>
       <c r="D257" s="5"/>
@@ -9593,7 +9593,7 @@
       <c r="O257" s="15"/>
       <c r="P257" s="17"/>
     </row>
-    <row r="258" spans="2:16">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B258" s="1">
         <v>42</v>
       </c>
@@ -9622,7 +9622,7 @@
       <c r="O258" s="15"/>
       <c r="P258" s="17"/>
     </row>
-    <row r="259" spans="2:16">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B259" s="1">
         <v>43</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="O259" s="15"/>
       <c r="P259" s="17"/>
     </row>
-    <row r="260" spans="2:16">
+    <row r="260" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B260" s="1">
         <v>44</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="O260" s="15"/>
       <c r="P260" s="17"/>
     </row>
-    <row r="261" spans="2:16">
+    <row r="261" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
       <c r="C261" s="3"/>
       <c r="D261" s="5"/>
@@ -9699,7 +9699,7 @@
       <c r="O261" s="15"/>
       <c r="P261" s="17"/>
     </row>
-    <row r="262" spans="2:16">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B262" s="1"/>
       <c r="C262" s="3"/>
       <c r="D262" s="5"/>
@@ -9716,7 +9716,7 @@
       <c r="O262" s="15"/>
       <c r="P262" s="17"/>
     </row>
-    <row r="263" spans="2:16">
+    <row r="263" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
       <c r="C263" s="3"/>
       <c r="D263" s="5"/>
@@ -9733,7 +9733,7 @@
       <c r="O263" s="15"/>
       <c r="P263" s="17"/>
     </row>
-    <row r="264" spans="2:16">
+    <row r="264" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B264" s="1"/>
       <c r="C264" s="3"/>
       <c r="D264" s="5"/>
@@ -9750,7 +9750,7 @@
       <c r="O264" s="15"/>
       <c r="P264" s="17"/>
     </row>
-    <row r="265" spans="2:16">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
       <c r="C265" s="3"/>
       <c r="D265" s="5"/>
@@ -9767,7 +9767,7 @@
       <c r="O265" s="15"/>
       <c r="P265" s="17"/>
     </row>
-    <row r="266" spans="2:16">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B266" s="1"/>
       <c r="C266" s="3"/>
       <c r="D266" s="5"/>
@@ -9784,7 +9784,7 @@
       <c r="O266" s="15"/>
       <c r="P266" s="17"/>
     </row>
-    <row r="267" spans="2:16">
+    <row r="267" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
       <c r="C267" s="3"/>
       <c r="D267" s="5"/>
@@ -9801,7 +9801,7 @@
       <c r="O267" s="15"/>
       <c r="P267" s="17"/>
     </row>
-    <row r="268" spans="2:16">
+    <row r="268" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
       <c r="C268" s="3"/>
       <c r="D268" s="5"/>
@@ -9818,7 +9818,7 @@
       <c r="O268" s="15"/>
       <c r="P268" s="17"/>
     </row>
-    <row r="269" spans="2:16">
+    <row r="269" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B269" s="1"/>
       <c r="C269" s="3"/>
       <c r="D269" s="5"/>
@@ -9835,7 +9835,7 @@
       <c r="O269" s="15"/>
       <c r="P269" s="17"/>
     </row>
-    <row r="270" spans="2:16" ht="17" thickBot="1">
+    <row r="270" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="4"/>
       <c r="D270" s="6"/>
@@ -9852,7 +9852,7 @@
       <c r="O270" s="16"/>
       <c r="P270" s="18"/>
     </row>
-    <row r="271" spans="2:16">
+    <row r="271" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B271" s="45"/>
       <c r="C271" s="45"/>
       <c r="D271" s="45"/>
@@ -9869,7 +9869,7 @@
       <c r="O271" s="45"/>
       <c r="P271" s="45"/>
     </row>
-    <row r="272" spans="2:16">
+    <row r="272" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B272" s="45"/>
       <c r="C272" s="45"/>
       <c r="D272" s="45"/>
@@ -9886,7 +9886,7 @@
       <c r="O272" s="45"/>
       <c r="P272" s="45"/>
     </row>
-    <row r="273" spans="2:16" ht="17" thickBot="1">
+    <row r="273" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B273" s="45"/>
       <c r="C273" s="45"/>
       <c r="D273" s="45"/>
@@ -9903,7 +9903,7 @@
       <c r="O273" s="45"/>
       <c r="P273" s="45"/>
     </row>
-    <row r="274" spans="2:16" ht="17" thickBot="1">
+    <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="O274" s="116"/>
       <c r="P274" s="117"/>
     </row>
-    <row r="275" spans="2:16" ht="17" thickBot="1">
+    <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
         <v>14</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="2:16">
+    <row r="276" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B276" s="19"/>
       <c r="C276" s="3"/>
       <c r="D276" s="5"/>
@@ -9986,7 +9986,7 @@
       <c r="O276" s="23"/>
       <c r="P276" s="24"/>
     </row>
-    <row r="277" spans="2:16">
+    <row r="277" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B277" s="19"/>
       <c r="C277" s="3" t="s">
         <v>498</v>
@@ -10005,7 +10005,7 @@
       <c r="O277" s="23"/>
       <c r="P277" s="24"/>
     </row>
-    <row r="278" spans="2:16">
+    <row r="278" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B278" s="19"/>
       <c r="C278" s="3" t="s">
         <v>44</v>
@@ -10024,7 +10024,7 @@
       <c r="O278" s="23"/>
       <c r="P278" s="24"/>
     </row>
-    <row r="279" spans="2:16">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B279" s="1">
         <v>1</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="O279" s="15"/>
       <c r="P279" s="17"/>
     </row>
-    <row r="280" spans="2:16">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B280" s="1">
         <v>2</v>
       </c>
@@ -10090,7 +10090,7 @@
       <c r="O280" s="15"/>
       <c r="P280" s="17"/>
     </row>
-    <row r="281" spans="2:16">
+    <row r="281" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B281" s="1">
         <v>3</v>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="O281" s="15"/>
       <c r="P281" s="17"/>
     </row>
-    <row r="282" spans="2:16">
+    <row r="282" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B282" s="1">
         <v>4</v>
       </c>
@@ -10156,7 +10156,7 @@
       <c r="O282" s="15"/>
       <c r="P282" s="17"/>
     </row>
-    <row r="283" spans="2:16">
+    <row r="283" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B283" s="1"/>
       <c r="C283" s="3" t="s">
         <v>208</v>
@@ -10175,7 +10175,7 @@
       <c r="O283" s="15"/>
       <c r="P283" s="17"/>
     </row>
-    <row r="284" spans="2:16">
+    <row r="284" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B284" s="1">
         <v>5</v>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="O284" s="15"/>
       <c r="P284" s="17"/>
     </row>
-    <row r="285" spans="2:16">
+    <row r="285" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B285" s="1">
         <v>6</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="O285" s="15"/>
       <c r="P285" s="17"/>
     </row>
-    <row r="286" spans="2:16">
+    <row r="286" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B286" s="1">
         <v>7</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="O286" s="15"/>
       <c r="P286" s="17"/>
     </row>
-    <row r="287" spans="2:16">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B287" s="1">
         <v>8</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="O287" s="15"/>
       <c r="P287" s="17"/>
     </row>
-    <row r="288" spans="2:16">
+    <row r="288" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B288" s="1">
         <v>9</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="O288" s="15"/>
       <c r="P288" s="17"/>
     </row>
-    <row r="289" spans="2:16">
+    <row r="289" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B289" s="1">
         <v>10</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="O289" s="15"/>
       <c r="P289" s="17"/>
     </row>
-    <row r="290" spans="2:16">
+    <row r="290" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B290" s="1">
         <v>11</v>
       </c>
@@ -10348,7 +10348,7 @@
       <c r="O290" s="15"/>
       <c r="P290" s="17"/>
     </row>
-    <row r="291" spans="2:16">
+    <row r="291" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B291" s="1">
         <v>12</v>
       </c>
@@ -10371,7 +10371,7 @@
       <c r="O291" s="15"/>
       <c r="P291" s="17"/>
     </row>
-    <row r="292" spans="2:16">
+    <row r="292" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B292" s="1">
         <v>13</v>
       </c>
@@ -10402,7 +10402,7 @@
       <c r="O292" s="15"/>
       <c r="P292" s="17"/>
     </row>
-    <row r="293" spans="2:16">
+    <row r="293" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B293" s="1"/>
       <c r="C293" s="3" t="s">
         <v>208</v>
@@ -10421,7 +10421,7 @@
       <c r="O293" s="15"/>
       <c r="P293" s="17"/>
     </row>
-    <row r="294" spans="2:16">
+    <row r="294" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B294" s="1">
         <v>14</v>
       </c>
@@ -10458,7 +10458,7 @@
       <c r="O294" s="15"/>
       <c r="P294" s="17"/>
     </row>
-    <row r="295" spans="2:16">
+    <row r="295" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B295" s="1">
         <v>15</v>
       </c>
@@ -10491,7 +10491,7 @@
       <c r="O295" s="15"/>
       <c r="P295" s="17"/>
     </row>
-    <row r="296" spans="2:16">
+    <row r="296" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B296" s="1">
         <v>16</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="O296" s="15"/>
       <c r="P296" s="17"/>
     </row>
-    <row r="297" spans="2:16">
+    <row r="297" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B297" s="1">
         <v>17</v>
       </c>
@@ -10537,7 +10537,7 @@
       <c r="O297" s="15"/>
       <c r="P297" s="17"/>
     </row>
-    <row r="298" spans="2:16">
+    <row r="298" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B298" s="1">
         <v>18</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="O298" s="15"/>
       <c r="P298" s="17"/>
     </row>
-    <row r="299" spans="2:16">
+    <row r="299" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B299" s="1">
         <v>19</v>
       </c>
@@ -10583,7 +10583,7 @@
       <c r="O299" s="15"/>
       <c r="P299" s="17"/>
     </row>
-    <row r="300" spans="2:16">
+    <row r="300" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B300" s="1"/>
       <c r="C300" s="3" t="s">
         <v>224</v>
@@ -10602,7 +10602,7 @@
       <c r="O300" s="15"/>
       <c r="P300" s="17"/>
     </row>
-    <row r="301" spans="2:16">
+    <row r="301" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B301" s="1">
         <v>20</v>
       </c>
@@ -10631,7 +10631,7 @@
       <c r="O301" s="15"/>
       <c r="P301" s="17"/>
     </row>
-    <row r="302" spans="2:16">
+    <row r="302" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B302" s="1">
         <v>21</v>
       </c>
@@ -10654,7 +10654,7 @@
       <c r="O302" s="15"/>
       <c r="P302" s="17"/>
     </row>
-    <row r="303" spans="2:16">
+    <row r="303" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B303" s="1">
         <v>22</v>
       </c>
@@ -10677,7 +10677,7 @@
       <c r="O303" s="15"/>
       <c r="P303" s="17"/>
     </row>
-    <row r="304" spans="2:16">
+    <row r="304" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B304" s="1"/>
       <c r="C304" s="3" t="s">
         <v>228</v>
@@ -10696,7 +10696,7 @@
       <c r="O304" s="15"/>
       <c r="P304" s="17"/>
     </row>
-    <row r="305" spans="2:16">
+    <row r="305" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B305" s="1">
         <v>23</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="O305" s="15"/>
       <c r="P305" s="17"/>
     </row>
-    <row r="306" spans="2:16">
+    <row r="306" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B306" s="1">
         <v>24</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="O306" s="15"/>
       <c r="P306" s="17"/>
     </row>
-    <row r="307" spans="2:16">
+    <row r="307" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B307" s="1">
         <v>25</v>
       </c>
@@ -10791,7 +10791,7 @@
       <c r="O307" s="15"/>
       <c r="P307" s="17"/>
     </row>
-    <row r="308" spans="2:16">
+    <row r="308" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B308" s="1">
         <v>26</v>
       </c>
@@ -10814,7 +10814,7 @@
       <c r="O308" s="15"/>
       <c r="P308" s="17"/>
     </row>
-    <row r="309" spans="2:16">
+    <row r="309" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B309" s="1">
         <v>27</v>
       </c>
@@ -10837,7 +10837,7 @@
       <c r="O309" s="15"/>
       <c r="P309" s="17"/>
     </row>
-    <row r="310" spans="2:16">
+    <row r="310" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B310" s="1">
         <v>28</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="O310" s="15"/>
       <c r="P310" s="17"/>
     </row>
-    <row r="311" spans="2:16">
+    <row r="311" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B311" s="1">
         <v>29</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="O311" s="15"/>
       <c r="P311" s="17"/>
     </row>
-    <row r="312" spans="2:16">
+    <row r="312" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B312" s="1">
         <v>30</v>
       </c>
@@ -10922,7 +10922,7 @@
       <c r="O312" s="15"/>
       <c r="P312" s="17"/>
     </row>
-    <row r="313" spans="2:16">
+    <row r="313" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B313" s="1">
         <v>31</v>
       </c>
@@ -10945,7 +10945,7 @@
       <c r="O313" s="15"/>
       <c r="P313" s="17"/>
     </row>
-    <row r="314" spans="2:16">
+    <row r="314" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B314" s="1">
         <v>32</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="O314" s="15"/>
       <c r="P314" s="17"/>
     </row>
-    <row r="315" spans="2:16">
+    <row r="315" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B315" s="1">
         <v>33</v>
       </c>
@@ -10991,7 +10991,7 @@
       <c r="O315" s="15"/>
       <c r="P315" s="17"/>
     </row>
-    <row r="316" spans="2:16">
+    <row r="316" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B316" s="1">
         <v>34</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="O316" s="15"/>
       <c r="P316" s="17"/>
     </row>
-    <row r="317" spans="2:16">
+    <row r="317" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B317" s="1"/>
       <c r="C317" s="3" t="s">
         <v>241</v>
@@ -11033,7 +11033,7 @@
       <c r="O317" s="15"/>
       <c r="P317" s="17"/>
     </row>
-    <row r="318" spans="2:16">
+    <row r="318" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B318" s="1">
         <v>35</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="O318" s="15"/>
       <c r="P318" s="17"/>
     </row>
-    <row r="319" spans="2:16">
+    <row r="319" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B319" s="1">
         <v>36</v>
       </c>
@@ -11087,7 +11087,7 @@
       <c r="O319" s="15"/>
       <c r="P319" s="17"/>
     </row>
-    <row r="320" spans="2:16">
+    <row r="320" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B320" s="1">
         <v>37</v>
       </c>
@@ -11110,7 +11110,7 @@
       <c r="O320" s="15"/>
       <c r="P320" s="17"/>
     </row>
-    <row r="321" spans="2:16">
+    <row r="321" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B321" s="1">
         <v>38</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="O321" s="15"/>
       <c r="P321" s="17"/>
     </row>
-    <row r="322" spans="2:16">
+    <row r="322" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B322" s="1">
         <v>39</v>
       </c>
@@ -11156,7 +11156,7 @@
       <c r="O322" s="15"/>
       <c r="P322" s="17"/>
     </row>
-    <row r="323" spans="2:16">
+    <row r="323" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B323" s="1">
         <v>40</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="O323" s="15"/>
       <c r="P323" s="17"/>
     </row>
-    <row r="324" spans="2:16">
+    <row r="324" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B324" s="1">
         <v>41</v>
       </c>
@@ -11202,7 +11202,7 @@
       <c r="O324" s="15"/>
       <c r="P324" s="17"/>
     </row>
-    <row r="325" spans="2:16">
+    <row r="325" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B325" s="1">
         <v>42</v>
       </c>
@@ -11225,7 +11225,7 @@
       <c r="O325" s="15"/>
       <c r="P325" s="17"/>
     </row>
-    <row r="326" spans="2:16">
+    <row r="326" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B326" s="1">
         <v>43</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="O326" s="15"/>
       <c r="P326" s="17"/>
     </row>
-    <row r="327" spans="2:16">
+    <row r="327" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B327" s="1">
         <v>44</v>
       </c>
@@ -11271,7 +11271,7 @@
       <c r="O327" s="15"/>
       <c r="P327" s="17"/>
     </row>
-    <row r="328" spans="2:16">
+    <row r="328" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B328" s="1">
         <v>45</v>
       </c>
@@ -11294,7 +11294,7 @@
       <c r="O328" s="15"/>
       <c r="P328" s="17"/>
     </row>
-    <row r="329" spans="2:16">
+    <row r="329" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B329" s="1">
         <v>46</v>
       </c>
@@ -11317,7 +11317,7 @@
       <c r="O329" s="15"/>
       <c r="P329" s="17"/>
     </row>
-    <row r="330" spans="2:16">
+    <row r="330" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B330" s="1">
         <v>47</v>
       </c>
@@ -11340,7 +11340,7 @@
       <c r="O330" s="15"/>
       <c r="P330" s="17"/>
     </row>
-    <row r="331" spans="2:16">
+    <row r="331" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B331" s="1"/>
       <c r="C331" s="3"/>
       <c r="D331" s="5"/>
@@ -11357,7 +11357,7 @@
       <c r="O331" s="15"/>
       <c r="P331" s="17"/>
     </row>
-    <row r="332" spans="2:16">
+    <row r="332" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B332" s="1">
         <v>48</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="O332" s="15"/>
       <c r="P332" s="17"/>
     </row>
-    <row r="333" spans="2:16">
+    <row r="333" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B333" s="1">
         <v>49</v>
       </c>
@@ -11415,7 +11415,7 @@
       <c r="O333" s="15"/>
       <c r="P333" s="17"/>
     </row>
-    <row r="334" spans="2:16">
+    <row r="334" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B334" s="1">
         <v>50</v>
       </c>
@@ -11442,7 +11442,7 @@
       <c r="O334" s="15"/>
       <c r="P334" s="17"/>
     </row>
-    <row r="335" spans="2:16">
+    <row r="335" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B335" s="1">
         <v>51</v>
       </c>
@@ -11471,7 +11471,7 @@
       <c r="O335" s="15"/>
       <c r="P335" s="17"/>
     </row>
-    <row r="336" spans="2:16">
+    <row r="336" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B336" s="1"/>
       <c r="C336" s="3"/>
       <c r="D336" s="5"/>
@@ -11488,7 +11488,7 @@
       <c r="O336" s="15"/>
       <c r="P336" s="17"/>
     </row>
-    <row r="337" spans="2:16">
+    <row r="337" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B337" s="1"/>
       <c r="C337" s="3"/>
       <c r="D337" s="5"/>
@@ -11505,7 +11505,7 @@
       <c r="O337" s="15"/>
       <c r="P337" s="17"/>
     </row>
-    <row r="338" spans="2:16">
+    <row r="338" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B338" s="1"/>
       <c r="C338" s="3"/>
       <c r="D338" s="5"/>
@@ -11522,7 +11522,7 @@
       <c r="O338" s="15"/>
       <c r="P338" s="17"/>
     </row>
-    <row r="339" spans="2:16">
+    <row r="339" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B339" s="1"/>
       <c r="C339" s="3"/>
       <c r="D339" s="5"/>
@@ -11539,7 +11539,7 @@
       <c r="O339" s="15"/>
       <c r="P339" s="17"/>
     </row>
-    <row r="340" spans="2:16">
+    <row r="340" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B340" s="1"/>
       <c r="C340" s="3"/>
       <c r="D340" s="5"/>
@@ -11556,7 +11556,7 @@
       <c r="O340" s="15"/>
       <c r="P340" s="17"/>
     </row>
-    <row r="341" spans="2:16">
+    <row r="341" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B341" s="1"/>
       <c r="C341" s="3"/>
       <c r="D341" s="5"/>
@@ -11573,7 +11573,7 @@
       <c r="O341" s="15"/>
       <c r="P341" s="17"/>
     </row>
-    <row r="342" spans="2:16">
+    <row r="342" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B342" s="1"/>
       <c r="C342" s="3"/>
       <c r="D342" s="5"/>
@@ -11590,7 +11590,7 @@
       <c r="O342" s="15"/>
       <c r="P342" s="17"/>
     </row>
-    <row r="343" spans="2:16">
+    <row r="343" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B343" s="1"/>
       <c r="C343" s="3"/>
       <c r="D343" s="5"/>
@@ -11607,7 +11607,7 @@
       <c r="O343" s="15"/>
       <c r="P343" s="17"/>
     </row>
-    <row r="344" spans="2:16">
+    <row r="344" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B344" s="1"/>
       <c r="C344" s="3"/>
       <c r="D344" s="5"/>
@@ -11624,7 +11624,7 @@
       <c r="O344" s="15"/>
       <c r="P344" s="17"/>
     </row>
-    <row r="345" spans="2:16">
+    <row r="345" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B345" s="1"/>
       <c r="C345" s="3"/>
       <c r="D345" s="5"/>
@@ -11641,7 +11641,7 @@
       <c r="O345" s="15"/>
       <c r="P345" s="17"/>
     </row>
-    <row r="346" spans="2:16">
+    <row r="346" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B346" s="1"/>
       <c r="C346" s="3"/>
       <c r="D346" s="5"/>
@@ -11658,7 +11658,7 @@
       <c r="O346" s="15"/>
       <c r="P346" s="17"/>
     </row>
-    <row r="347" spans="2:16">
+    <row r="347" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B347" s="1"/>
       <c r="C347" s="3"/>
       <c r="D347" s="5"/>
@@ -11675,7 +11675,7 @@
       <c r="O347" s="15"/>
       <c r="P347" s="17"/>
     </row>
-    <row r="348" spans="2:16">
+    <row r="348" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B348" s="1"/>
       <c r="C348" s="3"/>
       <c r="D348" s="5"/>
@@ -11692,7 +11692,7 @@
       <c r="O348" s="15"/>
       <c r="P348" s="17"/>
     </row>
-    <row r="349" spans="2:16">
+    <row r="349" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B349" s="1"/>
       <c r="C349" s="3"/>
       <c r="D349" s="5"/>
@@ -11709,7 +11709,7 @@
       <c r="O349" s="15"/>
       <c r="P349" s="17"/>
     </row>
-    <row r="350" spans="2:16">
+    <row r="350" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B350" s="1"/>
       <c r="C350" s="3"/>
       <c r="D350" s="5"/>
@@ -11726,7 +11726,7 @@
       <c r="O350" s="15"/>
       <c r="P350" s="17"/>
     </row>
-    <row r="351" spans="2:16">
+    <row r="351" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B351" s="1"/>
       <c r="C351" s="3"/>
       <c r="D351" s="5"/>
@@ -11743,7 +11743,7 @@
       <c r="O351" s="15"/>
       <c r="P351" s="17"/>
     </row>
-    <row r="352" spans="2:16">
+    <row r="352" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B352" s="1"/>
       <c r="C352" s="3"/>
       <c r="D352" s="5"/>
@@ -11760,7 +11760,7 @@
       <c r="O352" s="15"/>
       <c r="P352" s="17"/>
     </row>
-    <row r="353" spans="2:16">
+    <row r="353" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B353" s="1"/>
       <c r="C353" s="3"/>
       <c r="D353" s="5"/>
@@ -11777,7 +11777,7 @@
       <c r="O353" s="15"/>
       <c r="P353" s="17"/>
     </row>
-    <row r="354" spans="2:16">
+    <row r="354" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="3"/>
       <c r="D354" s="5"/>
@@ -11794,7 +11794,7 @@
       <c r="O354" s="15"/>
       <c r="P354" s="17"/>
     </row>
-    <row r="355" spans="2:16">
+    <row r="355" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B355" s="1"/>
       <c r="C355" s="3"/>
       <c r="D355" s="5"/>
@@ -11811,7 +11811,7 @@
       <c r="O355" s="15"/>
       <c r="P355" s="17"/>
     </row>
-    <row r="356" spans="2:16">
+    <row r="356" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B356" s="1"/>
       <c r="C356" s="3"/>
       <c r="D356" s="5"/>
@@ -11828,7 +11828,7 @@
       <c r="O356" s="15"/>
       <c r="P356" s="17"/>
     </row>
-    <row r="357" spans="2:16">
+    <row r="357" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B357" s="1"/>
       <c r="C357" s="3"/>
       <c r="D357" s="5"/>
@@ -11845,7 +11845,7 @@
       <c r="O357" s="15"/>
       <c r="P357" s="17"/>
     </row>
-    <row r="358" spans="2:16" ht="17" thickBot="1">
+    <row r="358" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="C358" s="4"/>
       <c r="D358" s="6"/>
@@ -11862,7 +11862,7 @@
       <c r="O358" s="16"/>
       <c r="P358" s="18"/>
     </row>
-    <row r="359" spans="2:16">
+    <row r="359" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B359" s="85"/>
       <c r="C359" s="85"/>
       <c r="D359" s="89"/>
@@ -11879,7 +11879,7 @@
       <c r="O359" s="85"/>
       <c r="P359" s="85"/>
     </row>
-    <row r="360" spans="2:16">
+    <row r="360" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B360" s="85"/>
       <c r="C360" s="85"/>
       <c r="D360" s="89"/>
@@ -11896,7 +11896,7 @@
       <c r="O360" s="85"/>
       <c r="P360" s="85"/>
     </row>
-    <row r="361" spans="2:16">
+    <row r="361" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B361" s="45"/>
       <c r="C361" s="45"/>
       <c r="D361" s="45"/>
@@ -11913,7 +11913,7 @@
       <c r="O361" s="45"/>
       <c r="P361" s="45"/>
     </row>
-    <row r="362" spans="2:16">
+    <row r="362" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B362" s="45"/>
       <c r="C362" s="45"/>
       <c r="D362" s="45"/>
@@ -11930,7 +11930,7 @@
       <c r="O362" s="45"/>
       <c r="P362" s="45"/>
     </row>
-    <row r="363" spans="2:16" ht="17" thickBot="1">
+    <row r="363" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B363" s="45"/>
       <c r="C363" s="45"/>
       <c r="D363" s="45"/>
@@ -11947,7 +11947,7 @@
       <c r="O363" s="45"/>
       <c r="P363" s="45"/>
     </row>
-    <row r="364" spans="2:16" ht="17" thickBot="1">
+    <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
@@ -11966,7 +11966,7 @@
       <c r="O364" s="116"/>
       <c r="P364" s="117"/>
     </row>
-    <row r="365" spans="2:16" ht="17" thickBot="1">
+    <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
         <v>14</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="2:16">
+    <row r="366" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B366" s="19"/>
       <c r="C366" s="3"/>
       <c r="D366" s="5"/>
@@ -12030,7 +12030,7 @@
       <c r="O366" s="23"/>
       <c r="P366" s="24"/>
     </row>
-    <row r="367" spans="2:16">
+    <row r="367" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B367" s="19"/>
       <c r="C367" s="3" t="s">
         <v>498</v>
@@ -12049,7 +12049,7 @@
       <c r="O367" s="23"/>
       <c r="P367" s="24"/>
     </row>
-    <row r="368" spans="2:16">
+    <row r="368" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B368" s="19">
         <v>1</v>
       </c>
@@ -12086,7 +12086,7 @@
       <c r="O368" s="23"/>
       <c r="P368" s="24"/>
     </row>
-    <row r="369" spans="2:16">
+    <row r="369" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B369" s="1">
         <v>2</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="O369" s="15"/>
       <c r="P369" s="17"/>
     </row>
-    <row r="370" spans="2:16">
+    <row r="370" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B370" s="19">
         <v>3</v>
       </c>
@@ -12154,7 +12154,7 @@
       <c r="O370" s="15"/>
       <c r="P370" s="17"/>
     </row>
-    <row r="371" spans="2:16">
+    <row r="371" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B371" s="1">
         <v>4</v>
       </c>
@@ -12187,7 +12187,7 @@
       <c r="O371" s="15"/>
       <c r="P371" s="17"/>
     </row>
-    <row r="372" spans="2:16">
+    <row r="372" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B372" s="19">
         <v>5</v>
       </c>
@@ -12220,7 +12220,7 @@
       <c r="O372" s="15"/>
       <c r="P372" s="17"/>
     </row>
-    <row r="373" spans="2:16">
+    <row r="373" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B373" s="1">
         <v>6</v>
       </c>
@@ -12253,7 +12253,7 @@
       <c r="O373" s="15"/>
       <c r="P373" s="17"/>
     </row>
-    <row r="374" spans="2:16">
+    <row r="374" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B374" s="19">
         <v>7</v>
       </c>
@@ -12284,7 +12284,7 @@
       <c r="O374" s="15"/>
       <c r="P374" s="17"/>
     </row>
-    <row r="375" spans="2:16">
+    <row r="375" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B375" s="1">
         <v>8</v>
       </c>
@@ -12307,7 +12307,7 @@
       <c r="O375" s="15"/>
       <c r="P375" s="17"/>
     </row>
-    <row r="376" spans="2:16">
+    <row r="376" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B376" s="19">
         <v>9</v>
       </c>
@@ -12342,7 +12342,7 @@
       <c r="O376" s="15"/>
       <c r="P376" s="17"/>
     </row>
-    <row r="377" spans="2:16">
+    <row r="377" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B377" s="1">
         <v>10</v>
       </c>
@@ -12377,7 +12377,7 @@
       <c r="O377" s="15"/>
       <c r="P377" s="17"/>
     </row>
-    <row r="378" spans="2:16">
+    <row r="378" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B378" s="19">
         <v>11</v>
       </c>
@@ -12400,7 +12400,7 @@
       <c r="O378" s="15"/>
       <c r="P378" s="17"/>
     </row>
-    <row r="379" spans="2:16">
+    <row r="379" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B379" s="1">
         <v>12</v>
       </c>
@@ -12425,7 +12425,7 @@
       <c r="O379" s="15"/>
       <c r="P379" s="17"/>
     </row>
-    <row r="380" spans="2:16">
+    <row r="380" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B380" s="19">
         <v>13</v>
       </c>
@@ -12448,7 +12448,7 @@
       <c r="O380" s="15"/>
       <c r="P380" s="17"/>
     </row>
-    <row r="381" spans="2:16">
+    <row r="381" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B381" s="1">
         <v>14</v>
       </c>
@@ -12471,7 +12471,7 @@
       <c r="O381" s="15"/>
       <c r="P381" s="17"/>
     </row>
-    <row r="382" spans="2:16">
+    <row r="382" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B382" s="19">
         <v>15</v>
       </c>
@@ -12494,7 +12494,7 @@
       <c r="O382" s="15"/>
       <c r="P382" s="17"/>
     </row>
-    <row r="383" spans="2:16">
+    <row r="383" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B383" s="1">
         <v>16</v>
       </c>
@@ -12517,7 +12517,7 @@
       <c r="O383" s="15"/>
       <c r="P383" s="17"/>
     </row>
-    <row r="384" spans="2:16">
+    <row r="384" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B384" s="19">
         <v>17</v>
       </c>
@@ -12540,7 +12540,7 @@
       <c r="O384" s="15"/>
       <c r="P384" s="17"/>
     </row>
-    <row r="385" spans="2:16">
+    <row r="385" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B385" s="1">
         <v>18</v>
       </c>
@@ -12563,7 +12563,7 @@
       <c r="O385" s="15"/>
       <c r="P385" s="17"/>
     </row>
-    <row r="386" spans="2:16">
+    <row r="386" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B386" s="19">
         <v>19</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="O386" s="15"/>
       <c r="P386" s="17"/>
     </row>
-    <row r="387" spans="2:16">
+    <row r="387" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B387" s="1"/>
       <c r="C387" s="3"/>
       <c r="D387" s="5"/>
@@ -12603,7 +12603,7 @@
       <c r="O387" s="15"/>
       <c r="P387" s="17"/>
     </row>
-    <row r="388" spans="2:16">
+    <row r="388" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B388" s="1"/>
       <c r="C388" s="3"/>
       <c r="D388" s="5"/>
@@ -12620,7 +12620,7 @@
       <c r="O388" s="15"/>
       <c r="P388" s="17"/>
     </row>
-    <row r="389" spans="2:16">
+    <row r="389" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B389" s="1"/>
       <c r="C389" s="3"/>
       <c r="D389" s="5"/>
@@ -12637,7 +12637,7 @@
       <c r="O389" s="15"/>
       <c r="P389" s="17"/>
     </row>
-    <row r="390" spans="2:16">
+    <row r="390" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B390" s="1"/>
       <c r="C390" s="3"/>
       <c r="D390" s="5"/>
@@ -12654,7 +12654,7 @@
       <c r="O390" s="15"/>
       <c r="P390" s="17"/>
     </row>
-    <row r="391" spans="2:16">
+    <row r="391" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B391" s="1"/>
       <c r="C391" s="3"/>
       <c r="D391" s="5"/>
@@ -12671,7 +12671,7 @@
       <c r="O391" s="15"/>
       <c r="P391" s="17"/>
     </row>
-    <row r="392" spans="2:16">
+    <row r="392" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B392" s="1"/>
       <c r="C392" s="3"/>
       <c r="D392" s="5"/>
@@ -12688,7 +12688,7 @@
       <c r="O392" s="15"/>
       <c r="P392" s="17"/>
     </row>
-    <row r="393" spans="2:16">
+    <row r="393" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B393" s="1"/>
       <c r="C393" s="3"/>
       <c r="D393" s="5"/>
@@ -12705,7 +12705,7 @@
       <c r="O393" s="15"/>
       <c r="P393" s="17"/>
     </row>
-    <row r="394" spans="2:16">
+    <row r="394" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B394" s="1"/>
       <c r="C394" s="3"/>
       <c r="D394" s="5"/>
@@ -12722,7 +12722,7 @@
       <c r="O394" s="15"/>
       <c r="P394" s="17"/>
     </row>
-    <row r="395" spans="2:16">
+    <row r="395" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B395" s="1"/>
       <c r="C395" s="3"/>
       <c r="D395" s="5"/>
@@ -12739,7 +12739,7 @@
       <c r="O395" s="15"/>
       <c r="P395" s="17"/>
     </row>
-    <row r="396" spans="2:16">
+    <row r="396" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B396" s="1"/>
       <c r="C396" s="3"/>
       <c r="D396" s="5"/>
@@ -12756,7 +12756,7 @@
       <c r="O396" s="15"/>
       <c r="P396" s="17"/>
     </row>
-    <row r="397" spans="2:16">
+    <row r="397" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B397" s="1"/>
       <c r="C397" s="3"/>
       <c r="D397" s="5"/>
@@ -12773,7 +12773,7 @@
       <c r="O397" s="15"/>
       <c r="P397" s="17"/>
     </row>
-    <row r="398" spans="2:16" ht="17" thickBot="1">
+    <row r="398" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="C398" s="4"/>
       <c r="D398" s="6"/>
@@ -12790,7 +12790,7 @@
       <c r="O398" s="16"/>
       <c r="P398" s="18"/>
     </row>
-    <row r="399" spans="2:16">
+    <row r="399" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B399" s="45"/>
       <c r="C399" s="45"/>
       <c r="D399" s="45"/>
@@ -12807,7 +12807,7 @@
       <c r="O399" s="45"/>
       <c r="P399" s="45"/>
     </row>
-    <row r="400" spans="2:16">
+    <row r="400" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B400" s="45"/>
       <c r="C400" s="45"/>
       <c r="D400" s="45"/>
@@ -12824,7 +12824,7 @@
       <c r="O400" s="45"/>
       <c r="P400" s="45"/>
     </row>
-    <row r="401" spans="2:16" ht="17" thickBot="1">
+    <row r="401" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B401" s="45"/>
       <c r="C401" s="45"/>
       <c r="D401" s="45"/>
@@ -12841,7 +12841,7 @@
       <c r="O401" s="45"/>
       <c r="P401" s="45"/>
     </row>
-    <row r="402" spans="2:16" ht="17" thickBot="1">
+    <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="O402" s="116"/>
       <c r="P402" s="117"/>
     </row>
-    <row r="403" spans="2:16" ht="17" thickBot="1">
+    <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
         <v>14</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="2:16">
+    <row r="404" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B404" s="19"/>
       <c r="C404" s="3" t="s">
         <v>498</v>
@@ -12926,7 +12926,7 @@
       <c r="O404" s="23"/>
       <c r="P404" s="24"/>
     </row>
-    <row r="405" spans="2:16">
+    <row r="405" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B405" s="19"/>
       <c r="C405" s="3" t="s">
         <v>273</v>
@@ -12945,7 +12945,7 @@
       <c r="O405" s="23"/>
       <c r="P405" s="24"/>
     </row>
-    <row r="406" spans="2:16">
+    <row r="406" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B406" s="1">
         <v>1</v>
       </c>
@@ -12974,7 +12974,7 @@
       <c r="O406" s="15"/>
       <c r="P406" s="17"/>
     </row>
-    <row r="407" spans="2:16">
+    <row r="407" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B407" s="19">
         <v>2</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="O407" s="15"/>
       <c r="P407" s="17"/>
     </row>
-    <row r="408" spans="2:16">
+    <row r="408" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B408" s="1">
         <v>3</v>
       </c>
@@ -13020,7 +13020,7 @@
       <c r="O408" s="15"/>
       <c r="P408" s="17"/>
     </row>
-    <row r="409" spans="2:16">
+    <row r="409" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B409" s="19">
         <v>4</v>
       </c>
@@ -13051,7 +13051,7 @@
       <c r="O409" s="15"/>
       <c r="P409" s="17"/>
     </row>
-    <row r="410" spans="2:16">
+    <row r="410" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B410" s="1">
         <v>5</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="O410" s="15"/>
       <c r="P410" s="17"/>
     </row>
-    <row r="411" spans="2:16">
+    <row r="411" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B411" s="19">
         <v>6</v>
       </c>
@@ -13097,7 +13097,7 @@
       <c r="O411" s="15"/>
       <c r="P411" s="17"/>
     </row>
-    <row r="412" spans="2:16">
+    <row r="412" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B412" s="1">
         <v>7</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="O412" s="15"/>
       <c r="P412" s="17"/>
     </row>
-    <row r="413" spans="2:16">
+    <row r="413" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B413" s="19">
         <v>8</v>
       </c>
@@ -13143,7 +13143,7 @@
       <c r="O413" s="15"/>
       <c r="P413" s="17"/>
     </row>
-    <row r="414" spans="2:16">
+    <row r="414" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B414" s="1">
         <v>9</v>
       </c>
@@ -13166,7 +13166,7 @@
       <c r="O414" s="15"/>
       <c r="P414" s="17"/>
     </row>
-    <row r="415" spans="2:16">
+    <row r="415" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B415" s="19"/>
       <c r="C415" s="3" t="s">
         <v>283</v>
@@ -13185,7 +13185,7 @@
       <c r="O415" s="15"/>
       <c r="P415" s="17"/>
     </row>
-    <row r="416" spans="2:16">
+    <row r="416" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B416" s="1">
         <v>10</v>
       </c>
@@ -13210,7 +13210,7 @@
       <c r="O416" s="15"/>
       <c r="P416" s="17"/>
     </row>
-    <row r="417" spans="2:16">
+    <row r="417" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B417" s="19">
         <v>11</v>
       </c>
@@ -13233,7 +13233,7 @@
       <c r="O417" s="15"/>
       <c r="P417" s="17"/>
     </row>
-    <row r="418" spans="2:16">
+    <row r="418" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B418" s="1">
         <v>12</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="O418" s="15"/>
       <c r="P418" s="17"/>
     </row>
-    <row r="419" spans="2:16">
+    <row r="419" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B419" s="19">
         <v>13</v>
       </c>
@@ -13291,7 +13291,7 @@
       <c r="O419" s="15"/>
       <c r="P419" s="17"/>
     </row>
-    <row r="420" spans="2:16">
+    <row r="420" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B420" s="1">
         <v>14</v>
       </c>
@@ -13314,7 +13314,7 @@
       <c r="O420" s="15"/>
       <c r="P420" s="17"/>
     </row>
-    <row r="421" spans="2:16">
+    <row r="421" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B421" s="19">
         <v>15</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="O421" s="15"/>
       <c r="P421" s="17"/>
     </row>
-    <row r="422" spans="2:16">
+    <row r="422" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B422" s="1">
         <v>16</v>
       </c>
@@ -13360,7 +13360,7 @@
       <c r="O422" s="15"/>
       <c r="P422" s="17"/>
     </row>
-    <row r="423" spans="2:16">
+    <row r="423" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B423" s="19">
         <v>17</v>
       </c>
@@ -13383,7 +13383,7 @@
       <c r="O423" s="15"/>
       <c r="P423" s="17"/>
     </row>
-    <row r="424" spans="2:16">
+    <row r="424" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B424" s="1">
         <v>18</v>
       </c>
@@ -13406,7 +13406,7 @@
       <c r="O424" s="15"/>
       <c r="P424" s="17"/>
     </row>
-    <row r="425" spans="2:16">
+    <row r="425" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B425" s="1"/>
       <c r="C425" s="3" t="s">
         <v>293</v>
@@ -13425,7 +13425,7 @@
       <c r="O425" s="15"/>
       <c r="P425" s="17"/>
     </row>
-    <row r="426" spans="2:16">
+    <row r="426" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B426" s="1">
         <v>19</v>
       </c>
@@ -13456,7 +13456,7 @@
       <c r="O426" s="15"/>
       <c r="P426" s="17"/>
     </row>
-    <row r="427" spans="2:16">
+    <row r="427" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B427" s="1">
         <v>20</v>
       </c>
@@ -13485,7 +13485,7 @@
       <c r="O427" s="15"/>
       <c r="P427" s="17"/>
     </row>
-    <row r="428" spans="2:16">
+    <row r="428" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B428" s="1">
         <v>21</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="O428" s="15"/>
       <c r="P428" s="17"/>
     </row>
-    <row r="429" spans="2:16">
+    <row r="429" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B429" s="1">
         <v>22</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="O429" s="15"/>
       <c r="P429" s="17"/>
     </row>
-    <row r="430" spans="2:16">
+    <row r="430" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B430" s="1">
         <v>23</v>
       </c>
@@ -13554,7 +13554,7 @@
       <c r="O430" s="15"/>
       <c r="P430" s="17"/>
     </row>
-    <row r="431" spans="2:16">
+    <row r="431" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B431" s="1">
         <v>24</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="O431" s="15"/>
       <c r="P431" s="17"/>
     </row>
-    <row r="432" spans="2:16">
+    <row r="432" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B432" s="1"/>
       <c r="C432" s="3"/>
       <c r="D432" s="5"/>
@@ -13594,7 +13594,7 @@
       <c r="O432" s="15"/>
       <c r="P432" s="17"/>
     </row>
-    <row r="433" spans="2:16">
+    <row r="433" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B433" s="1"/>
       <c r="C433" s="3"/>
       <c r="D433" s="5"/>
@@ -13611,7 +13611,7 @@
       <c r="O433" s="15"/>
       <c r="P433" s="17"/>
     </row>
-    <row r="434" spans="2:16">
+    <row r="434" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B434" s="1"/>
       <c r="C434" s="3"/>
       <c r="D434" s="5"/>
@@ -13628,7 +13628,7 @@
       <c r="O434" s="15"/>
       <c r="P434" s="17"/>
     </row>
-    <row r="435" spans="2:16">
+    <row r="435" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B435" s="1"/>
       <c r="C435" s="3"/>
       <c r="D435" s="5"/>
@@ -13645,7 +13645,7 @@
       <c r="O435" s="15"/>
       <c r="P435" s="17"/>
     </row>
-    <row r="436" spans="2:16" ht="17" thickBot="1">
+    <row r="436" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
       <c r="C436" s="4"/>
       <c r="D436" s="6"/>
@@ -13662,7 +13662,7 @@
       <c r="O436" s="16"/>
       <c r="P436" s="18"/>
     </row>
-    <row r="437" spans="2:16">
+    <row r="437" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B437" s="45"/>
       <c r="C437" s="45"/>
       <c r="D437" s="45"/>
@@ -13679,7 +13679,7 @@
       <c r="O437" s="45"/>
       <c r="P437" s="45"/>
     </row>
-    <row r="438" spans="2:16">
+    <row r="438" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B438" s="45"/>
       <c r="C438" s="45"/>
       <c r="D438" s="45"/>
@@ -13696,7 +13696,7 @@
       <c r="O438" s="45"/>
       <c r="P438" s="45"/>
     </row>
-    <row r="439" spans="2:16" ht="17" thickBot="1">
+    <row r="439" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B439" s="45"/>
       <c r="C439" s="45"/>
       <c r="D439" s="45"/>
@@ -13713,7 +13713,7 @@
       <c r="O439" s="45"/>
       <c r="P439" s="45"/>
     </row>
-    <row r="440" spans="2:16" ht="17" thickBot="1">
+    <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
@@ -13732,7 +13732,7 @@
       <c r="O440" s="116"/>
       <c r="P440" s="117"/>
     </row>
-    <row r="441" spans="2:16" ht="17" thickBot="1">
+    <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
         <v>14</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="2:16">
+    <row r="442" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B442" s="19"/>
       <c r="C442" s="3"/>
       <c r="D442" s="5"/>
@@ -13796,7 +13796,7 @@
       <c r="O442" s="23"/>
       <c r="P442" s="24"/>
     </row>
-    <row r="443" spans="2:16">
+    <row r="443" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B443" s="19"/>
       <c r="C443" s="3" t="s">
         <v>498</v>
@@ -13815,7 +13815,7 @@
       <c r="O443" s="23"/>
       <c r="P443" s="24"/>
     </row>
-    <row r="444" spans="2:16">
+    <row r="444" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B444" s="19"/>
       <c r="C444" s="3" t="s">
         <v>44</v>
@@ -13834,7 +13834,7 @@
       <c r="O444" s="23"/>
       <c r="P444" s="24"/>
     </row>
-    <row r="445" spans="2:16">
+    <row r="445" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B445" s="1">
         <v>1</v>
       </c>
@@ -13869,7 +13869,7 @@
       <c r="O445" s="15"/>
       <c r="P445" s="17"/>
     </row>
-    <row r="446" spans="2:16">
+    <row r="446" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B446" s="19">
         <v>2</v>
       </c>
@@ -13900,7 +13900,7 @@
       <c r="O446" s="15"/>
       <c r="P446" s="17"/>
     </row>
-    <row r="447" spans="2:16">
+    <row r="447" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B447" s="1">
         <v>3</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="O447" s="15"/>
       <c r="P447" s="17"/>
     </row>
-    <row r="448" spans="2:16">
+    <row r="448" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B448" s="19">
         <v>4</v>
       </c>
@@ -13946,7 +13946,7 @@
       <c r="O448" s="15"/>
       <c r="P448" s="17"/>
     </row>
-    <row r="449" spans="2:16">
+    <row r="449" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B449" s="1">
         <v>5</v>
       </c>
@@ -13977,7 +13977,7 @@
       <c r="O449" s="15"/>
       <c r="P449" s="17"/>
     </row>
-    <row r="450" spans="2:16">
+    <row r="450" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B450" s="19">
         <v>6</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="O450" s="15"/>
       <c r="P450" s="17"/>
     </row>
-    <row r="451" spans="2:16">
+    <row r="451" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B451" s="1">
         <v>7</v>
       </c>
@@ -14023,7 +14023,7 @@
       <c r="O451" s="15"/>
       <c r="P451" s="17"/>
     </row>
-    <row r="452" spans="2:16">
+    <row r="452" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B452" s="19">
         <v>8</v>
       </c>
@@ -14054,7 +14054,7 @@
       <c r="O452" s="15"/>
       <c r="P452" s="17"/>
     </row>
-    <row r="453" spans="2:16">
+    <row r="453" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B453" s="1">
         <v>9</v>
       </c>
@@ -14077,7 +14077,7 @@
       <c r="O453" s="15"/>
       <c r="P453" s="17"/>
     </row>
-    <row r="454" spans="2:16">
+    <row r="454" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B454" s="19">
         <v>10</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="O454" s="15"/>
       <c r="P454" s="17"/>
     </row>
-    <row r="455" spans="2:16">
+    <row r="455" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B455" s="1">
         <v>11</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="O455" s="15"/>
       <c r="P455" s="17"/>
     </row>
-    <row r="456" spans="2:16">
+    <row r="456" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B456" s="19">
         <v>12</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="O456" s="15"/>
       <c r="P456" s="17"/>
     </row>
-    <row r="457" spans="2:16">
+    <row r="457" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B457" s="1">
         <v>13</v>
       </c>
@@ -14183,7 +14183,7 @@
       <c r="O457" s="15"/>
       <c r="P457" s="17"/>
     </row>
-    <row r="458" spans="2:16">
+    <row r="458" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B458" s="19">
         <v>14</v>
       </c>
@@ -14214,7 +14214,7 @@
       <c r="O458" s="15"/>
       <c r="P458" s="17"/>
     </row>
-    <row r="459" spans="2:16">
+    <row r="459" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B459" s="1"/>
       <c r="C459" s="3" t="s">
         <v>77</v>
@@ -14233,7 +14233,7 @@
       <c r="O459" s="15"/>
       <c r="P459" s="17"/>
     </row>
-    <row r="460" spans="2:16">
+    <row r="460" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B460" s="19">
         <v>15</v>
       </c>
@@ -14256,7 +14256,7 @@
       <c r="O460" s="15"/>
       <c r="P460" s="17"/>
     </row>
-    <row r="461" spans="2:16">
+    <row r="461" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B461" s="1">
         <v>16</v>
       </c>
@@ -14279,7 +14279,7 @@
       <c r="O461" s="15"/>
       <c r="P461" s="17"/>
     </row>
-    <row r="462" spans="2:16">
+    <row r="462" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B462" s="19">
         <v>17</v>
       </c>
@@ -14310,7 +14310,7 @@
       <c r="O462" s="15"/>
       <c r="P462" s="17"/>
     </row>
-    <row r="463" spans="2:16">
+    <row r="463" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B463" s="1">
         <v>18</v>
       </c>
@@ -14337,7 +14337,7 @@
       <c r="O463" s="15"/>
       <c r="P463" s="17"/>
     </row>
-    <row r="464" spans="2:16">
+    <row r="464" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B464" s="19">
         <v>19</v>
       </c>
@@ -14360,7 +14360,7 @@
       <c r="O464" s="15"/>
       <c r="P464" s="17"/>
     </row>
-    <row r="465" spans="2:16">
+    <row r="465" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B465" s="1">
         <v>20</v>
       </c>
@@ -14383,7 +14383,7 @@
       <c r="O465" s="15"/>
       <c r="P465" s="17"/>
     </row>
-    <row r="466" spans="2:16">
+    <row r="466" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B466" s="19">
         <v>21</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="O466" s="15"/>
       <c r="P466" s="17"/>
     </row>
-    <row r="467" spans="2:16">
+    <row r="467" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B467" s="1">
         <v>22</v>
       </c>
@@ -14429,7 +14429,7 @@
       <c r="O467" s="15"/>
       <c r="P467" s="17"/>
     </row>
-    <row r="468" spans="2:16">
+    <row r="468" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B468" s="19">
         <v>23</v>
       </c>
@@ -14452,7 +14452,7 @@
       <c r="O468" s="15"/>
       <c r="P468" s="17"/>
     </row>
-    <row r="469" spans="2:16">
+    <row r="469" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B469" s="1"/>
       <c r="C469" s="3"/>
       <c r="D469" s="5"/>
@@ -14469,7 +14469,7 @@
       <c r="O469" s="15"/>
       <c r="P469" s="17"/>
     </row>
-    <row r="470" spans="2:16">
+    <row r="470" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B470" s="1"/>
       <c r="C470" s="3"/>
       <c r="D470" s="5"/>
@@ -14486,7 +14486,7 @@
       <c r="O470" s="15"/>
       <c r="P470" s="17"/>
     </row>
-    <row r="471" spans="2:16">
+    <row r="471" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B471" s="1"/>
       <c r="C471" s="3"/>
       <c r="D471" s="5"/>
@@ -14503,7 +14503,7 @@
       <c r="O471" s="15"/>
       <c r="P471" s="17"/>
     </row>
-    <row r="472" spans="2:16">
+    <row r="472" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B472" s="1"/>
       <c r="C472" s="3"/>
       <c r="D472" s="5"/>
@@ -14520,7 +14520,7 @@
       <c r="O472" s="15"/>
       <c r="P472" s="17"/>
     </row>
-    <row r="473" spans="2:16">
+    <row r="473" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B473" s="1"/>
       <c r="C473" s="3"/>
       <c r="D473" s="5"/>
@@ -14537,7 +14537,7 @@
       <c r="O473" s="15"/>
       <c r="P473" s="17"/>
     </row>
-    <row r="474" spans="2:16">
+    <row r="474" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B474" s="1"/>
       <c r="C474" s="3"/>
       <c r="D474" s="5"/>
@@ -14554,7 +14554,7 @@
       <c r="O474" s="15"/>
       <c r="P474" s="17"/>
     </row>
-    <row r="475" spans="2:16" ht="17" thickBot="1">
+    <row r="475" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
       <c r="C475" s="4"/>
       <c r="D475" s="6"/>
@@ -14571,7 +14571,7 @@
       <c r="O475" s="16"/>
       <c r="P475" s="18"/>
     </row>
-    <row r="476" spans="2:16">
+    <row r="476" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B476" s="45"/>
       <c r="C476" s="45"/>
       <c r="D476" s="45"/>
@@ -14588,7 +14588,7 @@
       <c r="O476" s="45"/>
       <c r="P476" s="45"/>
     </row>
-    <row r="477" spans="2:16">
+    <row r="477" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B477" s="45"/>
       <c r="C477" s="45"/>
       <c r="D477" s="45"/>
@@ -14605,7 +14605,7 @@
       <c r="O477" s="45"/>
       <c r="P477" s="45"/>
     </row>
-    <row r="478" spans="2:16" ht="17" thickBot="1">
+    <row r="478" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B478" s="45"/>
       <c r="C478" s="45"/>
       <c r="D478" s="45"/>
@@ -14622,7 +14622,7 @@
       <c r="O478" s="45"/>
       <c r="P478" s="45"/>
     </row>
-    <row r="479" spans="2:16" ht="17" thickBot="1">
+    <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
@@ -14641,7 +14641,7 @@
       <c r="O479" s="116"/>
       <c r="P479" s="117"/>
     </row>
-    <row r="480" spans="2:16" ht="17" thickBot="1">
+    <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
         <v>14</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="2:27">
+    <row r="481" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B481" s="19"/>
       <c r="C481" s="3"/>
       <c r="D481" s="5"/>
@@ -14715,7 +14715,7 @@
       <c r="Z481" s="85"/>
       <c r="AA481" s="85"/>
     </row>
-    <row r="482" spans="2:27">
+    <row r="482" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B482" s="19"/>
       <c r="C482" s="3" t="s">
         <v>498</v>
@@ -14744,7 +14744,7 @@
       <c r="Z482" s="85"/>
       <c r="AA482" s="85"/>
     </row>
-    <row r="483" spans="2:27">
+    <row r="483" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B483" s="19">
         <v>1</v>
       </c>
@@ -14785,7 +14785,7 @@
       <c r="Z483" s="85"/>
       <c r="AA483" s="85"/>
     </row>
-    <row r="484" spans="2:27">
+    <row r="484" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B484" s="1">
         <v>2</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="Z484" s="85"/>
       <c r="AA484" s="85"/>
     </row>
-    <row r="485" spans="2:27">
+    <row r="485" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B485" s="19">
         <v>3</v>
       </c>
@@ -14859,7 +14859,7 @@
       <c r="Z485" s="85"/>
       <c r="AA485" s="85"/>
     </row>
-    <row r="486" spans="2:27">
+    <row r="486" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B486" s="1">
         <v>4</v>
       </c>
@@ -14888,7 +14888,7 @@
       <c r="O486" s="15"/>
       <c r="P486" s="17"/>
     </row>
-    <row r="487" spans="2:27">
+    <row r="487" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B487" s="19">
         <v>5</v>
       </c>
@@ -14921,7 +14921,7 @@
       <c r="O487" s="15"/>
       <c r="P487" s="17"/>
     </row>
-    <row r="488" spans="2:27">
+    <row r="488" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B488" s="1">
         <v>6</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="O488" s="15"/>
       <c r="P488" s="17"/>
     </row>
-    <row r="489" spans="2:27">
+    <row r="489" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B489" s="19">
         <v>7</v>
       </c>
@@ -14981,7 +14981,7 @@
       <c r="O489" s="15"/>
       <c r="P489" s="17"/>
     </row>
-    <row r="490" spans="2:27">
+    <row r="490" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B490" s="1">
         <v>8</v>
       </c>
@@ -15004,7 +15004,7 @@
       <c r="O490" s="15"/>
       <c r="P490" s="17"/>
     </row>
-    <row r="491" spans="2:27">
+    <row r="491" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B491" s="19">
         <v>9</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="O491" s="15"/>
       <c r="P491" s="17"/>
     </row>
-    <row r="492" spans="2:27">
+    <row r="492" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B492" s="1">
         <v>10</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="O492" s="15"/>
       <c r="P492" s="17"/>
     </row>
-    <row r="493" spans="2:27">
+    <row r="493" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B493" s="19">
         <v>11</v>
       </c>
@@ -15087,7 +15087,7 @@
       <c r="O493" s="15"/>
       <c r="P493" s="17"/>
     </row>
-    <row r="494" spans="2:27">
+    <row r="494" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B494" s="1">
         <v>12</v>
       </c>
@@ -15112,7 +15112,7 @@
       <c r="O494" s="15"/>
       <c r="P494" s="17"/>
     </row>
-    <row r="495" spans="2:27">
+    <row r="495" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B495" s="19">
         <v>13</v>
       </c>
@@ -15135,7 +15135,7 @@
       <c r="O495" s="15"/>
       <c r="P495" s="17"/>
     </row>
-    <row r="496" spans="2:27">
+    <row r="496" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B496" s="1">
         <v>14</v>
       </c>
@@ -15158,7 +15158,7 @@
       <c r="O496" s="15"/>
       <c r="P496" s="17"/>
     </row>
-    <row r="497" spans="2:16">
+    <row r="497" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B497" s="19">
         <v>15</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="O497" s="15"/>
       <c r="P497" s="17"/>
     </row>
-    <row r="498" spans="2:16">
+    <row r="498" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B498" s="1">
         <v>16</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="O498" s="15"/>
       <c r="P498" s="17"/>
     </row>
-    <row r="499" spans="2:16">
+    <row r="499" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B499" s="19"/>
       <c r="C499" s="3"/>
       <c r="D499" s="5"/>
@@ -15231,7 +15231,7 @@
       <c r="O499" s="15"/>
       <c r="P499" s="17"/>
     </row>
-    <row r="500" spans="2:16">
+    <row r="500" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B500" s="1"/>
       <c r="C500" s="3"/>
       <c r="D500" s="5"/>
@@ -15248,7 +15248,7 @@
       <c r="O500" s="15"/>
       <c r="P500" s="17"/>
     </row>
-    <row r="501" spans="2:16">
+    <row r="501" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B501" s="1"/>
       <c r="C501" s="3"/>
       <c r="D501" s="5"/>
@@ -15265,7 +15265,7 @@
       <c r="O501" s="15"/>
       <c r="P501" s="17"/>
     </row>
-    <row r="502" spans="2:16" ht="17" thickBot="1">
+    <row r="502" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
       <c r="C502" s="4"/>
       <c r="D502" s="6"/>
@@ -15282,7 +15282,7 @@
       <c r="O502" s="16"/>
       <c r="P502" s="18"/>
     </row>
-    <row r="503" spans="2:16">
+    <row r="503" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B503" s="45"/>
       <c r="C503" s="45"/>
       <c r="D503" s="45"/>
@@ -15299,7 +15299,7 @@
       <c r="O503" s="45"/>
       <c r="P503" s="45"/>
     </row>
-    <row r="504" spans="2:16">
+    <row r="504" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B504" s="45"/>
       <c r="C504" s="45"/>
       <c r="D504" s="45"/>
@@ -15316,7 +15316,7 @@
       <c r="O504" s="45"/>
       <c r="P504" s="45"/>
     </row>
-    <row r="505" spans="2:16" ht="17" thickBot="1">
+    <row r="505" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B505" s="45"/>
       <c r="C505" s="45"/>
       <c r="D505" s="45"/>
@@ -15333,7 +15333,7 @@
       <c r="O505" s="45"/>
       <c r="P505" s="45"/>
     </row>
-    <row r="506" spans="2:16" ht="17" thickBot="1">
+    <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
@@ -15352,7 +15352,7 @@
       <c r="O506" s="116"/>
       <c r="P506" s="117"/>
     </row>
-    <row r="507" spans="2:16" ht="17" thickBot="1">
+    <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
         <v>14</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="2:16">
+    <row r="508" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B508" s="19"/>
       <c r="C508" s="3"/>
       <c r="D508" s="5"/>
@@ -15416,7 +15416,7 @@
       <c r="O508" s="15"/>
       <c r="P508" s="17"/>
     </row>
-    <row r="509" spans="2:16">
+    <row r="509" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B509" s="1"/>
       <c r="C509" s="3" t="s">
         <v>498</v>
@@ -15435,7 +15435,7 @@
       <c r="O509" s="15"/>
       <c r="P509" s="17"/>
     </row>
-    <row r="510" spans="2:16">
+    <row r="510" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B510" s="19">
         <v>1</v>
       </c>
@@ -15458,7 +15458,7 @@
       <c r="O510" s="23"/>
       <c r="P510" s="24"/>
     </row>
-    <row r="511" spans="2:16">
+    <row r="511" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B511" s="1">
         <v>2</v>
       </c>
@@ -15481,7 +15481,7 @@
       <c r="O511" s="15"/>
       <c r="P511" s="17"/>
     </row>
-    <row r="512" spans="2:16">
+    <row r="512" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B512" s="19">
         <v>3</v>
       </c>
@@ -15504,7 +15504,7 @@
       <c r="O512" s="15"/>
       <c r="P512" s="17"/>
     </row>
-    <row r="513" spans="2:16">
+    <row r="513" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B513" s="1">
         <v>4</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="O513" s="15"/>
       <c r="P513" s="17"/>
     </row>
-    <row r="514" spans="2:16">
+    <row r="514" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B514" s="19">
         <v>5</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="O514" s="15"/>
       <c r="P514" s="17"/>
     </row>
-    <row r="515" spans="2:16">
+    <row r="515" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B515" s="1">
         <v>6</v>
       </c>
@@ -15579,7 +15579,7 @@
       <c r="O515" s="15"/>
       <c r="P515" s="17"/>
     </row>
-    <row r="516" spans="2:16">
+    <row r="516" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B516" s="19">
         <v>7</v>
       </c>
@@ -15602,7 +15602,7 @@
       <c r="O516" s="15"/>
       <c r="P516" s="17"/>
     </row>
-    <row r="517" spans="2:16">
+    <row r="517" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B517" s="1">
         <v>8</v>
       </c>
@@ -15631,7 +15631,7 @@
       <c r="O517" s="15"/>
       <c r="P517" s="17"/>
     </row>
-    <row r="518" spans="2:16">
+    <row r="518" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B518" s="19">
         <v>9</v>
       </c>
@@ -15660,7 +15660,7 @@
       <c r="O518" s="15"/>
       <c r="P518" s="17"/>
     </row>
-    <row r="519" spans="2:16">
+    <row r="519" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B519" s="1">
         <v>10</v>
       </c>
@@ -15683,7 +15683,7 @@
       <c r="O519" s="15"/>
       <c r="P519" s="17"/>
     </row>
-    <row r="520" spans="2:16">
+    <row r="520" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B520" s="19">
         <v>11</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="O520" s="15"/>
       <c r="P520" s="17"/>
     </row>
-    <row r="521" spans="2:16">
+    <row r="521" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B521" s="1">
         <v>12</v>
       </c>
@@ -15733,7 +15733,7 @@
       <c r="O521" s="15"/>
       <c r="P521" s="17"/>
     </row>
-    <row r="522" spans="2:16">
+    <row r="522" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B522" s="19">
         <v>13</v>
       </c>
@@ -15756,7 +15756,7 @@
       <c r="O522" s="15"/>
       <c r="P522" s="17"/>
     </row>
-    <row r="523" spans="2:16">
+    <row r="523" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B523" s="1">
         <v>14</v>
       </c>
@@ -15779,7 +15779,7 @@
       <c r="O523" s="15"/>
       <c r="P523" s="17"/>
     </row>
-    <row r="524" spans="2:16">
+    <row r="524" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B524" s="19">
         <v>15</v>
       </c>
@@ -15802,7 +15802,7 @@
       <c r="O524" s="15"/>
       <c r="P524" s="17"/>
     </row>
-    <row r="525" spans="2:16">
+    <row r="525" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B525" s="1">
         <v>16</v>
       </c>
@@ -15825,7 +15825,7 @@
       <c r="O525" s="15"/>
       <c r="P525" s="17"/>
     </row>
-    <row r="526" spans="2:16">
+    <row r="526" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B526" s="19">
         <v>17</v>
       </c>
@@ -15848,7 +15848,7 @@
       <c r="O526" s="15"/>
       <c r="P526" s="17"/>
     </row>
-    <row r="527" spans="2:16">
+    <row r="527" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B527" s="1"/>
       <c r="C527" s="3"/>
       <c r="D527" s="5"/>
@@ -15865,7 +15865,7 @@
       <c r="O527" s="15"/>
       <c r="P527" s="17"/>
     </row>
-    <row r="528" spans="2:16">
+    <row r="528" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B528" s="1"/>
       <c r="C528" s="3"/>
       <c r="D528" s="5"/>
@@ -15882,7 +15882,7 @@
       <c r="O528" s="15"/>
       <c r="P528" s="17"/>
     </row>
-    <row r="529" spans="2:16">
+    <row r="529" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B529" s="1"/>
       <c r="C529" s="3"/>
       <c r="D529" s="5"/>
@@ -15899,7 +15899,7 @@
       <c r="O529" s="15"/>
       <c r="P529" s="17"/>
     </row>
-    <row r="530" spans="2:16">
+    <row r="530" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B530" s="1"/>
       <c r="C530" s="3"/>
       <c r="D530" s="5"/>
@@ -15916,7 +15916,7 @@
       <c r="O530" s="15"/>
       <c r="P530" s="17"/>
     </row>
-    <row r="531" spans="2:16">
+    <row r="531" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B531" s="1"/>
       <c r="C531" s="3"/>
       <c r="D531" s="5"/>
@@ -15933,7 +15933,7 @@
       <c r="O531" s="15"/>
       <c r="P531" s="17"/>
     </row>
-    <row r="532" spans="2:16">
+    <row r="532" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B532" s="1"/>
       <c r="C532" s="3"/>
       <c r="D532" s="5"/>
@@ -15950,7 +15950,7 @@
       <c r="O532" s="15"/>
       <c r="P532" s="17"/>
     </row>
-    <row r="533" spans="2:16">
+    <row r="533" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B533" s="1"/>
       <c r="C533" s="3"/>
       <c r="D533" s="5"/>
@@ -15967,7 +15967,7 @@
       <c r="O533" s="15"/>
       <c r="P533" s="17"/>
     </row>
-    <row r="534" spans="2:16">
+    <row r="534" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B534" s="1"/>
       <c r="C534" s="3"/>
       <c r="D534" s="5"/>
@@ -15984,7 +15984,7 @@
       <c r="O534" s="15"/>
       <c r="P534" s="17"/>
     </row>
-    <row r="535" spans="2:16" ht="17" thickBot="1">
+    <row r="535" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
       <c r="C535" s="4"/>
       <c r="D535" s="6"/>
@@ -16001,7 +16001,7 @@
       <c r="O535" s="16"/>
       <c r="P535" s="18"/>
     </row>
-    <row r="536" spans="2:16">
+    <row r="536" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B536" s="45"/>
       <c r="C536" s="45"/>
       <c r="D536" s="45"/>
@@ -16018,7 +16018,7 @@
       <c r="O536" s="45"/>
       <c r="P536" s="45"/>
     </row>
-    <row r="537" spans="2:16">
+    <row r="537" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B537" s="45"/>
       <c r="C537" s="45"/>
       <c r="D537" s="45"/>
@@ -16035,7 +16035,7 @@
       <c r="O537" s="45"/>
       <c r="P537" s="45"/>
     </row>
-    <row r="538" spans="2:16" ht="17" thickBot="1">
+    <row r="538" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B538" s="45"/>
       <c r="C538" s="45"/>
       <c r="D538" s="45"/>
@@ -16052,7 +16052,7 @@
       <c r="O538" s="45"/>
       <c r="P538" s="45"/>
     </row>
-    <row r="539" spans="2:16" ht="17" thickBot="1">
+    <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
@@ -16071,7 +16071,7 @@
       <c r="O539" s="116"/>
       <c r="P539" s="117"/>
     </row>
-    <row r="540" spans="2:16" ht="17" thickBot="1">
+    <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
         <v>14</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="2:16">
+    <row r="541" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B541" s="19"/>
       <c r="C541" s="3"/>
       <c r="D541" s="5"/>
@@ -16135,7 +16135,7 @@
       <c r="O541" s="23"/>
       <c r="P541" s="24"/>
     </row>
-    <row r="542" spans="2:16">
+    <row r="542" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B542" s="19"/>
       <c r="C542" s="3" t="s">
         <v>498</v>
@@ -16154,7 +16154,7 @@
       <c r="O542" s="23"/>
       <c r="P542" s="24"/>
     </row>
-    <row r="543" spans="2:16">
+    <row r="543" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B543" s="19"/>
       <c r="C543" s="3" t="s">
         <v>353</v>
@@ -16173,7 +16173,7 @@
       <c r="O543" s="23"/>
       <c r="P543" s="24"/>
     </row>
-    <row r="544" spans="2:16">
+    <row r="544" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B544" s="1">
         <v>1</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="O544" s="15"/>
       <c r="P544" s="17"/>
     </row>
-    <row r="545" spans="2:16">
+    <row r="545" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B545" s="19">
         <v>2</v>
       </c>
@@ -16231,7 +16231,7 @@
       <c r="O545" s="15"/>
       <c r="P545" s="17"/>
     </row>
-    <row r="546" spans="2:16">
+    <row r="546" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B546" s="1">
         <v>3</v>
       </c>
@@ -16258,7 +16258,7 @@
       <c r="O546" s="15"/>
       <c r="P546" s="17"/>
     </row>
-    <row r="547" spans="2:16">
+    <row r="547" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B547" s="19">
         <v>4</v>
       </c>
@@ -16281,7 +16281,7 @@
       <c r="O547" s="15"/>
       <c r="P547" s="17"/>
     </row>
-    <row r="548" spans="2:16">
+    <row r="548" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B548" s="1">
         <v>5</v>
       </c>
@@ -16304,7 +16304,7 @@
       <c r="O548" s="15"/>
       <c r="P548" s="17"/>
     </row>
-    <row r="549" spans="2:16">
+    <row r="549" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B549" s="19">
         <v>6</v>
       </c>
@@ -16327,7 +16327,7 @@
       <c r="O549" s="15"/>
       <c r="P549" s="17"/>
     </row>
-    <row r="550" spans="2:16">
+    <row r="550" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B550" s="1">
         <v>7</v>
       </c>
@@ -16350,7 +16350,7 @@
       <c r="O550" s="15"/>
       <c r="P550" s="17"/>
     </row>
-    <row r="551" spans="2:16">
+    <row r="551" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B551" s="19">
         <v>8</v>
       </c>
@@ -16373,7 +16373,7 @@
       <c r="O551" s="15"/>
       <c r="P551" s="17"/>
     </row>
-    <row r="552" spans="2:16">
+    <row r="552" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B552" s="1">
         <v>9</v>
       </c>
@@ -16396,7 +16396,7 @@
       <c r="O552" s="15"/>
       <c r="P552" s="17"/>
     </row>
-    <row r="553" spans="2:16">
+    <row r="553" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B553" s="19">
         <v>10</v>
       </c>
@@ -16419,7 +16419,7 @@
       <c r="O553" s="15"/>
       <c r="P553" s="17"/>
     </row>
-    <row r="554" spans="2:16">
+    <row r="554" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B554" s="1">
         <v>11</v>
       </c>
@@ -16444,7 +16444,7 @@
       <c r="O554" s="15"/>
       <c r="P554" s="17"/>
     </row>
-    <row r="555" spans="2:16">
+    <row r="555" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B555" s="19"/>
       <c r="C555" s="3" t="s">
         <v>365</v>
@@ -16463,7 +16463,7 @@
       <c r="O555" s="15"/>
       <c r="P555" s="17"/>
     </row>
-    <row r="556" spans="2:16">
+    <row r="556" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B556" s="1">
         <v>12</v>
       </c>
@@ -16486,7 +16486,7 @@
       <c r="O556" s="15"/>
       <c r="P556" s="17"/>
     </row>
-    <row r="557" spans="2:16">
+    <row r="557" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B557" s="19">
         <v>13</v>
       </c>
@@ -16509,7 +16509,7 @@
       <c r="O557" s="15"/>
       <c r="P557" s="17"/>
     </row>
-    <row r="558" spans="2:16">
+    <row r="558" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B558" s="1">
         <v>14</v>
       </c>
@@ -16532,7 +16532,7 @@
       <c r="O558" s="15"/>
       <c r="P558" s="17"/>
     </row>
-    <row r="559" spans="2:16">
+    <row r="559" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B559" s="19">
         <v>15</v>
       </c>
@@ -16555,7 +16555,7 @@
       <c r="O559" s="15"/>
       <c r="P559" s="17"/>
     </row>
-    <row r="560" spans="2:16">
+    <row r="560" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B560" s="1">
         <v>16</v>
       </c>
@@ -16578,7 +16578,7 @@
       <c r="O560" s="15"/>
       <c r="P560" s="17"/>
     </row>
-    <row r="561" spans="2:16">
+    <row r="561" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B561" s="19">
         <v>17</v>
       </c>
@@ -16601,7 +16601,7 @@
       <c r="O561" s="15"/>
       <c r="P561" s="17"/>
     </row>
-    <row r="562" spans="2:16">
+    <row r="562" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B562" s="1">
         <v>18</v>
       </c>
@@ -16624,7 +16624,7 @@
       <c r="O562" s="15"/>
       <c r="P562" s="17"/>
     </row>
-    <row r="563" spans="2:16">
+    <row r="563" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B563" s="19"/>
       <c r="C563" s="3"/>
       <c r="D563" s="5"/>
@@ -16641,7 +16641,7 @@
       <c r="O563" s="15"/>
       <c r="P563" s="17"/>
     </row>
-    <row r="564" spans="2:16">
+    <row r="564" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B564" s="1"/>
       <c r="C564" s="3"/>
       <c r="D564" s="5"/>
@@ -16658,7 +16658,7 @@
       <c r="O564" s="15"/>
       <c r="P564" s="17"/>
     </row>
-    <row r="565" spans="2:16">
+    <row r="565" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B565" s="19">
         <v>19</v>
       </c>
@@ -16689,7 +16689,7 @@
       <c r="O565" s="15"/>
       <c r="P565" s="17"/>
     </row>
-    <row r="566" spans="2:16">
+    <row r="566" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B566" s="1"/>
       <c r="C566" s="3"/>
       <c r="D566" s="5"/>
@@ -16706,7 +16706,7 @@
       <c r="O566" s="15"/>
       <c r="P566" s="17"/>
     </row>
-    <row r="567" spans="2:16">
+    <row r="567" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B567" s="1"/>
       <c r="C567" s="3"/>
       <c r="D567" s="5"/>
@@ -16723,7 +16723,7 @@
       <c r="O567" s="15"/>
       <c r="P567" s="17"/>
     </row>
-    <row r="568" spans="2:16">
+    <row r="568" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B568" s="1"/>
       <c r="C568" s="3"/>
       <c r="D568" s="5"/>
@@ -16740,7 +16740,7 @@
       <c r="O568" s="15"/>
       <c r="P568" s="17"/>
     </row>
-    <row r="569" spans="2:16">
+    <row r="569" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B569" s="1"/>
       <c r="C569" s="3"/>
       <c r="D569" s="5"/>
@@ -16757,7 +16757,7 @@
       <c r="O569" s="15"/>
       <c r="P569" s="17"/>
     </row>
-    <row r="570" spans="2:16">
+    <row r="570" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B570" s="1"/>
       <c r="C570" s="3"/>
       <c r="D570" s="5"/>
@@ -16774,7 +16774,7 @@
       <c r="O570" s="15"/>
       <c r="P570" s="17"/>
     </row>
-    <row r="571" spans="2:16">
+    <row r="571" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B571" s="1"/>
       <c r="C571" s="3"/>
       <c r="D571" s="5"/>
@@ -16791,7 +16791,7 @@
       <c r="O571" s="15"/>
       <c r="P571" s="17"/>
     </row>
-    <row r="572" spans="2:16">
+    <row r="572" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B572" s="1"/>
       <c r="C572" s="3"/>
       <c r="D572" s="5"/>
@@ -16808,7 +16808,7 @@
       <c r="O572" s="15"/>
       <c r="P572" s="17"/>
     </row>
-    <row r="573" spans="2:16" ht="17" thickBot="1">
+    <row r="573" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
       <c r="C573" s="4"/>
       <c r="D573" s="6"/>
@@ -16825,7 +16825,7 @@
       <c r="O573" s="16"/>
       <c r="P573" s="18"/>
     </row>
-    <row r="574" spans="2:16">
+    <row r="574" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B574" s="45"/>
       <c r="C574" s="45"/>
       <c r="D574" s="45"/>
@@ -16842,7 +16842,7 @@
       <c r="O574" s="45"/>
       <c r="P574" s="45"/>
     </row>
-    <row r="575" spans="2:16">
+    <row r="575" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B575" s="45"/>
       <c r="C575" s="45"/>
       <c r="D575" s="45"/>
@@ -16859,7 +16859,7 @@
       <c r="O575" s="45"/>
       <c r="P575" s="45"/>
     </row>
-    <row r="576" spans="2:16" ht="17" thickBot="1">
+    <row r="576" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B576" s="45"/>
       <c r="C576" s="45"/>
       <c r="D576" s="45"/>
@@ -16876,7 +16876,7 @@
       <c r="O576" s="45"/>
       <c r="P576" s="45"/>
     </row>
-    <row r="577" spans="2:16" ht="17" thickBot="1">
+    <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
@@ -16895,7 +16895,7 @@
       <c r="O577" s="116"/>
       <c r="P577" s="117"/>
     </row>
-    <row r="578" spans="2:16" ht="17" thickBot="1">
+    <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
         <v>14</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="2:16">
+    <row r="579" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B579" s="19"/>
       <c r="C579" s="3" t="s">
         <v>498</v>
@@ -16961,7 +16961,7 @@
       <c r="O579" s="23"/>
       <c r="P579" s="24"/>
     </row>
-    <row r="580" spans="2:16">
+    <row r="580" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B580" s="19">
         <v>1</v>
       </c>
@@ -16992,7 +16992,7 @@
       <c r="O580" s="23"/>
       <c r="P580" s="24"/>
     </row>
-    <row r="581" spans="2:16">
+    <row r="581" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B581" s="1">
         <v>2</v>
       </c>
@@ -17015,7 +17015,7 @@
       <c r="O581" s="15"/>
       <c r="P581" s="17"/>
     </row>
-    <row r="582" spans="2:16">
+    <row r="582" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B582" s="19">
         <v>3</v>
       </c>
@@ -17038,7 +17038,7 @@
       <c r="O582" s="15"/>
       <c r="P582" s="17"/>
     </row>
-    <row r="583" spans="2:16">
+    <row r="583" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B583" s="1">
         <v>4</v>
       </c>
@@ -17061,7 +17061,7 @@
       <c r="O583" s="15"/>
       <c r="P583" s="17"/>
     </row>
-    <row r="584" spans="2:16">
+    <row r="584" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B584" s="19">
         <v>5</v>
       </c>
@@ -17084,7 +17084,7 @@
       <c r="O584" s="15"/>
       <c r="P584" s="17"/>
     </row>
-    <row r="585" spans="2:16">
+    <row r="585" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B585" s="1">
         <v>6</v>
       </c>
@@ -17115,7 +17115,7 @@
       <c r="O585" s="15"/>
       <c r="P585" s="17"/>
     </row>
-    <row r="586" spans="2:16">
+    <row r="586" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B586" s="19">
         <v>7</v>
       </c>
@@ -17146,7 +17146,7 @@
       <c r="O586" s="15"/>
       <c r="P586" s="17"/>
     </row>
-    <row r="587" spans="2:16">
+    <row r="587" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B587" s="1">
         <v>8</v>
       </c>
@@ -17177,7 +17177,7 @@
       <c r="O587" s="15"/>
       <c r="P587" s="17"/>
     </row>
-    <row r="588" spans="2:16">
+    <row r="588" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B588" s="19">
         <v>9</v>
       </c>
@@ -17202,7 +17202,7 @@
       <c r="O588" s="15"/>
       <c r="P588" s="17"/>
     </row>
-    <row r="589" spans="2:16">
+    <row r="589" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B589" s="1"/>
       <c r="C589" s="3"/>
       <c r="D589" s="5"/>
@@ -17219,7 +17219,7 @@
       <c r="O589" s="15"/>
       <c r="P589" s="17"/>
     </row>
-    <row r="590" spans="2:16">
+    <row r="590" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B590" s="19"/>
       <c r="C590" s="3"/>
       <c r="D590" s="5"/>
@@ -17236,7 +17236,7 @@
       <c r="O590" s="15"/>
       <c r="P590" s="17"/>
     </row>
-    <row r="591" spans="2:16">
+    <row r="591" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B591" s="1"/>
       <c r="C591" s="3"/>
       <c r="D591" s="5"/>
@@ -17257,7 +17257,7 @@
       <c r="O591" s="15"/>
       <c r="P591" s="17"/>
     </row>
-    <row r="592" spans="2:16">
+    <row r="592" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B592" s="19"/>
       <c r="C592" s="3"/>
       <c r="D592" s="5"/>
@@ -17274,7 +17274,7 @@
       <c r="O592" s="15"/>
       <c r="P592" s="17"/>
     </row>
-    <row r="593" spans="2:16">
+    <row r="593" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B593" s="1"/>
       <c r="C593" s="3"/>
       <c r="D593" s="5"/>
@@ -17291,7 +17291,7 @@
       <c r="O593" s="15"/>
       <c r="P593" s="17"/>
     </row>
-    <row r="594" spans="2:16">
+    <row r="594" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B594" s="19"/>
       <c r="C594" s="3"/>
       <c r="D594" s="5"/>
@@ -17308,7 +17308,7 @@
       <c r="O594" s="15"/>
       <c r="P594" s="17"/>
     </row>
-    <row r="595" spans="2:16">
+    <row r="595" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B595" s="1"/>
       <c r="C595" s="3"/>
       <c r="D595" s="5"/>
@@ -17325,7 +17325,7 @@
       <c r="O595" s="15"/>
       <c r="P595" s="17"/>
     </row>
-    <row r="596" spans="2:16" ht="17" thickBot="1">
+    <row r="596" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
       <c r="C596" s="4"/>
       <c r="D596" s="6"/>
@@ -17342,7 +17342,7 @@
       <c r="O596" s="16"/>
       <c r="P596" s="18"/>
     </row>
-    <row r="597" spans="2:16">
+    <row r="597" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B597" s="45"/>
       <c r="C597" s="45"/>
       <c r="D597" s="45"/>
@@ -17359,7 +17359,7 @@
       <c r="O597" s="45"/>
       <c r="P597" s="45"/>
     </row>
-    <row r="598" spans="2:16">
+    <row r="598" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B598" s="45"/>
       <c r="C598" s="45"/>
       <c r="D598" s="45"/>
@@ -17376,7 +17376,7 @@
       <c r="O598" s="45"/>
       <c r="P598" s="45"/>
     </row>
-    <row r="599" spans="2:16" ht="17" thickBot="1">
+    <row r="599" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B599" s="45"/>
       <c r="C599" s="45"/>
       <c r="D599" s="45"/>
@@ -17393,7 +17393,7 @@
       <c r="O599" s="45"/>
       <c r="P599" s="45"/>
     </row>
-    <row r="600" spans="2:16" ht="17" thickBot="1">
+    <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
@@ -17412,7 +17412,7 @@
       <c r="O600" s="116"/>
       <c r="P600" s="117"/>
     </row>
-    <row r="601" spans="2:16" ht="17" thickBot="1">
+    <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
         <v>14</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="2:16">
+    <row r="602" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B602" s="1"/>
       <c r="C602" s="3" t="s">
         <v>498</v>
@@ -17478,7 +17478,7 @@
       <c r="O602" s="15"/>
       <c r="P602" s="17"/>
     </row>
-    <row r="603" spans="2:16">
+    <row r="603" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B603" s="19">
         <v>1</v>
       </c>
@@ -17501,7 +17501,7 @@
       <c r="O603" s="23"/>
       <c r="P603" s="24"/>
     </row>
-    <row r="604" spans="2:16">
+    <row r="604" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B604" s="1">
         <v>2</v>
       </c>
@@ -17524,7 +17524,7 @@
       <c r="O604" s="15"/>
       <c r="P604" s="17"/>
     </row>
-    <row r="605" spans="2:16">
+    <row r="605" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B605" s="19">
         <v>3</v>
       </c>
@@ -17547,7 +17547,7 @@
       <c r="O605" s="15"/>
       <c r="P605" s="17"/>
     </row>
-    <row r="606" spans="2:16">
+    <row r="606" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B606" s="1"/>
       <c r="C606" s="3" t="s">
         <v>53</v>
@@ -17566,7 +17566,7 @@
       <c r="O606" s="15"/>
       <c r="P606" s="17"/>
     </row>
-    <row r="607" spans="2:16">
+    <row r="607" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B607" s="19">
         <v>4</v>
       </c>
@@ -17589,7 +17589,7 @@
       <c r="O607" s="15"/>
       <c r="P607" s="17"/>
     </row>
-    <row r="608" spans="2:16">
+    <row r="608" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B608" s="1">
         <v>5</v>
       </c>
@@ -17612,7 +17612,7 @@
       <c r="O608" s="15"/>
       <c r="P608" s="17"/>
     </row>
-    <row r="609" spans="2:16">
+    <row r="609" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B609" s="19">
         <v>6</v>
       </c>
@@ -17635,7 +17635,7 @@
       <c r="O609" s="15"/>
       <c r="P609" s="17"/>
     </row>
-    <row r="610" spans="2:16">
+    <row r="610" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B610" s="1">
         <v>7</v>
       </c>
@@ -17658,7 +17658,7 @@
       <c r="O610" s="15"/>
       <c r="P610" s="17"/>
     </row>
-    <row r="611" spans="2:16">
+    <row r="611" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B611" s="19">
         <v>8</v>
       </c>
@@ -17681,7 +17681,7 @@
       <c r="O611" s="15"/>
       <c r="P611" s="17"/>
     </row>
-    <row r="612" spans="2:16">
+    <row r="612" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B612" s="1">
         <v>9</v>
       </c>
@@ -17710,7 +17710,7 @@
       <c r="O612" s="15"/>
       <c r="P612" s="17"/>
     </row>
-    <row r="613" spans="2:16">
+    <row r="613" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B613" s="19">
         <v>10</v>
       </c>
@@ -17733,7 +17733,7 @@
       <c r="O613" s="15"/>
       <c r="P613" s="17"/>
     </row>
-    <row r="614" spans="2:16">
+    <row r="614" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B614" s="1">
         <v>11</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="O614" s="15"/>
       <c r="P614" s="17"/>
     </row>
-    <row r="615" spans="2:16">
+    <row r="615" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B615" s="19">
         <v>12</v>
       </c>
@@ -17783,7 +17783,7 @@
       <c r="O615" s="15"/>
       <c r="P615" s="17"/>
     </row>
-    <row r="616" spans="2:16">
+    <row r="616" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B616" s="1">
         <v>13</v>
       </c>
@@ -17806,7 +17806,7 @@
       <c r="O616" s="15"/>
       <c r="P616" s="17"/>
     </row>
-    <row r="617" spans="2:16">
+    <row r="617" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B617" s="19"/>
       <c r="C617" s="3"/>
       <c r="D617" s="5"/>
@@ -17823,7 +17823,7 @@
       <c r="O617" s="15"/>
       <c r="P617" s="17"/>
     </row>
-    <row r="618" spans="2:16">
+    <row r="618" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B618" s="1"/>
       <c r="C618" s="3"/>
       <c r="D618" s="5"/>
@@ -17840,7 +17840,7 @@
       <c r="O618" s="15"/>
       <c r="P618" s="17"/>
     </row>
-    <row r="619" spans="2:16">
+    <row r="619" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B619" s="19"/>
       <c r="C619" s="3"/>
       <c r="D619" s="5"/>
@@ -17857,7 +17857,7 @@
       <c r="O619" s="15"/>
       <c r="P619" s="17"/>
     </row>
-    <row r="620" spans="2:16">
+    <row r="620" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B620" s="1"/>
       <c r="C620" s="3"/>
       <c r="D620" s="5"/>
@@ -17874,7 +17874,7 @@
       <c r="O620" s="15"/>
       <c r="P620" s="17"/>
     </row>
-    <row r="621" spans="2:16">
+    <row r="621" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B621" s="1"/>
       <c r="C621" s="3"/>
       <c r="D621" s="5"/>
@@ -17891,7 +17891,7 @@
       <c r="O621" s="15"/>
       <c r="P621" s="17"/>
     </row>
-    <row r="622" spans="2:16">
+    <row r="622" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B622" s="1"/>
       <c r="C622" s="3"/>
       <c r="D622" s="5"/>
@@ -17908,7 +17908,7 @@
       <c r="O622" s="15"/>
       <c r="P622" s="17"/>
     </row>
-    <row r="623" spans="2:16">
+    <row r="623" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B623" s="1"/>
       <c r="C623" s="3"/>
       <c r="D623" s="5"/>
@@ -17925,7 +17925,7 @@
       <c r="O623" s="15"/>
       <c r="P623" s="17"/>
     </row>
-    <row r="624" spans="2:16">
+    <row r="624" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B624" s="1"/>
       <c r="C624" s="3"/>
       <c r="D624" s="5"/>
@@ -17942,7 +17942,7 @@
       <c r="O624" s="15"/>
       <c r="P624" s="17"/>
     </row>
-    <row r="625" spans="2:16">
+    <row r="625" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B625" s="1"/>
       <c r="C625" s="3"/>
       <c r="D625" s="5"/>
@@ -17959,7 +17959,7 @@
       <c r="O625" s="15"/>
       <c r="P625" s="17"/>
     </row>
-    <row r="626" spans="2:16">
+    <row r="626" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B626" s="1"/>
       <c r="C626" s="3"/>
       <c r="D626" s="5"/>
@@ -17976,7 +17976,7 @@
       <c r="O626" s="15"/>
       <c r="P626" s="17"/>
     </row>
-    <row r="627" spans="2:16">
+    <row r="627" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B627" s="1"/>
       <c r="C627" s="3"/>
       <c r="D627" s="5"/>
@@ -17993,7 +17993,7 @@
       <c r="O627" s="15"/>
       <c r="P627" s="17"/>
     </row>
-    <row r="628" spans="2:16">
+    <row r="628" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B628" s="1"/>
       <c r="C628" s="3"/>
       <c r="D628" s="5"/>
@@ -18010,7 +18010,7 @@
       <c r="O628" s="15"/>
       <c r="P628" s="17"/>
     </row>
-    <row r="629" spans="2:16">
+    <row r="629" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B629" s="1"/>
       <c r="C629" s="3"/>
       <c r="D629" s="5"/>
@@ -18027,7 +18027,7 @@
       <c r="O629" s="15"/>
       <c r="P629" s="17"/>
     </row>
-    <row r="630" spans="2:16">
+    <row r="630" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B630" s="1"/>
       <c r="C630" s="3"/>
       <c r="D630" s="5"/>
@@ -18044,7 +18044,7 @@
       <c r="O630" s="15"/>
       <c r="P630" s="17"/>
     </row>
-    <row r="631" spans="2:16">
+    <row r="631" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B631" s="1"/>
       <c r="C631" s="3"/>
       <c r="D631" s="5"/>
@@ -18061,7 +18061,7 @@
       <c r="O631" s="15"/>
       <c r="P631" s="17"/>
     </row>
-    <row r="632" spans="2:16">
+    <row r="632" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B632" s="1"/>
       <c r="C632" s="3"/>
       <c r="D632" s="5"/>
@@ -18078,7 +18078,7 @@
       <c r="O632" s="15"/>
       <c r="P632" s="17"/>
     </row>
-    <row r="633" spans="2:16" ht="17" thickBot="1">
+    <row r="633" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
       <c r="C633" s="4"/>
       <c r="D633" s="6"/>
@@ -18095,7 +18095,7 @@
       <c r="O633" s="16"/>
       <c r="P633" s="18"/>
     </row>
-    <row r="634" spans="2:16">
+    <row r="634" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B634" s="45"/>
       <c r="C634" s="45"/>
       <c r="D634" s="45"/>
@@ -18112,7 +18112,7 @@
       <c r="O634" s="45"/>
       <c r="P634" s="45"/>
     </row>
-    <row r="635" spans="2:16">
+    <row r="635" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B635" s="45"/>
       <c r="C635" s="45"/>
       <c r="D635" s="45"/>
@@ -18129,7 +18129,7 @@
       <c r="O635" s="45"/>
       <c r="P635" s="45"/>
     </row>
-    <row r="636" spans="2:16" ht="17" thickBot="1">
+    <row r="636" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B636" s="45"/>
       <c r="C636" s="45"/>
       <c r="D636" s="45"/>
@@ -18146,7 +18146,7 @@
       <c r="O636" s="45"/>
       <c r="P636" s="45"/>
     </row>
-    <row r="637" spans="2:16" ht="17" thickBot="1">
+    <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
@@ -18165,7 +18165,7 @@
       <c r="O637" s="116"/>
       <c r="P637" s="117"/>
     </row>
-    <row r="638" spans="2:16" ht="17" thickBot="1">
+    <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
         <v>14</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="2:16">
+    <row r="639" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B639" s="19"/>
       <c r="C639" s="3" t="s">
         <v>498</v>
@@ -18231,7 +18231,7 @@
       <c r="O639" s="15"/>
       <c r="P639" s="17"/>
     </row>
-    <row r="640" spans="2:16">
+    <row r="640" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B640" s="19">
         <v>1</v>
       </c>
@@ -18260,7 +18260,7 @@
       <c r="O640" s="15"/>
       <c r="P640" s="17"/>
     </row>
-    <row r="641" spans="2:16">
+    <row r="641" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B641" s="1">
         <v>2</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="O641" s="15"/>
       <c r="P641" s="17"/>
     </row>
-    <row r="642" spans="2:16">
+    <row r="642" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B642" s="19">
         <v>3</v>
       </c>
@@ -18306,7 +18306,7 @@
       <c r="O642" s="15"/>
       <c r="P642" s="17"/>
     </row>
-    <row r="643" spans="2:16">
+    <row r="643" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B643" s="1">
         <v>4</v>
       </c>
@@ -18331,7 +18331,7 @@
       <c r="O643" s="15"/>
       <c r="P643" s="17"/>
     </row>
-    <row r="644" spans="2:16">
+    <row r="644" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B644" s="19"/>
       <c r="C644" s="3"/>
       <c r="D644" s="5"/>
@@ -18348,7 +18348,7 @@
       <c r="O644" s="15"/>
       <c r="P644" s="17"/>
     </row>
-    <row r="645" spans="2:16" ht="17" thickBot="1">
+    <row r="645" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
       <c r="C645" s="4"/>
       <c r="D645" s="6"/>
@@ -18365,7 +18365,7 @@
       <c r="O645" s="16"/>
       <c r="P645" s="18"/>
     </row>
-    <row r="646" spans="2:16">
+    <row r="646" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B646" s="45"/>
       <c r="C646" s="45"/>
       <c r="D646" s="45"/>
@@ -18382,7 +18382,7 @@
       <c r="O646" s="45"/>
       <c r="P646" s="45"/>
     </row>
-    <row r="647" spans="2:16">
+    <row r="647" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B647" s="45"/>
       <c r="C647" s="45"/>
       <c r="D647" s="45"/>
@@ -18399,7 +18399,7 @@
       <c r="O647" s="45"/>
       <c r="P647" s="45"/>
     </row>
-    <row r="648" spans="2:16" ht="17" thickBot="1">
+    <row r="648" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B648" s="45"/>
       <c r="C648" s="45"/>
       <c r="D648" s="45"/>
@@ -18416,7 +18416,7 @@
       <c r="O648" s="45"/>
       <c r="P648" s="45"/>
     </row>
-    <row r="649" spans="2:16" ht="17" thickBot="1">
+    <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
@@ -18435,7 +18435,7 @@
       <c r="O649" s="116"/>
       <c r="P649" s="117"/>
     </row>
-    <row r="650" spans="2:16" ht="17" thickBot="1">
+    <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
         <v>14</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="2:16">
+    <row r="651" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B651" s="19"/>
       <c r="C651" s="3"/>
       <c r="D651" s="5"/>
@@ -18499,7 +18499,7 @@
       <c r="O651" s="15"/>
       <c r="P651" s="17"/>
     </row>
-    <row r="652" spans="2:16">
+    <row r="652" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B652" s="19"/>
       <c r="C652" s="3" t="s">
         <v>498</v>
@@ -18518,7 +18518,7 @@
       <c r="O652" s="15"/>
       <c r="P652" s="17"/>
     </row>
-    <row r="653" spans="2:16">
+    <row r="653" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B653" s="19">
         <v>1</v>
       </c>
@@ -18541,7 +18541,7 @@
       <c r="O653" s="23"/>
       <c r="P653" s="24"/>
     </row>
-    <row r="654" spans="2:16">
+    <row r="654" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B654" s="1">
         <v>2</v>
       </c>
@@ -18564,7 +18564,7 @@
       <c r="O654" s="15"/>
       <c r="P654" s="17"/>
     </row>
-    <row r="655" spans="2:16">
+    <row r="655" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B655" s="19">
         <v>3</v>
       </c>
@@ -18587,7 +18587,7 @@
       <c r="O655" s="15"/>
       <c r="P655" s="17"/>
     </row>
-    <row r="656" spans="2:16">
+    <row r="656" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B656" s="1">
         <v>4</v>
       </c>
@@ -18610,7 +18610,7 @@
       <c r="O656" s="15"/>
       <c r="P656" s="17"/>
     </row>
-    <row r="657" spans="2:16">
+    <row r="657" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B657" s="19">
         <v>5</v>
       </c>
@@ -18633,7 +18633,7 @@
       <c r="O657" s="15"/>
       <c r="P657" s="17"/>
     </row>
-    <row r="658" spans="2:16">
+    <row r="658" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B658" s="1">
         <v>6</v>
       </c>
@@ -18662,7 +18662,7 @@
       <c r="O658" s="15"/>
       <c r="P658" s="17"/>
     </row>
-    <row r="659" spans="2:16">
+    <row r="659" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B659" s="19"/>
       <c r="C659" s="3"/>
       <c r="D659" s="5"/>
@@ -18679,7 +18679,7 @@
       <c r="O659" s="15"/>
       <c r="P659" s="17"/>
     </row>
-    <row r="660" spans="2:16">
+    <row r="660" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B660" s="1"/>
       <c r="C660" s="3"/>
       <c r="D660" s="5"/>
@@ -18696,7 +18696,7 @@
       <c r="O660" s="15"/>
       <c r="P660" s="17"/>
     </row>
-    <row r="661" spans="2:16">
+    <row r="661" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B661" s="19"/>
       <c r="C661" s="3"/>
       <c r="D661" s="5"/>
@@ -18713,7 +18713,7 @@
       <c r="O661" s="15"/>
       <c r="P661" s="17"/>
     </row>
-    <row r="662" spans="2:16">
+    <row r="662" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B662" s="1"/>
       <c r="C662" s="3"/>
       <c r="D662" s="5"/>
@@ -18730,7 +18730,7 @@
       <c r="O662" s="15"/>
       <c r="P662" s="17"/>
     </row>
-    <row r="663" spans="2:16">
+    <row r="663" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B663" s="19"/>
       <c r="C663" s="3"/>
       <c r="D663" s="5"/>
@@ -18747,7 +18747,7 @@
       <c r="O663" s="15"/>
       <c r="P663" s="17"/>
     </row>
-    <row r="664" spans="2:16">
+    <row r="664" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B664" s="1"/>
       <c r="C664" s="3"/>
       <c r="D664" s="5"/>
@@ -18764,7 +18764,7 @@
       <c r="O664" s="15"/>
       <c r="P664" s="17"/>
     </row>
-    <row r="665" spans="2:16">
+    <row r="665" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B665" s="1"/>
       <c r="C665" s="3"/>
       <c r="D665" s="5"/>
@@ -18781,7 +18781,7 @@
       <c r="O665" s="15"/>
       <c r="P665" s="17"/>
     </row>
-    <row r="666" spans="2:16">
+    <row r="666" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B666" s="1"/>
       <c r="C666" s="3"/>
       <c r="D666" s="5"/>
@@ -18798,7 +18798,7 @@
       <c r="O666" s="15"/>
       <c r="P666" s="17"/>
     </row>
-    <row r="667" spans="2:16">
+    <row r="667" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B667" s="1"/>
       <c r="C667" s="3"/>
       <c r="D667" s="5"/>
@@ -18815,7 +18815,7 @@
       <c r="O667" s="15"/>
       <c r="P667" s="17"/>
     </row>
-    <row r="668" spans="2:16">
+    <row r="668" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B668" s="1"/>
       <c r="C668" s="3"/>
       <c r="D668" s="5"/>
@@ -18832,7 +18832,7 @@
       <c r="O668" s="15"/>
       <c r="P668" s="17"/>
     </row>
-    <row r="669" spans="2:16">
+    <row r="669" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B669" s="1"/>
       <c r="C669" s="3"/>
       <c r="D669" s="5"/>
@@ -18849,7 +18849,7 @@
       <c r="O669" s="15"/>
       <c r="P669" s="17"/>
     </row>
-    <row r="670" spans="2:16">
+    <row r="670" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B670" s="1"/>
       <c r="C670" s="3"/>
       <c r="D670" s="5"/>
@@ -18866,7 +18866,7 @@
       <c r="O670" s="15"/>
       <c r="P670" s="17"/>
     </row>
-    <row r="671" spans="2:16" ht="17" thickBot="1">
+    <row r="671" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
       <c r="C671" s="4"/>
       <c r="D671" s="6"/>
@@ -18883,7 +18883,7 @@
       <c r="O671" s="16"/>
       <c r="P671" s="18"/>
     </row>
-    <row r="672" spans="2:16">
+    <row r="672" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B672" s="45"/>
       <c r="C672" s="45"/>
       <c r="D672" s="45"/>
@@ -18900,7 +18900,7 @@
       <c r="O672" s="45"/>
       <c r="P672" s="45"/>
     </row>
-    <row r="673" spans="2:16">
+    <row r="673" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B673" s="45"/>
       <c r="C673" s="45"/>
       <c r="D673" s="45"/>
@@ -18917,7 +18917,7 @@
       <c r="O673" s="45"/>
       <c r="P673" s="45"/>
     </row>
-    <row r="674" spans="2:16" ht="17" thickBot="1">
+    <row r="674" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B674" s="45"/>
       <c r="C674" s="45"/>
       <c r="D674" s="45"/>
@@ -18934,7 +18934,7 @@
       <c r="O674" s="45"/>
       <c r="P674" s="45"/>
     </row>
-    <row r="675" spans="2:16" ht="17" thickBot="1">
+    <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
@@ -18953,7 +18953,7 @@
       <c r="O675" s="112"/>
       <c r="P675" s="113"/>
     </row>
-    <row r="676" spans="2:16" ht="17" thickBot="1">
+    <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
         <v>14</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="2:16">
+    <row r="677" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B677" s="59"/>
       <c r="C677" s="60" t="s">
         <v>498</v>
@@ -19019,7 +19019,7 @@
       <c r="O677" s="68"/>
       <c r="P677" s="69"/>
     </row>
-    <row r="678" spans="2:16">
+    <row r="678" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B678" s="59"/>
       <c r="C678" s="60" t="s">
         <v>44</v>
@@ -19038,7 +19038,7 @@
       <c r="O678" s="68"/>
       <c r="P678" s="69"/>
     </row>
-    <row r="679" spans="2:16">
+    <row r="679" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B679" s="59">
         <v>1</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="O679" s="68"/>
       <c r="P679" s="69"/>
     </row>
-    <row r="680" spans="2:16">
+    <row r="680" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B680" s="59">
         <v>2</v>
       </c>
@@ -19090,7 +19090,7 @@
       <c r="O680" s="68"/>
       <c r="P680" s="69"/>
     </row>
-    <row r="681" spans="2:16">
+    <row r="681" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B681" s="59">
         <v>3</v>
       </c>
@@ -19113,7 +19113,7 @@
       <c r="O681" s="68"/>
       <c r="P681" s="69"/>
     </row>
-    <row r="682" spans="2:16">
+    <row r="682" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B682" s="59"/>
       <c r="C682" s="60" t="s">
         <v>402</v>
@@ -19132,7 +19132,7 @@
       <c r="O682" s="68"/>
       <c r="P682" s="69"/>
     </row>
-    <row r="683" spans="2:16">
+    <row r="683" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B683" s="59">
         <v>4</v>
       </c>
@@ -19155,7 +19155,7 @@
       <c r="O683" s="68"/>
       <c r="P683" s="69"/>
     </row>
-    <row r="684" spans="2:16">
+    <row r="684" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B684" s="59">
         <v>5</v>
       </c>
@@ -19178,7 +19178,7 @@
       <c r="O684" s="68"/>
       <c r="P684" s="69"/>
     </row>
-    <row r="685" spans="2:16">
+    <row r="685" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B685" s="59">
         <v>6</v>
       </c>
@@ -19201,7 +19201,7 @@
       <c r="O685" s="68"/>
       <c r="P685" s="69"/>
     </row>
-    <row r="686" spans="2:16">
+    <row r="686" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B686" s="59">
         <v>7</v>
       </c>
@@ -19224,7 +19224,7 @@
       <c r="O686" s="68"/>
       <c r="P686" s="69"/>
     </row>
-    <row r="687" spans="2:16">
+    <row r="687" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B687" s="59">
         <v>8</v>
       </c>
@@ -19247,7 +19247,7 @@
       <c r="O687" s="68"/>
       <c r="P687" s="69"/>
     </row>
-    <row r="688" spans="2:16">
+    <row r="688" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B688" s="59"/>
       <c r="C688" s="60"/>
       <c r="D688" s="61"/>
@@ -19264,7 +19264,7 @@
       <c r="O688" s="68"/>
       <c r="P688" s="69"/>
     </row>
-    <row r="689" spans="2:16">
+    <row r="689" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B689" s="59"/>
       <c r="C689" s="60"/>
       <c r="D689" s="61"/>
@@ -19281,7 +19281,7 @@
       <c r="O689" s="68"/>
       <c r="P689" s="69"/>
     </row>
-    <row r="690" spans="2:16">
+    <row r="690" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B690" s="59"/>
       <c r="C690" s="60"/>
       <c r="D690" s="61"/>
@@ -19298,7 +19298,7 @@
       <c r="O690" s="68"/>
       <c r="P690" s="69"/>
     </row>
-    <row r="691" spans="2:16">
+    <row r="691" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B691" s="59"/>
       <c r="C691" s="60"/>
       <c r="D691" s="61"/>
@@ -19315,7 +19315,7 @@
       <c r="O691" s="68"/>
       <c r="P691" s="69"/>
     </row>
-    <row r="692" spans="2:16">
+    <row r="692" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B692" s="59"/>
       <c r="C692" s="60"/>
       <c r="D692" s="61"/>
@@ -19332,7 +19332,7 @@
       <c r="O692" s="68"/>
       <c r="P692" s="69"/>
     </row>
-    <row r="693" spans="2:16">
+    <row r="693" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B693" s="59"/>
       <c r="C693" s="60"/>
       <c r="D693" s="61"/>
@@ -19349,7 +19349,7 @@
       <c r="O693" s="68"/>
       <c r="P693" s="69"/>
     </row>
-    <row r="694" spans="2:16">
+    <row r="694" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B694" s="59"/>
       <c r="C694" s="60"/>
       <c r="D694" s="61"/>
@@ -19366,7 +19366,7 @@
       <c r="O694" s="68"/>
       <c r="P694" s="69"/>
     </row>
-    <row r="695" spans="2:16">
+    <row r="695" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B695" s="59"/>
       <c r="C695" s="60"/>
       <c r="D695" s="61"/>
@@ -19383,7 +19383,7 @@
       <c r="O695" s="68"/>
       <c r="P695" s="69"/>
     </row>
-    <row r="696" spans="2:16">
+    <row r="696" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B696" s="59"/>
       <c r="C696" s="60"/>
       <c r="D696" s="61"/>
@@ -19400,7 +19400,7 @@
       <c r="O696" s="68"/>
       <c r="P696" s="69"/>
     </row>
-    <row r="697" spans="2:16">
+    <row r="697" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B697" s="59"/>
       <c r="C697" s="60"/>
       <c r="D697" s="61"/>
@@ -19417,7 +19417,7 @@
       <c r="O697" s="68"/>
       <c r="P697" s="69"/>
     </row>
-    <row r="698" spans="2:16">
+    <row r="698" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B698" s="59"/>
       <c r="C698" s="60"/>
       <c r="D698" s="61"/>
@@ -19434,7 +19434,7 @@
       <c r="O698" s="68"/>
       <c r="P698" s="69"/>
     </row>
-    <row r="699" spans="2:16">
+    <row r="699" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B699" s="59"/>
       <c r="C699" s="60"/>
       <c r="D699" s="61"/>
@@ -19451,7 +19451,7 @@
       <c r="O699" s="68"/>
       <c r="P699" s="69"/>
     </row>
-    <row r="700" spans="2:16" ht="17" thickBot="1">
+    <row r="700" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B700" s="71"/>
       <c r="C700" s="72"/>
       <c r="D700" s="73"/>
@@ -19468,7 +19468,7 @@
       <c r="O700" s="80"/>
       <c r="P700" s="81"/>
     </row>
-    <row r="701" spans="2:16">
+    <row r="701" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B701" s="45"/>
       <c r="C701" s="45"/>
       <c r="D701" s="45"/>
@@ -19485,7 +19485,7 @@
       <c r="O701" s="45"/>
       <c r="P701" s="45"/>
     </row>
-    <row r="702" spans="2:16">
+    <row r="702" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B702" s="45"/>
       <c r="C702" s="45"/>
       <c r="D702" s="45"/>
@@ -19502,7 +19502,7 @@
       <c r="O702" s="45"/>
       <c r="P702" s="45"/>
     </row>
-    <row r="703" spans="2:16" ht="17" thickBot="1">
+    <row r="703" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B703" s="45"/>
       <c r="C703" s="45"/>
       <c r="D703" s="45"/>
@@ -19519,7 +19519,7 @@
       <c r="O703" s="45"/>
       <c r="P703" s="45"/>
     </row>
-    <row r="704" spans="2:16" ht="17" thickBot="1">
+    <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
@@ -19538,7 +19538,7 @@
       <c r="O704" s="112"/>
       <c r="P704" s="113"/>
     </row>
-    <row r="705" spans="2:16" ht="17" thickBot="1">
+    <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
         <v>14</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="706" spans="2:16">
+    <row r="706" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B706" s="59"/>
       <c r="C706" s="60" t="s">
         <v>498</v>
@@ -19604,7 +19604,7 @@
       <c r="O706" s="68"/>
       <c r="P706" s="69"/>
     </row>
-    <row r="707" spans="2:16">
+    <row r="707" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B707" s="59">
         <v>1</v>
       </c>
@@ -19635,7 +19635,7 @@
       <c r="O707" s="68"/>
       <c r="P707" s="69"/>
     </row>
-    <row r="708" spans="2:16">
+    <row r="708" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B708" s="59">
         <v>2</v>
       </c>
@@ -19658,7 +19658,7 @@
       <c r="O708" s="68"/>
       <c r="P708" s="69"/>
     </row>
-    <row r="709" spans="2:16">
+    <row r="709" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B709" s="59">
         <v>3</v>
       </c>
@@ -19681,7 +19681,7 @@
       <c r="O709" s="68"/>
       <c r="P709" s="69"/>
     </row>
-    <row r="710" spans="2:16">
+    <row r="710" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B710" s="59"/>
       <c r="C710" s="60"/>
       <c r="D710" s="61"/>
@@ -19698,7 +19698,7 @@
       <c r="O710" s="68"/>
       <c r="P710" s="69"/>
     </row>
-    <row r="711" spans="2:16">
+    <row r="711" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B711" s="59"/>
       <c r="C711" s="60"/>
       <c r="D711" s="61"/>
@@ -19715,7 +19715,7 @@
       <c r="O711" s="68"/>
       <c r="P711" s="69"/>
     </row>
-    <row r="712" spans="2:16">
+    <row r="712" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B712" s="59"/>
       <c r="C712" s="60"/>
       <c r="D712" s="61"/>
@@ -19732,7 +19732,7 @@
       <c r="O712" s="68"/>
       <c r="P712" s="69"/>
     </row>
-    <row r="713" spans="2:16">
+    <row r="713" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B713" s="59"/>
       <c r="C713" s="60"/>
       <c r="D713" s="61"/>
@@ -19749,7 +19749,7 @@
       <c r="O713" s="68"/>
       <c r="P713" s="69"/>
     </row>
-    <row r="714" spans="2:16">
+    <row r="714" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B714" s="59"/>
       <c r="C714" s="60"/>
       <c r="D714" s="61"/>
@@ -19766,7 +19766,7 @@
       <c r="O714" s="68"/>
       <c r="P714" s="69"/>
     </row>
-    <row r="715" spans="2:16">
+    <row r="715" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B715" s="59"/>
       <c r="C715" s="60"/>
       <c r="D715" s="61"/>
@@ -19783,7 +19783,7 @@
       <c r="O715" s="68"/>
       <c r="P715" s="69"/>
     </row>
-    <row r="716" spans="2:16">
+    <row r="716" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B716" s="59"/>
       <c r="C716" s="60"/>
       <c r="D716" s="61"/>
@@ -19800,7 +19800,7 @@
       <c r="O716" s="68"/>
       <c r="P716" s="69"/>
     </row>
-    <row r="717" spans="2:16" ht="17" thickBot="1">
+    <row r="717" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B717" s="71"/>
       <c r="C717" s="72"/>
       <c r="D717" s="73"/>
@@ -19817,7 +19817,7 @@
       <c r="O717" s="80"/>
       <c r="P717" s="81"/>
     </row>
-    <row r="718" spans="2:16">
+    <row r="718" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B718" s="45"/>
       <c r="C718" s="45"/>
       <c r="D718" s="45"/>
@@ -19834,7 +19834,7 @@
       <c r="O718" s="45"/>
       <c r="P718" s="45"/>
     </row>
-    <row r="719" spans="2:16">
+    <row r="719" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B719" s="45"/>
       <c r="C719" s="45"/>
       <c r="D719" s="45"/>
@@ -19851,7 +19851,7 @@
       <c r="O719" s="45"/>
       <c r="P719" s="45"/>
     </row>
-    <row r="720" spans="2:16" ht="17" thickBot="1">
+    <row r="720" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B720" s="45"/>
       <c r="C720" s="45"/>
       <c r="D720" s="45"/>
@@ -19868,7 +19868,7 @@
       <c r="O720" s="45"/>
       <c r="P720" s="45"/>
     </row>
-    <row r="721" spans="2:16" ht="17" thickBot="1">
+    <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="O721" s="112"/>
       <c r="P721" s="113"/>
     </row>
-    <row r="722" spans="2:16" ht="17" thickBot="1">
+    <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
         <v>14</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="2:16">
+    <row r="723" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B723" s="59"/>
       <c r="C723" s="60" t="s">
         <v>498</v>
@@ -19953,7 +19953,7 @@
       <c r="O723" s="68"/>
       <c r="P723" s="69"/>
     </row>
-    <row r="724" spans="2:16">
+    <row r="724" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B724" s="59">
         <v>1</v>
       </c>
@@ -19976,7 +19976,7 @@
       <c r="O724" s="68"/>
       <c r="P724" s="69"/>
     </row>
-    <row r="725" spans="2:16">
+    <row r="725" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B725" s="59">
         <v>2</v>
       </c>
@@ -19999,7 +19999,7 @@
       <c r="O725" s="68"/>
       <c r="P725" s="69"/>
     </row>
-    <row r="726" spans="2:16">
+    <row r="726" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B726" s="59">
         <v>3</v>
       </c>
@@ -20022,7 +20022,7 @@
       <c r="O726" s="68"/>
       <c r="P726" s="69"/>
     </row>
-    <row r="727" spans="2:16">
+    <row r="727" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B727" s="59"/>
       <c r="C727" s="60"/>
       <c r="D727" s="61"/>
@@ -20039,7 +20039,7 @@
       <c r="O727" s="68"/>
       <c r="P727" s="69"/>
     </row>
-    <row r="728" spans="2:16">
+    <row r="728" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B728" s="59"/>
       <c r="C728" s="60"/>
       <c r="D728" s="61"/>
@@ -20056,7 +20056,7 @@
       <c r="O728" s="68"/>
       <c r="P728" s="69"/>
     </row>
-    <row r="729" spans="2:16">
+    <row r="729" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B729" s="59"/>
       <c r="C729" s="60"/>
       <c r="D729" s="61"/>
@@ -20073,7 +20073,7 @@
       <c r="O729" s="68"/>
       <c r="P729" s="69"/>
     </row>
-    <row r="730" spans="2:16">
+    <row r="730" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B730" s="59"/>
       <c r="C730" s="60"/>
       <c r="D730" s="61"/>
@@ -20090,7 +20090,7 @@
       <c r="O730" s="68"/>
       <c r="P730" s="69"/>
     </row>
-    <row r="731" spans="2:16">
+    <row r="731" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B731" s="59"/>
       <c r="C731" s="60"/>
       <c r="D731" s="61"/>
@@ -20107,7 +20107,7 @@
       <c r="O731" s="68"/>
       <c r="P731" s="69"/>
     </row>
-    <row r="732" spans="2:16">
+    <row r="732" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B732" s="59"/>
       <c r="C732" s="60"/>
       <c r="D732" s="61"/>
@@ -20124,7 +20124,7 @@
       <c r="O732" s="68"/>
       <c r="P732" s="69"/>
     </row>
-    <row r="733" spans="2:16">
+    <row r="733" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B733" s="59"/>
       <c r="C733" s="60"/>
       <c r="D733" s="61"/>
@@ -20141,7 +20141,7 @@
       <c r="O733" s="68"/>
       <c r="P733" s="69"/>
     </row>
-    <row r="734" spans="2:16">
+    <row r="734" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B734" s="59"/>
       <c r="C734" s="60"/>
       <c r="D734" s="61"/>
@@ -20158,7 +20158,7 @@
       <c r="O734" s="68"/>
       <c r="P734" s="69"/>
     </row>
-    <row r="735" spans="2:16">
+    <row r="735" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B735" s="59"/>
       <c r="C735" s="60"/>
       <c r="D735" s="61"/>
@@ -20175,7 +20175,7 @@
       <c r="O735" s="68"/>
       <c r="P735" s="69"/>
     </row>
-    <row r="736" spans="2:16">
+    <row r="736" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B736" s="59"/>
       <c r="C736" s="60"/>
       <c r="D736" s="61"/>
@@ -20192,7 +20192,7 @@
       <c r="O736" s="68"/>
       <c r="P736" s="69"/>
     </row>
-    <row r="737" spans="2:16" ht="17" thickBot="1">
+    <row r="737" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B737" s="71"/>
       <c r="C737" s="72"/>
       <c r="D737" s="73"/>
@@ -20209,7 +20209,7 @@
       <c r="O737" s="80"/>
       <c r="P737" s="81"/>
     </row>
-    <row r="738" spans="2:16">
+    <row r="738" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B738" s="45"/>
       <c r="C738" s="45"/>
       <c r="D738" s="45"/>
@@ -20226,7 +20226,7 @@
       <c r="O738" s="45"/>
       <c r="P738" s="45"/>
     </row>
-    <row r="739" spans="2:16">
+    <row r="739" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B739" s="45"/>
       <c r="C739" s="45"/>
       <c r="D739" s="45"/>
@@ -20243,7 +20243,7 @@
       <c r="O739" s="45"/>
       <c r="P739" s="45"/>
     </row>
-    <row r="740" spans="2:16" ht="17" thickBot="1">
+    <row r="740" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B740" s="45"/>
       <c r="C740" s="45"/>
       <c r="D740" s="45"/>
@@ -20260,7 +20260,7 @@
       <c r="O740" s="45"/>
       <c r="P740" s="45"/>
     </row>
-    <row r="741" spans="2:16" ht="17" thickBot="1">
+    <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
@@ -20279,7 +20279,7 @@
       <c r="O741" s="112"/>
       <c r="P741" s="113"/>
     </row>
-    <row r="742" spans="2:16" ht="17" thickBot="1">
+    <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
         <v>14</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="2:16">
+    <row r="743" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B743" s="59"/>
       <c r="C743" s="60" t="s">
         <v>498</v>
@@ -20345,7 +20345,7 @@
       <c r="O743" s="68"/>
       <c r="P743" s="69"/>
     </row>
-    <row r="744" spans="2:16">
+    <row r="744" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B744" s="59">
         <v>1</v>
       </c>
@@ -20368,7 +20368,7 @@
       <c r="O744" s="68"/>
       <c r="P744" s="69"/>
     </row>
-    <row r="745" spans="2:16">
+    <row r="745" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B745" s="59">
         <v>2</v>
       </c>
@@ -20391,7 +20391,7 @@
       <c r="O745" s="68"/>
       <c r="P745" s="69"/>
     </row>
-    <row r="746" spans="2:16">
+    <row r="746" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B746" s="59">
         <v>3</v>
       </c>
@@ -20414,7 +20414,7 @@
       <c r="O746" s="68"/>
       <c r="P746" s="69"/>
     </row>
-    <row r="747" spans="2:16">
+    <row r="747" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B747" s="59">
         <v>4</v>
       </c>
@@ -20437,7 +20437,7 @@
       <c r="O747" s="68"/>
       <c r="P747" s="69"/>
     </row>
-    <row r="748" spans="2:16">
+    <row r="748" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B748" s="59">
         <v>5</v>
       </c>
@@ -20460,7 +20460,7 @@
       <c r="O748" s="68"/>
       <c r="P748" s="69"/>
     </row>
-    <row r="749" spans="2:16">
+    <row r="749" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B749" s="59">
         <v>6</v>
       </c>
@@ -20483,7 +20483,7 @@
       <c r="O749" s="68"/>
       <c r="P749" s="69"/>
     </row>
-    <row r="750" spans="2:16">
+    <row r="750" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B750" s="59">
         <v>7</v>
       </c>
@@ -20506,7 +20506,7 @@
       <c r="O750" s="68"/>
       <c r="P750" s="69"/>
     </row>
-    <row r="751" spans="2:16">
+    <row r="751" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B751" s="59">
         <v>8</v>
       </c>
@@ -20537,7 +20537,7 @@
       <c r="O751" s="68"/>
       <c r="P751" s="69"/>
     </row>
-    <row r="752" spans="2:16">
+    <row r="752" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B752" s="59">
         <v>9</v>
       </c>
@@ -20560,7 +20560,7 @@
       <c r="O752" s="68"/>
       <c r="P752" s="69"/>
     </row>
-    <row r="753" spans="2:16">
+    <row r="753" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B753" s="59">
         <v>10</v>
       </c>
@@ -20583,7 +20583,7 @@
       <c r="O753" s="68"/>
       <c r="P753" s="69"/>
     </row>
-    <row r="754" spans="2:16">
+    <row r="754" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B754" s="59">
         <v>11</v>
       </c>
@@ -20606,7 +20606,7 @@
       <c r="O754" s="68"/>
       <c r="P754" s="69"/>
     </row>
-    <row r="755" spans="2:16">
+    <row r="755" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B755" s="59">
         <v>12</v>
       </c>
@@ -20631,7 +20631,7 @@
       <c r="O755" s="68"/>
       <c r="P755" s="69"/>
     </row>
-    <row r="756" spans="2:16">
+    <row r="756" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B756" s="59">
         <v>13</v>
       </c>
@@ -20654,7 +20654,7 @@
       <c r="O756" s="68"/>
       <c r="P756" s="69"/>
     </row>
-    <row r="757" spans="2:16">
+    <row r="757" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B757" s="59">
         <v>14</v>
       </c>
@@ -20677,7 +20677,7 @@
       <c r="O757" s="68"/>
       <c r="P757" s="69"/>
     </row>
-    <row r="758" spans="2:16">
+    <row r="758" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B758" s="59">
         <v>15</v>
       </c>
@@ -20700,7 +20700,7 @@
       <c r="O758" s="68"/>
       <c r="P758" s="69"/>
     </row>
-    <row r="759" spans="2:16">
+    <row r="759" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B759" s="59">
         <v>16</v>
       </c>
@@ -20723,7 +20723,7 @@
       <c r="O759" s="68"/>
       <c r="P759" s="69"/>
     </row>
-    <row r="760" spans="2:16">
+    <row r="760" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B760" s="59">
         <v>17</v>
       </c>
@@ -20746,7 +20746,7 @@
       <c r="O760" s="68"/>
       <c r="P760" s="69"/>
     </row>
-    <row r="761" spans="2:16">
+    <row r="761" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B761" s="59"/>
       <c r="C761" s="60"/>
       <c r="D761" s="61"/>
@@ -20763,7 +20763,7 @@
       <c r="O761" s="68"/>
       <c r="P761" s="69"/>
     </row>
-    <row r="762" spans="2:16">
+    <row r="762" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B762" s="59"/>
       <c r="C762" s="60"/>
       <c r="D762" s="61"/>
@@ -20780,7 +20780,7 @@
       <c r="O762" s="68"/>
       <c r="P762" s="69"/>
     </row>
-    <row r="763" spans="2:16">
+    <row r="763" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B763" s="59"/>
       <c r="C763" s="60"/>
       <c r="D763" s="61"/>
@@ -20797,7 +20797,7 @@
       <c r="O763" s="68"/>
       <c r="P763" s="69"/>
     </row>
-    <row r="764" spans="2:16">
+    <row r="764" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B764" s="59"/>
       <c r="C764" s="60"/>
       <c r="D764" s="61"/>
@@ -20814,7 +20814,7 @@
       <c r="O764" s="68"/>
       <c r="P764" s="69"/>
     </row>
-    <row r="765" spans="2:16">
+    <row r="765" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B765" s="59"/>
       <c r="C765" s="60"/>
       <c r="D765" s="61"/>
@@ -20831,7 +20831,7 @@
       <c r="O765" s="68"/>
       <c r="P765" s="69"/>
     </row>
-    <row r="766" spans="2:16" ht="17" thickBot="1">
+    <row r="766" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B766" s="71"/>
       <c r="C766" s="72"/>
       <c r="D766" s="73"/>
@@ -20848,7 +20848,7 @@
       <c r="O766" s="80"/>
       <c r="P766" s="81"/>
     </row>
-    <row r="767" spans="2:16">
+    <row r="767" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B767" s="45"/>
       <c r="C767" s="45"/>
       <c r="D767" s="45"/>
@@ -20865,7 +20865,7 @@
       <c r="O767" s="45"/>
       <c r="P767" s="45"/>
     </row>
-    <row r="768" spans="2:16">
+    <row r="768" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B768" s="45"/>
       <c r="C768" s="45"/>
       <c r="D768" s="45"/>
@@ -20882,7 +20882,7 @@
       <c r="O768" s="45"/>
       <c r="P768" s="45"/>
     </row>
-    <row r="769" spans="2:16">
+    <row r="769" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B769" s="45"/>
       <c r="C769" s="45"/>
       <c r="D769" s="45"/>
@@ -20899,7 +20899,7 @@
       <c r="O769" s="45"/>
       <c r="P769" s="45"/>
     </row>
-    <row r="770" spans="2:16">
+    <row r="770" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B770" s="45"/>
       <c r="C770" s="45"/>
       <c r="D770" s="45"/>
@@ -20916,7 +20916,7 @@
       <c r="O770" s="45"/>
       <c r="P770" s="45"/>
     </row>
-    <row r="771" spans="2:16">
+    <row r="771" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B771" s="45"/>
       <c r="C771" s="45"/>
       <c r="D771" s="45"/>
@@ -20933,7 +20933,7 @@
       <c r="O771" s="45"/>
       <c r="P771" s="45"/>
     </row>
-    <row r="772" spans="2:16">
+    <row r="772" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B772" s="45"/>
       <c r="C772" s="45"/>
       <c r="D772" s="45"/>
@@ -20950,7 +20950,7 @@
       <c r="O772" s="45"/>
       <c r="P772" s="45"/>
     </row>
-    <row r="773" spans="2:16">
+    <row r="773" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B773" s="45"/>
       <c r="C773" s="45"/>
       <c r="D773" s="45"/>
@@ -20967,7 +20967,7 @@
       <c r="O773" s="45"/>
       <c r="P773" s="45"/>
     </row>
-    <row r="774" spans="2:16">
+    <row r="774" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B774" s="45"/>
       <c r="C774" s="45"/>
       <c r="D774" s="45"/>
@@ -20984,7 +20984,7 @@
       <c r="O774" s="45"/>
       <c r="P774" s="45"/>
     </row>
-    <row r="775" spans="2:16">
+    <row r="775" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B775" s="45"/>
       <c r="C775" s="45"/>
       <c r="D775" s="45"/>
@@ -21001,7 +21001,7 @@
       <c r="O775" s="45"/>
       <c r="P775" s="45"/>
     </row>
-    <row r="776" spans="2:16">
+    <row r="776" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B776" s="45"/>
       <c r="C776" s="45"/>
       <c r="D776" s="45"/>
@@ -21018,7 +21018,7 @@
       <c r="O776" s="45"/>
       <c r="P776" s="45"/>
     </row>
-    <row r="777" spans="2:16">
+    <row r="777" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B777" s="45"/>
       <c r="C777" s="45"/>
       <c r="D777" s="45"/>
@@ -21035,7 +21035,7 @@
       <c r="O777" s="45"/>
       <c r="P777" s="45"/>
     </row>
-    <row r="778" spans="2:16">
+    <row r="778" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B778" s="45"/>
       <c r="C778" s="45"/>
       <c r="D778" s="45"/>
@@ -21052,7 +21052,7 @@
       <c r="O778" s="45"/>
       <c r="P778" s="45"/>
     </row>
-    <row r="779" spans="2:16">
+    <row r="779" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B779" s="45"/>
       <c r="C779" s="45"/>
       <c r="D779" s="45"/>
@@ -21069,7 +21069,7 @@
       <c r="O779" s="45"/>
       <c r="P779" s="45"/>
     </row>
-    <row r="780" spans="2:16">
+    <row r="780" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B780" s="45"/>
       <c r="C780" s="45"/>
       <c r="D780" s="45"/>
@@ -21086,7 +21086,7 @@
       <c r="O780" s="45"/>
       <c r="P780" s="45"/>
     </row>
-    <row r="781" spans="2:16" ht="17" thickBot="1">
+    <row r="781" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B781" s="45"/>
       <c r="C781" s="45"/>
       <c r="D781" s="45"/>
@@ -21103,7 +21103,7 @@
       <c r="O781" s="45"/>
       <c r="P781" s="45"/>
     </row>
-    <row r="782" spans="2:16" ht="17" thickBot="1">
+    <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
@@ -21122,7 +21122,7 @@
       <c r="O782" s="112"/>
       <c r="P782" s="113"/>
     </row>
-    <row r="783" spans="2:16" ht="17" thickBot="1">
+    <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
         <v>14</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="784" spans="2:16">
+    <row r="784" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B784" s="59"/>
       <c r="C784" s="60" t="s">
         <v>498</v>
@@ -21188,7 +21188,7 @@
       <c r="O784" s="68"/>
       <c r="P784" s="69"/>
     </row>
-    <row r="785" spans="2:16">
+    <row r="785" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B785" s="59"/>
       <c r="C785" s="60">
         <v>912</v>
@@ -21215,7 +21215,7 @@
       <c r="O785" s="68"/>
       <c r="P785" s="69"/>
     </row>
-    <row r="786" spans="2:16">
+    <row r="786" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B786" s="59"/>
       <c r="C786" s="60"/>
       <c r="D786" s="61"/>
@@ -21232,7 +21232,7 @@
       <c r="O786" s="68"/>
       <c r="P786" s="69"/>
     </row>
-    <row r="787" spans="2:16">
+    <row r="787" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B787" s="59"/>
       <c r="C787" s="60"/>
       <c r="D787" s="61"/>
@@ -21249,7 +21249,7 @@
       <c r="O787" s="68"/>
       <c r="P787" s="69"/>
     </row>
-    <row r="788" spans="2:16">
+    <row r="788" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B788" s="59"/>
       <c r="C788" s="60"/>
       <c r="D788" s="61"/>
@@ -21266,7 +21266,7 @@
       <c r="O788" s="68"/>
       <c r="P788" s="69"/>
     </row>
-    <row r="789" spans="2:16">
+    <row r="789" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B789" s="59"/>
       <c r="C789" s="60"/>
       <c r="D789" s="61"/>
@@ -21283,7 +21283,7 @@
       <c r="O789" s="68"/>
       <c r="P789" s="69"/>
     </row>
-    <row r="790" spans="2:16">
+    <row r="790" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B790" s="59"/>
       <c r="C790" s="60"/>
       <c r="D790" s="61"/>
@@ -21300,7 +21300,7 @@
       <c r="O790" s="68"/>
       <c r="P790" s="69"/>
     </row>
-    <row r="791" spans="2:16">
+    <row r="791" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B791" s="59"/>
       <c r="C791" s="60"/>
       <c r="D791" s="61"/>
@@ -21317,7 +21317,7 @@
       <c r="O791" s="68"/>
       <c r="P791" s="69"/>
     </row>
-    <row r="792" spans="2:16">
+    <row r="792" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B792" s="59"/>
       <c r="C792" s="60"/>
       <c r="D792" s="61"/>
@@ -21759,11 +21759,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="6" max="6" width="44.83203125" customWidth="1"/>
@@ -21788,8 +21788,8 @@
     <col min="48" max="48" width="52.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" ht="17" thickBot="1"/>
-    <row r="2" spans="2:48" ht="17" thickBot="1">
+    <row r="1" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="92" t="s">
         <v>519</v>
       </c>
@@ -21887,7 +21887,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="2:48">
+    <row r="3" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B3" s="91" t="s">
         <v>498</v>
       </c>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="AV3" s="93"/>
     </row>
-    <row r="4" spans="2:48">
+    <row r="4" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>28</v>
       </c>
@@ -21990,7 +21990,7 @@
       <c r="R4" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="109">
         <v>283</v>
       </c>
       <c r="U4" s="93" t="s">
@@ -22051,7 +22051,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="5" spans="2:48">
+    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>78</v>
       </c>
@@ -22141,7 +22141,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="5"/>
     </row>
-    <row r="6" spans="2:48">
+    <row r="6" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>90</v>
       </c>
@@ -22227,7 +22227,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="5"/>
     </row>
-    <row r="7" spans="2:48">
+    <row r="7" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>46</v>
       </c>
@@ -22313,7 +22313,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="5"/>
     </row>
-    <row r="8" spans="2:48">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>47</v>
       </c>
@@ -22399,7 +22399,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="5"/>
     </row>
-    <row r="9" spans="2:48">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>77</v>
       </c>
@@ -22473,7 +22473,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="5"/>
     </row>
-    <row r="10" spans="2:48">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>39</v>
       </c>
@@ -22547,7 +22547,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="5"/>
     </row>
-    <row r="11" spans="2:48">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>40</v>
       </c>
@@ -22617,7 +22617,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12" spans="2:48">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>216</v>
       </c>
@@ -22687,7 +22687,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="2:48">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>377</v>
       </c>
@@ -22753,7 +22753,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="5"/>
     </row>
-    <row r="14" spans="2:48">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="E14" s="3">
@@ -22811,7 +22811,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="5"/>
     </row>
-    <row r="15" spans="2:48">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="E15" s="3">
@@ -22869,7 +22869,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="2:48">
+    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="E16" s="3">
@@ -22923,7 +22923,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17" spans="2:48">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="E17" s="3">
@@ -22973,7 +22973,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="5"/>
     </row>
-    <row r="18" spans="2:48">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="E18" s="3">
@@ -23023,7 +23023,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="5"/>
     </row>
-    <row r="19" spans="2:48">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="E19" s="3">
@@ -23073,7 +23073,7 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="2:48">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="E20" s="3">
@@ -23123,7 +23123,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21" spans="2:48">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="E21" s="3">
@@ -23176,7 +23176,7 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="5"/>
     </row>
-    <row r="22" spans="2:48">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="E22" s="3">
@@ -23226,7 +23226,7 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="5"/>
     </row>
-    <row r="23" spans="2:48">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="E23" s="3">
@@ -23276,7 +23276,7 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="5"/>
     </row>
-    <row r="24" spans="2:48">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="E24" s="3">
@@ -23326,7 +23326,7 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="5"/>
     </row>
-    <row r="25" spans="2:48">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
       <c r="E25" s="3">
@@ -23372,7 +23372,7 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="5"/>
     </row>
-    <row r="26" spans="2:48">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="E26" s="3">
@@ -23413,7 +23413,7 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="5"/>
     </row>
-    <row r="27" spans="2:48">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
       <c r="E27" s="3">
@@ -23454,7 +23454,7 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="5"/>
     </row>
-    <row r="28" spans="2:48">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
       <c r="E28" s="3">
@@ -23495,7 +23495,7 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="5"/>
     </row>
-    <row r="29" spans="2:48">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
       <c r="E29" s="3">
@@ -23536,7 +23536,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="5"/>
     </row>
-    <row r="30" spans="2:48">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
       <c r="E30" s="3">
@@ -23577,7 +23577,7 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="5"/>
     </row>
-    <row r="31" spans="2:48">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
       <c r="E31" s="3">
@@ -23618,7 +23618,7 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="5"/>
     </row>
-    <row r="32" spans="2:48">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="5"/>
       <c r="E32" s="3">
@@ -23659,7 +23659,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="5"/>
     </row>
-    <row r="33" spans="2:48">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="E33" s="3">
@@ -23700,7 +23700,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="5"/>
     </row>
-    <row r="34" spans="2:48">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="5"/>
       <c r="E34" s="3">
@@ -23741,7 +23741,7 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="5"/>
     </row>
-    <row r="35" spans="2:48">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
       <c r="E35" s="3">
@@ -23782,7 +23782,7 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="5"/>
     </row>
-    <row r="36" spans="2:48">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="5"/>
       <c r="E36" s="3">
@@ -23823,7 +23823,7 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="5"/>
     </row>
-    <row r="37" spans="2:48">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
       <c r="E37" s="3">
@@ -23864,7 +23864,7 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="5"/>
     </row>
-    <row r="38" spans="2:48">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="E38" s="3">
@@ -23902,7 +23902,7 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="5"/>
     </row>
-    <row r="39" spans="2:48">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="5"/>
       <c r="E39" s="3">
@@ -23940,7 +23940,7 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="5"/>
     </row>
-    <row r="40" spans="2:48">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="E40" s="3">
@@ -23978,7 +23978,7 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="5"/>
     </row>
-    <row r="41" spans="2:48">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="5"/>
       <c r="E41" s="3">
@@ -24019,7 +24019,7 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="5"/>
     </row>
-    <row r="42" spans="2:48">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="5"/>
       <c r="E42" s="3">
@@ -24060,7 +24060,7 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="5"/>
     </row>
-    <row r="43" spans="2:48">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="E43" s="3"/>
@@ -24097,7 +24097,7 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="5"/>
     </row>
-    <row r="44" spans="2:48">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="E44" s="3"/>
@@ -24134,7 +24134,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="5"/>
     </row>
-    <row r="45" spans="2:48">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="E45" s="3"/>
@@ -24171,7 +24171,7 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="5"/>
     </row>
-    <row r="46" spans="2:48">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="E46" s="3"/>
@@ -24208,7 +24208,7 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="5"/>
     </row>
-    <row r="47" spans="2:48">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="E47" s="3"/>
@@ -24245,7 +24245,7 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="5"/>
     </row>
-    <row r="48" spans="2:48">
+    <row r="48" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="E48" s="3"/>
@@ -24282,7 +24282,7 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="5"/>
     </row>
-    <row r="49" spans="2:48">
+    <row r="49" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="E49" s="3"/>
@@ -24319,7 +24319,7 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="5"/>
     </row>
-    <row r="50" spans="2:48">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="E50" s="3"/>
@@ -24356,7 +24356,7 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="5"/>
     </row>
-    <row r="51" spans="2:48">
+    <row r="51" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="E51" s="3"/>
@@ -24393,7 +24393,7 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="5"/>
     </row>
-    <row r="52" spans="2:48">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="E52" s="3"/>
@@ -24430,7 +24430,7 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="5"/>
     </row>
-    <row r="53" spans="2:48">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="E53" s="3"/>
@@ -24464,7 +24464,7 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="5"/>
     </row>
-    <row r="54" spans="2:48">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="E54" s="3"/>
@@ -24498,7 +24498,7 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="5"/>
     </row>
-    <row r="55" spans="2:48">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="E55" s="3"/>
@@ -24532,7 +24532,7 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="5"/>
     </row>
-    <row r="56" spans="2:48">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="5"/>
       <c r="E56" s="3"/>
@@ -24569,7 +24569,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="5"/>
     </row>
-    <row r="57" spans="2:48">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
       <c r="E57" s="3"/>
@@ -24606,7 +24606,7 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="5"/>
     </row>
-    <row r="58" spans="2:48">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
       <c r="E58" s="3"/>
@@ -24643,7 +24643,7 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="5"/>
     </row>
-    <row r="59" spans="2:48">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
       <c r="E59" s="3"/>
@@ -24680,7 +24680,7 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="5"/>
     </row>
-    <row r="60" spans="2:48">
+    <row r="60" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
       <c r="E60" s="3"/>
@@ -24717,7 +24717,7 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="5"/>
     </row>
-    <row r="61" spans="2:48">
+    <row r="61" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
       <c r="E61" s="3"/>
@@ -24754,7 +24754,7 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="5"/>
     </row>
-    <row r="62" spans="2:48">
+    <row r="62" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="E62" s="3"/>
@@ -24791,7 +24791,7 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="5"/>
     </row>
-    <row r="63" spans="2:48">
+    <row r="63" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="E63" s="3"/>
@@ -24828,7 +24828,7 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="5"/>
     </row>
-    <row r="64" spans="2:48">
+    <row r="64" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="E64" s="3"/>
@@ -24865,7 +24865,7 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="5"/>
     </row>
-    <row r="65" spans="2:48">
+    <row r="65" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="E65" s="3"/>
@@ -24902,7 +24902,7 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="5"/>
     </row>
-    <row r="66" spans="2:48">
+    <row r="66" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="E66" s="3"/>
@@ -24939,7 +24939,7 @@
       <c r="AU66" s="3"/>
       <c r="AV66" s="5"/>
     </row>
-    <row r="67" spans="2:48">
+    <row r="67" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="E67" s="3"/>
@@ -24976,7 +24976,7 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="5"/>
     </row>
-    <row r="68" spans="2:48">
+    <row r="68" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B68" s="106"/>
       <c r="C68" s="106"/>
       <c r="D68" s="106"/>
@@ -25013,7 +25013,7 @@
       <c r="AI68" s="106"/>
       <c r="AJ68" s="106"/>
     </row>
-    <row r="69" spans="2:48">
+    <row r="69" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B69" s="106"/>
       <c r="C69" s="106"/>
       <c r="D69" s="106"/>
@@ -25050,7 +25050,7 @@
       <c r="AI69" s="106"/>
       <c r="AJ69" s="106"/>
     </row>
-    <row r="70" spans="2:48">
+    <row r="70" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B70" s="106"/>
       <c r="C70" s="106"/>
       <c r="D70" s="106"/>
@@ -25087,7 +25087,7 @@
       <c r="AI70" s="106"/>
       <c r="AJ70" s="106"/>
     </row>
-    <row r="71" spans="2:48">
+    <row r="71" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B71" s="106"/>
       <c r="C71" s="106"/>
       <c r="D71" s="106"/>
@@ -25124,7 +25124,7 @@
       <c r="AI71" s="106"/>
       <c r="AJ71" s="106"/>
     </row>
-    <row r="72" spans="2:48">
+    <row r="72" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B72" s="106"/>
       <c r="C72" s="106"/>
       <c r="D72" s="106"/>
@@ -25161,7 +25161,7 @@
       <c r="AI72" s="106"/>
       <c r="AJ72" s="106"/>
     </row>
-    <row r="73" spans="2:48">
+    <row r="73" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B73" s="106"/>
       <c r="C73" s="106"/>
       <c r="D73" s="106"/>
@@ -25198,7 +25198,7 @@
       <c r="AI73" s="106"/>
       <c r="AJ73" s="106"/>
     </row>
-    <row r="74" spans="2:48">
+    <row r="74" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B74" s="106"/>
       <c r="C74" s="106"/>
       <c r="D74" s="106"/>
@@ -25235,7 +25235,7 @@
       <c r="AI74" s="106"/>
       <c r="AJ74" s="106"/>
     </row>
-    <row r="75" spans="2:48">
+    <row r="75" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B75" s="106"/>
       <c r="C75" s="106"/>
       <c r="D75" s="106"/>
@@ -25272,7 +25272,7 @@
       <c r="AI75" s="106"/>
       <c r="AJ75" s="106"/>
     </row>
-    <row r="76" spans="2:48">
+    <row r="76" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B76" s="106"/>
       <c r="C76" s="106"/>
       <c r="D76" s="106"/>
@@ -25309,7 +25309,7 @@
       <c r="AI76" s="106"/>
       <c r="AJ76" s="106"/>
     </row>
-    <row r="77" spans="2:48">
+    <row r="77" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B77" s="106"/>
       <c r="C77" s="106"/>
       <c r="D77" s="106"/>
@@ -25346,7 +25346,7 @@
       <c r="AI77" s="106"/>
       <c r="AJ77" s="106"/>
     </row>
-    <row r="78" spans="2:48">
+    <row r="78" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B78" s="106"/>
       <c r="C78" s="106"/>
       <c r="D78" s="106"/>
@@ -25383,7 +25383,7 @@
       <c r="AI78" s="106"/>
       <c r="AJ78" s="106"/>
     </row>
-    <row r="79" spans="2:48">
+    <row r="79" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B79" s="106"/>
       <c r="C79" s="106"/>
       <c r="D79" s="106"/>
@@ -25420,7 +25420,7 @@
       <c r="AI79" s="106"/>
       <c r="AJ79" s="106"/>
     </row>
-    <row r="80" spans="2:48">
+    <row r="80" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
       <c r="D80" s="106"/>
@@ -25457,7 +25457,7 @@
       <c r="AI80" s="106"/>
       <c r="AJ80" s="106"/>
     </row>
-    <row r="81" spans="2:36">
+    <row r="81" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B81" s="106"/>
       <c r="C81" s="106"/>
       <c r="D81" s="106"/>
@@ -25494,7 +25494,7 @@
       <c r="AI81" s="106"/>
       <c r="AJ81" s="106"/>
     </row>
-    <row r="82" spans="2:36">
+    <row r="82" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B82" s="106"/>
       <c r="C82" s="106"/>
       <c r="D82" s="106"/>
@@ -25531,7 +25531,7 @@
       <c r="AI82" s="106"/>
       <c r="AJ82" s="106"/>
     </row>
-    <row r="83" spans="2:36">
+    <row r="83" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B83" s="106"/>
       <c r="C83" s="106"/>
       <c r="D83" s="106"/>
@@ -25568,7 +25568,7 @@
       <c r="AI83" s="106"/>
       <c r="AJ83" s="106"/>
     </row>
-    <row r="84" spans="2:36">
+    <row r="84" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B84" s="106"/>
       <c r="C84" s="106"/>
       <c r="D84" s="106"/>
@@ -25605,8 +25605,8 @@
       <c r="AI84" s="106"/>
       <c r="AJ84" s="106"/>
     </row>
-    <row r="86" spans="2:36" ht="17" thickBot="1"/>
-    <row r="87" spans="2:36" ht="17" thickBot="1">
+    <row r="86" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="97"/>
       <c r="C87" s="98"/>
       <c r="D87" s="98"/>
@@ -25643,7 +25643,7 @@
       <c r="AI87" s="118"/>
       <c r="AJ87" s="105"/>
     </row>
-    <row r="88" spans="2:36" ht="17" thickBot="1">
+    <row r="88" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="95" t="s">
         <v>497</v>
       </c>
@@ -25693,7 +25693,7 @@
       </c>
       <c r="AJ88" s="96"/>
     </row>
-    <row r="89" spans="2:36">
+    <row r="89" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B89" s="100">
         <v>627</v>
       </c>
@@ -25767,7 +25767,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="2:36">
+    <row r="90" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B90" s="100">
         <v>415</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="91" spans="2:36">
+    <row r="91" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B91" s="100">
         <v>13</v>
       </c>
@@ -25915,7 +25915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="2:36">
+    <row r="92" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B92" s="100">
         <v>200</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="93" spans="2:36">
+    <row r="93" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B93" s="100">
         <v>594</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="2:36">
+    <row r="94" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B94" s="100">
         <v>16</v>
       </c>
@@ -26137,7 +26137,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="2:36">
+    <row r="95" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B95" s="100">
         <v>15</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="2:36">
+    <row r="96" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
       <c r="C96" s="5"/>
       <c r="E96" s="100">
@@ -26279,7 +26279,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="97" spans="2:36">
+    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="5"/>
       <c r="E97" s="100">
@@ -26349,7 +26349,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="2:36">
+    <row r="98" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B98" s="3"/>
       <c r="C98" s="5"/>
       <c r="E98" s="3" t="s">
@@ -26417,7 +26417,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="99" spans="2:36">
+    <row r="99" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B99" s="3"/>
       <c r="C99" s="5"/>
       <c r="E99" s="100">
@@ -26477,7 +26477,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="100" spans="2:36">
+    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
       <c r="E100" s="100">
@@ -26547,7 +26547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:36">
+    <row r="101" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B101" s="3"/>
       <c r="C101" s="5"/>
       <c r="E101" s="100">
@@ -26615,7 +26615,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="102" spans="2:36">
+    <row r="102" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
       <c r="E102" s="100">
@@ -26685,7 +26685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:36">
+    <row r="103" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
       <c r="E103" s="100">
@@ -26751,7 +26751,7 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="5"/>
     </row>
-    <row r="104" spans="2:36">
+    <row r="104" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B104" s="3"/>
       <c r="C104" s="5"/>
       <c r="E104" s="100">
@@ -26817,7 +26817,7 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="5"/>
     </row>
-    <row r="105" spans="2:36">
+    <row r="105" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B105" s="3"/>
       <c r="C105" s="5"/>
       <c r="E105" s="100">
@@ -26881,7 +26881,7 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="5"/>
     </row>
-    <row r="106" spans="2:36">
+    <row r="106" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B106" s="3"/>
       <c r="C106" s="5"/>
       <c r="E106" s="100">
@@ -26943,7 +26943,7 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="5"/>
     </row>
-    <row r="107" spans="2:36">
+    <row r="107" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B107" s="3"/>
       <c r="C107" s="5"/>
       <c r="E107" s="3" t="s">
@@ -27007,7 +27007,7 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="5"/>
     </row>
-    <row r="108" spans="2:36">
+    <row r="108" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B108" s="3"/>
       <c r="C108" s="5"/>
       <c r="E108" s="100">
@@ -27069,7 +27069,7 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="5"/>
     </row>
-    <row r="109" spans="2:36">
+    <row r="109" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B109" s="3"/>
       <c r="C109" s="5"/>
       <c r="E109" s="100">
@@ -27131,7 +27131,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="5"/>
     </row>
-    <row r="110" spans="2:36">
+    <row r="110" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B110" s="3"/>
       <c r="C110" s="5"/>
       <c r="E110" s="100">
@@ -27193,7 +27193,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="5"/>
     </row>
-    <row r="111" spans="2:36">
+    <row r="111" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B111" s="3"/>
       <c r="C111" s="5"/>
       <c r="E111" s="100">
@@ -27249,7 +27249,7 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="5"/>
     </row>
-    <row r="112" spans="2:36">
+    <row r="112" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B112" s="3"/>
       <c r="C112" s="5"/>
       <c r="E112" s="100">
@@ -27307,7 +27307,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="5"/>
     </row>
-    <row r="113" spans="2:36">
+    <row r="113" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B113" s="3"/>
       <c r="C113" s="5"/>
       <c r="E113" s="100">
@@ -27357,7 +27357,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="5"/>
     </row>
-    <row r="114" spans="2:36">
+    <row r="114" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B114" s="3"/>
       <c r="C114" s="5"/>
       <c r="E114" s="100">
@@ -27403,7 +27403,7 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="5"/>
     </row>
-    <row r="115" spans="2:36">
+    <row r="115" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B115" s="3"/>
       <c r="C115" s="5"/>
       <c r="E115" s="100">
@@ -27446,7 +27446,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="5"/>
     </row>
-    <row r="116" spans="2:36">
+    <row r="116" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B116" s="3"/>
       <c r="C116" s="5"/>
       <c r="E116" s="3"/>
@@ -27484,7 +27484,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="5"/>
     </row>
-    <row r="117" spans="2:36">
+    <row r="117" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B117" s="3"/>
       <c r="C117" s="5"/>
       <c r="E117" s="3"/>
@@ -27522,7 +27522,7 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="5"/>
     </row>
-    <row r="118" spans="2:36">
+    <row r="118" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B118" s="3"/>
       <c r="C118" s="5"/>
       <c r="E118" s="3"/>
@@ -27560,7 +27560,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="5"/>
     </row>
-    <row r="119" spans="2:36">
+    <row r="119" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B119" s="3"/>
       <c r="C119" s="5"/>
       <c r="E119" s="3"/>
@@ -27598,7 +27598,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="5"/>
     </row>
-    <row r="120" spans="2:36">
+    <row r="120" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B120" s="3"/>
       <c r="C120" s="5"/>
       <c r="E120" s="3"/>
@@ -27632,7 +27632,7 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="5"/>
     </row>
-    <row r="121" spans="2:36">
+    <row r="121" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B121" s="3"/>
       <c r="C121" s="5"/>
       <c r="E121" s="3"/>
@@ -27662,7 +27662,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="5"/>
     </row>
-    <row r="122" spans="2:36">
+    <row r="122" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B122" s="3"/>
       <c r="C122" s="5"/>
       <c r="E122" s="3"/>
@@ -27692,7 +27692,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="5"/>
     </row>
-    <row r="123" spans="2:36">
+    <row r="123" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B123" s="3"/>
       <c r="C123" s="5"/>
       <c r="E123" s="3"/>
@@ -27718,7 +27718,7 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="5"/>
     </row>
-    <row r="124" spans="2:36">
+    <row r="124" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B124" s="3"/>
       <c r="C124" s="5"/>
       <c r="E124" s="3"/>
@@ -27744,7 +27744,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="5"/>
     </row>
-    <row r="125" spans="2:36">
+    <row r="125" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B125" s="3"/>
       <c r="C125" s="5"/>
       <c r="E125" s="3"/>
@@ -27770,7 +27770,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="5"/>
     </row>
-    <row r="126" spans="2:36">
+    <row r="126" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B126" s="3"/>
       <c r="C126" s="5"/>
       <c r="E126" s="3"/>
@@ -27796,7 +27796,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="5"/>
     </row>
-    <row r="127" spans="2:36">
+    <row r="127" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B127" s="3"/>
       <c r="C127" s="5"/>
       <c r="E127" s="3"/>
@@ -27822,7 +27822,7 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="5"/>
     </row>
-    <row r="128" spans="2:36">
+    <row r="128" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B128" s="3"/>
       <c r="C128" s="5"/>
       <c r="E128" s="3"/>
@@ -27848,7 +27848,7 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="5"/>
     </row>
-    <row r="129" spans="2:36">
+    <row r="129" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B129" s="3"/>
       <c r="C129" s="5"/>
       <c r="E129" s="3"/>
@@ -27874,7 +27874,7 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="5"/>
     </row>
-    <row r="130" spans="2:36">
+    <row r="130" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B130" s="3"/>
       <c r="C130" s="5"/>
       <c r="E130" s="3"/>
@@ -27900,7 +27900,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="5"/>
     </row>
-    <row r="131" spans="2:36">
+    <row r="131" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B131" s="3"/>
       <c r="C131" s="5"/>
       <c r="E131" s="3"/>
@@ -27926,7 +27926,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="5"/>
     </row>
-    <row r="132" spans="2:36">
+    <row r="132" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B132" s="3"/>
       <c r="C132" s="5"/>
       <c r="E132" s="3"/>
@@ -27952,7 +27952,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="5"/>
     </row>
-    <row r="133" spans="2:36">
+    <row r="133" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B133" s="3"/>
       <c r="C133" s="5"/>
       <c r="E133" s="3"/>
@@ -27978,7 +27978,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="5"/>
     </row>
-    <row r="134" spans="2:36">
+    <row r="134" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B134" s="3"/>
       <c r="C134" s="5"/>
       <c r="E134" s="3"/>
@@ -28004,7 +28004,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="5"/>
     </row>
-    <row r="135" spans="2:36">
+    <row r="135" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B135" s="3"/>
       <c r="C135" s="5"/>
       <c r="E135" s="3"/>
@@ -28030,7 +28030,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="5"/>
     </row>
-    <row r="136" spans="2:36">
+    <row r="136" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B136" s="3"/>
       <c r="C136" s="5"/>
       <c r="E136" s="3"/>
@@ -28056,7 +28056,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="5"/>
     </row>
-    <row r="137" spans="2:36">
+    <row r="137" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B137" s="3"/>
       <c r="C137" s="5"/>
       <c r="E137" s="3"/>
@@ -28082,7 +28082,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="5"/>
     </row>
-    <row r="138" spans="2:36">
+    <row r="138" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B138" s="3"/>
       <c r="C138" s="5"/>
       <c r="E138" s="3"/>
@@ -28108,7 +28108,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="5"/>
     </row>
-    <row r="139" spans="2:36">
+    <row r="139" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B139" s="3"/>
       <c r="C139" s="5"/>
       <c r="E139" s="3"/>
@@ -28134,7 +28134,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="5"/>
     </row>
-    <row r="140" spans="2:36">
+    <row r="140" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B140" s="3"/>
       <c r="C140" s="5"/>
       <c r="E140" s="3"/>
@@ -28160,7 +28160,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="5"/>
     </row>
-    <row r="141" spans="2:36">
+    <row r="141" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B141" s="3"/>
       <c r="C141" s="5"/>
       <c r="E141" s="3"/>
@@ -28186,7 +28186,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="5"/>
     </row>
-    <row r="142" spans="2:36">
+    <row r="142" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B142" s="3"/>
       <c r="C142" s="5"/>
       <c r="E142" s="3"/>
@@ -28212,7 +28212,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="5"/>
     </row>
-    <row r="143" spans="2:36">
+    <row r="143" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B143" s="3"/>
       <c r="C143" s="5"/>
       <c r="E143" s="3"/>
@@ -28238,7 +28238,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="5"/>
     </row>
-    <row r="144" spans="2:36">
+    <row r="144" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B144" s="3"/>
       <c r="C144" s="5"/>
       <c r="E144" s="3"/>
@@ -28264,7 +28264,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="5"/>
     </row>
-    <row r="145" spans="2:36">
+    <row r="145" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
       <c r="C145" s="5"/>
       <c r="E145" s="3"/>
@@ -28290,7 +28290,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="5"/>
     </row>
-    <row r="146" spans="2:36">
+    <row r="146" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
       <c r="C146" s="5"/>
       <c r="E146" s="3"/>
@@ -28316,7 +28316,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="5"/>
     </row>
-    <row r="147" spans="2:36">
+    <row r="147" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
       <c r="C147" s="5"/>
       <c r="E147" s="3"/>
@@ -28342,7 +28342,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="5"/>
     </row>
-    <row r="148" spans="2:36">
+    <row r="148" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
       <c r="C148" s="5"/>
       <c r="E148" s="3"/>
@@ -28368,7 +28368,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="5"/>
     </row>
-    <row r="149" spans="2:36">
+    <row r="149" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
       <c r="C149" s="5"/>
       <c r="E149" s="3"/>
@@ -28394,7 +28394,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="5"/>
     </row>
-    <row r="150" spans="2:36">
+    <row r="150" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
       <c r="C150" s="5"/>
       <c r="E150" s="3"/>
@@ -28420,7 +28420,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="5"/>
     </row>
-    <row r="151" spans="2:36">
+    <row r="151" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
       <c r="C151" s="5"/>
       <c r="E151" s="3"/>
@@ -28446,7 +28446,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="5"/>
     </row>
-    <row r="152" spans="2:36">
+    <row r="152" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
       <c r="C152" s="5"/>
       <c r="E152" s="3"/>
@@ -28472,7 +28472,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="5"/>
     </row>
-    <row r="153" spans="2:36">
+    <row r="153" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
       <c r="C153" s="5"/>
       <c r="E153" s="3"/>
@@ -28498,7 +28498,7 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="5"/>
     </row>
-    <row r="154" spans="2:36">
+    <row r="154" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
       <c r="C154" s="5"/>
       <c r="E154" s="3"/>
@@ -28524,7 +28524,7 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="5"/>
     </row>
-    <row r="155" spans="2:36">
+    <row r="155" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
       <c r="C155" s="5"/>
       <c r="E155" s="3"/>
@@ -28550,7 +28550,7 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="5"/>
     </row>
-    <row r="156" spans="2:36">
+    <row r="156" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
       <c r="C156" s="5"/>
       <c r="E156" s="3"/>
@@ -28576,7 +28576,7 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="5"/>
     </row>
-    <row r="157" spans="2:36">
+    <row r="157" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="C157" s="5"/>
       <c r="E157" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4680EC8-7E95-E14B-BC77-5901697BC03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1AED0-E9B3-C146-93D9-729A6FFC8430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="11100" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="4400" yWindow="13560" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="765">
   <si>
     <t>Array</t>
   </si>
@@ -2318,6 +2318,9 @@
   </si>
   <si>
     <t>Replace Elements with Greatest Element on Right Side</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity</t>
   </si>
 </sst>
 </file>
@@ -3233,6 +3236,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3243,15 +3255,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3606,27 +3609,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -3998,8 +4001,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5977,23 +5980,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8407,23 +8410,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9904,23 +9907,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11948,23 +11951,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12842,23 +12845,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13714,23 +13717,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14623,23 +14626,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15334,23 +15337,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16053,23 +16056,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16877,23 +16880,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17394,23 +17397,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18147,23 +18150,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18417,23 +18420,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18935,23 +18938,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19520,23 +19523,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19869,23 +19872,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20261,23 +20264,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21104,23 +21107,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21336,12 +21339,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21358,6 +21355,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21759,8 +21762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23390,8 +23393,12 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="5"/>
       <c r="S26" s="106"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="5"/>
+      <c r="T26" s="109">
+        <v>905</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>764</v>
+      </c>
       <c r="W26" s="3"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="106"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1AED0-E9B3-C146-93D9-729A6FFC8430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC8F0D-BFC4-964C-8967-6A1FC603350A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="13560" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="766">
   <si>
     <t>Array</t>
   </si>
@@ -2321,6 +2321,9 @@
   </si>
   <si>
     <t>Sort Array By Parity</t>
+  </si>
+  <si>
+    <t>Height Checker</t>
   </si>
 </sst>
 </file>
@@ -21762,8 +21765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="AA2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22801,8 +22804,12 @@
       <c r="AA14" s="5"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="5"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="5"/>
+      <c r="AF14" s="109">
+        <v>1051</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>765</v>
+      </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="5"/>
       <c r="AL14" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC8F0D-BFC4-964C-8967-6A1FC603350A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9E2C1-3F79-B54C-AF2B-6D3E674EF528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="13560" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="767">
   <si>
     <t>Array</t>
   </si>
@@ -2324,6 +2324,9 @@
   </si>
   <si>
     <t>Height Checker</t>
+  </si>
+  <si>
+    <t>Third Maximum Number</t>
   </si>
 </sst>
 </file>
@@ -21765,8 +21768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22866,8 +22869,12 @@
       <c r="AA15" s="5"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="5"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="5"/>
+      <c r="AF15" s="109">
+        <v>414</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="5"/>
       <c r="AL15" s="3"/>
@@ -23025,7 +23032,7 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="5"/>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="5"/>
       <c r="AR18" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9E2C1-3F79-B54C-AF2B-6D3E674EF528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7B0E9-151C-CA4E-A864-0292656C4F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="13560" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="4400" yWindow="8360" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="768">
   <si>
     <t>Array</t>
   </si>
@@ -2327,6 +2327,9 @@
   </si>
   <si>
     <t>Third Maximum Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Consecutive Ones II </t>
   </si>
 </sst>
 </file>
@@ -3242,15 +3245,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3261,6 +3255,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3615,27 +3618,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4007,8 +4010,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5986,23 +5989,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8416,23 +8419,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9913,23 +9916,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11957,23 +11960,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12851,23 +12854,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13723,23 +13726,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14632,23 +14635,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15343,23 +15346,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16062,23 +16065,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16886,23 +16889,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17403,23 +17406,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18156,23 +18159,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18426,23 +18429,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18944,23 +18947,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19529,23 +19532,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19878,23 +19881,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20270,23 +20273,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21113,23 +21116,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21345,6 +21348,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21361,12 +21370,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21768,8 +21771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23360,8 +23363,12 @@
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="5"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="5"/>
+      <c r="N25" s="109">
+        <v>487</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>767</v>
+      </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="5"/>
       <c r="T25" s="109">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7B0E9-151C-CA4E-A864-0292656C4F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F44355-DB60-F245-8235-CE3BAE54BD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="8360" windowWidth="60880" windowHeight="19400" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="16780" yWindow="7920" windowWidth="45140" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="769">
   <si>
     <t>Array</t>
   </si>
@@ -2330,6 +2330,9 @@
   </si>
   <si>
     <t xml:space="preserve">Max Consecutive Ones II </t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
   </si>
 </sst>
 </file>
@@ -21771,8 +21774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22930,8 +22933,12 @@
       <c r="AA16" s="5"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="5"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="5"/>
+      <c r="AF16" s="109">
+        <v>448</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>768</v>
+      </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="5"/>
       <c r="AL16" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F44355-DB60-F245-8235-CE3BAE54BD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428347A-2AF8-6A40-B5B1-D7BF615E88EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16780" yWindow="7920" windowWidth="45140" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="770">
   <si>
     <t>Array</t>
   </si>
@@ -2333,6 +2333,9 @@
   </si>
   <si>
     <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Maximum Depth of N-ary Tree</t>
   </si>
 </sst>
 </file>
@@ -21774,8 +21777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22907,8 +22910,12 @@
       <c r="I16" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="109">
+        <v>559</v>
+      </c>
+      <c r="L16" s="110" t="s">
+        <v>769</v>
+      </c>
       <c r="N16" s="3">
         <v>1530</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428347A-2AF8-6A40-B5B1-D7BF615E88EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006CE8C4-01C6-DB4D-985B-1165992123B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16780" yWindow="7920" windowWidth="45140" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="771">
   <si>
     <t>Array</t>
   </si>
@@ -2336,6 +2336,9 @@
   </si>
   <si>
     <t>Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>Employee Importance</t>
   </si>
 </sst>
 </file>
@@ -21778,7 +21781,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22972,8 +22975,12 @@
       <c r="I17" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="109">
+        <v>690</v>
+      </c>
+      <c r="L17" s="110" t="s">
+        <v>770</v>
+      </c>
       <c r="N17" s="3">
         <v>1192</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006CE8C4-01C6-DB4D-985B-1165992123B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D977B6-5555-7B4A-9C47-19F8B2A47D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16780" yWindow="7920" windowWidth="45140" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="771">
   <si>
     <t>Array</t>
   </si>
@@ -21781,7 +21781,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23029,8 +23029,12 @@
       <c r="I18" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
+      <c r="K18" s="109">
+        <v>107</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="N18" s="109">
         <v>112</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D977B6-5555-7B4A-9C47-19F8B2A47D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B81B6-E80E-304C-9E6F-DE7280A376C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="7920" windowWidth="45140" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="15200" yWindow="5500" windowWidth="38400" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="772">
   <si>
     <t>Array</t>
   </si>
@@ -2339,6 +2339,9 @@
   </si>
   <si>
     <t>Employee Importance</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -21781,7 +21784,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23083,8 +23086,12 @@
       <c r="I19" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
+      <c r="K19" s="109">
+        <v>993</v>
+      </c>
+      <c r="L19" s="110" t="s">
+        <v>771</v>
+      </c>
       <c r="N19" s="109">
         <v>113</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B81B6-E80E-304C-9E6F-DE7280A376C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CF6BD9-E84E-7A4D-BE10-CC179481FCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="5500" windowWidth="38400" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="24100" yWindow="7780" windowWidth="46380" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="773">
   <si>
     <t>Array</t>
   </si>
@@ -2342,6 +2342,9 @@
   </si>
   <si>
     <t>Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>Design Circular Queue</t>
   </si>
 </sst>
 </file>
@@ -21783,8 +21786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22162,8 +22165,12 @@
       </c>
       <c r="AR5" s="3"/>
       <c r="AS5" s="5"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="5"/>
+      <c r="AU5" s="109">
+        <v>622</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B6" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CF6BD9-E84E-7A4D-BE10-CC179481FCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4920D8-74ED-0F40-883E-7A4F0BC11BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24100" yWindow="7780" windowWidth="46380" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="22420" yWindow="7180" windowWidth="46380" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="773">
   <si>
     <t>Array</t>
   </si>
@@ -3260,6 +3260,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3270,15 +3279,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3633,27 +3633,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4025,8 +4025,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6004,23 +6004,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8434,23 +8434,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9931,23 +9931,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11975,23 +11975,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12869,23 +12869,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13741,23 +13741,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14650,23 +14650,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15361,23 +15361,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16080,23 +16080,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16904,23 +16904,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17421,23 +17421,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18174,23 +18174,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18444,23 +18444,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18962,23 +18962,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19547,23 +19547,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19896,23 +19896,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20288,23 +20288,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21131,23 +21131,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21363,12 +21363,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21385,6 +21379,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21787,7 +21787,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22255,8 +22255,12 @@
       </c>
       <c r="AR6" s="3"/>
       <c r="AS6" s="5"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="5"/>
+      <c r="AU6" s="109">
+        <v>346</v>
+      </c>
+      <c r="AV6" s="5" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B7" s="3">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4920D8-74ED-0F40-883E-7A4F0BC11BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC2D24F-D579-DD43-BC42-3889147490A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22420" yWindow="7180" windowWidth="46380" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="774">
   <si>
     <t>Array</t>
   </si>
@@ -2345,6 +2345,9 @@
   </si>
   <si>
     <t>Design Circular Queue</t>
+  </si>
+  <si>
+    <t>K-diff Pairs in an Array</t>
   </si>
 </sst>
 </file>
@@ -3260,15 +3263,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3279,6 +3273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3633,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4025,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6004,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8434,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9931,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11975,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12869,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13741,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14650,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15361,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16080,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16904,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17421,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18174,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18444,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18962,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19547,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19896,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20288,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21131,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21363,6 +21366,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21379,12 +21388,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21786,8 +21789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22477,8 +22480,12 @@
       <c r="U9" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="5"/>
+      <c r="W9" s="109">
+        <v>532</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>773</v>
+      </c>
       <c r="Z9" s="3">
         <v>329</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC2D24F-D579-DD43-BC42-3889147490A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A76CF-E50E-F64B-9E3F-26940DDFA39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22420" yWindow="7180" windowWidth="46380" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3263,6 +3263,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,15 +3282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,12 +21366,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21388,6 +21382,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21789,8 +21789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23822,7 +23822,7 @@
     <row r="35" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="5"/>
-      <c r="E35" s="3">
+      <c r="E35" s="109">
         <v>1283</v>
       </c>
       <c r="F35" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A76CF-E50E-F64B-9E3F-26940DDFA39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01DBF0C-7A96-E145-A4C4-DCF3342FB6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -3263,15 +3263,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,6 +3273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,6 +21366,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21382,12 +21388,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21789,8 +21789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22290,7 +22290,7 @@
       <c r="L7" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="109">
         <v>39</v>
       </c>
       <c r="O7" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01DBF0C-7A96-E145-A4C4-DCF3342FB6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB9E58-EE11-4D41-A35D-6C5464390C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22376,7 +22376,7 @@
       <c r="L8" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="109">
         <v>40</v>
       </c>
       <c r="O8" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB9E58-EE11-4D41-A35D-6C5464390C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7CF83-C6F5-FF4F-B17B-537ED37271C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -3263,6 +3263,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,15 +3282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,12 +21366,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21388,6 +21382,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22008,7 +22008,7 @@
       <c r="L4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="109">
         <v>78</v>
       </c>
       <c r="O4" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7CF83-C6F5-FF4F-B17B-537ED37271C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58244AC6-F93A-DB48-872C-EB0C5CAA7859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22106,7 +22106,7 @@
       <c r="L5" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="109">
         <v>90</v>
       </c>
       <c r="O5" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58244AC6-F93A-DB48-872C-EB0C5CAA7859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974AB62F-21CC-1C40-A298-B4F2DB826E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22754,7 +22754,7 @@
       <c r="L13" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="109">
         <v>131</v>
       </c>
       <c r="O13" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974AB62F-21CC-1C40-A298-B4F2DB826E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B1DA7-0D78-A948-BE45-984C4F328348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="11420" yWindow="5280" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3263,15 +3263,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,6 +3273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,6 +21366,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21382,12 +21388,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22614,7 +22614,7 @@
       <c r="L11" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="109">
         <v>46</v>
       </c>
       <c r="O11" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466B1DA7-0D78-A948-BE45-984C4F328348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A23E7-85BF-9444-9162-2E2E6D0F281F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="5280" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -3263,6 +3263,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,15 +3282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,12 +21366,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21388,6 +21382,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22684,7 +22684,7 @@
       <c r="L12" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="109">
         <v>47</v>
       </c>
       <c r="O12" s="5" t="s">
@@ -22878,7 +22878,7 @@
       <c r="L15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="109">
         <v>51</v>
       </c>
       <c r="O15" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A23E7-85BF-9444-9162-2E2E6D0F281F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDA11D-BE31-C244-9F21-7C3073E6058E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="5280" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22816,7 +22816,7 @@
       <c r="L14" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="109">
         <v>52</v>
       </c>
       <c r="O14" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDA11D-BE31-C244-9F21-7C3073E6058E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67A702-3EAC-1148-866C-AFEFA94E9619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="5280" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="39340" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3263,15 +3263,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,6 +3273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,6 +21366,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21382,12 +21388,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21789,8 +21789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22456,7 +22456,7 @@
       <c r="I9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="109">
         <v>127</v>
       </c>
       <c r="L9" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67A702-3EAC-1148-866C-AFEFA94E9619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762945BD-E728-C948-AD2F-2DE715642114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39340" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -3263,6 +3263,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,15 +3282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115" t="s">
+      <c r="B99" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="116"/>
-      <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="116"/>
-      <c r="P99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="112"/>
+      <c r="L99" s="112"/>
+      <c r="M99" s="112"/>
+      <c r="N99" s="112"/>
+      <c r="O99" s="112"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="115" t="s">
+      <c r="B209" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="116"/>
-      <c r="E209" s="116"/>
-      <c r="F209" s="116"/>
-      <c r="G209" s="116"/>
-      <c r="H209" s="116"/>
-      <c r="I209" s="116"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="116"/>
-      <c r="M209" s="116"/>
-      <c r="N209" s="116"/>
-      <c r="O209" s="116"/>
-      <c r="P209" s="117"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="113"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="115" t="s">
+      <c r="B274" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="116"/>
-      <c r="D274" s="116"/>
-      <c r="E274" s="116"/>
-      <c r="F274" s="116"/>
-      <c r="G274" s="116"/>
-      <c r="H274" s="116"/>
-      <c r="I274" s="116"/>
-      <c r="J274" s="116"/>
-      <c r="K274" s="116"/>
-      <c r="L274" s="116"/>
-      <c r="M274" s="116"/>
-      <c r="N274" s="116"/>
-      <c r="O274" s="116"/>
-      <c r="P274" s="117"/>
+      <c r="C274" s="112"/>
+      <c r="D274" s="112"/>
+      <c r="E274" s="112"/>
+      <c r="F274" s="112"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="112"/>
+      <c r="I274" s="112"/>
+      <c r="J274" s="112"/>
+      <c r="K274" s="112"/>
+      <c r="L274" s="112"/>
+      <c r="M274" s="112"/>
+      <c r="N274" s="112"/>
+      <c r="O274" s="112"/>
+      <c r="P274" s="113"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="115" t="s">
+      <c r="B364" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="116"/>
-      <c r="D364" s="116"/>
-      <c r="E364" s="116"/>
-      <c r="F364" s="116"/>
-      <c r="G364" s="116"/>
-      <c r="H364" s="116"/>
-      <c r="I364" s="116"/>
-      <c r="J364" s="116"/>
-      <c r="K364" s="116"/>
-      <c r="L364" s="116"/>
-      <c r="M364" s="116"/>
-      <c r="N364" s="116"/>
-      <c r="O364" s="116"/>
-      <c r="P364" s="117"/>
+      <c r="C364" s="112"/>
+      <c r="D364" s="112"/>
+      <c r="E364" s="112"/>
+      <c r="F364" s="112"/>
+      <c r="G364" s="112"/>
+      <c r="H364" s="112"/>
+      <c r="I364" s="112"/>
+      <c r="J364" s="112"/>
+      <c r="K364" s="112"/>
+      <c r="L364" s="112"/>
+      <c r="M364" s="112"/>
+      <c r="N364" s="112"/>
+      <c r="O364" s="112"/>
+      <c r="P364" s="113"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="115" t="s">
+      <c r="B402" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="116"/>
-      <c r="D402" s="116"/>
-      <c r="E402" s="116"/>
-      <c r="F402" s="116"/>
-      <c r="G402" s="116"/>
-      <c r="H402" s="116"/>
-      <c r="I402" s="116"/>
-      <c r="J402" s="116"/>
-      <c r="K402" s="116"/>
-      <c r="L402" s="116"/>
-      <c r="M402" s="116"/>
-      <c r="N402" s="116"/>
-      <c r="O402" s="116"/>
-      <c r="P402" s="117"/>
+      <c r="C402" s="112"/>
+      <c r="D402" s="112"/>
+      <c r="E402" s="112"/>
+      <c r="F402" s="112"/>
+      <c r="G402" s="112"/>
+      <c r="H402" s="112"/>
+      <c r="I402" s="112"/>
+      <c r="J402" s="112"/>
+      <c r="K402" s="112"/>
+      <c r="L402" s="112"/>
+      <c r="M402" s="112"/>
+      <c r="N402" s="112"/>
+      <c r="O402" s="112"/>
+      <c r="P402" s="113"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="115" t="s">
+      <c r="B440" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="116"/>
-      <c r="D440" s="116"/>
-      <c r="E440" s="116"/>
-      <c r="F440" s="116"/>
-      <c r="G440" s="116"/>
-      <c r="H440" s="116"/>
-      <c r="I440" s="116"/>
-      <c r="J440" s="116"/>
-      <c r="K440" s="116"/>
-      <c r="L440" s="116"/>
-      <c r="M440" s="116"/>
-      <c r="N440" s="116"/>
-      <c r="O440" s="116"/>
-      <c r="P440" s="117"/>
+      <c r="C440" s="112"/>
+      <c r="D440" s="112"/>
+      <c r="E440" s="112"/>
+      <c r="F440" s="112"/>
+      <c r="G440" s="112"/>
+      <c r="H440" s="112"/>
+      <c r="I440" s="112"/>
+      <c r="J440" s="112"/>
+      <c r="K440" s="112"/>
+      <c r="L440" s="112"/>
+      <c r="M440" s="112"/>
+      <c r="N440" s="112"/>
+      <c r="O440" s="112"/>
+      <c r="P440" s="113"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="115" t="s">
+      <c r="B479" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="116"/>
-      <c r="D479" s="116"/>
-      <c r="E479" s="116"/>
-      <c r="F479" s="116"/>
-      <c r="G479" s="116"/>
-      <c r="H479" s="116"/>
-      <c r="I479" s="116"/>
-      <c r="J479" s="116"/>
-      <c r="K479" s="116"/>
-      <c r="L479" s="116"/>
-      <c r="M479" s="116"/>
-      <c r="N479" s="116"/>
-      <c r="O479" s="116"/>
-      <c r="P479" s="117"/>
+      <c r="C479" s="112"/>
+      <c r="D479" s="112"/>
+      <c r="E479" s="112"/>
+      <c r="F479" s="112"/>
+      <c r="G479" s="112"/>
+      <c r="H479" s="112"/>
+      <c r="I479" s="112"/>
+      <c r="J479" s="112"/>
+      <c r="K479" s="112"/>
+      <c r="L479" s="112"/>
+      <c r="M479" s="112"/>
+      <c r="N479" s="112"/>
+      <c r="O479" s="112"/>
+      <c r="P479" s="113"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="115" t="s">
+      <c r="B506" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="116"/>
-      <c r="D506" s="116"/>
-      <c r="E506" s="116"/>
-      <c r="F506" s="116"/>
-      <c r="G506" s="116"/>
-      <c r="H506" s="116"/>
-      <c r="I506" s="116"/>
-      <c r="J506" s="116"/>
-      <c r="K506" s="116"/>
-      <c r="L506" s="116"/>
-      <c r="M506" s="116"/>
-      <c r="N506" s="116"/>
-      <c r="O506" s="116"/>
-      <c r="P506" s="117"/>
+      <c r="C506" s="112"/>
+      <c r="D506" s="112"/>
+      <c r="E506" s="112"/>
+      <c r="F506" s="112"/>
+      <c r="G506" s="112"/>
+      <c r="H506" s="112"/>
+      <c r="I506" s="112"/>
+      <c r="J506" s="112"/>
+      <c r="K506" s="112"/>
+      <c r="L506" s="112"/>
+      <c r="M506" s="112"/>
+      <c r="N506" s="112"/>
+      <c r="O506" s="112"/>
+      <c r="P506" s="113"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="115" t="s">
+      <c r="B539" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="116"/>
-      <c r="D539" s="116"/>
-      <c r="E539" s="116"/>
-      <c r="F539" s="116"/>
-      <c r="G539" s="116"/>
-      <c r="H539" s="116"/>
-      <c r="I539" s="116"/>
-      <c r="J539" s="116"/>
-      <c r="K539" s="116"/>
-      <c r="L539" s="116"/>
-      <c r="M539" s="116"/>
-      <c r="N539" s="116"/>
-      <c r="O539" s="116"/>
-      <c r="P539" s="117"/>
+      <c r="C539" s="112"/>
+      <c r="D539" s="112"/>
+      <c r="E539" s="112"/>
+      <c r="F539" s="112"/>
+      <c r="G539" s="112"/>
+      <c r="H539" s="112"/>
+      <c r="I539" s="112"/>
+      <c r="J539" s="112"/>
+      <c r="K539" s="112"/>
+      <c r="L539" s="112"/>
+      <c r="M539" s="112"/>
+      <c r="N539" s="112"/>
+      <c r="O539" s="112"/>
+      <c r="P539" s="113"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="115" t="s">
+      <c r="B577" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="116"/>
-      <c r="D577" s="116"/>
-      <c r="E577" s="116"/>
-      <c r="F577" s="116"/>
-      <c r="G577" s="116"/>
-      <c r="H577" s="116"/>
-      <c r="I577" s="116"/>
-      <c r="J577" s="116"/>
-      <c r="K577" s="116"/>
-      <c r="L577" s="116"/>
-      <c r="M577" s="116"/>
-      <c r="N577" s="116"/>
-      <c r="O577" s="116"/>
-      <c r="P577" s="117"/>
+      <c r="C577" s="112"/>
+      <c r="D577" s="112"/>
+      <c r="E577" s="112"/>
+      <c r="F577" s="112"/>
+      <c r="G577" s="112"/>
+      <c r="H577" s="112"/>
+      <c r="I577" s="112"/>
+      <c r="J577" s="112"/>
+      <c r="K577" s="112"/>
+      <c r="L577" s="112"/>
+      <c r="M577" s="112"/>
+      <c r="N577" s="112"/>
+      <c r="O577" s="112"/>
+      <c r="P577" s="113"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="115" t="s">
+      <c r="B600" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="116"/>
-      <c r="D600" s="116"/>
-      <c r="E600" s="116"/>
-      <c r="F600" s="116"/>
-      <c r="G600" s="116"/>
-      <c r="H600" s="116"/>
-      <c r="I600" s="116"/>
-      <c r="J600" s="116"/>
-      <c r="K600" s="116"/>
-      <c r="L600" s="116"/>
-      <c r="M600" s="116"/>
-      <c r="N600" s="116"/>
-      <c r="O600" s="116"/>
-      <c r="P600" s="117"/>
+      <c r="C600" s="112"/>
+      <c r="D600" s="112"/>
+      <c r="E600" s="112"/>
+      <c r="F600" s="112"/>
+      <c r="G600" s="112"/>
+      <c r="H600" s="112"/>
+      <c r="I600" s="112"/>
+      <c r="J600" s="112"/>
+      <c r="K600" s="112"/>
+      <c r="L600" s="112"/>
+      <c r="M600" s="112"/>
+      <c r="N600" s="112"/>
+      <c r="O600" s="112"/>
+      <c r="P600" s="113"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="115" t="s">
+      <c r="B637" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="116"/>
-      <c r="D637" s="116"/>
-      <c r="E637" s="116"/>
-      <c r="F637" s="116"/>
-      <c r="G637" s="116"/>
-      <c r="H637" s="116"/>
-      <c r="I637" s="116"/>
-      <c r="J637" s="116"/>
-      <c r="K637" s="116"/>
-      <c r="L637" s="116"/>
-      <c r="M637" s="116"/>
-      <c r="N637" s="116"/>
-      <c r="O637" s="116"/>
-      <c r="P637" s="117"/>
+      <c r="C637" s="112"/>
+      <c r="D637" s="112"/>
+      <c r="E637" s="112"/>
+      <c r="F637" s="112"/>
+      <c r="G637" s="112"/>
+      <c r="H637" s="112"/>
+      <c r="I637" s="112"/>
+      <c r="J637" s="112"/>
+      <c r="K637" s="112"/>
+      <c r="L637" s="112"/>
+      <c r="M637" s="112"/>
+      <c r="N637" s="112"/>
+      <c r="O637" s="112"/>
+      <c r="P637" s="113"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="115" t="s">
+      <c r="B649" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="116"/>
-      <c r="D649" s="116"/>
-      <c r="E649" s="116"/>
-      <c r="F649" s="116"/>
-      <c r="G649" s="116"/>
-      <c r="H649" s="116"/>
-      <c r="I649" s="116"/>
-      <c r="J649" s="116"/>
-      <c r="K649" s="116"/>
-      <c r="L649" s="116"/>
-      <c r="M649" s="116"/>
-      <c r="N649" s="116"/>
-      <c r="O649" s="116"/>
-      <c r="P649" s="117"/>
+      <c r="C649" s="112"/>
+      <c r="D649" s="112"/>
+      <c r="E649" s="112"/>
+      <c r="F649" s="112"/>
+      <c r="G649" s="112"/>
+      <c r="H649" s="112"/>
+      <c r="I649" s="112"/>
+      <c r="J649" s="112"/>
+      <c r="K649" s="112"/>
+      <c r="L649" s="112"/>
+      <c r="M649" s="112"/>
+      <c r="N649" s="112"/>
+      <c r="O649" s="112"/>
+      <c r="P649" s="113"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="111" t="s">
+      <c r="B675" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="112"/>
-      <c r="D675" s="112"/>
-      <c r="E675" s="112"/>
-      <c r="F675" s="112"/>
-      <c r="G675" s="112"/>
-      <c r="H675" s="112"/>
-      <c r="I675" s="112"/>
-      <c r="J675" s="112"/>
-      <c r="K675" s="112"/>
-      <c r="L675" s="112"/>
-      <c r="M675" s="112"/>
-      <c r="N675" s="112"/>
-      <c r="O675" s="112"/>
-      <c r="P675" s="113"/>
+      <c r="C675" s="115"/>
+      <c r="D675" s="115"/>
+      <c r="E675" s="115"/>
+      <c r="F675" s="115"/>
+      <c r="G675" s="115"/>
+      <c r="H675" s="115"/>
+      <c r="I675" s="115"/>
+      <c r="J675" s="115"/>
+      <c r="K675" s="115"/>
+      <c r="L675" s="115"/>
+      <c r="M675" s="115"/>
+      <c r="N675" s="115"/>
+      <c r="O675" s="115"/>
+      <c r="P675" s="116"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="111" t="s">
+      <c r="B704" s="114" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="112"/>
-      <c r="D704" s="112"/>
-      <c r="E704" s="112"/>
-      <c r="F704" s="112"/>
-      <c r="G704" s="112"/>
-      <c r="H704" s="112"/>
-      <c r="I704" s="112"/>
-      <c r="J704" s="112"/>
-      <c r="K704" s="112"/>
-      <c r="L704" s="112"/>
-      <c r="M704" s="112"/>
-      <c r="N704" s="112"/>
-      <c r="O704" s="112"/>
-      <c r="P704" s="113"/>
+      <c r="C704" s="115"/>
+      <c r="D704" s="115"/>
+      <c r="E704" s="115"/>
+      <c r="F704" s="115"/>
+      <c r="G704" s="115"/>
+      <c r="H704" s="115"/>
+      <c r="I704" s="115"/>
+      <c r="J704" s="115"/>
+      <c r="K704" s="115"/>
+      <c r="L704" s="115"/>
+      <c r="M704" s="115"/>
+      <c r="N704" s="115"/>
+      <c r="O704" s="115"/>
+      <c r="P704" s="116"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="111" t="s">
+      <c r="B721" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="112"/>
-      <c r="D721" s="112"/>
-      <c r="E721" s="112"/>
-      <c r="F721" s="112"/>
-      <c r="G721" s="112"/>
-      <c r="H721" s="112"/>
-      <c r="I721" s="112"/>
-      <c r="J721" s="112"/>
-      <c r="K721" s="112"/>
-      <c r="L721" s="112"/>
-      <c r="M721" s="112"/>
-      <c r="N721" s="112"/>
-      <c r="O721" s="112"/>
-      <c r="P721" s="113"/>
+      <c r="C721" s="115"/>
+      <c r="D721" s="115"/>
+      <c r="E721" s="115"/>
+      <c r="F721" s="115"/>
+      <c r="G721" s="115"/>
+      <c r="H721" s="115"/>
+      <c r="I721" s="115"/>
+      <c r="J721" s="115"/>
+      <c r="K721" s="115"/>
+      <c r="L721" s="115"/>
+      <c r="M721" s="115"/>
+      <c r="N721" s="115"/>
+      <c r="O721" s="115"/>
+      <c r="P721" s="116"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="111" t="s">
+      <c r="B741" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="112"/>
-      <c r="D741" s="112"/>
-      <c r="E741" s="112"/>
-      <c r="F741" s="112"/>
-      <c r="G741" s="112"/>
-      <c r="H741" s="112"/>
-      <c r="I741" s="112"/>
-      <c r="J741" s="112"/>
-      <c r="K741" s="112"/>
-      <c r="L741" s="112"/>
-      <c r="M741" s="112"/>
-      <c r="N741" s="112"/>
-      <c r="O741" s="112"/>
-      <c r="P741" s="113"/>
+      <c r="C741" s="115"/>
+      <c r="D741" s="115"/>
+      <c r="E741" s="115"/>
+      <c r="F741" s="115"/>
+      <c r="G741" s="115"/>
+      <c r="H741" s="115"/>
+      <c r="I741" s="115"/>
+      <c r="J741" s="115"/>
+      <c r="K741" s="115"/>
+      <c r="L741" s="115"/>
+      <c r="M741" s="115"/>
+      <c r="N741" s="115"/>
+      <c r="O741" s="115"/>
+      <c r="P741" s="116"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="111" t="s">
+      <c r="B782" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="112"/>
-      <c r="D782" s="112"/>
-      <c r="E782" s="112"/>
-      <c r="F782" s="112"/>
-      <c r="G782" s="112"/>
-      <c r="H782" s="112"/>
-      <c r="I782" s="112"/>
-      <c r="J782" s="112"/>
-      <c r="K782" s="112"/>
-      <c r="L782" s="112"/>
-      <c r="M782" s="112"/>
-      <c r="N782" s="112"/>
-      <c r="O782" s="112"/>
-      <c r="P782" s="113"/>
+      <c r="C782" s="115"/>
+      <c r="D782" s="115"/>
+      <c r="E782" s="115"/>
+      <c r="F782" s="115"/>
+      <c r="G782" s="115"/>
+      <c r="H782" s="115"/>
+      <c r="I782" s="115"/>
+      <c r="J782" s="115"/>
+      <c r="K782" s="115"/>
+      <c r="L782" s="115"/>
+      <c r="M782" s="115"/>
+      <c r="N782" s="115"/>
+      <c r="O782" s="115"/>
+      <c r="P782" s="116"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,12 +21366,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21388,6 +21382,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21790,7 +21790,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22370,7 +22370,7 @@
       <c r="I8" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="109">
         <v>126</v>
       </c>
       <c r="L8" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/Mission-Impossible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762945BD-E728-C948-AD2F-2DE715642114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703EE17-147E-9046-8599-74598AD3FDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39340" yWindow="460" windowWidth="24680" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="28840" yWindow="3120" windowWidth="34420" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3263,15 +3263,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,6 +3273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,27 +3636,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4028,8 +4028,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -6007,23 +6007,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="111" t="s">
+      <c r="B99" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="112"/>
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="112"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-      <c r="N99" s="112"/>
-      <c r="O99" s="112"/>
-      <c r="P99" s="113"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="116"/>
+      <c r="M99" s="116"/>
+      <c r="N99" s="116"/>
+      <c r="O99" s="116"/>
+      <c r="P99" s="117"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8437,23 +8437,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="111" t="s">
+      <c r="B209" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
-      <c r="L209" s="112"/>
-      <c r="M209" s="112"/>
-      <c r="N209" s="112"/>
-      <c r="O209" s="112"/>
-      <c r="P209" s="113"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="116"/>
+      <c r="G209" s="116"/>
+      <c r="H209" s="116"/>
+      <c r="I209" s="116"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="116"/>
+      <c r="N209" s="116"/>
+      <c r="O209" s="116"/>
+      <c r="P209" s="117"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9934,23 +9934,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="111" t="s">
+      <c r="B274" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="112"/>
-      <c r="D274" s="112"/>
-      <c r="E274" s="112"/>
-      <c r="F274" s="112"/>
-      <c r="G274" s="112"/>
-      <c r="H274" s="112"/>
-      <c r="I274" s="112"/>
-      <c r="J274" s="112"/>
-      <c r="K274" s="112"/>
-      <c r="L274" s="112"/>
-      <c r="M274" s="112"/>
-      <c r="N274" s="112"/>
-      <c r="O274" s="112"/>
-      <c r="P274" s="113"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
+      <c r="E274" s="116"/>
+      <c r="F274" s="116"/>
+      <c r="G274" s="116"/>
+      <c r="H274" s="116"/>
+      <c r="I274" s="116"/>
+      <c r="J274" s="116"/>
+      <c r="K274" s="116"/>
+      <c r="L274" s="116"/>
+      <c r="M274" s="116"/>
+      <c r="N274" s="116"/>
+      <c r="O274" s="116"/>
+      <c r="P274" s="117"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11978,23 +11978,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="111" t="s">
+      <c r="B364" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="112"/>
-      <c r="D364" s="112"/>
-      <c r="E364" s="112"/>
-      <c r="F364" s="112"/>
-      <c r="G364" s="112"/>
-      <c r="H364" s="112"/>
-      <c r="I364" s="112"/>
-      <c r="J364" s="112"/>
-      <c r="K364" s="112"/>
-      <c r="L364" s="112"/>
-      <c r="M364" s="112"/>
-      <c r="N364" s="112"/>
-      <c r="O364" s="112"/>
-      <c r="P364" s="113"/>
+      <c r="C364" s="116"/>
+      <c r="D364" s="116"/>
+      <c r="E364" s="116"/>
+      <c r="F364" s="116"/>
+      <c r="G364" s="116"/>
+      <c r="H364" s="116"/>
+      <c r="I364" s="116"/>
+      <c r="J364" s="116"/>
+      <c r="K364" s="116"/>
+      <c r="L364" s="116"/>
+      <c r="M364" s="116"/>
+      <c r="N364" s="116"/>
+      <c r="O364" s="116"/>
+      <c r="P364" s="117"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12872,23 +12872,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="111" t="s">
+      <c r="B402" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="112"/>
-      <c r="D402" s="112"/>
-      <c r="E402" s="112"/>
-      <c r="F402" s="112"/>
-      <c r="G402" s="112"/>
-      <c r="H402" s="112"/>
-      <c r="I402" s="112"/>
-      <c r="J402" s="112"/>
-      <c r="K402" s="112"/>
-      <c r="L402" s="112"/>
-      <c r="M402" s="112"/>
-      <c r="N402" s="112"/>
-      <c r="O402" s="112"/>
-      <c r="P402" s="113"/>
+      <c r="C402" s="116"/>
+      <c r="D402" s="116"/>
+      <c r="E402" s="116"/>
+      <c r="F402" s="116"/>
+      <c r="G402" s="116"/>
+      <c r="H402" s="116"/>
+      <c r="I402" s="116"/>
+      <c r="J402" s="116"/>
+      <c r="K402" s="116"/>
+      <c r="L402" s="116"/>
+      <c r="M402" s="116"/>
+      <c r="N402" s="116"/>
+      <c r="O402" s="116"/>
+      <c r="P402" s="117"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13744,23 +13744,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="111" t="s">
+      <c r="B440" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="112"/>
-      <c r="D440" s="112"/>
-      <c r="E440" s="112"/>
-      <c r="F440" s="112"/>
-      <c r="G440" s="112"/>
-      <c r="H440" s="112"/>
-      <c r="I440" s="112"/>
-      <c r="J440" s="112"/>
-      <c r="K440" s="112"/>
-      <c r="L440" s="112"/>
-      <c r="M440" s="112"/>
-      <c r="N440" s="112"/>
-      <c r="O440" s="112"/>
-      <c r="P440" s="113"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="116"/>
+      <c r="E440" s="116"/>
+      <c r="F440" s="116"/>
+      <c r="G440" s="116"/>
+      <c r="H440" s="116"/>
+      <c r="I440" s="116"/>
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+      <c r="L440" s="116"/>
+      <c r="M440" s="116"/>
+      <c r="N440" s="116"/>
+      <c r="O440" s="116"/>
+      <c r="P440" s="117"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14653,23 +14653,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="111" t="s">
+      <c r="B479" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="112"/>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
-      <c r="J479" s="112"/>
-      <c r="K479" s="112"/>
-      <c r="L479" s="112"/>
-      <c r="M479" s="112"/>
-      <c r="N479" s="112"/>
-      <c r="O479" s="112"/>
-      <c r="P479" s="113"/>
+      <c r="C479" s="116"/>
+      <c r="D479" s="116"/>
+      <c r="E479" s="116"/>
+      <c r="F479" s="116"/>
+      <c r="G479" s="116"/>
+      <c r="H479" s="116"/>
+      <c r="I479" s="116"/>
+      <c r="J479" s="116"/>
+      <c r="K479" s="116"/>
+      <c r="L479" s="116"/>
+      <c r="M479" s="116"/>
+      <c r="N479" s="116"/>
+      <c r="O479" s="116"/>
+      <c r="P479" s="117"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15364,23 +15364,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="111" t="s">
+      <c r="B506" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="112"/>
-      <c r="D506" s="112"/>
-      <c r="E506" s="112"/>
-      <c r="F506" s="112"/>
-      <c r="G506" s="112"/>
-      <c r="H506" s="112"/>
-      <c r="I506" s="112"/>
-      <c r="J506" s="112"/>
-      <c r="K506" s="112"/>
-      <c r="L506" s="112"/>
-      <c r="M506" s="112"/>
-      <c r="N506" s="112"/>
-      <c r="O506" s="112"/>
-      <c r="P506" s="113"/>
+      <c r="C506" s="116"/>
+      <c r="D506" s="116"/>
+      <c r="E506" s="116"/>
+      <c r="F506" s="116"/>
+      <c r="G506" s="116"/>
+      <c r="H506" s="116"/>
+      <c r="I506" s="116"/>
+      <c r="J506" s="116"/>
+      <c r="K506" s="116"/>
+      <c r="L506" s="116"/>
+      <c r="M506" s="116"/>
+      <c r="N506" s="116"/>
+      <c r="O506" s="116"/>
+      <c r="P506" s="117"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16083,23 +16083,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="111" t="s">
+      <c r="B539" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="112"/>
-      <c r="D539" s="112"/>
-      <c r="E539" s="112"/>
-      <c r="F539" s="112"/>
-      <c r="G539" s="112"/>
-      <c r="H539" s="112"/>
-      <c r="I539" s="112"/>
-      <c r="J539" s="112"/>
-      <c r="K539" s="112"/>
-      <c r="L539" s="112"/>
-      <c r="M539" s="112"/>
-      <c r="N539" s="112"/>
-      <c r="O539" s="112"/>
-      <c r="P539" s="113"/>
+      <c r="C539" s="116"/>
+      <c r="D539" s="116"/>
+      <c r="E539" s="116"/>
+      <c r="F539" s="116"/>
+      <c r="G539" s="116"/>
+      <c r="H539" s="116"/>
+      <c r="I539" s="116"/>
+      <c r="J539" s="116"/>
+      <c r="K539" s="116"/>
+      <c r="L539" s="116"/>
+      <c r="M539" s="116"/>
+      <c r="N539" s="116"/>
+      <c r="O539" s="116"/>
+      <c r="P539" s="117"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16907,23 +16907,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="111" t="s">
+      <c r="B577" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="112"/>
-      <c r="D577" s="112"/>
-      <c r="E577" s="112"/>
-      <c r="F577" s="112"/>
-      <c r="G577" s="112"/>
-      <c r="H577" s="112"/>
-      <c r="I577" s="112"/>
-      <c r="J577" s="112"/>
-      <c r="K577" s="112"/>
-      <c r="L577" s="112"/>
-      <c r="M577" s="112"/>
-      <c r="N577" s="112"/>
-      <c r="O577" s="112"/>
-      <c r="P577" s="113"/>
+      <c r="C577" s="116"/>
+      <c r="D577" s="116"/>
+      <c r="E577" s="116"/>
+      <c r="F577" s="116"/>
+      <c r="G577" s="116"/>
+      <c r="H577" s="116"/>
+      <c r="I577" s="116"/>
+      <c r="J577" s="116"/>
+      <c r="K577" s="116"/>
+      <c r="L577" s="116"/>
+      <c r="M577" s="116"/>
+      <c r="N577" s="116"/>
+      <c r="O577" s="116"/>
+      <c r="P577" s="117"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17424,23 +17424,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="111" t="s">
+      <c r="B600" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="112"/>
-      <c r="D600" s="112"/>
-      <c r="E600" s="112"/>
-      <c r="F600" s="112"/>
-      <c r="G600" s="112"/>
-      <c r="H600" s="112"/>
-      <c r="I600" s="112"/>
-      <c r="J600" s="112"/>
-      <c r="K600" s="112"/>
-      <c r="L600" s="112"/>
-      <c r="M600" s="112"/>
-      <c r="N600" s="112"/>
-      <c r="O600" s="112"/>
-      <c r="P600" s="113"/>
+      <c r="C600" s="116"/>
+      <c r="D600" s="116"/>
+      <c r="E600" s="116"/>
+      <c r="F600" s="116"/>
+      <c r="G600" s="116"/>
+      <c r="H600" s="116"/>
+      <c r="I600" s="116"/>
+      <c r="J600" s="116"/>
+      <c r="K600" s="116"/>
+      <c r="L600" s="116"/>
+      <c r="M600" s="116"/>
+      <c r="N600" s="116"/>
+      <c r="O600" s="116"/>
+      <c r="P600" s="117"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18177,23 +18177,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="111" t="s">
+      <c r="B637" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="112"/>
-      <c r="D637" s="112"/>
-      <c r="E637" s="112"/>
-      <c r="F637" s="112"/>
-      <c r="G637" s="112"/>
-      <c r="H637" s="112"/>
-      <c r="I637" s="112"/>
-      <c r="J637" s="112"/>
-      <c r="K637" s="112"/>
-      <c r="L637" s="112"/>
-      <c r="M637" s="112"/>
-      <c r="N637" s="112"/>
-      <c r="O637" s="112"/>
-      <c r="P637" s="113"/>
+      <c r="C637" s="116"/>
+      <c r="D637" s="116"/>
+      <c r="E637" s="116"/>
+      <c r="F637" s="116"/>
+      <c r="G637" s="116"/>
+      <c r="H637" s="116"/>
+      <c r="I637" s="116"/>
+      <c r="J637" s="116"/>
+      <c r="K637" s="116"/>
+      <c r="L637" s="116"/>
+      <c r="M637" s="116"/>
+      <c r="N637" s="116"/>
+      <c r="O637" s="116"/>
+      <c r="P637" s="117"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18447,23 +18447,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="111" t="s">
+      <c r="B649" s="115" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="112"/>
-      <c r="D649" s="112"/>
-      <c r="E649" s="112"/>
-      <c r="F649" s="112"/>
-      <c r="G649" s="112"/>
-      <c r="H649" s="112"/>
-      <c r="I649" s="112"/>
-      <c r="J649" s="112"/>
-      <c r="K649" s="112"/>
-      <c r="L649" s="112"/>
-      <c r="M649" s="112"/>
-      <c r="N649" s="112"/>
-      <c r="O649" s="112"/>
-      <c r="P649" s="113"/>
+      <c r="C649" s="116"/>
+      <c r="D649" s="116"/>
+      <c r="E649" s="116"/>
+      <c r="F649" s="116"/>
+      <c r="G649" s="116"/>
+      <c r="H649" s="116"/>
+      <c r="I649" s="116"/>
+      <c r="J649" s="116"/>
+      <c r="K649" s="116"/>
+      <c r="L649" s="116"/>
+      <c r="M649" s="116"/>
+      <c r="N649" s="116"/>
+      <c r="O649" s="116"/>
+      <c r="P649" s="117"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18965,23 +18965,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="114" t="s">
+      <c r="B675" s="111" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="115"/>
-      <c r="D675" s="115"/>
-      <c r="E675" s="115"/>
-      <c r="F675" s="115"/>
-      <c r="G675" s="115"/>
-      <c r="H675" s="115"/>
-      <c r="I675" s="115"/>
-      <c r="J675" s="115"/>
-      <c r="K675" s="115"/>
-      <c r="L675" s="115"/>
-      <c r="M675" s="115"/>
-      <c r="N675" s="115"/>
-      <c r="O675" s="115"/>
-      <c r="P675" s="116"/>
+      <c r="C675" s="112"/>
+      <c r="D675" s="112"/>
+      <c r="E675" s="112"/>
+      <c r="F675" s="112"/>
+      <c r="G675" s="112"/>
+      <c r="H675" s="112"/>
+      <c r="I675" s="112"/>
+      <c r="J675" s="112"/>
+      <c r="K675" s="112"/>
+      <c r="L675" s="112"/>
+      <c r="M675" s="112"/>
+      <c r="N675" s="112"/>
+      <c r="O675" s="112"/>
+      <c r="P675" s="113"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19550,23 +19550,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="114" t="s">
+      <c r="B704" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="115"/>
-      <c r="D704" s="115"/>
-      <c r="E704" s="115"/>
-      <c r="F704" s="115"/>
-      <c r="G704" s="115"/>
-      <c r="H704" s="115"/>
-      <c r="I704" s="115"/>
-      <c r="J704" s="115"/>
-      <c r="K704" s="115"/>
-      <c r="L704" s="115"/>
-      <c r="M704" s="115"/>
-      <c r="N704" s="115"/>
-      <c r="O704" s="115"/>
-      <c r="P704" s="116"/>
+      <c r="C704" s="112"/>
+      <c r="D704" s="112"/>
+      <c r="E704" s="112"/>
+      <c r="F704" s="112"/>
+      <c r="G704" s="112"/>
+      <c r="H704" s="112"/>
+      <c r="I704" s="112"/>
+      <c r="J704" s="112"/>
+      <c r="K704" s="112"/>
+      <c r="L704" s="112"/>
+      <c r="M704" s="112"/>
+      <c r="N704" s="112"/>
+      <c r="O704" s="112"/>
+      <c r="P704" s="113"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19899,23 +19899,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="114" t="s">
+      <c r="B721" s="111" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="115"/>
-      <c r="D721" s="115"/>
-      <c r="E721" s="115"/>
-      <c r="F721" s="115"/>
-      <c r="G721" s="115"/>
-      <c r="H721" s="115"/>
-      <c r="I721" s="115"/>
-      <c r="J721" s="115"/>
-      <c r="K721" s="115"/>
-      <c r="L721" s="115"/>
-      <c r="M721" s="115"/>
-      <c r="N721" s="115"/>
-      <c r="O721" s="115"/>
-      <c r="P721" s="116"/>
+      <c r="C721" s="112"/>
+      <c r="D721" s="112"/>
+      <c r="E721" s="112"/>
+      <c r="F721" s="112"/>
+      <c r="G721" s="112"/>
+      <c r="H721" s="112"/>
+      <c r="I721" s="112"/>
+      <c r="J721" s="112"/>
+      <c r="K721" s="112"/>
+      <c r="L721" s="112"/>
+      <c r="M721" s="112"/>
+      <c r="N721" s="112"/>
+      <c r="O721" s="112"/>
+      <c r="P721" s="113"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20291,23 +20291,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="114" t="s">
+      <c r="B741" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="115"/>
-      <c r="D741" s="115"/>
-      <c r="E741" s="115"/>
-      <c r="F741" s="115"/>
-      <c r="G741" s="115"/>
-      <c r="H741" s="115"/>
-      <c r="I741" s="115"/>
-      <c r="J741" s="115"/>
-      <c r="K741" s="115"/>
-      <c r="L741" s="115"/>
-      <c r="M741" s="115"/>
-      <c r="N741" s="115"/>
-      <c r="O741" s="115"/>
-      <c r="P741" s="116"/>
+      <c r="C741" s="112"/>
+      <c r="D741" s="112"/>
+      <c r="E741" s="112"/>
+      <c r="F741" s="112"/>
+      <c r="G741" s="112"/>
+      <c r="H741" s="112"/>
+      <c r="I741" s="112"/>
+      <c r="J741" s="112"/>
+      <c r="K741" s="112"/>
+      <c r="L741" s="112"/>
+      <c r="M741" s="112"/>
+      <c r="N741" s="112"/>
+      <c r="O741" s="112"/>
+      <c r="P741" s="113"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21134,23 +21134,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="114" t="s">
+      <c r="B782" s="111" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="115"/>
-      <c r="D782" s="115"/>
-      <c r="E782" s="115"/>
-      <c r="F782" s="115"/>
-      <c r="G782" s="115"/>
-      <c r="H782" s="115"/>
-      <c r="I782" s="115"/>
-      <c r="J782" s="115"/>
-      <c r="K782" s="115"/>
-      <c r="L782" s="115"/>
-      <c r="M782" s="115"/>
-      <c r="N782" s="115"/>
-      <c r="O782" s="115"/>
-      <c r="P782" s="116"/>
+      <c r="C782" s="112"/>
+      <c r="D782" s="112"/>
+      <c r="E782" s="112"/>
+      <c r="F782" s="112"/>
+      <c r="G782" s="112"/>
+      <c r="H782" s="112"/>
+      <c r="I782" s="112"/>
+      <c r="J782" s="112"/>
+      <c r="K782" s="112"/>
+      <c r="L782" s="112"/>
+      <c r="M782" s="112"/>
+      <c r="N782" s="112"/>
+      <c r="O782" s="112"/>
+      <c r="P782" s="113"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21366,6 +21366,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21382,12 +21388,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21789,8 +21789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22014,7 +22014,7 @@
       <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="109">
         <v>206</v>
       </c>
       <c r="R4" s="5" t="s">
